--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1326720-D59B-4650-8E27-ECBA81C8964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A13D62-6633-43FE-8C39-235FB5495396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{58B82E70-E0BD-4AFE-8814-82BA0181CA72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58B82E70-E0BD-4AFE-8814-82BA0181CA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="25">
   <si>
     <t>AR</t>
   </si>
@@ -109,6 +110,9 @@
   <si>
     <t>RF</t>
   </si>
+  <si>
+    <t>clk_window2</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +175,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +428,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -426,6 +461,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375987</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438651</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>144839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82431A72-C16C-7A26-EB06-98D9C82FACF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375987" y="6049675"/>
+          <a:ext cx="8472236" cy="7380032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375987</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171060</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>17492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8A6646-CB3B-5B32-008E-FB02EFCC46A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375987" y="13485395"/>
+          <a:ext cx="4382112" cy="3200847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399805</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>125710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67DE102-6404-063D-F1EB-52871359BCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13531579" y="4799038"/>
+          <a:ext cx="6864648" cy="11792196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,104 +919,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39FAAA-DD0E-4B4A-90EA-6CE274EE8A98}">
   <dimension ref="B3:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.3984375" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>11</v>
+      </c>
+      <c r="N3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K4" s="3">
         <v>9</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M4" s="3">
         <v>11</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N4" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4">
-        <v>11</v>
-      </c>
-      <c r="N4" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
@@ -865,14 +1035,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
@@ -892,13 +1060,11 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
@@ -917,14 +1083,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
@@ -938,7 +1102,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,7 +1121,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1140,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1159,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1178,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1199,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1220,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1239,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1258,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1277,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1296,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1315,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1334,7 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1358,7 @@
       <c r="N21" s="1"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1378,7 @@
       <c r="N22" s="1"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,15 +1460,16 @@
       <c r="N26" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="16">
+      <c r="O26" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -1313,108 +1478,111 @@
       <c r="F27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="J27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="K27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="L27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="M27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="2:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="16">
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="13" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="N28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="O28" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="11" t="s">
+      <c r="L29" s="17"/>
+      <c r="M29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O29" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>3</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -1423,30 +1591,1533 @@
       <c r="G30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="L30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="17"/>
+      <c r="N30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8FA452-8773-4B96-94B6-C0AD8A73CF67}">
+  <dimension ref="B2:X66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>11</v>
+      </c>
+      <c r="N3" s="5">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4">
+        <v>13</v>
+      </c>
+      <c r="P3" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>15</v>
+      </c>
+      <c r="R3" s="4">
+        <v>16</v>
+      </c>
+      <c r="S3" s="5">
+        <v>17</v>
+      </c>
+      <c r="T3" s="4">
+        <v>18</v>
+      </c>
+      <c r="U3" s="4">
+        <v>19</v>
+      </c>
+      <c r="V3" s="4">
+        <v>20</v>
+      </c>
+      <c r="W3" s="4">
+        <v>21</v>
+      </c>
+      <c r="X3" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25">
+        <v>2</v>
+      </c>
+      <c r="J24" s="25">
+        <v>3</v>
+      </c>
+      <c r="K24" s="25">
+        <v>4</v>
+      </c>
+      <c r="L24" s="25">
+        <v>5</v>
+      </c>
+      <c r="M24" s="25">
+        <v>6</v>
+      </c>
+      <c r="N24" s="25">
+        <v>7</v>
+      </c>
+      <c r="O24" s="25">
+        <v>8</v>
+      </c>
+      <c r="P24" s="25">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>10</v>
+      </c>
+      <c r="R24" s="25">
+        <v>11</v>
+      </c>
+      <c r="S24" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>6</v>
+      </c>
+      <c r="S45" s="3">
+        <v>7</v>
+      </c>
+      <c r="T45" s="3">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
+        <v>9</v>
+      </c>
+      <c r="V45" s="3">
+        <v>10</v>
+      </c>
+      <c r="W45" s="3">
+        <v>11</v>
+      </c>
+      <c r="X45" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="M48" s="1"/>
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+      <c r="N50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD8A0FF-54A7-4D32-8B79-2EA3263ECE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Foglio2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,88 +27,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="32">
   <si>
-    <t xml:space="preserve">CLK</t>
+    <t>CLK</t>
   </si>
   <si>
-    <t xml:space="preserve">clk_window1</t>
+    <t>clk_window1</t>
   </si>
   <si>
-    <t xml:space="preserve">AR</t>
+    <t>AR</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">AI</t>
+    <t>AI</t>
   </si>
   <si>
-    <t xml:space="preserve">BR</t>
+    <t>BR</t>
   </si>
   <si>
-    <t xml:space="preserve">BI</t>
+    <t>BI</t>
   </si>
   <si>
-    <t xml:space="preserve">WRxBR</t>
+    <t>WRxBR</t>
   </si>
   <si>
-    <t xml:space="preserve">WIxBI</t>
+    <t>WIxBI</t>
   </si>
   <si>
-    <t xml:space="preserve">WRxBI</t>
+    <t>WRxBI</t>
   </si>
   <si>
-    <t xml:space="preserve">WIxBR</t>
+    <t>WIxBR</t>
   </si>
   <si>
-    <t xml:space="preserve">2AR</t>
+    <t>2AR</t>
   </si>
   <si>
-    <t xml:space="preserve">2AI</t>
+    <t>2AI</t>
   </si>
   <si>
-    <t xml:space="preserve">S1</t>
+    <t>S1</t>
   </si>
   <si>
-    <t xml:space="preserve">S2</t>
+    <t>S2</t>
   </si>
   <si>
-    <t xml:space="preserve">S3</t>
+    <t>S3</t>
   </si>
   <si>
-    <t xml:space="preserve">S4</t>
+    <t>S4</t>
   </si>
   <si>
-    <t xml:space="preserve">S5</t>
+    <t>S5</t>
   </si>
   <si>
-    <t xml:space="preserve">S6</t>
+    <t>S6</t>
   </si>
   <si>
-    <t xml:space="preserve">A'R</t>
+    <t>A'R</t>
   </si>
   <si>
-    <t xml:space="preserve">B'R</t>
+    <t>B'R</t>
   </si>
   <si>
-    <t xml:space="preserve">A'I</t>
+    <t>A'I</t>
   </si>
   <si>
-    <t xml:space="preserve">B'I</t>
+    <t>B'I</t>
   </si>
   <si>
-    <t xml:space="preserve">RF</t>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>ck1</t>
+  </si>
+  <si>
+    <t>ck2</t>
+  </si>
+  <si>
+    <t>A'R,B'R</t>
+  </si>
+  <si>
+    <t>A'I,B'I</t>
+  </si>
+  <si>
+    <t>RX'</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,22 +138,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -134,7 +146,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,13 +155,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
@@ -189,89 +201,181 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD63"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD63"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="30">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thick">
         <color rgb="FFC00000"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thick">
-        <color theme="1" tint="0.0499"/>
-      </right>
-      <top style="thick">
-        <color theme="1" tint="0.0499"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color theme="1" tint="0.0499"/>
-      </left>
+    <border>
+      <left/>
       <right style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </left>
       <right style="thick">
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
@@ -279,12 +383,12 @@
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
@@ -292,25 +396,25 @@
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
@@ -319,214 +423,505 @@
       </right>
       <top/>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="96">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -585,39 +980,64 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFD63"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>375840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>438120</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Immagine 1" descr=""/>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="375840" y="6097320"/>
-          <a:ext cx="8046000" cy="7477200"/>
+          <a:off x="375840" y="8317796"/>
+          <a:ext cx="9094608" cy="7737972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,28 +1054,34 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>375840</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>17955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>170640</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>22636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Immagine 4" descr=""/>
+        <xdr:cNvPr id="3" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="375840" y="13633200"/>
-          <a:ext cx="4149720" cy="3243240"/>
+          <a:off x="375840" y="16128345"/>
+          <a:ext cx="4721524" cy="3354853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,28 +1098,34 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>402840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>183705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>2520</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>189825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 5" descr=""/>
+        <xdr:cNvPr id="4" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="12738240" y="5140800"/>
-          <a:ext cx="6864120" cy="11212560"/>
+          <a:off x="14717034" y="6775246"/>
+          <a:ext cx="7100603" cy="12737611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,95 +1140,148 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171530</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171890</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Immagine 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:srcRect l="0" t="0" r="8089" b="0"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="17377920" y="10951560"/>
-          <a:ext cx="6308640" cy="11212560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C15ABFA-E954-6021-152F-B3051D60FCD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1799640" y="121680"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C15ABFA-E954-6021-152F-B3051D60FCD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1793520" y="115560"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-09T11:32:44.525"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -828,7 +1313,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -852,7 +1337,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -912,331 +1397,309 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B3:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL57" activeCellId="0" sqref="AL57"/>
+    <sheetView topLeftCell="D1" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="11.43"/>
+    <col min="1" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="N2" s="76"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="76"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B4" s="75"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="76"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="76"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="76"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="76"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B8" s="75"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="76"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="76"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C12" s="70">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="D12" s="70">
+        <v>2</v>
+      </c>
+      <c r="E12" s="70">
+        <v>3</v>
+      </c>
+      <c r="F12" s="70">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G12" s="70">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H12" s="70">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I12" s="70">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J12" s="70">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K12" s="70">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L12" s="70">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M12" s="70">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N12" s="71">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H13" s="4">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J13" s="4">
         <v>8</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K13" s="4">
         <v>9</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L13" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M13" s="4">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N13" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1247,104 +1710,108 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1352,23 +1819,19 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1376,19 +1839,21 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1397,366 +1862,534 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C35" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9" t="n">
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9">
+        <v>3</v>
+      </c>
+      <c r="F35" s="9">
         <v>4</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G35" s="9">
         <v>5</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H35" s="9">
         <v>6</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I35" s="9">
         <v>7</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J35" s="9">
         <v>8</v>
       </c>
-      <c r="K26" s="9" t="n">
+      <c r="K35" s="9">
         <v>9</v>
       </c>
-      <c r="L26" s="9" t="n">
+      <c r="L35" s="9">
         <v>10</v>
       </c>
-      <c r="M26" s="9" t="n">
+      <c r="M35" s="9">
         <v>11</v>
       </c>
-      <c r="N26" s="9" t="n">
+      <c r="N35" s="9">
         <v>12</v>
       </c>
-      <c r="O26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10" t="n">
+    </row>
+    <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="10">
         <v>0</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="10" t="n">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L37" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M37" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="12" t="s">
+    </row>
+    <row r="38" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="19" t="s">
+      <c r="K38" s="20"/>
+      <c r="L38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12" t="s">
+    </row>
+    <row r="39" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I39" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K39" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="12" t="s">
+      <c r="L39" s="20"/>
+      <c r="M39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="8"/>
-    </row>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Z54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="2">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="3">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="2">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="2">
         <v>17</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="3">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="2">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="2">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="2">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="2">
         <v>22</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="2">
         <v>23</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="23" t="n">
+      <c r="D3" s="23">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23">
         <v>4</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="23">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="23">
         <v>6</v>
       </c>
-      <c r="I3" s="23" t="n">
+      <c r="I3" s="23">
         <v>7</v>
       </c>
-      <c r="J3" s="23" t="n">
+      <c r="J3" s="23">
         <v>8</v>
       </c>
-      <c r="K3" s="23" t="n">
+      <c r="K3" s="23">
         <v>9</v>
       </c>
-      <c r="L3" s="23" t="n">
+      <c r="L3" s="23">
         <v>10</v>
       </c>
-      <c r="M3" s="23" t="n">
+      <c r="M3" s="23">
         <v>11</v>
       </c>
-      <c r="N3" s="23" t="n">
+      <c r="N3" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1781,7 +2414,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +2439,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +2462,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +2481,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +2500,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +2519,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +2538,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +2557,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +2578,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +2599,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1985,7 +2618,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2637,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2656,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +2675,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2694,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2713,7 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2736,7 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2755,7 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
@@ -2164,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2173,44 +2806,44 @@
       <c r="H24" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="23" t="n">
+      <c r="I24" s="23">
         <v>1</v>
       </c>
-      <c r="J24" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="L24" s="23" t="n">
+      <c r="J24" s="23">
+        <v>2</v>
+      </c>
+      <c r="K24" s="23">
+        <v>3</v>
+      </c>
+      <c r="L24" s="23">
         <v>4</v>
       </c>
-      <c r="M24" s="23" t="n">
+      <c r="M24" s="23">
         <v>5</v>
       </c>
-      <c r="N24" s="23" t="n">
+      <c r="N24" s="23">
         <v>6</v>
       </c>
-      <c r="O24" s="23" t="n">
+      <c r="O24" s="23">
         <v>7</v>
       </c>
-      <c r="P24" s="23" t="n">
+      <c r="P24" s="23">
         <v>8</v>
       </c>
-      <c r="Q24" s="23" t="n">
+      <c r="Q24" s="23">
         <v>9</v>
       </c>
-      <c r="R24" s="23" t="n">
+      <c r="R24" s="23">
         <v>10</v>
       </c>
-      <c r="S24" s="23" t="n">
+      <c r="S24" s="23">
         <v>11</v>
       </c>
-      <c r="T24" s="23" t="n">
+      <c r="T24" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H25" s="6" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2868,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +2893,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2916,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2935,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2954,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H30" s="6" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2973,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H31" s="6" t="s">
         <v>9</v>
       </c>
@@ -2359,7 +2992,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +3011,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H33" s="6" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +3032,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +3053,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H35" s="6" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +3072,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H36" s="6" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +3091,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
@@ -2477,7 +3110,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H38" s="6" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +3129,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H39" s="6" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +3148,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H40" s="6" t="s">
         <v>18</v>
       </c>
@@ -2534,7 +3167,7 @@
       </c>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H41" s="6" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +3190,7 @@
       </c>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H42" s="6" t="s">
         <v>20</v>
       </c>
@@ -2576,7 +3209,7 @@
       </c>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H43" s="6" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +3232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.45">
       <c r="H44" s="6" t="s">
         <v>22</v>
       </c>
@@ -2618,67 +3251,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="9">
         <v>1</v>
       </c>
-      <c r="D46" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" s="9" t="n">
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9">
         <v>4</v>
       </c>
-      <c r="G46" s="9" t="n">
+      <c r="G46" s="9">
         <v>5</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="9">
         <v>6</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I46" s="9">
         <v>7</v>
       </c>
-      <c r="J46" s="9" t="n">
+      <c r="J46" s="9">
         <v>8</v>
       </c>
-      <c r="K46" s="9" t="n">
+      <c r="K46" s="9">
         <v>9</v>
       </c>
-      <c r="L46" s="9" t="n">
+      <c r="L46" s="9">
         <v>10</v>
       </c>
-      <c r="M46" s="9" t="n">
+      <c r="M46" s="9">
         <v>11</v>
       </c>
-      <c r="N46" s="9" t="n">
+      <c r="N46" s="9">
         <v>12</v>
       </c>
-      <c r="O46" s="9" t="n">
+      <c r="O46" s="9">
         <v>13</v>
       </c>
-      <c r="P46" s="9" t="n">
+      <c r="P46" s="9">
         <v>14</v>
       </c>
-      <c r="Q46" s="9" t="n">
+      <c r="Q46" s="9">
         <v>15</v>
       </c>
-      <c r="R46" s="9" t="n">
+      <c r="R46" s="9">
         <v>16</v>
       </c>
-      <c r="S46" s="9" t="n">
+      <c r="S46" s="9">
         <v>17</v>
       </c>
-      <c r="T46" s="9" t="n">
+      <c r="T46" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10" t="n">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>0</v>
       </c>
       <c r="C47" s="24"/>
@@ -2714,8 +3347,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="10" t="n">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>1</v>
       </c>
       <c r="C48" s="24"/>
@@ -2747,8 +3380,8 @@
       </c>
       <c r="N48" s="31"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="10" t="n">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2</v>
       </c>
       <c r="C49" s="36"/>
@@ -2776,8 +3409,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="10" t="n">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>3</v>
       </c>
       <c r="C50" s="36"/>
@@ -2809,8 +3442,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="10" t="n">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>4</v>
       </c>
       <c r="I51" s="25" t="s">
@@ -2846,8 +3479,8 @@
       </c>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="10" t="n">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>5</v>
       </c>
       <c r="I52" s="25"/>
@@ -2879,8 +3512,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="10" t="n">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B53" s="10">
         <v>6</v>
       </c>
       <c r="I53" s="25" t="s">
@@ -2916,8 +3549,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="10" t="n">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>7</v>
       </c>
       <c r="I54" s="40" t="s">
@@ -2950,12 +3583,2376 @@
       <c r="T54" s="31"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C0D08D-9434-47A0-9CA8-5737D7E56532}">
+  <dimension ref="A1:AG80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="123" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.46484375" defaultRowHeight="11.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="48">
+        <v>11</v>
+      </c>
+      <c r="N2" s="68">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2">
+        <v>16</v>
+      </c>
+      <c r="S2" s="48">
+        <v>17</v>
+      </c>
+      <c r="T2" s="68">
+        <v>18</v>
+      </c>
+      <c r="U2" s="2">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <v>21</v>
+      </c>
+      <c r="X2" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
+      <c r="G3" s="44">
+        <v>5</v>
+      </c>
+      <c r="H3" s="44">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>7</v>
+      </c>
+      <c r="J3" s="44">
+        <v>8</v>
+      </c>
+      <c r="K3" s="44">
+        <v>9</v>
+      </c>
+      <c r="L3" s="44">
+        <v>10</v>
+      </c>
+      <c r="M3" s="44">
+        <v>11</v>
+      </c>
+      <c r="N3" s="44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="47">
+        <v>2</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46">
+        <v>1</v>
+      </c>
+      <c r="K24" s="46">
+        <v>2</v>
+      </c>
+      <c r="L24" s="46">
+        <v>3</v>
+      </c>
+      <c r="M24" s="46">
+        <v>4</v>
+      </c>
+      <c r="N24" s="46">
+        <v>5</v>
+      </c>
+      <c r="O24" s="46">
+        <v>6</v>
+      </c>
+      <c r="P24" s="46">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>8</v>
+      </c>
+      <c r="R24" s="46">
+        <v>9</v>
+      </c>
+      <c r="S24" s="46">
+        <v>10</v>
+      </c>
+      <c r="T24" s="46">
+        <v>11</v>
+      </c>
+      <c r="U24" s="46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2">
+        <v>9</v>
+      </c>
+      <c r="L45" s="2">
+        <v>10</v>
+      </c>
+      <c r="M45" s="48">
+        <v>11</v>
+      </c>
+      <c r="N45" s="68">
+        <v>12</v>
+      </c>
+      <c r="O45" s="2">
+        <v>13</v>
+      </c>
+      <c r="P45" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>15</v>
+      </c>
+      <c r="R45" s="2">
+        <v>16</v>
+      </c>
+      <c r="S45" s="48">
+        <v>17</v>
+      </c>
+      <c r="T45" s="68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+    </row>
+    <row r="47" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="51">
+        <v>0</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="J47" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="51">
+        <v>1</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="62"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="54"/>
+    </row>
+    <row r="49" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="51">
+        <v>2</v>
+      </c>
+      <c r="C49" s="66"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="63"/>
+      <c r="H49" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="83"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="55"/>
+      <c r="N49" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="51">
+        <v>3</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="83"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="51">
+        <v>4</v>
+      </c>
+      <c r="H51" s="82"/>
+      <c r="I51" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="63"/>
+      <c r="O51" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="R51" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S51" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="T51" s="54"/>
+    </row>
+    <row r="52" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="51">
+        <v>5</v>
+      </c>
+      <c r="I52" s="61"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="53"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R52" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="S52" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="T52" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="51">
+        <v>6</v>
+      </c>
+      <c r="H53" s="81"/>
+      <c r="I53" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="63"/>
+      <c r="L53" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="S53" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="T53" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="51">
+        <v>7</v>
+      </c>
+      <c r="I54" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="63"/>
+      <c r="M54" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="63"/>
+      <c r="O54" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" s="55"/>
+      <c r="S54" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="54"/>
+    </row>
+    <row r="55" spans="1:20" ht="11.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:20" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+    </row>
+    <row r="58" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="51">
+        <v>0</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="52"/>
+      <c r="J58" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="51">
+        <v>1</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="62"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" s="54"/>
+    </row>
+    <row r="60" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="51">
+        <v>2</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="83"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M60" s="55"/>
+      <c r="N60" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="51">
+        <v>3</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="83"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M61" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="51">
+        <v>4</v>
+      </c>
+      <c r="H62" s="82"/>
+      <c r="I62" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="84"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="63"/>
+      <c r="O62" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="86"/>
+      <c r="S62" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="54"/>
+    </row>
+    <row r="63" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="51">
+        <v>5</v>
+      </c>
+      <c r="H63" s="81"/>
+      <c r="I63" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="53"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="S63" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="T63" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="51">
+        <v>6</v>
+      </c>
+      <c r="H64" s="81"/>
+      <c r="I64" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="11.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R65" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="S65" s="90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+    </row>
+    <row r="69" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="51">
+        <v>0</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="O69" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="R69" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="T69" s="64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="51">
+        <v>1</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="65"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L70" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M70" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="54"/>
+      <c r="O70" s="93"/>
+      <c r="P70" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q70" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="R70" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="S70" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="62"/>
+    </row>
+    <row r="71" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B71" s="51">
+        <v>2</v>
+      </c>
+      <c r="C71" s="66"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="55"/>
+      <c r="K71" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="O71" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="R71" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="S71" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="T71" s="67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="51">
+        <v>3</v>
+      </c>
+      <c r="C72" s="66"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="83"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="51">
+        <v>5</v>
+      </c>
+      <c r="H73" s="81"/>
+      <c r="I73" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" s="53"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R73" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="S73" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="T73" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="51">
+        <v>6</v>
+      </c>
+      <c r="H74" s="81"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="11.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="M75" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P75" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q75" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R75" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="S75" s="90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F80" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD8A0FF-54A7-4D32-8B79-2EA3263ECE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE960A4E-B76F-485A-990A-8C155EEC8BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,9 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,6 +919,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1151,8 +1158,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Input penna 8">
@@ -1171,7 +1178,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Input penna 8">
@@ -1201,6 +1208,143 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>918882</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>926006</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>128380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0184851-8AE6-0D59-C6C3-D664A76B509E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="11082618"/>
+          <a:ext cx="10238095" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>838261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>848591</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>7135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA89CD7C-B602-47BD-9E01-D242E1D41D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20477079" y="1108363"/>
+          <a:ext cx="6556603" cy="7765681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>668421</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>111044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF3F0F-4263-4690-9DBF-C395F4FC2822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26843182" y="4121727"/>
+          <a:ext cx="6556603" cy="7765681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1411,215 +1555,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="D37" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="74"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="N2" s="76"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="74"/>
+      <c r="N2" s="75"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="76"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B4" s="75"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="76"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="74"/>
+      <c r="N3" s="75"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="N4" s="75"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="76"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="74"/>
+      <c r="N5" s="75"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="76"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="74"/>
+      <c r="N6" s="75"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="76"/>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="75"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="74"/>
+      <c r="N7" s="75"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="N8" s="75"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="76"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B12" s="70" t="s">
+      <c r="B9" s="74"/>
+      <c r="N9" s="75"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="78"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="69">
         <v>1</v>
       </c>
-      <c r="D12" s="70">
-        <v>2</v>
-      </c>
-      <c r="E12" s="70">
-        <v>3</v>
-      </c>
-      <c r="F12" s="70">
+      <c r="D12" s="69">
+        <v>2</v>
+      </c>
+      <c r="E12" s="69">
+        <v>3</v>
+      </c>
+      <c r="F12" s="69">
         <v>4</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="69">
         <v>5</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <v>6</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="69">
         <v>7</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="69">
         <v>8</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="69">
         <v>9</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="69">
         <v>10</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="69">
         <v>11</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="70">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +1752,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1777,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1800,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1819,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1838,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1857,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1809,7 +1876,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1829,7 +1896,7 @@
       <c r="N21" s="6"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
@@ -1851,7 +1918,7 @@
       <c r="N22" s="6"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
@@ -1872,7 +1939,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +1958,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +1977,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
@@ -1930,7 +1997,7 @@
       <c r="N26" s="6"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
@@ -1950,7 +2017,7 @@
       <c r="N27" s="6"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
@@ -1970,7 +2037,7 @@
       <c r="N28" s="6"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +2057,7 @@
       <c r="N29" s="6"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
@@ -2014,7 +2081,7 @@
       <c r="N30" s="6"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2100,7 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
@@ -2056,7 +2123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
@@ -2075,8 +2142,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
@@ -2117,7 +2184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>0</v>
       </c>
@@ -2154,7 +2221,7 @@
       </c>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>1</v>
       </c>
@@ -2187,7 +2254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>2</v>
       </c>
@@ -2220,7 +2287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>3</v>
       </c>
@@ -2253,7 +2320,7 @@
       </c>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2269,9 +2336,9 @@
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2481,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2506,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2462,7 +2529,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2548,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2567,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2586,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2538,7 +2605,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2624,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2578,7 +2645,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2599,7 +2666,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2685,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2637,7 +2704,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2723,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2675,7 +2742,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2694,7 +2761,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -2713,7 +2780,7 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2803,7 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
@@ -2755,7 +2822,7 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2778,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
@@ -2797,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2843,7 +2910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="6" t="s">
         <v>2</v>
       </c>
@@ -2868,7 +2935,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2960,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2983,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2935,7 +3002,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
@@ -2954,7 +3021,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="6" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +3040,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="6" t="s">
         <v>9</v>
       </c>
@@ -2992,7 +3059,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
@@ -3011,7 +3078,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="6" t="s">
         <v>11</v>
       </c>
@@ -3032,7 +3099,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
@@ -3053,7 +3120,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="6" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3139,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="6" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +3158,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3177,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="6" t="s">
         <v>16</v>
       </c>
@@ -3129,7 +3196,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="6" t="s">
         <v>17</v>
       </c>
@@ -3148,7 +3215,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="6" t="s">
         <v>18</v>
       </c>
@@ -3167,7 +3234,7 @@
       </c>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="6" t="s">
         <v>19</v>
       </c>
@@ -3190,7 +3257,7 @@
       </c>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="6" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3276,7 @@
       </c>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="6" t="s">
         <v>21</v>
       </c>
@@ -3232,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="6" t="s">
         <v>22</v>
       </c>
@@ -3251,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>23</v>
       </c>
@@ -3310,7 +3377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>0</v>
       </c>
@@ -3347,7 +3414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
         <v>1</v>
       </c>
@@ -3380,7 +3447,7 @@
       </c>
       <c r="N48" s="31"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>2</v>
       </c>
@@ -3409,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
         <v>3</v>
       </c>
@@ -3442,7 +3509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>4</v>
       </c>
@@ -3479,7 +3546,7 @@
       </c>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>5</v>
       </c>
@@ -3512,7 +3579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>6</v>
       </c>
@@ -3549,7 +3616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
         <v>7</v>
       </c>
@@ -3592,13 +3659,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C0D08D-9434-47A0-9CA8-5737D7E56532}">
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="123" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.46484375" defaultRowHeight="11.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -3748,7 +3815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3782,7 +3849,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3816,7 +3883,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3848,7 +3915,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3876,7 +3943,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3904,7 +3971,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3932,7 +3999,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3960,7 +4027,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3988,7 +4055,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4018,7 +4085,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4048,7 +4115,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4076,7 +4143,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4104,7 +4171,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:33" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4132,7 +4199,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4160,7 +4227,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4188,7 +4255,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4216,7 +4283,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4248,7 +4315,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4276,7 +4343,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4308,7 +4375,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4336,7 +4403,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>2</v>
       </c>
@@ -4387,7 +4454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4421,7 +4488,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4455,7 +4522,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4487,7 +4554,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -4515,7 +4582,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4543,7 +4610,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4571,7 +4638,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4599,7 +4666,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:21" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -4627,7 +4694,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4657,7 +4724,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4687,7 +4754,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -4715,7 +4782,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4743,7 +4810,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4771,7 +4838,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4799,7 +4866,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -4827,7 +4894,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4855,7 +4922,7 @@
       </c>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4887,7 +4954,7 @@
       </c>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4915,7 +4982,7 @@
       </c>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4947,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4975,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
@@ -5034,7 +5101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:20" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -5060,7 +5127,7 @@
       <c r="S46" s="50"/>
       <c r="T46" s="50"/>
     </row>
-    <row r="47" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="51">
         <v>0</v>
       </c>
@@ -5080,7 +5147,7 @@
       <c r="H47" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="52"/>
+      <c r="I47" s="96"/>
       <c r="J47" s="53" t="s">
         <v>2</v>
       </c>
@@ -5097,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="51">
         <v>1</v>
       </c>
@@ -5130,7 +5197,7 @@
       </c>
       <c r="N48" s="54"/>
     </row>
-    <row r="49" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="51">
         <v>2</v>
       </c>
@@ -5143,10 +5210,10 @@
         <v>7</v>
       </c>
       <c r="G49" s="63"/>
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="83"/>
+      <c r="I49" s="82"/>
       <c r="J49" s="55"/>
       <c r="K49" s="59" t="s">
         <v>6</v>
@@ -5159,7 +5226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="51">
         <v>3</v>
       </c>
@@ -5174,10 +5241,10 @@
       <c r="G50" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="85" t="s">
+      <c r="H50" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="83"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="55"/>
       <c r="K50" s="53" t="s">
         <v>4</v>
@@ -5192,15 +5259,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="51">
         <v>4</v>
       </c>
-      <c r="H51" s="82"/>
-      <c r="I51" s="80" t="s">
+      <c r="H51" s="81"/>
+      <c r="I51" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="80" t="s">
+      <c r="J51" s="79" t="s">
         <v>14</v>
       </c>
       <c r="K51" s="67" t="s">
@@ -5216,7 +5283,7 @@
       <c r="O51" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="86" t="s">
+      <c r="P51" s="85" t="s">
         <v>14</v>
       </c>
       <c r="Q51" s="59" t="s">
@@ -5230,7 +5297,7 @@
       </c>
       <c r="T51" s="54"/>
     </row>
-    <row r="52" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="51">
         <v>5</v>
       </c>
@@ -5263,11 +5330,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="51">
         <v>6</v>
       </c>
-      <c r="H53" s="81"/>
+      <c r="H53" s="80"/>
       <c r="I53" s="61" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="51">
         <v>7</v>
       </c>
@@ -5319,7 +5386,7 @@
         <v>20</v>
       </c>
       <c r="N54" s="63"/>
-      <c r="O54" s="86" t="s">
+      <c r="O54" s="85" t="s">
         <v>10</v>
       </c>
       <c r="P54" s="53" t="s">
@@ -5334,8 +5401,8 @@
       </c>
       <c r="T54" s="54"/>
     </row>
-    <row r="55" spans="1:20" ht="11.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:20" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:20" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:20" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -5361,7 +5428,7 @@
       <c r="S57" s="50"/>
       <c r="T57" s="50"/>
     </row>
-    <row r="58" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="51">
         <v>0</v>
       </c>
@@ -5398,7 +5465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="51">
         <v>1</v>
       </c>
@@ -5431,7 +5498,7 @@
       </c>
       <c r="N59" s="54"/>
     </row>
-    <row r="60" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="51">
         <v>2</v>
       </c>
@@ -5444,10 +5511,10 @@
         <v>7</v>
       </c>
       <c r="G60" s="63"/>
-      <c r="H60" s="84" t="s">
+      <c r="H60" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="83"/>
+      <c r="I60" s="82"/>
       <c r="J60" s="55"/>
       <c r="K60" s="59" t="s">
         <v>6</v>
@@ -5460,7 +5527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="51">
         <v>3</v>
       </c>
@@ -5475,10 +5542,10 @@
       <c r="G61" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="85" t="s">
+      <c r="H61" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="83"/>
+      <c r="I61" s="82"/>
       <c r="J61" s="55"/>
       <c r="K61" s="53" t="s">
         <v>4</v>
@@ -5493,17 +5560,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="51">
         <v>4</v>
       </c>
-      <c r="H62" s="82"/>
-      <c r="I62" s="80" t="s">
+      <c r="H62" s="81"/>
+      <c r="I62" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="84"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="80"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="79"/>
       <c r="M62" s="61" t="s">
         <v>20</v>
       </c>
@@ -5511,19 +5578,19 @@
       <c r="O62" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="86"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="85"/>
       <c r="S62" s="53" t="s">
         <v>20</v>
       </c>
       <c r="T62" s="54"/>
     </row>
-    <row r="63" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="51">
         <v>5</v>
       </c>
-      <c r="H63" s="81"/>
+      <c r="H63" s="80"/>
       <c r="I63" s="61" t="s">
         <v>11</v>
       </c>
@@ -5557,11 +5624,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="51">
         <v>6</v>
       </c>
-      <c r="H64" s="81"/>
+      <c r="H64" s="80"/>
       <c r="I64" s="67" t="s">
         <v>10</v>
       </c>
@@ -5580,7 +5647,7 @@
       <c r="N64" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="O64" s="86" t="s">
+      <c r="O64" s="85" t="s">
         <v>10</v>
       </c>
       <c r="P64" s="54"/>
@@ -5595,37 +5662,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="11.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="90" t="s">
+    <row r="65" spans="1:20" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="90" t="s">
+      <c r="J65" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="K65" s="90" t="s">
+      <c r="K65" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="90" t="s">
+      <c r="L65" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="90" t="s">
+      <c r="M65" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="P65" s="90" t="s">
+      <c r="P65" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q65" s="90" t="s">
+      <c r="Q65" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="90" t="s">
+      <c r="R65" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S65" s="90" t="s">
+      <c r="S65" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" t="s">
+    <row r="68" spans="1:20" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="95" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="49" t="s">
@@ -5650,7 +5717,7 @@
       <c r="S68" s="50"/>
       <c r="T68" s="50"/>
     </row>
-    <row r="69" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="51">
         <v>0</v>
       </c>
@@ -5670,7 +5737,7 @@
       <c r="H69" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="80" t="s">
+      <c r="I69" s="79" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="53" t="s">
@@ -5685,7 +5752,7 @@
       <c r="M69" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="N69" s="92" t="s">
+      <c r="N69" s="91" t="s">
         <v>13</v>
       </c>
       <c r="O69" s="59" t="s">
@@ -5707,7 +5774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="51">
         <v>1</v>
       </c>
@@ -5718,7 +5785,7 @@
       <c r="E70" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="91" t="s">
+      <c r="F70" s="90" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="65"/>
@@ -5737,7 +5804,7 @@
         <v>20</v>
       </c>
       <c r="N70" s="54"/>
-      <c r="O70" s="93"/>
+      <c r="O70" s="92"/>
       <c r="P70" s="61" t="s">
         <v>5</v>
       </c>
@@ -5752,7 +5819,7 @@
       </c>
       <c r="T70" s="62"/>
     </row>
-    <row r="71" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="51">
         <v>2</v>
       </c>
@@ -5770,7 +5837,7 @@
       <c r="H71" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="80" t="s">
+      <c r="I71" s="79" t="s">
         <v>10</v>
       </c>
       <c r="J71" s="55"/>
@@ -5786,7 +5853,7 @@
       <c r="N71" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O71" s="86" t="s">
+      <c r="O71" s="85" t="s">
         <v>10</v>
       </c>
       <c r="P71" s="63"/>
@@ -5803,7 +5870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="51">
         <v>3</v>
       </c>
@@ -5818,10 +5885,10 @@
       <c r="G72" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="85" t="s">
+      <c r="H72" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="83"/>
+      <c r="I72" s="82"/>
       <c r="J72" s="55"/>
       <c r="K72" s="53" t="s">
         <v>4</v>
@@ -5845,15 +5912,15 @@
       <c r="S72" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="85" t="s">
+      <c r="T72" s="84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="51">
-        <v>5</v>
-      </c>
-      <c r="H73" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="H73" s="80"/>
       <c r="I73" s="61" t="s">
         <v>11</v>
       </c>
@@ -5887,12 +5954,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="11.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:20" ht="11.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="51">
-        <v>6</v>
-      </c>
-      <c r="H74" s="81"/>
-      <c r="I74" s="94"/>
+        <v>5</v>
+      </c>
+      <c r="H74" s="80"/>
+      <c r="I74" s="93"/>
       <c r="J74" s="61" t="s">
         <v>12</v>
       </c>
@@ -5905,7 +5972,7 @@
       <c r="M74" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="91" t="s">
+      <c r="N74" s="90" t="s">
         <v>21</v>
       </c>
       <c r="P74" s="54"/>
@@ -5920,39 +5987,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="11.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="90" t="s">
+    <row r="75" spans="1:20" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="J75" s="90" t="s">
+      <c r="J75" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="K75" s="90" t="s">
+      <c r="K75" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="L75" s="90" t="s">
+      <c r="L75" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="M75" s="90" t="s">
+      <c r="M75" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="P75" s="90" t="s">
+      <c r="P75" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q75" s="90" t="s">
+      <c r="Q75" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="90" t="s">
+      <c r="R75" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S75" s="90" t="s">
+      <c r="S75" s="89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F80" s="95"/>
+    <row r="80" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE154B7D-091F-4F00-8CA1-6F40ECA4B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Foglio2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Foglio3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,115 +27,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clk_window1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRxBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIxBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRxBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIxBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B'R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B'I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'R,B'R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'I,B'I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ck1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ck2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WixBI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="81">
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>clk_window1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>WRxBR</t>
+  </si>
+  <si>
+    <t>WIxBI</t>
+  </si>
+  <si>
+    <t>WRxBI</t>
+  </si>
+  <si>
+    <t>WIxBR</t>
+  </si>
+  <si>
+    <t>2AR</t>
+  </si>
+  <si>
+    <t>2AI</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>A'R</t>
+  </si>
+  <si>
+    <t>B'R</t>
+  </si>
+  <si>
+    <t>A'I</t>
+  </si>
+  <si>
+    <t>B'I</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>A'R,B'R</t>
+  </si>
+  <si>
+    <t>A'I,B'I</t>
+  </si>
+  <si>
+    <t>ck1</t>
+  </si>
+  <si>
+    <t>ck2</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>RX'</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>WixBI</t>
+  </si>
+  <si>
+    <t>INBUS0</t>
+  </si>
+  <si>
+    <t>INBUS1</t>
+  </si>
+  <si>
+    <t>INBUS2</t>
+  </si>
+  <si>
+    <t>INBUS3</t>
+  </si>
+  <si>
+    <t>OUTBUS0</t>
+  </si>
+  <si>
+    <t>OUTBUS1</t>
+  </si>
+  <si>
+    <t>OUTBUS2</t>
+  </si>
+  <si>
+    <t>OUTBUS3</t>
+  </si>
+  <si>
+    <t>IN0 (AR) =&gt; reg0</t>
+  </si>
+  <si>
+    <t>IN1(BR) =&gt; reg1</t>
+  </si>
+  <si>
+    <t>IN0(AI) =&gt;reg3</t>
+  </si>
+  <si>
+    <t>IN1(BI) =&gt;reg2</t>
+  </si>
+  <si>
+    <t>reg0</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>reg2</t>
+  </si>
+  <si>
+    <t>reg3</t>
+  </si>
+  <si>
+    <t>reg4</t>
+  </si>
+  <si>
+    <t>reg5</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>AB(WRxBR) =&gt;reg2</t>
+  </si>
+  <si>
+    <t>AB(WRxBI) =&gt; reg2</t>
+  </si>
+  <si>
+    <t>AB(WIxBI) =&gt;reg2</t>
+  </si>
+  <si>
+    <t>M4(S1) =&gt; reg0</t>
+  </si>
+  <si>
+    <t>AB(WIxBR)=&gt;reg2</t>
+  </si>
+  <si>
+    <t>M4(S4) =&gt; reg0</t>
+  </si>
+  <si>
+    <t>2A(AR) =&gt; reg4</t>
+  </si>
+  <si>
+    <t>2A(2AI)=&gt;reg5</t>
+  </si>
+  <si>
+    <t>R(A'R) =&gt; reg4</t>
+  </si>
+  <si>
+    <t>R(A'I)=&gt; reg5</t>
+  </si>
+  <si>
+    <t>R(B'R)=&gt;reg1</t>
+  </si>
+  <si>
+    <t>R(B'I)=&gt;reg4</t>
+  </si>
+  <si>
+    <t>in out rispetto a RF</t>
+  </si>
+  <si>
+    <t>IN1(BR) =&gt;B</t>
+  </si>
+  <si>
+    <t>IN3(BI) =&gt;B</t>
+  </si>
+  <si>
+    <t>reg2(BI)=&gt;B</t>
+  </si>
+  <si>
+    <t>WR =&gt; A</t>
+  </si>
+  <si>
+    <t>WR=&gt;A</t>
+  </si>
+  <si>
+    <t>WI =&gt;A</t>
+  </si>
+  <si>
+    <t>aggiustare datapath, So va sempre a RS</t>
+  </si>
+  <si>
+    <t>SUM(S1) =&gt; reg0</t>
+  </si>
+  <si>
+    <t>SUM(S4) =&gt; reg0</t>
+  </si>
+  <si>
+    <t>reg2(WRxBR) =&gt; BSUM</t>
+  </si>
+  <si>
+    <t>reg0(AR) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>reg1(BR)=&gt;B</t>
+  </si>
+  <si>
+    <t>reg0(AR) =&gt; A</t>
+  </si>
+  <si>
+    <t>reg2(WIxBI) =&gt; BSUB</t>
+  </si>
+  <si>
+    <t>reg0(S1) =&gt; ASUB</t>
+  </si>
+  <si>
+    <t>reg3(AI) =&gt; A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,30 +285,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,13 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7998"/>
+        <fgColor theme="6" tint="0.79979857783745845"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
@@ -219,19 +356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999"/>
+        <fgColor theme="6" tint="0.39988402966399123"/>
         <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4999"/>
+        <fgColor theme="3" tint="0.49989318521683401"/>
         <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7499"/>
+        <fgColor theme="3" tint="0.74987029633472702"/>
         <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
@@ -243,13 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999"/>
+        <fgColor theme="5" tint="0.39988402966399123"/>
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
@@ -259,16 +396,40 @@
         <bgColor rgb="FFC00000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
@@ -279,7 +440,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -288,7 +449,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF7030A0"/>
@@ -299,7 +460,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
@@ -308,7 +469,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF7030A0"/>
@@ -317,7 +478,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
@@ -328,7 +489,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -337,7 +498,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF7030A0"/>
@@ -348,87 +509,119 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thick">
         <color rgb="FFC00000"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thick">
-        <color theme="1" tint="0.0499"/>
-      </right>
-      <top style="thick">
-        <color theme="1" tint="0.0499"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color theme="1" tint="0.0499"/>
-      </left>
+    <border>
+      <left/>
       <right style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </left>
       <right style="thick">
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
@@ -436,12 +629,12 @@
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
@@ -449,25 +642,25 @@
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
@@ -476,57 +669,61 @@
       </right>
       <top/>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFC00000"/>
       </left>
       <right style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFC00000"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFC00000"/>
@@ -535,433 +732,295 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </left>
       <right style="thick">
         <color theme="1"/>
       </right>
       <top style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </top>
       <bottom style="thick">
-        <color theme="1" tint="0.0499"/>
+        <color theme="1" tint="4.9897762993255407E-2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1020,13 +1079,32 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1042,11 +1120,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Immagine 1" descr=""/>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1080,11 +1164,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Immagine 4" descr=""/>
+        <xdr:cNvPr id="3" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1118,11 +1208,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 5" descr=""/>
+        <xdr:cNvPr id="4" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1156,11 +1252,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Input penna 8" descr=""/>
+        <xdr:cNvPr id="5" name="Input penna 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1183,33 +1285,39 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>712120</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>55128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122346</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>28488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Immagine 2" descr=""/>
+        <xdr:cNvPr id="4" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="929880" y="11034720"/>
-          <a:ext cx="9785880" cy="3831120"/>
+          <a:off x="712120" y="12466492"/>
+          <a:ext cx="11039964" cy="3869951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1230,18 +1338,24 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>848520</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122022</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>11602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Immagine 5" descr=""/>
+        <xdr:cNvPr id="5" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1268,18 +1382,24 @@
       <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>668160</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1229102</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>115642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Immagine 5" descr=""/>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1298,58 +1418,1566 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346089</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>119212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>524011</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66446</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Input penna 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD21C19-EB8A-A0DD-E258-4A41A8E0C462}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4675634" y="12864728"/>
+            <a:ext cx="173160" cy="85680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Input penna 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD21C19-EB8A-A0DD-E258-4A41A8E0C462}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4669514" y="12858608"/>
+              <a:ext cx="185400" cy="97920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>442702</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>92932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447824</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>93292</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Input penna 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780AEA21-F2E8-1A93-1259-59BA7AEE3687}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5854634" y="12838448"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Input penna 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780AEA21-F2E8-1A93-1259-59BA7AEE3687}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5848514" y="12832328"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>775435</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>46924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1010155</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>77678</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3332570D-271E-2327-4116-F4F911724592}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4022594" y="13651688"/>
+            <a:ext cx="234720" cy="169200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3332570D-271E-2327-4116-F4F911724592}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4016474" y="13645568"/>
+              <a:ext cx="246960" cy="181440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>372729</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>6244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>532929</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>113164</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Input penna 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C1FBC-6380-32B4-3752-5F3E1B3C8B2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4702274" y="13611008"/>
+            <a:ext cx="160200" cy="106920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Input penna 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C1FBC-6380-32B4-3752-5F3E1B3C8B2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4696168" y="13604888"/>
+              <a:ext cx="172413" cy="119160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12996</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>103372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197758</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>94166</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Input penna 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986542D-55A1-E17E-C0AF-68E7CF3DD474}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6507314" y="13564928"/>
+            <a:ext cx="180000" cy="129240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Input penna 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986542D-55A1-E17E-C0AF-68E7CF3DD474}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6501194" y="13558808"/>
+              <a:ext cx="192240" cy="141480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>702396</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>72412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>925678</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>77164</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Input penna 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858A1CA8-7109-C499-134E-F8F88DF5326D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7196714" y="13533968"/>
+            <a:ext cx="218520" cy="147960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Input penna 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858A1CA8-7109-C499-134E-F8F88DF5326D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7190594" y="13527833"/>
+              <a:ext cx="230760" cy="160230"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283015</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>36556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475615</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>49587</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Input penna 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3171DAAB-8607-4F30-3F95-A55CFD58B808}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6777333" y="15216608"/>
+            <a:ext cx="192600" cy="156240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Input penna 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3171DAAB-8607-4F30-3F95-A55CFD58B808}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6771213" y="15210502"/>
+              <a:ext cx="204840" cy="168452"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425909</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>125875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504471</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>77797</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Input penna 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E6E9A7-6E16-2B08-9C1E-0D77BECDA035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10197360" y="14393392"/>
+            <a:ext cx="78562" cy="91800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Input penna 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E6E9A7-6E16-2B08-9C1E-0D77BECDA035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10191234" y="14387248"/>
+              <a:ext cx="90815" cy="104088"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592498</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>78005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>759816</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>83927</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Input penna 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F18FA7-5AEA-E0A8-B7FE-846856DA29F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6021082" y="14345522"/>
+            <a:ext cx="167318" cy="145800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Input penna 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F18FA7-5AEA-E0A8-B7FE-846856DA29F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6014965" y="14339402"/>
+              <a:ext cx="179552" cy="158040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>725616</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>21205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742896</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>26605</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="30" name="Input penna 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D11EBF-6C78-B119-A426-E0725F19C27F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6154200" y="14428600"/>
+            <a:ext cx="17280" cy="5400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="Input penna 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D11EBF-6C78-B119-A426-E0725F19C27F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6148080" y="14422480"/>
+              <a:ext cx="29520" cy="17640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533103</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>64325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>743147</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>27047</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Input penna 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF53EE2-4F76-2A5F-81C1-44002DF78DAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8133120" y="14331842"/>
+            <a:ext cx="205282" cy="102600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Input penna 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF53EE2-4F76-2A5F-81C1-44002DF78DAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8126987" y="14325722"/>
+              <a:ext cx="217548" cy="114840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312696</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>40391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>532018</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>58357</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Input penna 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB8E4B5-50AE-0FFA-A532-307F231213C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5741280" y="13608520"/>
+            <a:ext cx="214560" cy="153082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Input penna 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB8E4B5-50AE-0FFA-A532-307F231213C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5735150" y="13602411"/>
+              <a:ext cx="226821" cy="165300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353059</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>131553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638981</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>134513</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Input penna 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A6FE93-BB3B-B427-4F69-A78A5C1F18A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6867360" y="13699682"/>
+            <a:ext cx="285922" cy="142838"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Input penna 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A6FE93-BB3B-B427-4F69-A78A5C1F18A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6861238" y="13693550"/>
+              <a:ext cx="298166" cy="155102"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952099</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>132191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1050101</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>58913</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="50" name="Input penna 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3CD629-C470-B8CC-5BBF-2BDA0385FDB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7466400" y="13700320"/>
+            <a:ext cx="98002" cy="66600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Input penna 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3CD629-C470-B8CC-5BBF-2BDA0385FDB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7460065" y="13694200"/>
+              <a:ext cx="110671" cy="78840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1074499</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>27593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1189143</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85275</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Input penna 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B51B8E-16D9-FABA-C418-C0EC26C8837D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7588800" y="13735600"/>
+            <a:ext cx="109882" cy="57682"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Input penna 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B51B8E-16D9-FABA-C418-C0EC26C8837D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7582675" y="13728974"/>
+              <a:ext cx="122131" cy="70933"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>817225</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104865</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95797</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Input penna 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BACDE61-393A-8FCE-7550-3E6511C8FD26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8417242" y="13663960"/>
+            <a:ext cx="287640" cy="135082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Input penna 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BACDE61-393A-8FCE-7550-3E6511C8FD26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8411122" y="13657853"/>
+              <a:ext cx="299880" cy="147297"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:06:41.979"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2 24575,'55'-1'0,"0"0"0,-1 2 0,99 15 0,-144-14 0,0 0 0,0 1 0,0 0 0,-1 0 0,11 6 0,-15-6 0,1-1 0,-1 2 0,0-1 0,0 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,1 1 0,3 6 0,0 2 0,0 0 0,0 0 0,-2 0 0,0 1 0,0 0 0,-1 0 0,3 23 0,-6-35-124,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,1 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:33:42.473"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'3'0'0,"1"-3"0,6-1 0,5 0 0,0 1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:33:45.810"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">165 20 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-22-9 0,17 9 0,-1-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 1 0,0-1 0,-6 3 0,9-2 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,3 5 0,0-4 0,-1 0 0,1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0-1 0,-1 1 0,10 1 0,-6 0 0,0-1 0,0 2 0,0-1 0,0 1 0,13 10 0,-21-14 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1 0,1-1 0,-1 3 0,0-2 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-2 1 0,-6 1-14,0 1 1,0-1-1,0-1 0,-1 0 1,1 0-1,-1-1 0,1 0 0,-1-1 1,0 0-1,1-1 0,-11-2 0,-16 1-1186,21 2-5626</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2082.56">419 136 24575,'-8'45'0,"6"-39"0,0 1 0,0 0 0,1-1 0,0 1 0,1 0 0,-1 0 0,2 10 0,-1-15 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,3-1 0,0 0-45,0 1-1,1-1 1,-1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 0-1,0-1 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,0 0 0,-1 1 1,1-1-1,1-8 1,-2-2-6781</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:33:50.143"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 221 24575,'0'-7'0,"1"-1"0,0 1 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,8-9 0,7-8 0,33-35 0,-26 33 0,-25 25 2,1-1-1,0 1 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,0 1-1,0-1 1,0 0-1,-1 0 0,1 0 1,-1 1-1,1 1 1,6 11-138,0 1 0,-2-1 1,8 29-1,-7-21-761,0-2-5929</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="989.11">88 141 24575,'3'0'0,"1"-3"0,3-1 0,4 0 0,3-3 0,2 1 0,1 1 0,2 1 0,0 1 0,0 2 0,-3-3 0,-4 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2477.97">390 178 24575,'-2'1'0,"0"-1"0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 3 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,6 8 0,-6-11 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0 3 0,0-4 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-4-1 0,-26-6-1365,17 4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4017.69">556 309 24575,'-15'-1'0,"0"1"0,-1 0 0,0 0 0,0 2 0,-19 3 0,33-5 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,3 2 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0-1 0,-1 1 0,1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,4 0 0,-4 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,2-4 0,-1-9-1365,-2 2-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:33:56.054"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 74 24575,'3'0'0,"1"3"0,0 4 0,0 4 0,-2 7 0,-1 3 0,0 1 0,-1 0 0,0-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.58">13 74 24575,'-1'-1'0,"0"0"0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-2 0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-3 0,0 2 0,-1-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,5 0 0,-9 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-2 2 0,-1 3 0,1 0 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0-1 0,0 1 0,-7 7 0,11-13 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,49 5 0,-17-3 0,-33-2 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,-3 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,-13 3 0,-35-2-1365,38-4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.77">481 135 24575,'0'-2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-2 0,-40-15 0,36 16 0,0 1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-12 3 0,20-3 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 2 0,2-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,2 1 0,2 1 0,-1 1 0,1-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,10 2 0,-9-2 0,1 1 0,0 0 0,-1 0 0,16 9 0,-22-11 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 5 0,-2-6-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,-1 0 23,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-6 0 0,-2 0-268,-1-1 1,1 0-1,-1-1 1,1 0-1,-18-7 1,9 1-6579</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5946.85">661 245 24575,'-1'2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,-11 8 0,15-8 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 2 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 0 0,-5-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,9-6 0,-12 7 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,-2-4 0,-22-24-1365,11 19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.38">661 245 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:34:07.940"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">57 169 24575,'8'-9'0,"-1"-1"0,0 0 0,0 0 0,6-14 0,23-31 0,-25 40 0,-8 11 0,0-1 0,0 1 0,1 0 0,0 0 0,-1 0 0,6-3 0,-8 6 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 2 0,16 28-102,-12-22-24,1 1-1,-1-1 1,-1 1 0,0 0-1,0 0 1,-1 1 0,-1-1 0,1 1-1,0 18 1,-2-13-6700</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1293.24">1 133 24575,'3'0'0,"4"0"0,5 0 0,2-3 0,3-2 0,5 1 0,1 0 0,0 2 0,-1 1 0,0 0 0,-1 0 0,-2-2 0,0-1 0,0 1 0,-4 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:34:23.867"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">87 35 24575,'-7'1'0,"0"0"0,1 1 0,-1-1 0,0 2 0,1-1 0,-12 6 0,16-6 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,-2 3 0,4-4 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,2 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,6 2 0,-7-3 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,5 4 0,-7-6 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,-15 5 0,-16-2 0,13-3-1365,1 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1725.59">193 35 24575,'1'8'0,"0"0"0,1 0 0,0 0 0,0-1 0,1 1 0,0 0 0,0-1 0,8 13 0,-10-19 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,0-4 0,2-4 0,0 1 0,0-1 0,-1 1 0,0-1 0,-1 0 0,2-17 0,-3 8-1365,0 2-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:34:27.010"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 30 24575,'3'3'0,"1"4"0,3 5 0,3-1 0,1 2 0,-2 1 0,-3 2 0,-2 4 0,-1 2 0,1 0 0,3 0 0,1-1 0,-2 0 0,2-2 0,0-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2178.97">1 11 24575,'164'-10'0,"-161"10"0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,4 3 0,-6-4 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 2 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-5 3 0,-2 2 0,0 0 0,-1-1 0,1-1 0,-15 7 0,-12 7 0,36-19 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,19 4 0,21-2 0,8-4 0,58 3 0,-105-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 2 0,-16 16 0,-29 13 0,-10-3-1365,35-19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4062.71">518 104 24575,'-2'1'0,"0"1"0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-4 0 0,-3 1 0,2 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-9 7 0,12-10 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 4 0,1-3 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 0 0,5 0 0,-2 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 1 0,7 1 0,-11-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-6 1 0,-50 0-1365,41-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5488.49">610 265 24575,'1'5'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,8 3 0,-10-4 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,2-6 0,0 1-195,0-1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0-13 0,-1 6-6631</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:06:53.228"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:06:56.901"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 212 24575,'-1'-25'0,"0"0"0,-2 0 0,-7-30 0,9 45 0,-1 0 0,1 0 0,0-1 0,1 1 0,2-12 0,-3 22 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,8 7 0,7 18 0,-14-23 0,18 38 0,26 86 0,-35-95 0,3 21 0,-9-35 0,0 0 0,8 20 0,-12-37 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,5-6 0,2-14 0,4-29 0,-10 35 0,1 0 0,1 0 0,9-23 0,0 10 0,12-37 0,-22 51 0,1 1 0,-2 0 0,0-1 0,0 0 0,-1-21 0,-1 256 0,-1-88 0,1-46-1365,0-80-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2315.98">464 305 24575,'-1'36'0,"2"39"0,-1-75 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,3 0 0,-2-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,6-1 0,0-1 0,-1 0 0,14-8 0,-18 9 0,34-12 0,-30 12 0,0-1 0,0 1 0,0-2 0,10-4 0,-15 6 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1-2 0,1-8 0,-2 1 0,1 0 0,-4-24 0,3 35 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 0 0,-5-1 0,0 1 0,1 0 0,-10 1 0,7-1 0,-3 1 0,6-1 0,-1 0 0,1 1 0,-10 2 0,14-3 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-4 4 0,-2 4-1365</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:07:02.314"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 251 24575,'-1'-46'0,"2"-50"0,4 64 0,0-16 0,-6 48 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,4 7 0,3 16 0,-6-8 0,7 29 0,-8-41 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,-5-7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2-2 0,1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-2 0,6-8 0,-3 0 0,2 1 0,0 0 0,0 1 0,13-15 0,-19 24 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-3 0,0 59 0,-4-35 0,-6 22 0,5-23 0,-3 29 0,6-45-50,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 1-1,-4 0-6775</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1357.65">445 168 24575,'0'1'0,"-2"1"0,0 2 0,0 1 0,0 2 0,1 1 0,0 1 0,1 2 0,-2 0 0,0 1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:07:07.104"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 203 24575,'-2'-2'0,"1"-1"0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,0-4 0,-2-33 0,2 23 0,2-72 0,-1 88 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 0,-2 2 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,3 5 0,0-1 0,-1 1 0,6 8 0,-5-7 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,7 6 0,-10-9 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-3 0,11-20 0,-12 20 0,1-1 0,0 1 0,0 0 0,1 0 0,0 0 0,3-4 0,3 1 0,-4 8 0,-4 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 3 0,1 106 71,-1-56-1507,0-46-5390</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2752.95">297 166 24575,'2'1'0,"-1"0"0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,0 3 0,4 2 0,-5-6 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 4 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 4 0,4-1 0,1-3 0,1-1 0,-1 1 0,0-1 0,0 1 0,-7 4 0,25-21 0,-8 9 0,-1 0 0,0-1 0,0 1 0,0-1 0,6-9 0,-7 9 0,1-1 0,0 1 0,0 0 0,10-7 0,-8 9 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,15 0 0,-11 0 0,49-1-1365,-51 3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:07:12.491"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47 280 24575,'-3'-4'0,"0"0"0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0-7 0,-6-17 0,3 18 0,1-1 0,0 0 0,0 0 0,2 0 0,-1 0 0,1 0 0,1-18 0,0 29 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,9 6 0,5 13 0,-4-2 0,17 22 0,-14-23 0,10 20 0,-21-33 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,4 1 0,-5-2 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1-1 0,9-16 0,-2-1 0,11-39 0,-13 40 0,0-1 0,0 1 0,2 1 0,13-24 0,-21 41 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 3 0,3 33 0,-3 65 76,-2-50-1517,1-45-5385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2804.5">408 178 24575,'5'1'0,"0"-1"0,0 1 0,-1 0 0,1 0 0,9 4 0,-8-3 0,-1 0 0,1 0 0,9 1 0,-10-3 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,6 5 0,-9-6 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-3 1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-4 1 0,-21 8 0,37-13 0,0-1 0,0 2 0,0-1 0,0 1 0,0 1 0,1-1 0,-1 1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,12 3 0,-18-4 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,-2 4 0,1-3-91,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1 0,-7-1 0,3 0-6735</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:07:23.153"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 213 24575,'1'-4'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,3-6 0,-3 6 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-9 0,-1-3 0,-1-1 0,-1 0 0,-3-18 0,0 5 0,4 29 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0-2 0,-1 3 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,2 2 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,22 71 0,-22-67 0,2 12 0,1 8 0,-5-27 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2 1 0,-3-3 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,1-1 0,1-4 0,0-1 0,3-15 0,-6 22 0,2-4 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,5-4 0,-1-3 0,0 2 0,-6 12 0,-1 8 0,-2 15 0,0-1 0,-9 38 0,7-41-341,0-1 0,2 1-1,1 21 1,0-35-6485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1984">305 241 24575,'0'16'0,"0"-1"0,-1 1 0,-5 22 0,5-34 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-7 4 0,5-6 0,7-5 0,9-8 0,50-30 0,-56 39 0,-1 1 0,0 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,7-1 0,7 1 0,34 1 0,-20 1 0,-31-1-54,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 1,0 2-1,2 2-6771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3263.8">444 222 24575,'-5'64'0,"0"3"0,6 6-1365,-1-65-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:21:12.646"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 75 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 5 0,0 4 0,0-4-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2035.52">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,11 0 0,-13 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 9 0,-5-11 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-13-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-16T13:33:37.078"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">125 0 24575,'-7'1'0,"1"0"0,-1 0 0,0 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,-5 5 0,8-9 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,2 2 0,1-1 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1-1 0,-1 0 0,7 0 0,42 8 0,-51-8 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,2 2 0,-3-3 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-3 1 0,-46 21 0,41-19-227,0-1-1,-1-1 1,1 1-1,-1-2 1,-9 1-1,3-1-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2258.51">353 241 24575,'0'-1'0,"-1"1"0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-24 15 0,21-13 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,2 6 0,-2-8 0,2 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,6 0 0,-5-2 5,0 1-1,0-1 1,0 0 0,0 1-1,0-2 1,0 1-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,3-6 1,-4 7-51,0-1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,0 1-1,-1 0 1,1 0 0,0-1-1,-1 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,-1 0-1,0-1 1,1 1-1,-1 0 1,-1-1 0,1 1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,-3-3 1,-6-4-6780</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1381,7 +3009,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1405,7 +3033,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1465,31 +3093,30 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL35" activeCellId="0" sqref="AL35"/>
+    <sheetView topLeftCell="D37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="11.43"/>
+    <col min="1" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1504,57 +3131,57 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1569,90 +3196,90 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="10">
         <v>5</v>
       </c>
-      <c r="H12" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" s="10" t="n">
+      <c r="H12" s="10">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10">
         <v>7</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="10">
         <v>8</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="10">
         <v>9</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="10">
         <v>10</v>
       </c>
-      <c r="M12" s="10" t="n">
+      <c r="M12" s="10">
         <v>11</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="12">
         <v>3</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>4</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="12">
         <v>5</v>
       </c>
-      <c r="H13" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="n">
+      <c r="H13" s="12">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12">
         <v>7</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="12">
         <v>8</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="12">
         <v>10</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="12">
         <v>11</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +3304,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +3329,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
         <v>1</v>
       </c>
@@ -1725,7 +3352,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +3371,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +3390,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
@@ -1782,7 +3409,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
@@ -1801,7 +3428,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +3448,7 @@
       <c r="N21" s="14"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +3470,7 @@
       <c r="N22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
@@ -1864,7 +3491,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +3510,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
@@ -1902,7 +3529,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +3548,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
@@ -1940,7 +3567,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1959,7 +3586,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B29" s="14" t="s">
         <v>18</v>
       </c>
@@ -1978,7 +3605,7 @@
       </c>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +3628,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +3647,7 @@
       </c>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
@@ -2043,7 +3670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
@@ -2062,50 +3689,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:14" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="17" t="n">
+      <c r="C35" s="17">
         <v>1</v>
       </c>
-      <c r="D35" s="17" t="n">
+      <c r="D35" s="17">
         <v>2</v>
       </c>
-      <c r="E35" s="17" t="n">
+      <c r="E35" s="17">
         <v>3</v>
       </c>
-      <c r="F35" s="17" t="n">
+      <c r="F35" s="17">
         <v>4</v>
       </c>
-      <c r="G35" s="17" t="n">
+      <c r="G35" s="17">
         <v>5</v>
       </c>
-      <c r="H35" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I35" s="17" t="n">
+      <c r="H35" s="17">
+        <v>6</v>
+      </c>
+      <c r="I35" s="17">
         <v>7</v>
       </c>
-      <c r="J35" s="17" t="n">
+      <c r="J35" s="17">
         <v>8</v>
       </c>
-      <c r="K35" s="17" t="n">
+      <c r="K35" s="17">
         <v>9</v>
       </c>
-      <c r="L35" s="17" t="n">
+      <c r="L35" s="17">
         <v>10</v>
       </c>
-      <c r="M35" s="17" t="n">
+      <c r="M35" s="17">
         <v>11</v>
       </c>
-      <c r="N35" s="17" t="n">
+      <c r="N35" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="18" t="n">
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="18">
         <v>0</v>
       </c>
       <c r="C36" s="19"/>
@@ -2141,8 +3768,8 @@
       </c>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="18" t="n">
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="18">
         <v>1</v>
       </c>
       <c r="C37" s="19"/>
@@ -2174,8 +3801,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="18" t="n">
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="18">
         <v>2</v>
       </c>
       <c r="C38" s="18"/>
@@ -2207,8 +3834,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="18" t="n">
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="18">
         <v>3</v>
       </c>
       <c r="C39" s="18"/>
@@ -2241,149 +3868,141 @@
       <c r="N39" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Z54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="31">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="n">
+      <c r="D2" s="31">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="n">
+      <c r="E2" s="31">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="n">
+      <c r="F2" s="31">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="n">
+      <c r="G2" s="31">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" s="31" t="n">
+      <c r="H2" s="31">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="n">
+      <c r="J2" s="31">
         <v>8</v>
       </c>
-      <c r="K2" s="31" t="n">
+      <c r="K2" s="31">
         <v>9</v>
       </c>
-      <c r="L2" s="31" t="n">
+      <c r="L2" s="31">
         <v>10</v>
       </c>
-      <c r="M2" s="31" t="n">
+      <c r="M2" s="31">
         <v>11</v>
       </c>
-      <c r="N2" s="32" t="n">
+      <c r="N2" s="32">
         <v>12</v>
       </c>
-      <c r="O2" s="31" t="n">
+      <c r="O2" s="31">
         <v>13</v>
       </c>
-      <c r="P2" s="31" t="n">
+      <c r="P2" s="31">
         <v>14</v>
       </c>
-      <c r="Q2" s="31" t="n">
+      <c r="Q2" s="31">
         <v>15</v>
       </c>
-      <c r="R2" s="31" t="n">
+      <c r="R2" s="31">
         <v>16</v>
       </c>
-      <c r="S2" s="31" t="n">
+      <c r="S2" s="31">
         <v>17</v>
       </c>
-      <c r="T2" s="32" t="n">
+      <c r="T2" s="32">
         <v>18</v>
       </c>
-      <c r="U2" s="31" t="n">
+      <c r="U2" s="31">
         <v>19</v>
       </c>
-      <c r="V2" s="31" t="n">
+      <c r="V2" s="31">
         <v>20</v>
       </c>
-      <c r="W2" s="31" t="n">
+      <c r="W2" s="31">
         <v>21</v>
       </c>
-      <c r="X2" s="31" t="n">
+      <c r="X2" s="31">
         <v>22</v>
       </c>
-      <c r="Y2" s="31" t="n">
+      <c r="Y2" s="31">
         <v>23</v>
       </c>
-      <c r="Z2" s="32" t="n">
+      <c r="Z2" s="32">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="33">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="33">
         <v>2</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="33">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="33">
         <v>4</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="33">
         <v>5</v>
       </c>
-      <c r="H3" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="33" t="n">
+      <c r="H3" s="33">
+        <v>6</v>
+      </c>
+      <c r="I3" s="33">
         <v>7</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <v>8</v>
       </c>
-      <c r="K3" s="33" t="n">
+      <c r="K3" s="33">
         <v>9</v>
       </c>
-      <c r="L3" s="33" t="n">
+      <c r="L3" s="33">
         <v>10</v>
       </c>
-      <c r="M3" s="33" t="n">
+      <c r="M3" s="33">
         <v>11</v>
       </c>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="33">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +4027,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +4052,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -2456,7 +4075,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +4094,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -2494,7 +4113,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
@@ -2513,7 +4132,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +4151,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
@@ -2551,7 +4170,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
@@ -2572,7 +4191,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +4212,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +4231,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +4250,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2650,7 +4269,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
@@ -2669,7 +4288,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -2688,7 +4307,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
@@ -2707,7 +4326,7 @@
       </c>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
@@ -2730,7 +4349,7 @@
       </c>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +4368,7 @@
       </c>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -2772,7 +4391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
@@ -2791,7 +4410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2800,44 +4419,44 @@
       <c r="H24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="33" t="n">
+      <c r="I24" s="33">
         <v>1</v>
       </c>
-      <c r="J24" s="33" t="n">
+      <c r="J24" s="33">
         <v>2</v>
       </c>
-      <c r="K24" s="33" t="n">
+      <c r="K24" s="33">
         <v>3</v>
       </c>
-      <c r="L24" s="33" t="n">
+      <c r="L24" s="33">
         <v>4</v>
       </c>
-      <c r="M24" s="33" t="n">
+      <c r="M24" s="33">
         <v>5</v>
       </c>
-      <c r="N24" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="O24" s="33" t="n">
+      <c r="N24" s="33">
+        <v>6</v>
+      </c>
+      <c r="O24" s="33">
         <v>7</v>
       </c>
-      <c r="P24" s="33" t="n">
+      <c r="P24" s="33">
         <v>8</v>
       </c>
-      <c r="Q24" s="33" t="n">
+      <c r="Q24" s="33">
         <v>9</v>
       </c>
-      <c r="R24" s="33" t="n">
+      <c r="R24" s="33">
         <v>10</v>
       </c>
-      <c r="S24" s="33" t="n">
+      <c r="S24" s="33">
         <v>11</v>
       </c>
-      <c r="T24" s="33" t="n">
+      <c r="T24" s="33">
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H25" s="14" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +4481,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="14" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +4506,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H27" s="14" t="s">
         <v>1</v>
       </c>
@@ -2910,7 +4529,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="14" t="s">
         <v>2</v>
       </c>
@@ -2929,7 +4548,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="14" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +4567,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="14" t="s">
         <v>8</v>
       </c>
@@ -2967,7 +4586,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="14" t="s">
         <v>9</v>
       </c>
@@ -2986,7 +4605,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H32" s="14" t="s">
         <v>10</v>
       </c>
@@ -3005,7 +4624,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" s="14" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +4645,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" s="14" t="s">
         <v>12</v>
       </c>
@@ -3047,7 +4666,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H35" s="14" t="s">
         <v>13</v>
       </c>
@@ -3066,7 +4685,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H36" s="14" t="s">
         <v>14</v>
       </c>
@@ -3085,7 +4704,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H37" s="14" t="s">
         <v>15</v>
       </c>
@@ -3104,7 +4723,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" s="14" t="s">
         <v>16</v>
       </c>
@@ -3123,7 +4742,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H39" s="14" t="s">
         <v>17</v>
       </c>
@@ -3142,7 +4761,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H40" s="14" t="s">
         <v>18</v>
       </c>
@@ -3161,7 +4780,7 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H41" s="14" t="s">
         <v>19</v>
       </c>
@@ -3184,7 +4803,7 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H42" s="14" t="s">
         <v>20</v>
       </c>
@@ -3203,7 +4822,7 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H43" s="14" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +4845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H44" s="14" t="s">
         <v>22</v>
       </c>
@@ -3245,67 +4864,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="17" t="n">
+      <c r="C46" s="17">
         <v>1</v>
       </c>
-      <c r="D46" s="17" t="n">
+      <c r="D46" s="17">
         <v>2</v>
       </c>
-      <c r="E46" s="17" t="n">
+      <c r="E46" s="17">
         <v>3</v>
       </c>
-      <c r="F46" s="17" t="n">
+      <c r="F46" s="17">
         <v>4</v>
       </c>
-      <c r="G46" s="17" t="n">
+      <c r="G46" s="17">
         <v>5</v>
       </c>
-      <c r="H46" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I46" s="17" t="n">
+      <c r="H46" s="17">
+        <v>6</v>
+      </c>
+      <c r="I46" s="17">
         <v>7</v>
       </c>
-      <c r="J46" s="17" t="n">
+      <c r="J46" s="17">
         <v>8</v>
       </c>
-      <c r="K46" s="17" t="n">
+      <c r="K46" s="17">
         <v>9</v>
       </c>
-      <c r="L46" s="17" t="n">
+      <c r="L46" s="17">
         <v>10</v>
       </c>
-      <c r="M46" s="17" t="n">
+      <c r="M46" s="17">
         <v>11</v>
       </c>
-      <c r="N46" s="17" t="n">
+      <c r="N46" s="17">
         <v>12</v>
       </c>
-      <c r="O46" s="17" t="n">
+      <c r="O46" s="17">
         <v>13</v>
       </c>
-      <c r="P46" s="17" t="n">
+      <c r="P46" s="17">
         <v>14</v>
       </c>
-      <c r="Q46" s="17" t="n">
+      <c r="Q46" s="17">
         <v>15</v>
       </c>
-      <c r="R46" s="17" t="n">
+      <c r="R46" s="17">
         <v>16</v>
       </c>
-      <c r="S46" s="17" t="n">
+      <c r="S46" s="17">
         <v>17</v>
       </c>
-      <c r="T46" s="17" t="n">
+      <c r="T46" s="17">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="18" t="n">
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="18">
         <v>0</v>
       </c>
       <c r="C47" s="34"/>
@@ -3341,8 +4960,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="18" t="n">
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="18">
         <v>1</v>
       </c>
       <c r="C48" s="34"/>
@@ -3374,8 +4993,8 @@
       </c>
       <c r="N48" s="41"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="18" t="n">
+    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="18">
         <v>2</v>
       </c>
       <c r="C49" s="46"/>
@@ -3403,8 +5022,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="18" t="n">
+    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="18">
         <v>3</v>
       </c>
       <c r="C50" s="46"/>
@@ -3436,8 +5055,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="18" t="n">
+    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="18">
         <v>4</v>
       </c>
       <c r="I51" s="35" t="s">
@@ -3473,8 +5092,8 @@
       </c>
       <c r="T51" s="41"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="18" t="n">
+    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="18">
         <v>5</v>
       </c>
       <c r="I52" s="35"/>
@@ -3506,8 +5125,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="18" t="n">
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>6</v>
       </c>
       <c r="I53" s="35" t="s">
@@ -3543,8 +5162,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="18" t="n">
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>7</v>
       </c>
       <c r="I54" s="50" t="s">
@@ -3577,181 +5196,173 @@
       <c r="T54" s="41"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AG80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K75" activeCellId="0" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.00390625" defaultRowHeight="11.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.06640625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M1" s="0" t="s">
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="31">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="n">
+      <c r="D2" s="31">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="n">
+      <c r="E2" s="31">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="n">
+      <c r="F2" s="31">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="n">
+      <c r="G2" s="31">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" s="31" t="n">
+      <c r="H2" s="31">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="n">
+      <c r="J2" s="31">
         <v>8</v>
       </c>
-      <c r="K2" s="31" t="n">
+      <c r="K2" s="31">
         <v>9</v>
       </c>
-      <c r="L2" s="31" t="n">
+      <c r="L2" s="31">
         <v>10</v>
       </c>
-      <c r="M2" s="52" t="n">
+      <c r="M2" s="52">
         <v>11</v>
       </c>
-      <c r="N2" s="32" t="n">
+      <c r="N2" s="32">
         <v>12</v>
       </c>
-      <c r="O2" s="31" t="n">
+      <c r="O2" s="31">
         <v>13</v>
       </c>
-      <c r="P2" s="31" t="n">
+      <c r="P2" s="31">
         <v>14</v>
       </c>
-      <c r="Q2" s="31" t="n">
+      <c r="Q2" s="31">
         <v>15</v>
       </c>
-      <c r="R2" s="31" t="n">
+      <c r="R2" s="31">
         <v>16</v>
       </c>
-      <c r="S2" s="52" t="n">
+      <c r="S2" s="52">
         <v>17</v>
       </c>
-      <c r="T2" s="32" t="n">
+      <c r="T2" s="32">
         <v>18</v>
       </c>
-      <c r="U2" s="31" t="n">
+      <c r="U2" s="31">
         <v>19</v>
       </c>
-      <c r="V2" s="31" t="n">
+      <c r="V2" s="31">
         <v>20</v>
       </c>
-      <c r="W2" s="31" t="n">
+      <c r="W2" s="31">
         <v>21</v>
       </c>
-      <c r="X2" s="31" t="n">
+      <c r="X2" s="31">
         <v>22</v>
       </c>
-      <c r="Y2" s="31" t="n">
+      <c r="Y2" s="31">
         <v>23</v>
       </c>
-      <c r="Z2" s="31" t="n">
+      <c r="Z2" s="31">
         <v>24</v>
       </c>
-      <c r="AA2" s="31" t="n">
+      <c r="AA2" s="31">
         <v>25</v>
       </c>
-      <c r="AB2" s="31" t="n">
+      <c r="AB2" s="31">
         <v>26</v>
       </c>
-      <c r="AC2" s="31" t="n">
+      <c r="AC2" s="31">
         <v>27</v>
       </c>
-      <c r="AD2" s="31" t="n">
+      <c r="AD2" s="31">
         <v>28</v>
       </c>
-      <c r="AE2" s="31" t="n">
+      <c r="AE2" s="31">
         <v>29</v>
       </c>
-      <c r="AF2" s="31" t="n">
+      <c r="AF2" s="31">
         <v>30</v>
       </c>
-      <c r="AG2" s="31" t="n">
+      <c r="AG2" s="31">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="n">
+    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="53" t="n">
+      <c r="C3" s="53">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="n">
+      <c r="D3" s="53">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="53">
         <v>3</v>
       </c>
-      <c r="F3" s="53" t="n">
+      <c r="F3" s="53">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="n">
+      <c r="G3" s="53">
         <v>5</v>
       </c>
-      <c r="H3" s="53" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="53" t="n">
+      <c r="H3" s="53">
+        <v>6</v>
+      </c>
+      <c r="I3" s="53">
         <v>7</v>
       </c>
-      <c r="J3" s="53" t="n">
+      <c r="J3" s="53">
         <v>8</v>
       </c>
-      <c r="K3" s="53" t="n">
+      <c r="K3" s="53">
         <v>9</v>
       </c>
-      <c r="L3" s="53" t="n">
+      <c r="L3" s="53">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="n">
+      <c r="M3" s="53">
         <v>11</v>
       </c>
-      <c r="N3" s="53" t="n">
+      <c r="N3" s="53">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -3784,8 +5395,8 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="53" t="s">
@@ -3818,8 +5429,8 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="53" t="s">
@@ -3850,8 +5461,8 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="53" t="s">
@@ -3878,8 +5489,8 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="53" t="s">
@@ -3906,8 +5517,8 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -3934,8 +5545,8 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -3962,8 +5573,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="53" t="s">
@@ -3990,8 +5601,8 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
@@ -4020,8 +5631,8 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="53" t="s">
@@ -4050,8 +5661,8 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="53" t="s">
@@ -4078,8 +5689,8 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="53" t="s">
@@ -4106,8 +5717,8 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="53" t="s">
@@ -4134,8 +5745,8 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -4162,8 +5773,8 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="53" t="s">
@@ -4190,8 +5801,8 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="53" t="s">
@@ -4218,8 +5829,8 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -4250,8 +5861,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="53" t="s">
@@ -4278,8 +5889,8 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -4310,8 +5921,8 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="53" t="s">
@@ -4338,8 +5949,8 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
+    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="56">
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -4352,45 +5963,45 @@
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
       <c r="I24" s="57"/>
-      <c r="J24" s="57" t="n">
+      <c r="J24" s="57">
         <v>1</v>
       </c>
-      <c r="K24" s="57" t="n">
+      <c r="K24" s="57">
         <v>2</v>
       </c>
-      <c r="L24" s="57" t="n">
+      <c r="L24" s="57">
         <v>3</v>
       </c>
-      <c r="M24" s="57" t="n">
+      <c r="M24" s="57">
         <v>4</v>
       </c>
-      <c r="N24" s="57" t="n">
+      <c r="N24" s="57">
         <v>5</v>
       </c>
-      <c r="O24" s="57" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="57" t="n">
+      <c r="O24" s="57">
+        <v>6</v>
+      </c>
+      <c r="P24" s="57">
         <v>7</v>
       </c>
-      <c r="Q24" s="57" t="n">
+      <c r="Q24" s="57">
         <v>8</v>
       </c>
-      <c r="R24" s="57" t="n">
+      <c r="R24" s="57">
         <v>9</v>
       </c>
-      <c r="S24" s="57" t="n">
+      <c r="S24" s="57">
         <v>10</v>
       </c>
-      <c r="T24" s="57" t="n">
+      <c r="T24" s="57">
         <v>11</v>
       </c>
-      <c r="U24" s="57" t="n">
+      <c r="U24" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" s="57" t="s">
@@ -4423,8 +6034,8 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" s="57" t="s">
@@ -4457,8 +6068,8 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" s="57" t="s">
@@ -4489,8 +6100,8 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="57" t="s">
@@ -4517,8 +6128,8 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -4545,8 +6156,8 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="57" t="s">
@@ -4573,8 +6184,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="57" t="s">
@@ -4601,8 +6212,8 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="57" t="s">
@@ -4629,8 +6240,8 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="57" t="s">
@@ -4659,8 +6270,8 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="57" t="s">
@@ -4689,8 +6300,8 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="57" t="s">
@@ -4717,8 +6328,8 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="57" t="s">
@@ -4745,8 +6356,8 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="57" t="s">
@@ -4773,8 +6384,8 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="57" t="s">
@@ -4801,8 +6412,8 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="57" t="s">
@@ -4829,8 +6440,8 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="57" t="s">
@@ -4857,8 +6468,8 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="57" t="s">
@@ -4889,14 +6500,14 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -4917,8 +6528,8 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="57" t="s">
@@ -4949,8 +6560,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="57" t="s">
@@ -4977,67 +6588,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="31" t="n">
+      <c r="C45" s="31">
         <v>1</v>
       </c>
-      <c r="D45" s="31" t="n">
+      <c r="D45" s="31">
         <v>2</v>
       </c>
-      <c r="E45" s="31" t="n">
+      <c r="E45" s="31">
         <v>3</v>
       </c>
-      <c r="F45" s="31" t="n">
+      <c r="F45" s="31">
         <v>4</v>
       </c>
-      <c r="G45" s="31" t="n">
+      <c r="G45" s="31">
         <v>5</v>
       </c>
-      <c r="H45" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="I45" s="31" t="n">
+      <c r="H45" s="31">
+        <v>6</v>
+      </c>
+      <c r="I45" s="31">
         <v>7</v>
       </c>
-      <c r="J45" s="31" t="n">
+      <c r="J45" s="31">
         <v>8</v>
       </c>
-      <c r="K45" s="31" t="n">
+      <c r="K45" s="31">
         <v>9</v>
       </c>
-      <c r="L45" s="31" t="n">
+      <c r="L45" s="31">
         <v>10</v>
       </c>
-      <c r="M45" s="52" t="n">
+      <c r="M45" s="52">
         <v>11</v>
       </c>
-      <c r="N45" s="32" t="n">
+      <c r="N45" s="32">
         <v>12</v>
       </c>
-      <c r="O45" s="31" t="n">
+      <c r="O45" s="31">
         <v>13</v>
       </c>
-      <c r="P45" s="31" t="n">
+      <c r="P45" s="31">
         <v>14</v>
       </c>
-      <c r="Q45" s="31" t="n">
+      <c r="Q45" s="31">
         <v>15</v>
       </c>
-      <c r="R45" s="31" t="n">
+      <c r="R45" s="31">
         <v>16</v>
       </c>
-      <c r="S45" s="52" t="n">
+      <c r="S45" s="52">
         <v>17</v>
       </c>
-      <c r="T45" s="32" t="n">
+      <c r="T45" s="32">
         <v>18</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="58" t="s">
@@ -5062,8 +6673,8 @@
       <c r="S46" s="59"/>
       <c r="T46" s="59"/>
     </row>
-    <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="60" t="n">
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="60">
         <v>0</v>
       </c>
       <c r="C47" s="61"/>
@@ -5099,8 +6710,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="60" t="n">
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="60">
         <v>1</v>
       </c>
       <c r="C48" s="61"/>
@@ -5117,7 +6728,7 @@
         <v>9</v>
       </c>
       <c r="H48" s="63"/>
-      <c r="I48" s="72"/>
+      <c r="I48" s="66"/>
       <c r="J48" s="67" t="s">
         <v>1</v>
       </c>
@@ -5127,45 +6738,45 @@
       <c r="L48" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="M48" s="73" t="s">
+      <c r="M48" s="72" t="s">
         <v>9</v>
       </c>
       <c r="N48" s="68"/>
     </row>
-    <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="60" t="n">
+    <row r="49" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="60">
         <v>2</v>
       </c>
-      <c r="C49" s="74"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="64"/>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="74" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="62" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="64"/>
-      <c r="H49" s="76" t="s">
+      <c r="H49" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="77"/>
+      <c r="I49" s="76"/>
       <c r="J49" s="69"/>
-      <c r="K49" s="78" t="s">
+      <c r="K49" s="77" t="s">
         <v>2</v>
       </c>
       <c r="L49" s="67" t="s">
         <v>7</v>
       </c>
       <c r="M49" s="69"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="60" t="n">
+    <row r="50" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="60">
         <v>3</v>
       </c>
-      <c r="C50" s="74"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="64"/>
       <c r="E50" s="62" t="s">
         <v>3</v>
@@ -5179,7 +6790,7 @@
       <c r="H50" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I50" s="77"/>
+      <c r="I50" s="76"/>
       <c r="J50" s="69"/>
       <c r="K50" s="67" t="s">
         <v>3</v>
@@ -5194,37 +6805,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="60" t="n">
+    <row r="51" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="60">
         <v>4</v>
       </c>
-      <c r="H51" s="80"/>
-      <c r="I51" s="81" t="s">
+      <c r="H51" s="79"/>
+      <c r="I51" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="81" t="s">
+      <c r="J51" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="75" t="s">
+      <c r="K51" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="75" t="s">
+      <c r="L51" s="74" t="s">
         <v>15</v>
       </c>
       <c r="M51" s="62" t="s">
         <v>18</v>
       </c>
       <c r="N51" s="64"/>
-      <c r="O51" s="78" t="s">
+      <c r="O51" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="82" t="s">
+      <c r="P51" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q51" s="78" t="s">
+      <c r="Q51" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R51" s="78" t="s">
+      <c r="R51" s="77" t="s">
         <v>15</v>
       </c>
       <c r="S51" s="67" t="s">
@@ -5232,8 +6843,8 @@
       </c>
       <c r="T51" s="68"/>
     </row>
-    <row r="52" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="60" t="n">
+    <row r="52" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="60">
         <v>5</v>
       </c>
       <c r="I52" s="62"/>
@@ -5265,11 +6876,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H53" s="83"/>
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="60">
+        <v>6</v>
+      </c>
+      <c r="H53" s="82"/>
       <c r="I53" s="62" t="s">
         <v>11</v>
       </c>
@@ -5303,11 +6914,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="60" t="n">
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="60">
         <v>7</v>
       </c>
-      <c r="I54" s="75" t="s">
+      <c r="I54" s="74" t="s">
         <v>10</v>
       </c>
       <c r="J54" s="62" t="s">
@@ -5321,7 +6932,7 @@
         <v>20</v>
       </c>
       <c r="N54" s="64"/>
-      <c r="O54" s="82" t="s">
+      <c r="O54" s="81" t="s">
         <v>10</v>
       </c>
       <c r="P54" s="67" t="s">
@@ -5336,8 +6947,8 @@
       </c>
       <c r="T54" s="68"/>
     </row>
-    <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="58" t="s">
@@ -5362,8 +6973,8 @@
       <c r="S57" s="59"/>
       <c r="T57" s="59"/>
     </row>
-    <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="60" t="n">
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="60">
         <v>0</v>
       </c>
       <c r="C58" s="61"/>
@@ -5382,7 +6993,7 @@
       <c r="H58" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="72"/>
+      <c r="I58" s="66"/>
       <c r="J58" s="67" t="s">
         <v>0</v>
       </c>
@@ -5399,8 +7010,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="60" t="n">
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="60">
         <v>1</v>
       </c>
       <c r="C59" s="61"/>
@@ -5417,7 +7028,7 @@
         <v>9</v>
       </c>
       <c r="H59" s="63"/>
-      <c r="I59" s="72"/>
+      <c r="I59" s="66"/>
       <c r="J59" s="67" t="s">
         <v>1</v>
       </c>
@@ -5427,45 +7038,45 @@
       <c r="L59" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="73" t="s">
+      <c r="M59" s="72" t="s">
         <v>9</v>
       </c>
       <c r="N59" s="68"/>
     </row>
-    <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="60" t="n">
+    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="60">
         <v>2</v>
       </c>
-      <c r="C60" s="74"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="75" t="s">
+      <c r="E60" s="74" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="62" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="64"/>
-      <c r="H60" s="76" t="s">
+      <c r="H60" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="77"/>
+      <c r="I60" s="76"/>
       <c r="J60" s="69"/>
-      <c r="K60" s="78" t="s">
+      <c r="K60" s="77" t="s">
         <v>2</v>
       </c>
       <c r="L60" s="67" t="s">
         <v>7</v>
       </c>
       <c r="M60" s="69"/>
-      <c r="N60" s="79" t="s">
+      <c r="N60" s="78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="60" t="n">
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="60">
         <v>3</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="64"/>
       <c r="E61" s="62" t="s">
         <v>3</v>
@@ -5479,7 +7090,7 @@
       <c r="H61" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="77"/>
+      <c r="I61" s="76"/>
       <c r="J61" s="69"/>
       <c r="K61" s="67" t="s">
         <v>3</v>
@@ -5494,37 +7105,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="60" t="n">
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="60">
         <v>4</v>
       </c>
-      <c r="H62" s="80"/>
-      <c r="I62" s="81" t="s">
+      <c r="H62" s="79"/>
+      <c r="I62" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="76"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="81"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="80"/>
       <c r="M62" s="62" t="s">
         <v>20</v>
       </c>
       <c r="N62" s="64"/>
-      <c r="O62" s="78" t="s">
+      <c r="O62" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="85"/>
-      <c r="Q62" s="86"/>
-      <c r="R62" s="82"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="81"/>
       <c r="S62" s="67" t="s">
         <v>20</v>
       </c>
       <c r="T62" s="68"/>
     </row>
-    <row r="63" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="60" t="n">
+    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="60">
         <v>5</v>
       </c>
-      <c r="H63" s="83"/>
+      <c r="H63" s="82"/>
       <c r="I63" s="62" t="s">
         <v>11</v>
       </c>
@@ -5558,12 +7169,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H64" s="83"/>
-      <c r="I64" s="75" t="s">
+    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="60">
+        <v>6</v>
+      </c>
+      <c r="H64" s="82"/>
+      <c r="I64" s="74" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="62" t="s">
@@ -5581,7 +7192,7 @@
       <c r="N64" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O64" s="82" t="s">
+      <c r="O64" s="81" t="s">
         <v>10</v>
       </c>
       <c r="P64" s="68"/>
@@ -5596,37 +7207,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="87" t="s">
+    <row r="65" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="87" t="s">
+      <c r="J65" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="K65" s="87" t="s">
+      <c r="K65" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="87" t="s">
+      <c r="L65" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="87" t="s">
+      <c r="M65" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="P65" s="87" t="s">
+      <c r="P65" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q65" s="87" t="s">
+      <c r="Q65" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="87" t="s">
+      <c r="R65" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S65" s="87" t="s">
+      <c r="S65" s="84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="88" t="s">
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="85" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="58" t="s">
@@ -5651,9 +7262,9 @@
       <c r="S68" s="59"/>
       <c r="T68" s="59"/>
     </row>
-    <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="60" t="n">
-        <v>0</v>
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="60" t="s">
+        <v>45</v>
       </c>
       <c r="C69" s="61"/>
       <c r="D69" s="62" t="s">
@@ -5671,7 +7282,7 @@
       <c r="H69" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="81" t="s">
+      <c r="I69" s="80" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="67" t="s">
@@ -5680,37 +7291,37 @@
       <c r="K69" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="89" t="s">
+      <c r="L69" s="86" t="s">
         <v>0</v>
       </c>
       <c r="M69" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="90" t="s">
+      <c r="N69" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O69" s="90" t="s">
+      <c r="O69" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="P69" s="75" t="s">
+      <c r="P69" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="Q69" s="75" t="s">
+      <c r="Q69" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="R69" s="75" t="s">
+      <c r="R69" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="S69" s="75" t="s">
+      <c r="S69" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="T69" s="75" t="s">
+      <c r="T69" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="60" t="n">
-        <v>1</v>
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="60" t="s">
+        <v>46</v>
       </c>
       <c r="C70" s="61"/>
       <c r="D70" s="62" t="s">
@@ -5719,12 +7330,12 @@
       <c r="E70" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="91" t="s">
+      <c r="F70" s="88" t="s">
         <v>1</v>
       </c>
       <c r="G70" s="71"/>
       <c r="H70" s="63"/>
-      <c r="I70" s="72"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="67" t="s">
         <v>1</v>
       </c>
@@ -5734,80 +7345,80 @@
       <c r="L70" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="M70" s="75" t="s">
+      <c r="M70" s="74" t="s">
         <v>20</v>
       </c>
       <c r="N70" s="68"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75" t="s">
+      <c r="O70" s="74"/>
+      <c r="P70" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="Q70" s="75" t="s">
+      <c r="Q70" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="R70" s="75" t="s">
+      <c r="R70" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="S70" s="72" t="s">
+      <c r="S70" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="60" t="n">
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="75" t="s">
+      <c r="F71" s="74" t="s">
         <v>7</v>
       </c>
       <c r="G71" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="75" t="s">
+      <c r="H71" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="81" t="s">
+      <c r="I71" s="80" t="s">
         <v>10</v>
       </c>
       <c r="J71" s="69"/>
-      <c r="K71" s="78" t="s">
+      <c r="K71" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L71" s="78" t="s">
+      <c r="L71" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="M71" s="73" t="s">
+      <c r="M71" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="N71" s="79" t="s">
+      <c r="N71" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="O71" s="90" t="s">
+      <c r="O71" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75" t="s">
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="R71" s="75" t="s">
+      <c r="R71" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="S71" s="75" t="s">
+      <c r="S71" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="T71" s="75" t="s">
+      <c r="T71" s="74" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="C72" s="74"/>
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="73"/>
       <c r="D72" s="64"/>
       <c r="E72" s="62" t="s">
         <v>3</v>
@@ -5821,7 +7432,7 @@
       <c r="H72" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="77"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="69"/>
       <c r="K72" s="67" t="s">
         <v>3</v>
@@ -5835,26 +7446,26 @@
       <c r="N72" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="75"/>
-      <c r="P72" s="75"/>
-      <c r="Q72" s="75" t="s">
+      <c r="O72" s="74"/>
+      <c r="P72" s="74"/>
+      <c r="Q72" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="75" t="s">
+      <c r="R72" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="75" t="s">
+      <c r="S72" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="75" t="s">
+      <c r="T72" s="74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="H73" s="83"/>
+    <row r="73" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="82"/>
       <c r="I73" s="62" t="s">
         <v>11</v>
       </c>
@@ -5873,31 +7484,31 @@
       <c r="N73" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O73" s="72" t="s">
+      <c r="O73" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P73" s="72" t="s">
+      <c r="P73" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="Q73" s="72" t="s">
+      <c r="Q73" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R73" s="72" t="s">
+      <c r="R73" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="S73" s="72" t="s">
+      <c r="S73" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="T73" s="72" t="s">
+      <c r="T73" s="66" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="H74" s="83"/>
-      <c r="I74" s="92"/>
+    <row r="74" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="82"/>
+      <c r="I74" s="64"/>
       <c r="J74" s="62" t="s">
         <v>12</v>
       </c>
@@ -5910,66 +7521,286 @@
       <c r="M74" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="91" t="s">
+      <c r="N74" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72" t="s">
+      <c r="O74" s="66"/>
+      <c r="P74" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Q74" s="72" t="s">
+      <c r="Q74" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R74" s="72" t="s">
+      <c r="R74" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="S74" s="72" t="s">
+      <c r="S74" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="T74" s="72" t="s">
+      <c r="T74" s="66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="J75" s="87" t="s">
+    <row r="75" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J75" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="K75" s="87" t="s">
+      <c r="K75" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L75" s="87" t="s">
+      <c r="L75" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="M75" s="87" t="s">
+      <c r="M75" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="P75" s="87" t="s">
+      <c r="P75" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q75" s="87" t="s">
+      <c r="Q75" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="87" t="s">
+      <c r="R75" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S75" s="87" t="s">
+      <c r="S75" s="84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F80" s="93"/>
+    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="L78" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="M78" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="N78" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="O78" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="P78" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q78" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="R78" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="S78" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="T78" s="94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="K79" s="94"/>
+      <c r="L79" s="94"/>
+      <c r="M79" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="N79" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="O79" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="P79" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="T79" s="94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="89"/>
+      <c r="H80" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="L80" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="M80" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="O80" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="R80" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="S80" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="T80" s="94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="89"/>
+      <c r="H83" s="93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M87" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE154B7D-091F-4F00-8CA1-6F40ECA4B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D018F69-367D-4E3C-80DB-EEC4AD07C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="94">
   <si>
     <t>AR</t>
   </si>
@@ -271,6 +272,45 @@
   <si>
     <t>reg3(AI) =&gt; A</t>
   </si>
+  <si>
+    <t>clk0 altra butterfly</t>
+  </si>
+  <si>
+    <t>reg1(BR) =&gt;B</t>
+  </si>
+  <si>
+    <t>reg2(BI) =&gt;B</t>
+  </si>
+  <si>
+    <t>reg0(S4) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>reg2(WIxBR)=&gt;BSUM</t>
+  </si>
+  <si>
+    <t>reg4(2A) = ASUB</t>
+  </si>
+  <si>
+    <t>reg5(2AI) = ASUB</t>
+  </si>
+  <si>
+    <t>(RS)</t>
+  </si>
+  <si>
+    <t>(RSx2)</t>
+  </si>
+  <si>
+    <t>reg1(B'R) =&gt; OUT1</t>
+  </si>
+  <si>
+    <t>reg4(A'R) =&gt; OUT0</t>
+  </si>
+  <si>
+    <t>reg4(B'I) =&gt; OUT1</t>
+  </si>
+  <si>
+    <t>reg5(A'I) =&gt; OUT0</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -747,11 +787,369 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,9 +1397,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,7 +1409,98 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1382,8 +1868,8 @@
       <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1229102</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>377</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>115642</xdr:rowOff>
     </xdr:to>
@@ -1431,8 +1917,8 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>66446</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Input penna 1">
@@ -1451,7 +1937,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Input penna 1">
@@ -1496,8 +1982,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>93292</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Input penna 2">
@@ -1516,7 +2002,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Input penna 2">
@@ -1561,8 +2047,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>77678</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Input penna 8">
@@ -1581,7 +2067,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Input penna 8">
@@ -1626,8 +2112,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>113164</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Input penna 11">
@@ -1646,7 +2132,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Input penna 11">
@@ -1691,8 +2177,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>94166</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Input penna 14">
@@ -1711,7 +2197,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Input penna 14">
@@ -1756,8 +2242,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>77164</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Input penna 17">
@@ -1776,7 +2262,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Input penna 17">
@@ -1821,8 +2307,8 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>49587</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Input penna 22">
@@ -1841,7 +2327,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Input penna 22">
@@ -1886,8 +2372,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>77797</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Input penna 25">
@@ -1906,7 +2392,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Input penna 25">
@@ -1951,8 +2437,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>83927</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Input penna 28">
@@ -1971,7 +2457,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Input penna 28">
@@ -2016,8 +2502,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>26605</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Input penna 29">
@@ -2036,7 +2522,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Input penna 29">
@@ -2081,8 +2567,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>27047</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Input penna 32">
@@ -2101,7 +2587,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Input penna 32">
@@ -2146,8 +2632,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>58357</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Input penna 37">
@@ -2166,7 +2652,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Input penna 37">
@@ -2211,8 +2697,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>134513</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Input penna 46">
@@ -2231,7 +2717,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Input penna 46">
@@ -2276,8 +2762,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>58913</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Input penna 49">
@@ -2296,7 +2782,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Input penna 49">
@@ -2341,8 +2827,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>85275</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Input penna 52">
@@ -2361,7 +2847,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Input penna 52">
@@ -2406,8 +2892,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>95797</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Input penna 57">
@@ -2426,7 +2912,1052 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Input penna 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BACDE61-393A-8FCE-7550-3E6511C8FD26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8411122" y="13657853"/>
+              <a:ext cx="299880" cy="147297"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346089</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>524011</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66445</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Input penna 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5050B21-610A-465F-8F09-9A2725DE7F0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4675634" y="12864728"/>
+            <a:ext cx="173160" cy="85680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Input penna 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD21C19-EB8A-A0DD-E258-4A41A8E0C462}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4669514" y="12858608"/>
+              <a:ext cx="185400" cy="97920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>442702</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>92932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447824</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>93292</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Input penna 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2652E409-B339-4EAD-9B20-B84922B53F00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5854634" y="12838448"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Input penna 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780AEA21-F2E8-1A93-1259-59BA7AEE3687}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5848514" y="12832328"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>775435</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>46924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238630</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>77677</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Input penna 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E44F97B-CDE9-4D7E-9D82-867F7898C391}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4022594" y="13651688"/>
+            <a:ext cx="234720" cy="169200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3332570D-271E-2327-4116-F4F911724592}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4016474" y="13645568"/>
+              <a:ext cx="246960" cy="181440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>372729</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>6244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>532929</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>113164</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Input penna 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C460F9A5-B572-483D-A0B9-14BC2736CF80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4702274" y="13611008"/>
+            <a:ext cx="160200" cy="106920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Input penna 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C1FBC-6380-32B4-3752-5F3E1B3C8B2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4696168" y="13604888"/>
+              <a:ext cx="172413" cy="119160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12996</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>103372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197758</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>94167</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914D4F01-DB57-4F40-ACAA-FB555C21EAE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6507314" y="13564928"/>
+            <a:ext cx="180000" cy="129240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Input penna 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986542D-55A1-E17E-C0AF-68E7CF3DD474}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6501194" y="13558808"/>
+              <a:ext cx="192240" cy="141480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>702396</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>72412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220828</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>77165</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Input penna 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AF0AC7-EABB-474B-B0D2-30D32AA84D82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7196714" y="13533968"/>
+            <a:ext cx="218520" cy="147960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Input penna 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858A1CA8-7109-C499-134E-F8F88DF5326D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7190594" y="13527833"/>
+              <a:ext cx="230760" cy="160230"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283015</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>36556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475615</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>49586</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Input penna 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21CD0A1-AB4B-416B-A797-9E6ACFD02D2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6777333" y="15216608"/>
+            <a:ext cx="192600" cy="156240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Input penna 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3171DAAB-8607-4F30-3F95-A55CFD58B808}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6771213" y="15210502"/>
+              <a:ext cx="204840" cy="168452"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425909</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>125875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>77797</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Input penna 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA97E5A-1FF2-4A54-92B9-CFF96C6D3D75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10197360" y="14393392"/>
+            <a:ext cx="78562" cy="91800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Input penna 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E6E9A7-6E16-2B08-9C1E-0D77BECDA035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10191234" y="14387248"/>
+              <a:ext cx="90815" cy="104088"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592498</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>78005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150216</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83927</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Input penna 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D530F5-2878-4F11-858F-22871617C2AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6021082" y="14345522"/>
+            <a:ext cx="167318" cy="145800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Input penna 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F18FA7-5AEA-E0A8-B7FE-846856DA29F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6014965" y="14339402"/>
+              <a:ext cx="179552" cy="158040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>725616</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>21205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18996</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>26605</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Input penna 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E2BCFA-4075-430E-8F25-0BCDB995A52B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6154200" y="14428600"/>
+            <a:ext cx="17280" cy="5400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="Input penna 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D11EBF-6C78-B119-A426-E0725F19C27F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6148080" y="14422480"/>
+              <a:ext cx="29520" cy="17640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533103</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>64325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133547</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27047</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Input penna 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BCDA5B-B0C4-4727-B672-9A59028763AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8133120" y="14331842"/>
+            <a:ext cx="205282" cy="102600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Input penna 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF53EE2-4F76-2A5F-81C1-44002DF78DAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8126987" y="14325722"/>
+              <a:ext cx="217548" cy="114840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312696</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>40391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>532018</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58356</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Input penna 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992B0E3-609A-433D-9DA6-E6CFF2D20DDC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5741280" y="13608520"/>
+            <a:ext cx="214560" cy="153082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Input penna 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB8E4B5-50AE-0FFA-A532-307F231213C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5735150" y="13602411"/>
+              <a:ext cx="226821" cy="165300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353059</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>131553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29381</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>134512</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Input penna 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF34F5FB-93DB-499D-83EF-741CD1D92FFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6867360" y="13699682"/>
+            <a:ext cx="285922" cy="142838"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Input penna 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A6FE93-BB3B-B427-4F69-A78A5C1F18A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6861238" y="13693550"/>
+              <a:ext cx="298166" cy="155102"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952099</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>132191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97601</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58912</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Input penna 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0068514-95C6-4765-932C-FDC20323C95A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7466400" y="13700320"/>
+            <a:ext cx="98002" cy="66600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Input penna 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3CD629-C470-B8CC-5BBF-2BDA0385FDB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7460065" y="13694200"/>
+              <a:ext cx="110671" cy="78840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1074499</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>27593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112818</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85275</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Input penna 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC8707F-57D6-46F0-B8F9-53E3E4EA92AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7588800" y="13735600"/>
+            <a:ext cx="109882" cy="57682"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Input penna 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B51B8E-16D9-FABA-C418-C0EC26C8837D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7582675" y="13728974"/>
+              <a:ext cx="122131" cy="70933"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>817225</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285715</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95796</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Input penna 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19237A7F-71B1-4239-AA11-8F2477DC3EAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8417242" y="13663960"/>
+            <a:ext cx="287640" cy="135082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Input penna 57">
@@ -2484,7 +4015,7 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2 24575,'55'-1'0,"0"0"0,-1 2 0,99 15 0,-144-14 0,0 0 0,0 1 0,0 0 0,-1 0 0,11 6 0,-15-6 0,1-1 0,-1 2 0,0-1 0,0 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,1 1 0,3 6 0,0 2 0,0 0 0,0 0 0,-2 0 0,0 1 0,0 0 0,-1 0 0,3 23 0,-6-35-124,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,1 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2 24575,'57'-1'0,"-1"0"0,0 2 0,101 15 0,-148-14 0,1 0 0,-1 1 0,0 0 0,0 0 0,10 6 0,-15-6 0,1-1 0,-1 2 0,1-1 0,-1 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,1 1 0,3 6 0,1 2 0,-1 0 0,0 1 0,-2-1 0,0 1 0,0 0 0,0 0 0,2 23 0,-6-35-124,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,1 3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2569,10 +4100,10 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 221 24575,'0'-7'0,"1"-1"0,0 1 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,8-9 0,7-8 0,33-35 0,-26 33 0,-25 25 2,1-1-1,0 1 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,0 1-1,0-1 1,0 0-1,-1 0 0,1 0 1,-1 1-1,1 1 1,6 11-138,0 1 0,-2-1 1,8 29-1,-7-21-761,0-2-5929</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="989.11">88 141 24575,'3'0'0,"1"-3"0,3-1 0,4 0 0,3-3 0,2 1 0,1 1 0,2 1 0,0 1 0,0 2 0,-3-3 0,-4 0-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2477.97">390 178 24575,'-2'1'0,"0"-1"0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 3 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,6 8 0,-6-11 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0 3 0,0-4 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-4-1 0,-26-6-1365,17 4-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4017.69">556 309 24575,'-15'-1'0,"0"1"0,-1 0 0,0 0 0,0 2 0,-19 3 0,33-5 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,3 2 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0-1 0,-1 1 0,1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,4 0 0,-4 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,2-4 0,-1-9-1365,-2 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 242 24575,'0'-8'0,"1"-1"0,0 2 0,1-1 0,0-1 0,0 2 0,0-1 0,1 0 0,0 1 0,2-1 0,-2 0 0,8-9 0,7-9 0,35-39 0,-28 37 0,-25 27 2,1-2-1,0 2 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 1,0-2-1,-1 1 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0 1-1,1-1 0,-1 0 1,0-1-1,0 1 1,1 0-1,-2 0 0,1 0 1,0 1-1,0-1 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1 1 1,6 12-138,0 2 0,-2-2 1,8 32-1,-6-23-761,-1-2-5929</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="989.11">90 154 24575,'3'0'0,"1"-3"0,4-1 0,3-1 0,3-2 0,3 0 0,0 2 0,2 0 0,1 2 0,-1 2 0,-2-4 0,-5 1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2477.97">400 195 24575,'-2'1'0,"0"-1"0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,2 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1 2 0,-1 0 0,0 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0-2 0,0 2 0,1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,6 8 0,-6-12 0,-1 0 0,2 0 0,-2 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 2 0,0-2 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 2 0,-1-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 2 0,0 2 0,0-4 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-4-1 0,-27-7-1365,17 5-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4017.69">570 338 24575,'-15'-1'0,"-1"1"0,0 0 0,-1 0 0,1 2 0,-20 4 0,34-6 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-2 2 0,2-2 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,3 3 0,-1-2 0,0 0 0,1 2 0,0-2 0,0 0 0,0-1 0,-1 2 0,1-1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,1 0 0,-2-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,5 0 0,-5 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,2-5 0,-1-9-1365,-2 1-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2600,11 +4131,11 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 74 24575,'3'0'0,"1"3"0,0 4 0,0 4 0,-2 7 0,-1 3 0,0 1 0,-1 0 0,0-3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.58">13 74 24575,'-1'-1'0,"0"0"0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-2 0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-3 0,0 2 0,-1-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,5 0 0,-9 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-2 2 0,-1 3 0,1 0 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0-1 0,0 1 0,-7 7 0,11-13 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,49 5 0,-17-3 0,-33-2 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,-3 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,-13 3 0,-35-2-1365,38-4-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.77">481 135 24575,'0'-2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-2 0,-40-15 0,36 16 0,0 1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-12 3 0,20-3 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 2 0,2-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,2 1 0,2 1 0,-1 1 0,1-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,10 2 0,-9-2 0,1 1 0,0 0 0,-1 0 0,16 9 0,-22-11 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 5 0,-2-6-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,-1 0 23,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-6 0 0,-2 0-268,-1-1 1,1 0-1,-1-1 1,1 0-1,-18-7 1,9 1-6579</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5946.85">661 245 24575,'-1'2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,-11 8 0,15-8 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 2 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 0 0,-5-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,9-6 0,-12 7 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,-2-4 0,-22-24-1365,11 19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.38">661 245 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 74 24575,'3'0'0,"1"3"0,0 4 0,0 4 0,-2 6 0,-1 4 0,0 1 0,-1 0 0,0-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.58">13 74 24575,'-1'-1'0,"0"0"0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-2 0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-3 0,0 2 0,-1-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,5 0 0,-9 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-2 2 0,-1 3 0,1 0 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0-2 0,0 2 0,-7 7 0,11-13 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,49 5 0,-17-3 0,-33-2 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,-3 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,-13 3 0,-35-2-1365,38-4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.77">482 134 24575,'0'-2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-1 0,-40-16 0,36 16 0,-1 1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-12 3 0,20-3 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-2 0,-1 3 0,2-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,2 1 0,2 1 0,-1 1 0,1-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,10 2 0,-8-2 0,0 1 0,0 0 0,-1 0 0,16 9 0,-22-11 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 5 0,-2-6-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,-1-1 23,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-6 0 0,-2 0-268,-2-1 1,2 0-1,-1-1 1,1 0-1,-18-6 1,9 0-6579</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5946.85">662 244 24575,'-1'2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,-11 8 0,15-8 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 2 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 0 0,-5-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,9-6 0,-12 7 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-2-4 0,-22-24-1365,11 19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.37">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2690,10 +4221,94 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 30 24575,'3'3'0,"1"4"0,3 5 0,3-1 0,1 2 0,-2 1 0,-3 2 0,-2 4 0,-1 2 0,1 0 0,3 0 0,1-1 0,-2 0 0,2-2 0,0-3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2178.97">1 11 24575,'164'-10'0,"-161"10"0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,4 3 0,-6-4 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 2 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-5 3 0,-2 2 0,0 0 0,-1-1 0,1-1 0,-15 7 0,-12 7 0,36-19 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,19 4 0,21-2 0,8-4 0,58 3 0,-105-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 2 0,-16 16 0,-29 13 0,-10-3-1365,35-19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4062.71">518 104 24575,'-2'1'0,"0"1"0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-4 0 0,-3 1 0,2 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-9 7 0,12-10 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 4 0,1-3 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 0 0,5 0 0,-2 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 1 0,7 1 0,-11-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-6 1 0,-50 0-1365,41-1-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5488.49">610 265 24575,'1'5'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,8 3 0,-10-4 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,2-6 0,0 1-195,0-1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0-13 0,-1 6-6631</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 33 24575,'3'3'0,"1"5"0,3 6 0,3-2 0,1 2 0,-2 2 0,-3 1 0,-2 6 0,-1 1 0,1 0 0,3 1 0,1-2 0,-2 0 0,2-1 0,0-5-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2178.97">1 12 24575,'164'-11'0,"-161"11"0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,4 4 0,-6-5 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 1 0,-1-2 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0 1 0,0 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,-1 2 0,1-1 0,-1-1 0,0 2 0,0-2 0,0 1 0,0-1 0,0 1 0,-5 2 0,-2 3 0,0 0 0,-1-2 0,1 0 0,-15 7 0,-12 8 0,36-21 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,19 4 0,21-1 0,8-6 0,58 4 0,-105-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 2 0,-1-2 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 3 0,-16 17 0,-29 14 0,-10-3-1365,35-21-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4062.71">518 115 24575,'-2'1'0,"0"2"0,0-1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1-1 0,0 2 0,-1-1 0,1 0 0,-4 0 0,-3 1 0,2 1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 2 0,-9 7 0,12-11 0,1 1 0,-1-2 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,0 2 0,-1-2 0,1 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 2 0,1-2 0,-1 0 0,1 0 0,0 0 0,1 5 0,1-4 0,-1 0 0,1-1 0,0 0 0,0 0 0,0-1 0,0 2 0,0-2 0,0 0 0,0 1 0,1-1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 0 0,5 0 0,-2 0 0,-1 0 0,1 1 0,-1 1 0,1-1 0,-1 1 0,7 1 0,-11-2 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 2 0,0-2 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 2 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-2 0,-6 1 0,-50 0-1365,41-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5488.49">610 294 24575,'1'5'0,"-1"1"0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,1 1 0,-1-1 0,0-1 0,1 2 0,0-2 0,0 0 0,0 1 0,0-1 0,1 0 0,8 4 0,-10-5 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 1 0,0-2 0,-1 1 0,1 0 0,-1 0 0,1-2 0,-1 2 0,0-1 0,0 1 0,0-2 0,-1 1 0,1 1 0,0-2 0,-1 1 0,2-7 0,0 1-195,0-1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0-14 0,-1 6-6631</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.837"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2 24575,'57'-1'0,"-1"0"0,0 2 0,101 15 0,-148-14 0,1 0 0,-1 1 0,0 0 0,0 0 0,10 6 0,-15-6 0,1-1 0,-1 2 0,1-1 0,-1 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,1 1 0,3 6 0,1 2 0,-1 0 0,0 1 0,-2-1 0,0 1 0,0 0 0,0 0 0,2 23 0,-6-35-124,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,1 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.839"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.840"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 218 24575,'-2'-26'0,"-1"0"0,-6 1 0,-19-32 0,25 47 0,-2 0 0,2-1 0,0 0 0,3 1 0,6-13 0,-9 23 0,3 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,3-1 0,-3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,2-1 0,-2 1 0,0 0 0,0 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,0 0 0,0 0 0,3 0 0,-3-1 0,0 1 0,0 0 0,3 0 0,-3 0 0,23 7 0,19 19 0,-39-24 0,50 39 0,74 89 0,-98-99 0,7 23 0,-24-37 0,-1 1 0,23 20 0,-34-38 0,0 1 0,0-1 0,0 0 0,2 0 0,-2 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,3 0 0,-3 0 0,0 0 0,0 1 0,0-1 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,3 1 0,-3-1 0,0 0 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,3 0 0,14-6 0,5-15 0,12-29 0,-28 35 0,2 1 0,3 0 0,26-24 0,0 10 0,33-38 0,-61 53 0,2 0 0,-5 1 0,-1-1 0,1-1 0,-3-21 0,-3 264 0,-3-92 0,3-46-1365,0-83-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1310 313 24575,'-3'37'0,"6"40"0,-3-77 0,0 2 0,0-1 0,0 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,3 0 0,-3 0 0,3-1 0,-3 1 0,3 0 0,-3 0 0,3-1 0,-3 1 0,2-1 0,1 1 0,-3 0 0,9 0 0,-7-1 0,1 1 0,3-1 0,-3 1 0,0-1 0,2 0 0,-2 0 0,3 0 0,-4 0 0,1 0 0,3 0 0,-3 0 0,2 0 0,1-1 0,17-1 0,-1-1 0,-2 0 0,39-9 0,-50 10 0,95-12 0,-84 12 0,0-1 0,-1 1 0,1-2 0,28-4 0,-42 5 0,-1 2 0,1-1 0,0 0 0,-3 0 0,2 0 0,1 0 0,-3 0 0,2 0 0,-2 0 0,3 0 0,-3-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-3-1 0,3-3 0,2-7 0,-5 1 0,3-1 0,-11-24 0,8 36 0,0 0 0,-3 0 0,3 0 0,-3 0 0,3 0 0,0 0 0,-3 1 0,0-1 0,3 0 0,-2 0 0,2 0 0,-3 0 0,0 1 0,0-1 0,3 0 0,-3 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-5 0 0,-15-1 0,1 1 0,2 0 0,-28 1 0,20-1 0,-9 1 0,17-1 0,-2 0 0,2 1 0,-28 2 0,40-3 0,-1 1 0,1 0 0,2 1 0,-2-1 0,-1 0 0,3 1 0,-2 0 0,2-1 0,-2 1 0,2 0 0,-11 5 0,-5 3-1365</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2725,6 +4340,301 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.842"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 251 24575,'-1'-46'0,"2"-50"0,4 64 0,0-16 0,-6 48 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,4 7 0,3 16 0,-6-8 0,7 29 0,-8-41 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,-5-7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2-2 0,1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-2 0,6-8 0,-3 0 0,2 1 0,0 0 0,0 1 0,13-15 0,-19 24 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-3 0,0 59 0,-4-35 0,-6 22 0,5-23 0,-3 29 0,6-45-50,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 1-1,-4 0-6775</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">445 168 24575,'0'1'0,"-2"1"0,0 2 0,0 1 0,0 2 0,1 1 0,0 1 0,1 2 0,-2 0 0,0 1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.844"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 204 24575,'-2'-2'0,"1"-1"0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,0-4 0,-2-33 0,2 23 0,2-72 0,-1 88 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 0,-2 2 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,4 5 0,-1-1 0,-1 1 0,6 8 0,-5-7 0,-1-1 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,7 6 0,-10-9 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1-1 0,-2 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-3 0,11-20 0,-12 20 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,3-4 0,3 1 0,-4 8 0,-4 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 3 0,1 106 71,-1-55-1507,0-47-5390</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 166 24575,'2'1'0,"-1"0"0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,0 4 0,4 1 0,-5-6 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 4 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-2-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 4 0,4-1 0,0-3 0,2-1 0,-1 1 0,0-1 0,0 1 0,-7 4 0,25-21 0,-8 9 0,-1 0 0,1-1 0,-1 1 0,0-1 0,6-9 0,-7 9 0,1-1 0,1 1 0,-1 0 0,10-7 0,-8 9 0,0 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,16 0 0,-12 0 0,51-1-1365,-53 3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.846"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">155 281 24575,'-10'-4'0,"0"0"0,3-1 0,-3 1 0,4 0 0,-1-1 0,1 0 0,2 1 0,-2-1 0,3 0 0,-1 0 0,1-7 0,-20-18 0,10 19 0,3-1 0,0 0 0,0 0 0,7 0 0,-4 0 0,4 0 0,3-18 0,0 29 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,3-1 0,-3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,4 0 0,-4-1 0,0 1 0,0 0 0,0 0 0,3 0 0,-3-1 0,0 1 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,30 6 0,16 13 0,-13-2 0,56 22 0,-46-23 0,32 20 0,-68-33 0,-4 0 0,4-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,14 1 0,-17-2 0,1-1 0,-4 1 0,3-1 0,0 1 0,0-1 0,1 0 0,-4 0 0,3 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,-3 0 0,3 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-3-1 0,3 1 0,0 0 0,1 0 0,-1-1 0,-3 1 0,3-1 0,1 1 0,-4-1 0,3 1 0,0-1 0,-3 1 0,3-1 0,1 0 0,-4 1 0,3-1 0,-3 0 0,3-1 0,30-17 0,-6 0 0,35-39 0,-42 40 0,0-1 0,-1 1 0,8 1 0,42-24 0,-69 41 0,0 0 0,0-1 0,3 1 0,-3-1 0,0 1 0,0 0 0,0-1 0,3 1 0,-3 0 0,0-1 0,0 1 0,4 0 0,-4-1 0,0 1 0,3 0 0,-3 0 0,0-1 0,3 1 0,-3 0 0,3 0 0,-3 0 0,0-1 0,4 1 0,-4 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,0 0 0,4 0 0,-4 0 0,3 0 0,0 0 0,-3 1 0,3-1 0,1 1 0,-4 0 0,3 0 0,-3-1 0,3 1 0,-3 0 0,4 0 0,-4 0 0,0 0 0,3 0 0,-3-1 0,3 3 0,10 33 0,-9 65 76,-8-50-1517,4-44-5385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1342 178 24575,'17'1'0,"-1"-1"0,1 1 0,-4 0 0,3 0 0,30 4 0,-26-3 0,-3 0 0,2 0 0,31 1 0,-34-3 0,0 1 0,-2 0 0,2 0 0,-3 1 0,4-1 0,-4 1 0,3 1 0,-3-1 0,1 0 0,19 5 0,-30-6 0,0 0 0,4 0 0,-4 0 0,0 0 0,1 0 0,-4 0 0,3 0 0,0 1 0,0-1 0,-3 0 0,4 1 0,-1-1 0,-3 0 0,3 1 0,-3-1 0,0 0 0,0 1 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-4-1 0,4 1 0,0-1 0,0 0 0,-3 1 0,3-1 0,-3 0 0,-1 1 0,4-1 0,-3 0 0,0 1 0,0-1 0,-1 0 0,4 0 0,-10 1 0,4 1 0,-4 0 0,0-1 0,0 1 0,0-1 0,-3 0 0,3 0 0,0 0 0,-3 0 0,3-1 0,-3 1 0,0-1 0,0 0 0,-13 1 0,-70 8 0,123-13 0,-1-1 0,0 2 0,0-1 0,1 1 0,-1 1 0,4-1 0,-4 1 0,0 1 0,4 0 0,-4 0 0,4 0 0,-4 1 0,40 3 0,-59-4 0,-4 1 0,0 0 0,4-1 0,-4 1 0,0 0 0,4 0 0,-4 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-4 1 0,3-1 0,0 0 0,-3 1 0,3-1 0,-3 1 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-4 1 0,1 1 0,0 0 0,0-1 0,-1 1 0,-2-1 0,2 1 0,-2-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-4-1 0,-6 4 0,2-3-91,5-1 0,-5 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,-2 1 0,3-1 0,0 0 0,-4-1 0,4 1 0,-23-1 0,10 0-6735</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.848"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 213 24575,'1'-4'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,3-6 0,-3 6 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-9 0,-1-3 0,-1-1 0,-1 0 0,-3-18 0,0 5 0,4 29 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0-2 0,-1 3 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,2 2 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,22 71 0,-22-67 0,2 12 0,1 8 0,-5-27 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2 1 0,-3-3 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,1-1 0,1-4 0,0-1 0,3-15 0,-6 22 0,2-4 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,5-4 0,-1-3 0,0 2 0,-6 12 0,-1 8 0,-2 15 0,0-1 0,-9 38 0,7-41-341,0-1 0,2 1-1,1 21 1,0-35-6485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 241 24575,'0'16'0,"0"-1"0,-1 1 0,-5 22 0,5-34 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-7 4 0,5-6 0,7-5 0,9-8 0,50-30 0,-56 39 0,-1 1 0,0 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,7-1 0,7 1 0,34 1 0,-20 1 0,-31-1-54,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 1,0 2-1,2 2-6771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">444 222 24575,'-5'64'0,"0"3"0,6 6-1365,-1-65-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.851"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 74 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 4 0,0 5 0,0-4-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,12 0 0,-14 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 8 0,-5-10 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-14-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.853"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">566 0 24575,'-32'1'0,"5"0"0,-4 0 0,-1 1 0,5 0 0,-1 0 0,-3 1 0,4-1 0,-1 1 0,1 1 0,0-1 0,4 2 0,-4-1 0,5 0 0,-1 1 0,-22 5 0,36-9 0,0 1 0,0 0 0,-1 0 0,1 0 0,5 1 0,-5-1 0,0 0 0,4 1 0,1-1 0,-1 1 0,-4 0 0,5 0 0,4 0 0,-5-1 0,1 1 0,4 0 0,-5 0 0,5-1 0,0 1 0,0 0 0,0 0 0,0 0 0,5-1 0,-5 1 0,4 0 0,1 0 0,-5-1 0,4 1 0,1 1 0,4-2 0,-5 1 0,1-1 0,4 0 0,-5 1 0,5-1 0,0 0 0,1 0 0,8 2 0,4-1 0,-4 0 0,5-1 0,0 1 0,-1-1 0,6 0 0,-6-1 0,1 1 0,4-1 0,-4 0 0,-1 0 0,5-1 0,-4 0 0,31 0 0,191 9 0,-231-9 0,-5 1 0,4 0 0,-4 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-5 1 0,5 0 0,-4 0 0,4 0 0,-4 1 0,8 2 0,-13-3 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-4 1 0,4-1 0,0 1 0,-5-1 0,5 1 0,-4-1 0,4 2 0,-5-2 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-5 0 0,4-1 0,1 1 0,-5 0 0,4 0 0,0-1 0,-13 1 0,-208 21 0,185-19-227,0-1-1,-4-1 1,4 1-1,-4-2 1,-41 1-1,14-1-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1599 246 24575,'0'-1'0,"-5"1"0,5-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-4-1 0,4 1 0,0-1 0,0 1 0,-5 0 0,5-1 0,0 1 0,-4 0 0,4-1 0,0 1 0,-5 0 0,5-1 0,-4 1 0,4 0 0,-5 0 0,5 0 0,0-1 0,-4 1 0,4 0 0,-5 0 0,5 0 0,-5 0 0,5 0 0,-4 0 0,4 0 0,-5 0 0,5 0 0,0 0 0,-4 0 0,4 0 0,-5 0 0,5 0 0,-4 1 0,4-1 0,-5 0 0,5 0 0,0 0 0,-4 1 0,4-1 0,-5 0 0,5 1 0,0-1 0,-4 0 0,4 1 0,-109 15 0,95-13 0,1 1 0,4 0 0,-5 0 0,5 0 0,-4 0 0,3 2 0,6-2 0,-5 1 0,0-1 0,4 1 0,1-1 0,-1 1 0,5 0 0,-4 0 0,4-1 0,0 1 0,0 1 0,9 5 0,-9-8 0,9 0 0,-5 1 0,1-1 0,4 0 0,-5 0 0,6 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,4 0 0,-4 0 0,5 0 0,0-1 0,-1 0 0,-4 0 0,5 0 0,4 0 0,-4-1 0,-1 1 0,1-1 0,4 0 0,-5 1 0,28 0 0,-23-2 5,0 1-1,1-1 1,-1 0 0,0 1-1,0-2 1,0 1-1,0 0 1,0-1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,0 0-1,-5 0 1,6 0 0,-6 0-1,5 0 1,-4 0-1,-1-1 1,1-1 0,0 1-1,-1 0 1,1 0-1,13-6 1,-18 7-51,0-1-1,0 0 1,-4 0-1,4 0 1,-5 0 0,5 0-1,-4-1 1,-1 1-1,-4 0 1,5-1 0,-1 0-1,-4 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,-4 0-1,-1-1 1,5 1-1,-4 0 1,-5-1 0,4 1-1,1 0 1,-5-1-1,4 1 1,-4 0 0,0 0-1,0 1 1,0-1-1,-14-3 1,-27-4-6780</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.855"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'86'0'0,"28"-3"0,172-1 0,142 0 0,0 1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.856"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">642 21 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-4-1 0,4 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,4 0 0,-4 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,4 1 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,4 0 0,-4-1 0,0 1 0,0 0 0,0 0 0,0 0 0,4 0 0,-86-9 0,66 9 0,-4-1 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,-23 3 0,35-2 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,4 1 0,-3-1 0,3 0 0,-4 1 0,4 0 0,0-1 0,0 1 0,0 0 0,0-1 0,4 2 0,-4-1 0,4 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0 0 0,0-1 0,0 0 0,4 0 0,-4 0 0,4 0 0,0 0 0,0 0 0,0 1 0,4-1 0,-4 0 0,4-1 0,-1 1 0,1-1 0,12 5 0,-1-4 0,-3 1 0,3-1 0,5-1 0,-5 1 0,1-1 0,3 0 0,1-1 0,-5 1 0,40 1 0,-24 1 0,0-2 0,1 2 0,-1-1 0,0 1 0,51 11 0,-82-15 0,4 0 0,-4 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-4 1 0,4-1 0,0 0 0,-4 1 0,4-1 0,0 1 0,-4-1 0,0 1 0,4-1 0,-4 3 0,0-2 0,-4 1 0,4-1 0,-4-1 0,0 1 0,0 0 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,-4 1 0,5-1 0,-1 0 0,-4 1 0,4-1 0,0 0 0,-4 0 0,4 0 0,-4 0 0,-7 1 0,-24 1-14,0 2 1,0-2-1,-1-1 0,-3 0 1,4 0-1,-4-1 0,4 0 0,-4-1 1,0 0-1,4-1 0,-43-2 0,-62 1-1186,81 2-5626</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1635 140 24575,'-31'47'0,"23"-41"0,0 1 0,0 0 0,4 0 0,0 0 0,4 0 0,-4 0 0,8 11 0,-4-16 0,4-1 0,0 1 0,-4 0 0,4-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,5 0 0,-4 1 0,0-1 0,4 0 0,-4 0 0,4 0 0,-1 0 0,-3 1 0,4-1 0,-4-1 0,4 1 0,0-1 0,0 1 0,-5-1 0,5 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,3 0 0,1 0 0,0 0 0,12-1 0,-1 0-45,1 1-1,3-1 1,-3 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-5 0 1,5 0-1,0-1 1,-5 1-1,1-1 1,3 0-1,-3 0 1,0-1-1,-5 1 1,5-2-1,0 1 1,-5 0-1,1 0 1,0 0-1,0-1 1,-5 1-1,5-2 1,-4 1-1,0 0 0,-4 1 1,3-1-1,5-9 1,-8-1-6781</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.858"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 242 24575,'0'-8'0,"1"-1"0,0 2 0,1-1 0,0-1 0,0 2 0,0-1 0,1 0 0,0 1 0,2-1 0,-2 0 0,8-9 0,7-9 0,35-39 0,-28 37 0,-25 27 2,1-2-1,0 2 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 1,0-2-1,-1 1 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0 1-1,1-1 0,-1 0 1,0-1-1,0 1 1,1 0-1,-2 0 0,1 0 1,0 1-1,0-1 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1 1 1,6 12-138,0 2 0,-2-2 1,8 32-1,-6-23-761,-1-2-5929</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">90 154 24575,'3'0'0,"1"-3"0,4-1 0,3-1 0,3-2 0,3 0 0,0 2 0,2 0 0,1 2 0,-1 2 0,-2-4 0,-5 1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">400 195 24575,'-2'1'0,"0"-1"0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,2 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1 2 0,-1 0 0,0 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0-2 0,0 2 0,1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,6 8 0,-6-12 0,-1 0 0,2 0 0,-2 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 2 0,0-2 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 2 0,-1-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 2 0,0 2 0,0-4 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-4-1 0,-27-7-1365,17 5-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">570 338 24575,'-15'-1'0,"-1"1"0,0 0 0,-1 0 0,1 2 0,-20 4 0,34-6 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-2 2 0,2-2 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,3 3 0,-1-2 0,0 0 0,1 2 0,0-2 0,0 0 0,0-1 0,-1 2 0,1-1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,1 0 0,-2-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,5 0 0,-5 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,2-5 0,-1-9-1365,-2 1-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.862"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 76 24575,'9'0'0,"3"3"0,1 4 0,-1 4 0,-6 8 0,-3 2 0,0 2 0,-3-1 0,0-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">40 76 24575,'-3'-1'0,"0"0"0,3 1 0,-3-1 0,0 0 0,0 0 0,-1 0 0,4 0 0,-3 0 0,3 0 0,-3 0 0,0 0 0,3 0 0,0 0 0,-3-1 0,3 1 0,0 0 0,-3 0 0,3-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-3-2 0,6 1 0,-3 0 0,0 0 0,4 0 0,-4 0 0,3 0 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,1 1 0,8-4 0,0 3 0,-3-1 0,1 1 0,2 0 0,0 1 0,-2-1 0,2 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1 0 0,16 0 0,-28 1 0,3 0 0,0-1 0,-3 1 0,3 0 0,-3 0 0,3 0 0,-3 0 0,4 0 0,-4 0 0,3 0 0,-3 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-3 1 0,4 0 0,-4-1 0,3 1 0,-3 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-3 0 0,3 0 0,-4-1 0,4 1 0,-6 2 0,-3 4 0,3-1 0,-3-1 0,0 0 0,-4 1 0,1-1 0,0 0 0,0 0 0,-22 7 0,34-13 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-4 0 0,4 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,-3 1 0,3-1 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-3-1 0,3 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,3 1 0,-3-1 0,0 1 0,0-1 0,0 1 0,0-1 0,3 2 0,-3-2 0,0 0 0,0 1 0,3-1 0,-3 1 0,0-1 0,3 1 0,-3-1 0,0 0 0,4 1 0,-4-1 0,3 0 0,-3 0 0,0 1 0,3-1 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-3 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,6 0 0,150 5 0,-51-3 0,-102-2 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,-3 1 0,3-1 0,0 1 0,-3-1 0,3 1 0,0 0 0,-3-1 0,4 1 0,-4 0 0,3 0 0,-3-1 0,3 1 0,-3 0 0,0 0 0,3 0 0,-3 0 0,0-1 0,0 1 0,3 0 0,-3 0 0,0 1 0,-3 0 0,3-1 0,-3 1 0,3-1 0,-3 1 0,0 0 0,-1-1 0,4 0 0,-3 1 0,0-1 0,0 0 0,-3 0 0,3 0 0,0 0 0,-6 2 0,-10 1 0,4 0 0,-3-1 0,-1 0 0,1 0 0,-1 0 0,-39 4 0,-107-3-1365,116-4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1475 138 24575,'0'-2'0,"-3"0"0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 0 0,4 1 0,-3-1 0,3 1 0,-3-1 0,3 1 0,-3-1 0,0 1 0,0 0 0,-10-3 0,-122-14 0,111 16 0,-1 1 0,0 1 0,-2 0 0,2 0 0,1 0 0,-1 1 0,-36 3 0,60-3 0,-2-1 0,0 0 0,3 1 0,-3 0 0,0-1 0,3 1 0,-3 0 0,3 0 0,-4 0 0,4 0 0,-3 0 0,3 0 0,0 1 0,0-1 0,-3 0 0,3 1 0,0 0 0,-3 1 0,6-1 0,0 0 0,-3-1 0,3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-3 0 0,0 0 0,3-1 0,-3 1 0,3 0 0,0-1 0,-3 1 0,3-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 2 0,6 0 0,7 1 0,-4 1 0,3-1 0,4 0 0,-4-1 0,0 1 0,4-1 0,-1 0 0,-2 0 0,2-1 0,0 1 0,4-1 0,30 2 0,-27-2 0,2 1 0,1 0 0,-4 0 0,50 9 0,-68-11 0,3 1 0,-3 0 0,4 0 0,-4 0 0,0 2 0,0-2 0,0 0 0,0 1 0,-3-1 0,3 1 0,-2 0 0,2-1 0,-3 1 0,0 0 0,0 0 0,0 0 0,-3 0 0,6 6 0,-6-7-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 1,-3 0-1,3 1 0,-3-1 0,0 0 0,3 0 0,-3 1 0,0-1 0,0 0 0,0 0 0,3 0 0,-4 0 0,-2 0 0,3 0 0,0 0 0,-6 1 0,-3 0 23,-1 0 0,1 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-19 0 0,-6 0-268,-3-1 1,3 0-1,-2-1 1,2 0-1,-55-8 1,27 2-6579</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">2027 251 24575,'-3'2'0,"-3"0"0,3 0 0,-3 0 0,0 0 0,3-1 0,-4 1 0,1 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-12 0 0,-34 8 0,46-8 0,0 1 0,2-1 0,-2 0 0,0 1 0,0-1 0,3 1 0,-3 0 0,3-1 0,0 1 0,0 0 0,-3 0 0,2 1 0,1-1 0,0 0 0,3 0 0,-3 0 0,0 0 0,3 1 0,-3-1 0,3 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,3-1 0,-3 0 0,3 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,6 2 0,0 0 0,3-1 0,-2 1 0,2-1 0,0 0 0,0 0 0,1 1 0,2-2 0,-3 1 0,1-1 0,2 0 0,0 0 0,-3-1 0,4 1 0,-1-1 0,0 0 0,19 0 0,-15-1 0,-1 0 0,0 0 0,1 0 0,-4-1 0,4 0 0,-1 0 0,0-1 0,-2 0 0,2 0 0,-3 0 0,4 0 0,-4-1 0,0-1 0,28-5 0,-36 7 0,-1 0 0,0 0 0,0-1 0,0 1 0,-3 0 0,3-1 0,0 1 0,-3-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 2 0,0-1 0,-3 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 1 0,-3-1 0,3 0 0,-3-1 0,0 1 0,0 1 0,0-1 0,-4 0 0,-5-4 0,-68-25-1365,34 20-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">2027 251 24575,'9'0'0,"13"0"0,12 0 0,12 0 0,-4 0 0,1 0 0,3-3 0,-6-1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -2749,8 +4659,97 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 212 24575,'-1'-25'0,"0"0"0,-2 0 0,-7-30 0,9 45 0,-1 0 0,1 0 0,0-1 0,1 1 0,2-12 0,-3 22 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,8 7 0,7 18 0,-14-23 0,18 38 0,26 86 0,-35-95 0,3 21 0,-9-35 0,0 0 0,8 20 0,-12-37 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,5-6 0,2-14 0,4-29 0,-10 35 0,1 0 0,1 0 0,9-23 0,0 10 0,12-37 0,-22 51 0,1 1 0,-2 0 0,0-1 0,0 0 0,-1-21 0,-1 256 0,-1-88 0,1-46-1365,0-80-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2315.98">464 305 24575,'-1'36'0,"2"39"0,-1-75 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,3 0 0,-2-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,6-1 0,0-1 0,-1 0 0,14-8 0,-18 9 0,34-12 0,-30 12 0,0-1 0,0 1 0,0-2 0,10-4 0,-15 6 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1-2 0,1-8 0,-2 1 0,1 0 0,-4-24 0,3 35 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 0 0,-5-1 0,0 1 0,1 0 0,-10 1 0,7-1 0,-3 1 0,6-1 0,-1 0 0,1 1 0,-10 2 0,14-3 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-4 4 0,-2 4-1365</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">20 212 24575,'-1'-25'0,"0"0"0,-2 0 0,-7-30 0,9 45 0,-1 0 0,1 0 0,0-1 0,1 1 0,2-12 0,-3 22 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,8 7 0,7 18 0,-14-23 0,18 38 0,26 86 0,-35-95 0,3 22 0,-9-36 0,0 0 0,8 20 0,-12-37 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,5-6 0,2-14 0,4-29 0,-10 35 0,1 0 0,1 0 0,9-24 0,0 11 0,12-37 0,-22 51 0,1 1 0,-2 0 0,0-1 0,0 0 0,-1-21 0,-1 257 0,-1-89 0,1-46-1365,0-80-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2315.98">463 306 24575,'-1'36'0,"2"39"0,-1-75 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,3 0 0,-2-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,6-1 0,0-1 0,-1 0 0,14-8 0,-18 9 0,34-12 0,-30 12 0,0-1 0,0 1 0,0-2 0,10-4 0,-15 6 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1-2 0,1-8 0,-2 1 0,1 0 0,-4-24 0,3 35 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 0 0,-5-1 0,0 1 0,1 0 0,-10 1 0,7-1 0,-3 1 0,6-1 0,-1 0 0,1 1 0,-10 2 0,14-3 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-4 4 0,-2 4-1365</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.867"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">206 177 24575,'29'-9'0,"-4"-2"0,1 1 0,0-1 0,21-14 0,85-33 0,-92 43 0,-29 11 0,0-2 0,0 2 0,3 0 0,1 0 0,-4-1 0,22-2 0,-30 6 0,1 1 0,0-1 0,-1 1 0,1 0 0,-4 0 0,4-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-3 0 0,4 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,-3 1 0,4-1 0,0 1 0,-1-1 0,-3 1 0,4-1 0,-1 1 0,1-1 0,-4 1 0,4 0 0,-4-1 0,3 1 0,1 0 0,-4-1 0,0 1 0,4 1 0,-4-1 0,3 0 0,-3-1 0,0 1 0,0 0 0,4 2 0,58 29-102,-44-22-24,4 0-1,-3 0 1,-5 0 0,1 1-1,-1-1 1,-3 2 0,-3-2 0,3 2-1,0 18 1,-8-13-6700</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 139 24575,'11'0'0,"15"0"0,17 0 0,9-3 0,10-2 0,18 1 0,4 0 0,0 2 0,-3 0 0,-1 1 0,-3 0 0,-8-2 0,0-1 0,1 1 0,-15 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.869"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">189 38 24575,'-16'1'0,"1"0"0,2 1 0,-2 0 0,0 1 0,2-1 0,-26 7 0,35-7 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 2 0,-1-2 0,3 1 0,-2 0 0,-5 3 0,9-3 0,0-2 0,-2 1 0,2 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 0 0,2-1 0,0 1 0,0 0 0,2 0 0,-2-1 0,0 1 0,0 0 0,0 1 0,0-1 0,2-1 0,-2 1 0,0 0 0,2-1 0,-2 1 0,0 0 0,2-1 0,-2 1 0,3 0 0,-3-1 0,2 1 0,-2-1 0,2 1 0,0 0 0,5 2 0,-1-1 0,1 0 0,-1-1 0,3 1 0,-3-1 0,1 0 0,1 0 0,14 3 0,-15-4 0,-1 1 0,1-1 0,-3 1 0,2 0 0,1 0 0,-1 0 0,-1 1 0,1-1 0,-1 2 0,1-2 0,-2 1 0,12 4 0,-16-6 0,0 0 0,0 0 0,2 0 0,-2 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,2 0 0,-2 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-2 1 0,2-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-2 1 0,2-1 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 0 0,0 1 0,-2-1 0,-32 6 0,-36-3 0,29-3-1365,2 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">418 38 24575,'2'9'0,"1"-1"0,1 1 0,0 0 0,1-1 0,1 0 0,1 1 0,-1-1 0,18 13 0,-22-20 0,0 2 0,0-2 0,-2 0 0,3 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 1 0,0-2 0,3 1 0,-3 0 0,0-1 0,2 1 0,-2-1 0,3 0 0,-3 1 0,0-1 0,2 0 0,-1 0 0,1 0 0,2 0 0,-1-1 0,-3 0 0,2 1 0,1-1 0,-1 0 0,-2-2 0,2 2 0,-1 0 0,1 0 0,-2-1 0,2 1 0,-1-1 0,-1 1 0,0-2 0,2 2 0,1-4 0,3-5 0,1 1 0,0 0 0,-3 0 0,1-1 0,-3 0 0,5-18 0,-7 8-1365,0 3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T10:58:50.871"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 32 24575,'7'3'0,"2"4"0,8 6 0,6-1 0,2 1 0,-4 2 0,-7 2 0,-4 4 0,-3 3 0,2-1 0,7 0 0,3-1 0,-5 1 0,4-3 0,1-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 12 24575,'381'-11'0,"-374"11"0,0 0 0,0 0 0,0 0 0,-2 1 0,2 0 0,0-1 0,0 1 0,0 0 0,9 3 0,-14-4 0,1 2 0,-1-2 0,-2 1 0,2 0 0,1-1 0,-3 1 0,2 0 0,0 0 0,-2-1 0,3 1 0,-3 0 0,2 0 0,-2 0 0,0-1 0,2 1 0,-2 0 0,0 0 0,3 0 0,-3 0 0,0 3 0,0-1 0,-3 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1-1 0,-1 1 0,1 0 0,-1-1 0,-1 2 0,0-2 0,1 1 0,-1-1 0,1 0 0,-13 3 0,-4 3 0,0-1 0,-2 0 0,2-2 0,-35 8 0,-27 7 0,83-20 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-2-1 0,2 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,44 4 0,49-2 0,19-4 0,134 3 0,-243-1 0,-3 0 0,2 0 0,-2 0 0,2 0 0,-2-1 0,3 1 0,-3 1 0,2-1 0,-2 0 0,2 0 0,-2 0 0,3 0 0,-3 0 0,2 0 0,-2 0 0,2 1 0,-2-1 0,3 0 0,-3 0 0,2 1 0,-2-1 0,0 0 0,2 1 0,-2-1 0,3 2 0,-3-2 0,0 0 0,0 1 0,2-1 0,-2 1 0,0-1 0,2 1 0,-2-1 0,0 1 0,0-1 0,0 1 0,0-1 0,3 2 0,-38 17 0,-68 14 0,-22-4-1365,81-19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1203 110 24575,'-4'1'0,"-1"1"0,0 0 0,1-1 0,-1 0 0,0 1 0,1 0 0,-3-1 0,2-1 0,0 1 0,-2 0 0,3 0 0,-10 0 0,-7 1 0,5 1 0,2 0 0,0 2 0,0-2 0,0 1 0,0 0 0,2 2 0,-20 6 0,27-10 0,3 1 0,-3-2 0,3 1 0,-3 0 0,3 0 0,-1 0 0,-1 0 0,1 0 0,1 0 0,2 1 0,-2-1 0,-1 0 0,1 0 0,2 0 0,0 1 0,-2-1 0,2 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 1 0,2-1 0,-2 0 0,2 0 0,1 1 0,1 3 0,3-3 0,-2-1 0,2 0 0,0 0 0,0 1 0,0-2 0,0 1 0,0-1 0,0 0 0,0 1 0,2-1 0,-2-1 0,0 1 0,2 0 0,-2-1 0,3 0 0,-3 0 0,11 0 0,-4 0 0,-2 0 0,2 1 0,-3 0 0,3 0 0,-2 1 0,16 2 0,-26-3 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,-2 1 0,3 0 0,-1 0 0,0-1 0,0 1 0,-2 0 0,3 0 0,-1 0 0,-2-1 0,2 1 0,-2 0 0,3 0 0,-3 0 0,2 1 0,-2-1 0,0 0 0,2 0 0,-2 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,2 0 0,0 1 0,-2-1 0,2 0 0,-3 0 0,1 1 0,-3 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-2-1 0,2 2 0,-2-2 0,3 0 0,-3 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,2-1 0,-13 1 0,-117 0-1365,95-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1417 280 24575,'2'6'0,"-2"-1"0,3 0 0,-1 1 0,0-1 0,3 0 0,-3 1 0,3-1 0,0-1 0,-1 1 0,3 0 0,0 0 0,-2-1 0,2 0 0,2 1 0,-2-1 0,0-1 0,3 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,1 0 0,20 3 0,-24-3 0,0-2 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,3 1 0,-3-1 0,0 0 0,0 0 0,2 0 0,-2 0 0,0-1 0,0 1 0,0-1 0,2 0 0,-2 0 0,0 0 0,0 0 0,0 0 0,0-2 0,-2 1 0,2 1 0,0-1 0,-3 0 0,3 0 0,-2 0 0,2-1 0,-2 0 0,-1 0 0,1 1 0,0-1 0,-3 0 0,2 1 0,1-1 0,-3-1 0,5-5 0,0 0-195,0 0 0,-2-1 0,-3 1 0,3-1 0,-3 1 0,1-15 0,-3 7-6631</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2807,8 +4806,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 203 24575,'-2'-2'0,"1"-1"0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,0-4 0,-2-33 0,2 23 0,2-72 0,-1 88 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 0,-2 2 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,3 5 0,0-1 0,-1 1 0,6 8 0,-5-7 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,7 6 0,-10-9 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-3 0,11-20 0,-12 20 0,1-1 0,0 1 0,0 0 0,1 0 0,0 0 0,3-4 0,3 1 0,-4 8 0,-4 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 3 0,1 106 71,-1-56-1507,0-46-5390</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2752.95">297 166 24575,'2'1'0,"-1"0"0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,0 3 0,4 2 0,-5-6 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 4 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 4 0,4-1 0,1-3 0,1-1 0,-1 1 0,0-1 0,0 1 0,-7 4 0,25-21 0,-8 9 0,-1 0 0,0-1 0,0 1 0,0-1 0,6-9 0,-7 9 0,1-1 0,0 1 0,0 0 0,10-7 0,-8 9 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,15 0 0,-11 0 0,49-1-1365,-51 3-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 204 24575,'-2'-2'0,"1"-1"0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,0-4 0,-2-33 0,2 23 0,2-72 0,-1 88 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 0,-2 2 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,4 5 0,-1-1 0,-1 1 0,6 8 0,-5-7 0,-1-1 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,7 6 0,-10-9 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1-1 0,-2 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-3 0,11-20 0,-12 20 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,3-4 0,3 1 0,-4 8 0,-4 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 3 0,1 106 71,-1-55-1507,0-47-5390</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2752.95">305 166 24575,'2'1'0,"-1"0"0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,0 4 0,4 1 0,-5-6 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 4 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-2-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 4 0,4-1 0,0-3 0,2-1 0,-1 1 0,0-1 0,0 1 0,-7 4 0,25-21 0,-8 9 0,-1 0 0,1-1 0,-1 1 0,0-1 0,6-9 0,-7 9 0,1-1 0,1 1 0,-1 0 0,10-7 0,-8 9 0,0 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,16 0 0,-12 0 0,51-1-1365,-53 3-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2895,8 +4894,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 75 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 5 0,0 4 0,0-4-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2035.52">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,11 0 0,-13 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 9 0,-5-11 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-13-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 74 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 4 0,0 5 0,0-4-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2035.52">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,12 0 0,-14 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 8 0,-5-10 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-14-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3111,12 +5110,12 @@
       <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3131,57 +5130,57 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -3196,8 +5195,8 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
@@ -3238,7 +5237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
@@ -3279,7 +5278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +5303,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +5328,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +5351,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -3371,7 +5370,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +5389,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +5408,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +5427,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +5447,7 @@
       <c r="N21" s="14"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
@@ -3470,7 +5469,7 @@
       <c r="N22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +5490,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
@@ -3510,7 +5509,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +5528,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +5547,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
@@ -3567,7 +5566,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
@@ -3586,7 +5585,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>18</v>
       </c>
@@ -3605,7 +5604,7 @@
       </c>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
@@ -3628,7 +5627,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
@@ -3647,7 +5646,7 @@
       </c>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
@@ -3670,7 +5669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
@@ -3689,8 +5688,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>23</v>
       </c>
@@ -3731,7 +5730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>0</v>
       </c>
@@ -3768,7 +5767,7 @@
       </c>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18">
         <v>1</v>
       </c>
@@ -3801,7 +5800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
         <v>2</v>
       </c>
@@ -3834,7 +5833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18">
         <v>3</v>
       </c>
@@ -3882,9 +5881,9 @@
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +5960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +6001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -4027,7 +6026,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -4052,7 +6051,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -4075,7 +6074,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -4094,7 +6093,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +6112,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
@@ -4132,7 +6131,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
@@ -4151,7 +6150,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
@@ -4170,7 +6169,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
@@ -4191,7 +6190,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +6211,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +6230,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
@@ -4250,7 +6249,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
@@ -4269,7 +6268,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
@@ -4288,7 +6287,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -4307,7 +6306,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
@@ -4326,7 +6325,7 @@
       </c>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +6348,7 @@
       </c>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
@@ -4368,7 +6367,7 @@
       </c>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +6390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
@@ -4410,7 +6409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4456,7 +6455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="14" t="s">
         <v>0</v>
       </c>
@@ -4481,7 +6480,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="14" t="s">
         <v>3</v>
       </c>
@@ -4506,7 +6505,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="14" t="s">
         <v>1</v>
       </c>
@@ -4529,7 +6528,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="14" t="s">
         <v>2</v>
       </c>
@@ -4548,7 +6547,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="14" t="s">
         <v>7</v>
       </c>
@@ -4567,7 +6566,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="14" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +6585,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="14" t="s">
         <v>9</v>
       </c>
@@ -4605,7 +6604,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="14" t="s">
         <v>10</v>
       </c>
@@ -4624,7 +6623,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="14" t="s">
         <v>11</v>
       </c>
@@ -4645,7 +6644,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="14" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +6665,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="14" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +6684,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="14" t="s">
         <v>14</v>
       </c>
@@ -4704,7 +6703,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="14" t="s">
         <v>15</v>
       </c>
@@ -4723,7 +6722,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="14" t="s">
         <v>16</v>
       </c>
@@ -4742,7 +6741,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="14" t="s">
         <v>17</v>
       </c>
@@ -4761,7 +6760,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="14" t="s">
         <v>18</v>
       </c>
@@ -4780,7 +6779,7 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="14" t="s">
         <v>19</v>
       </c>
@@ -4803,7 +6802,7 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="14" t="s">
         <v>20</v>
       </c>
@@ -4822,7 +6821,7 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="14" t="s">
         <v>21</v>
       </c>
@@ -4845,7 +6844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="14" t="s">
         <v>22</v>
       </c>
@@ -4864,7 +6863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>23</v>
       </c>
@@ -4923,7 +6922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18">
         <v>0</v>
       </c>
@@ -4960,7 +6959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18">
         <v>1</v>
       </c>
@@ -4993,7 +6992,7 @@
       </c>
       <c r="N48" s="41"/>
     </row>
-    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18">
         <v>2</v>
       </c>
@@ -5022,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18">
         <v>3</v>
       </c>
@@ -5055,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="18">
         <v>4</v>
       </c>
@@ -5092,7 +7091,7 @@
       </c>
       <c r="T51" s="41"/>
     </row>
-    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="18">
         <v>5</v>
       </c>
@@ -5125,7 +7124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18">
         <v>6</v>
       </c>
@@ -5162,7 +7161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="18">
         <v>7</v>
       </c>
@@ -5205,13 +7204,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="H45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G74" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.06640625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>24</v>
       </c>
@@ -5219,7 +7218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +7316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>1</v>
       </c>
@@ -5361,7 +7360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5395,7 +7394,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5429,7 +7428,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5461,7 +7460,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5489,7 +7488,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5517,7 +7516,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5545,7 +7544,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5573,7 +7572,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5601,7 +7600,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5631,7 +7630,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5661,7 +7660,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5689,7 +7688,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5717,7 +7716,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5745,7 +7744,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5773,7 +7772,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5801,7 +7800,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5829,7 +7828,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5861,7 +7860,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5889,7 +7888,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5921,7 +7920,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5949,7 +7948,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56">
         <v>2</v>
       </c>
@@ -6000,7 +7999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6034,7 +8033,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6068,7 +8067,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6100,7 +8099,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6128,7 +8127,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6156,7 +8155,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6184,7 +8183,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6212,7 +8211,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -6240,7 +8239,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -6270,7 +8269,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -6300,7 +8299,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -6328,7 +8327,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -6356,7 +8355,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -6384,7 +8383,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6412,7 +8411,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -6440,7 +8439,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6468,7 +8467,7 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -6500,7 +8499,7 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -6528,7 +8527,7 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -6560,7 +8559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -6588,7 +8587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
         <v>4</v>
       </c>
@@ -6647,7 +8646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -6673,12 +8672,14 @@
       <c r="S46" s="59"/>
       <c r="T46" s="59"/>
     </row>
-    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="60">
         <v>0</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62" t="s">
+      <c r="C47" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="63" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="63" t="s">
@@ -6710,12 +8711,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="60">
         <v>1</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="63" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="63" t="s">
@@ -6743,12 +8746,14 @@
       </c>
       <c r="N48" s="68"/>
     </row>
-    <row r="49" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="60">
         <v>2</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="74" t="s">
+        <v>2</v>
+      </c>
       <c r="E49" s="74" t="s">
         <v>2</v>
       </c>
@@ -6772,12 +8777,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="60">
         <v>3</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="62" t="s">
+        <v>3</v>
+      </c>
       <c r="E50" s="62" t="s">
         <v>3</v>
       </c>
@@ -6805,7 +8812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="60">
         <v>4</v>
       </c>
@@ -6843,7 +8850,7 @@
       </c>
       <c r="T51" s="68"/>
     </row>
-    <row r="52" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="60">
         <v>5</v>
       </c>
@@ -6876,7 +8883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="60">
         <v>6</v>
       </c>
@@ -6914,7 +8921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="60">
         <v>7</v>
       </c>
@@ -6947,7 +8954,7 @@
       </c>
       <c r="T54" s="68"/>
     </row>
-    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -6973,7 +8980,7 @@
       <c r="S57" s="59"/>
       <c r="T57" s="59"/>
     </row>
-    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="60">
         <v>0</v>
       </c>
@@ -7010,7 +9017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="60">
         <v>1</v>
       </c>
@@ -7043,7 +9050,7 @@
       </c>
       <c r="N59" s="68"/>
     </row>
-    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="60">
         <v>2</v>
       </c>
@@ -7072,7 +9079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="60">
         <v>3</v>
       </c>
@@ -7105,7 +9112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="60">
         <v>4</v>
       </c>
@@ -7131,7 +9138,7 @@
       </c>
       <c r="T62" s="68"/>
     </row>
-    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="60">
         <v>5</v>
       </c>
@@ -7169,7 +9176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="60">
         <v>6</v>
       </c>
@@ -7207,7 +9214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="84" t="s">
         <v>30</v>
       </c>
@@ -7236,7 +9243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="85" t="s">
         <v>31</v>
       </c>
@@ -7262,12 +9269,14 @@
       <c r="S68" s="59"/>
       <c r="T68" s="59"/>
     </row>
-    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="60" t="s">
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="62" t="s">
+      <c r="C69" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="63" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="63" t="s">
@@ -7276,16 +9285,16 @@
       <c r="F69" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="64" t="s">
+      <c r="G69" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="65" t="s">
+      <c r="H69" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="67" t="s">
+      <c r="I69" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="68" t="s">
         <v>0</v>
       </c>
       <c r="K69" s="68" t="s">
@@ -7294,132 +9303,151 @@
       <c r="L69" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="M69" s="69" t="s">
+      <c r="M69" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="87" t="s">
+      <c r="N69" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="O69" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="P69" s="74" t="s">
+      <c r="O69" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="Q69" s="74" t="s">
+      <c r="P69" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="R69" s="74" t="s">
+      <c r="Q69" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="S69" s="74" t="s">
+      <c r="R69" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="T69" s="74" t="s">
+      <c r="S69" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="T69" s="80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="60" t="s">
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62" t="s">
+      <c r="C70" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="63" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="88" t="s">
+      <c r="F70" s="87" t="s">
         <v>1</v>
       </c>
       <c r="G70" s="71"/>
       <c r="H70" s="63"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="67" t="s">
+      <c r="I70" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="68" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="L70" s="69" t="s">
+      <c r="L70" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M70" s="74" t="s">
+      <c r="M70" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="68"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74" t="s">
+      <c r="N70" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="Q70" s="74" t="s">
+      <c r="P70" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="R70" s="74" t="s">
+      <c r="Q70" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="S70" s="66" t="s">
+      <c r="R70" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="S70" s="110" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T70" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="74" t="s">
+      <c r="C71" s="104"/>
+      <c r="D71" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="74" t="s">
+      <c r="E71" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="71" t="s">
+      <c r="G71" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="74" t="s">
+      <c r="H71" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="80" t="s">
+      <c r="I71" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="69"/>
-      <c r="K71" s="77" t="s">
+      <c r="J71" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="L71" s="77" t="s">
+      <c r="K71" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="L71" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="M71" s="72" t="s">
+      <c r="M71" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="N71" s="78" t="s">
+      <c r="N71" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="O71" s="87" t="s">
+      <c r="O71" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P71" s="74"/>
-      <c r="Q71" s="74" t="s">
+      <c r="P71" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="R71" s="74" t="s">
+      <c r="Q71" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="R71" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="S71" s="74" t="s">
+      <c r="S71" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="T71" s="74" t="s">
+      <c r="T71" s="80" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="62" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="62" t="s">
         <v>3</v>
       </c>
@@ -7433,7 +9461,9 @@
         <v>3</v>
       </c>
       <c r="I72" s="76"/>
-      <c r="J72" s="69"/>
+      <c r="J72" s="97" t="s">
+        <v>3</v>
+      </c>
       <c r="K72" s="67" t="s">
         <v>3</v>
       </c>
@@ -7443,33 +9473,35 @@
       <c r="M72" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="69" t="s">
+      <c r="N72" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="74"/>
-      <c r="P72" s="74"/>
-      <c r="Q72" s="74" t="s">
+      <c r="O72" s="113"/>
+      <c r="P72" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="74" t="s">
+      <c r="Q72" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="74" t="s">
+      <c r="R72" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="74" t="s">
+      <c r="S72" s="98" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T72" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H73" s="82"/>
+      <c r="H73" s="117"/>
       <c r="I73" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="64" t="s">
+      <c r="J73" s="104" t="s">
         <v>11</v>
       </c>
       <c r="K73" s="62" t="s">
@@ -7478,41 +9510,43 @@
       <c r="L73" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M73" s="64" t="s">
+      <c r="M73" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="62" t="s">
+      <c r="N73" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="O73" s="66" t="s">
+      <c r="O73" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P73" s="66" t="s">
+      <c r="P73" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="Q73" s="66" t="s">
+      <c r="Q73" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="R73" s="66" t="s">
+      <c r="R73" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="S73" s="66" t="s">
+      <c r="S73" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="T73" s="66" t="s">
+      <c r="T73" s="96" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="82"/>
-      <c r="I74" s="64"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="113" t="s">
+        <v>16</v>
+      </c>
       <c r="J74" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K74" s="64" t="s">
+      <c r="K74" s="104" t="s">
         <v>12</v>
       </c>
       <c r="L74" s="62" t="s">
@@ -7521,28 +9555,30 @@
       <c r="M74" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="88" t="s">
+      <c r="N74" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66" t="s">
+      <c r="O74" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="Q74" s="66" t="s">
+      <c r="Q74" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="R74" s="66" t="s">
+      <c r="R74" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="S74" s="66" t="s">
+      <c r="S74" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="T74" s="66" t="s">
+      <c r="T74" s="96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="92" t="s">
+    <row r="75" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="91" t="s">
         <v>51</v>
       </c>
       <c r="J75" s="84" t="s">
@@ -7570,167 +9606,167 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="93" t="s">
+      <c r="C78" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="93" t="s">
+      <c r="D78" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="93" t="s">
+      <c r="E78" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="93" t="s">
+      <c r="F78" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="G78" s="93" t="s">
+      <c r="G78" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="H78" s="93" t="s">
+      <c r="H78" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="I78" s="94" t="s">
+      <c r="I78" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="J78" s="94" t="s">
+      <c r="J78" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="K78" s="94" t="s">
+      <c r="K78" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="L78" s="94" t="s">
+      <c r="L78" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="M78" s="94" t="s">
+      <c r="M78" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="N78" s="94" t="s">
+      <c r="N78" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="O78" s="94" t="s">
+      <c r="O78" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="P78" s="94" t="s">
+      <c r="P78" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="Q78" s="94" t="s">
+      <c r="Q78" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="R78" s="94" t="s">
+      <c r="R78" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S78" s="94" t="s">
+      <c r="S78" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="T78" s="94" t="s">
+      <c r="T78" s="93" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="90" t="s">
+    <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="93" t="s">
+      <c r="C79" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="96" t="s">
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="H79" s="93" t="s">
+      <c r="H79" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="I79" s="94" t="s">
+      <c r="I79" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J79" s="94" t="s">
+      <c r="J79" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="95" t="s">
+      <c r="K79" s="93"/>
+      <c r="L79" s="93"/>
+      <c r="M79" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="N79" s="94" t="s">
+      <c r="N79" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="O79" s="94" t="s">
+      <c r="O79" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="P79" s="94" t="s">
+      <c r="P79" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="Q79" s="94"/>
-      <c r="R79" s="94"/>
-      <c r="S79" s="95" t="s">
+      <c r="Q79" s="93"/>
+      <c r="R79" s="93"/>
+      <c r="S79" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="T79" s="94" t="s">
+      <c r="T79" s="93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="90" t="s">
+    <row r="80" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F80" s="89"/>
-      <c r="H80" s="93" t="s">
+      <c r="F80" s="88"/>
+      <c r="H80" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="I80" s="93" t="s">
+      <c r="I80" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J80" s="93" t="s">
+      <c r="J80" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="K80" s="93" t="s">
+      <c r="K80" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="L80" s="93" t="s">
+      <c r="L80" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="M80" s="93" t="s">
+      <c r="M80" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="N80" s="94" t="s">
+      <c r="N80" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="O80" s="93" t="s">
+      <c r="O80" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="P80" s="93" t="s">
+      <c r="P80" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="Q80" s="93" t="s">
+      <c r="Q80" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="R80" s="93" t="s">
+      <c r="R80" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="S80" s="93" t="s">
+      <c r="S80" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="T80" s="94" t="s">
+      <c r="T80" s="93" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="90" t="s">
+    <row r="81" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="89" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="91" t="s">
+    <row r="82" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C82" t="s">
@@ -7748,12 +9784,12 @@
       <c r="G82" t="s">
         <v>77</v>
       </c>
-      <c r="H82" s="93" t="s">
+      <c r="H82" s="92" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="91" t="s">
+    <row r="83" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="90" t="s">
         <v>38</v>
       </c>
       <c r="C83" t="s">
@@ -7768,13 +9804,13 @@
       <c r="F83" t="s">
         <v>75</v>
       </c>
-      <c r="G83" s="89"/>
-      <c r="H83" s="93" t="s">
+      <c r="G83" s="88"/>
+      <c r="H83" s="92" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="91" t="s">
+    <row r="84" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="90" t="s">
         <v>39</v>
       </c>
       <c r="F84" t="s">
@@ -7784,15 +9820,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="91" t="s">
+    <row r="85" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="90" t="s">
         <v>40</v>
       </c>
       <c r="F85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M87" t="s">
         <v>71</v>
       </c>
@@ -7803,4 +9839,2234 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F558A-C80E-4F81-B612-0395C6F2893A}">
+  <dimension ref="A1:AG72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70:T71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31">
+        <v>3</v>
+      </c>
+      <c r="F2" s="31">
+        <v>4</v>
+      </c>
+      <c r="G2" s="31">
+        <v>5</v>
+      </c>
+      <c r="H2" s="31">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31">
+        <v>7</v>
+      </c>
+      <c r="J2" s="31">
+        <v>8</v>
+      </c>
+      <c r="K2" s="31">
+        <v>9</v>
+      </c>
+      <c r="L2" s="31">
+        <v>10</v>
+      </c>
+      <c r="M2" s="52">
+        <v>11</v>
+      </c>
+      <c r="N2" s="32">
+        <v>12</v>
+      </c>
+      <c r="O2" s="31">
+        <v>13</v>
+      </c>
+      <c r="P2" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>15</v>
+      </c>
+      <c r="R2" s="31">
+        <v>16</v>
+      </c>
+      <c r="S2" s="52">
+        <v>17</v>
+      </c>
+      <c r="T2" s="32">
+        <v>18</v>
+      </c>
+      <c r="U2" s="31">
+        <v>19</v>
+      </c>
+      <c r="V2" s="31">
+        <v>20</v>
+      </c>
+      <c r="W2" s="31">
+        <v>21</v>
+      </c>
+      <c r="X2" s="31">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="31">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="31">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="31">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="53">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53">
+        <v>2</v>
+      </c>
+      <c r="E3" s="53">
+        <v>3</v>
+      </c>
+      <c r="F3" s="53">
+        <v>4</v>
+      </c>
+      <c r="G3" s="53">
+        <v>5</v>
+      </c>
+      <c r="H3" s="53">
+        <v>6</v>
+      </c>
+      <c r="I3" s="53">
+        <v>7</v>
+      </c>
+      <c r="J3" s="53">
+        <v>8</v>
+      </c>
+      <c r="K3" s="53">
+        <v>9</v>
+      </c>
+      <c r="L3" s="53">
+        <v>10</v>
+      </c>
+      <c r="M3" s="53">
+        <v>11</v>
+      </c>
+      <c r="N3" s="53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
+        <v>2</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57">
+        <v>1</v>
+      </c>
+      <c r="K24" s="57">
+        <v>2</v>
+      </c>
+      <c r="L24" s="57">
+        <v>3</v>
+      </c>
+      <c r="M24" s="57">
+        <v>4</v>
+      </c>
+      <c r="N24" s="57">
+        <v>5</v>
+      </c>
+      <c r="O24" s="57">
+        <v>6</v>
+      </c>
+      <c r="P24" s="57">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="57">
+        <v>8</v>
+      </c>
+      <c r="R24" s="57">
+        <v>9</v>
+      </c>
+      <c r="S24" s="57">
+        <v>10</v>
+      </c>
+      <c r="T24" s="57">
+        <v>11</v>
+      </c>
+      <c r="U24" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+    </row>
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+    </row>
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+    </row>
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+    </row>
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+    </row>
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+    </row>
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="14"/>
+    </row>
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" s="14"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="14"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="31">
+        <v>2</v>
+      </c>
+      <c r="E45" s="31">
+        <v>3</v>
+      </c>
+      <c r="F45" s="31">
+        <v>4</v>
+      </c>
+      <c r="G45" s="31">
+        <v>5</v>
+      </c>
+      <c r="H45" s="31">
+        <v>6</v>
+      </c>
+      <c r="I45" s="31">
+        <v>7</v>
+      </c>
+      <c r="J45" s="31">
+        <v>8</v>
+      </c>
+      <c r="K45" s="31">
+        <v>9</v>
+      </c>
+      <c r="L45" s="31">
+        <v>10</v>
+      </c>
+      <c r="M45" s="52">
+        <v>11</v>
+      </c>
+      <c r="N45" s="32">
+        <v>12</v>
+      </c>
+      <c r="O45" s="31">
+        <v>13</v>
+      </c>
+      <c r="P45" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="31">
+        <v>15</v>
+      </c>
+      <c r="R45" s="31">
+        <v>16</v>
+      </c>
+      <c r="S45" s="52">
+        <v>17</v>
+      </c>
+      <c r="T45" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+    </row>
+    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="108"/>
+      <c r="O50" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="76"/>
+      <c r="J52" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="S53" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="T53" s="96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="121"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="118"/>
+      <c r="P55" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q55" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55" s="84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="R58" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="S58" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="T58" s="93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="N59" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="T59" s="93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="88"/>
+      <c r="H60" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="O60" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q60" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="R60" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="S60" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="T60" s="93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="O66" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="R66" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S66" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="T66" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="88"/>
+      <c r="H67" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" s="88"/>
+      <c r="N67" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="O67" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q67" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="R67" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="S67" s="88"/>
+      <c r="T67" s="92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="R68" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="T68" s="92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="R69" s="92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="K70" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="N70" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O70" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q70" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="S70" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="T70" s="128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71" t="s">
+        <v>89</v>
+      </c>
+      <c r="L71" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="O71" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>89</v>
+      </c>
+      <c r="R71" t="s">
+        <v>88</v>
+      </c>
+      <c r="S71" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="T71" s="128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>88</v>
+      </c>
+      <c r="S72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D018F69-367D-4E3C-80DB-EEC4AD07C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B4EE6-24FB-465A-ABF3-5ECF99724B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
     <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="94">
   <si>
     <t>AR</t>
   </si>
@@ -1149,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,7 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3992,6 +3992,1051 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346089</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>524011</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28345</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Input penna 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4086B-77D1-43E0-82D9-9BCDBA7E95DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4675634" y="12864728"/>
+            <a:ext cx="173160" cy="85680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Input penna 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD21C19-EB8A-A0DD-E258-4A41A8E0C462}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4669514" y="12858608"/>
+              <a:ext cx="185400" cy="97920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>442702</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>92932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447824</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>93292</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Input penna 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0822E5D5-10F6-4A85-ACDE-131B25263098}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5854634" y="12838448"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Input penna 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780AEA21-F2E8-1A93-1259-59BA7AEE3687}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5848514" y="12832328"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>775435</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>46924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100517</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>77677</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Input penna 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48B28-5339-4501-AEF6-C20F89A34C01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4022594" y="13651688"/>
+            <a:ext cx="234720" cy="169200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3332570D-271E-2327-4116-F4F911724592}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4016474" y="13645568"/>
+              <a:ext cx="246960" cy="181440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>372729</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>6244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>532929</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>113164</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Input penna 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926C7338-D040-40AC-A37C-F2C12462CF2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4702274" y="13611008"/>
+            <a:ext cx="160200" cy="106920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Input penna 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C1FBC-6380-32B4-3752-5F3E1B3C8B2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4696168" y="13604888"/>
+              <a:ext cx="172413" cy="119160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12996</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>103372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197758</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>94167</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Input penna 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DDBEC5-6143-4289-9502-CCF08771828A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6507314" y="13564928"/>
+            <a:ext cx="180000" cy="129240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Input penna 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986542D-55A1-E17E-C0AF-68E7CF3DD474}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6501194" y="13558808"/>
+              <a:ext cx="192240" cy="141480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>702396</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>72412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158915</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>77165</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Input penna 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40064B04-CCE6-438F-A4BE-A0202D757A95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7196714" y="13533968"/>
+            <a:ext cx="218520" cy="147960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Input penna 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858A1CA8-7109-C499-134E-F8F88DF5326D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7190594" y="13527833"/>
+              <a:ext cx="230760" cy="160230"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283015</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>36556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475615</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>49586</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Input penna 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8411E47D-2720-415C-BEBC-6AF09E66DC16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6777333" y="15216608"/>
+            <a:ext cx="192600" cy="156240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Input penna 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3171DAAB-8607-4F30-3F95-A55CFD58B808}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6771213" y="15210502"/>
+              <a:ext cx="204840" cy="168452"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425909</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>125875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>77797</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Input penna 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBD3FFA-49A1-4111-A441-676E3A7868FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10197360" y="14393392"/>
+            <a:ext cx="78562" cy="91800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Input penna 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E6E9A7-6E16-2B08-9C1E-0D77BECDA035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10191234" y="14387248"/>
+              <a:ext cx="90815" cy="104088"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592498</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>78005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140691</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83927</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Input penna 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2756E8-3B43-432E-AF14-9AB2C9640C0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6021082" y="14345522"/>
+            <a:ext cx="167318" cy="145800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Input penna 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F18FA7-5AEA-E0A8-B7FE-846856DA29F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6014965" y="14339402"/>
+              <a:ext cx="179552" cy="158040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>725616</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>21205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580971</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>26605</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Input penna 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0B7BB4-3352-405B-9EF1-6312EB7D0D1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6154200" y="14428600"/>
+            <a:ext cx="17280" cy="5400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="Input penna 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D11EBF-6C78-B119-A426-E0725F19C27F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6148080" y="14422480"/>
+              <a:ext cx="29520" cy="17640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533103</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>64325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124022</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27047</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Input penna 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B807AD8-472B-4B24-B4FA-AFAB0D158E0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8133120" y="14331842"/>
+            <a:ext cx="205282" cy="102600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Input penna 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF53EE2-4F76-2A5F-81C1-44002DF78DAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8126987" y="14325722"/>
+              <a:ext cx="217548" cy="114840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312696</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>40391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>532018</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58356</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Input penna 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AF26A5-F521-4121-B649-97BE2766E13E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5741280" y="13608520"/>
+            <a:ext cx="214560" cy="153082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Input penna 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB8E4B5-50AE-0FFA-A532-307F231213C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5735150" y="13602411"/>
+              <a:ext cx="226821" cy="165300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353059</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>131553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19856</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>134512</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Input penna 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FC48D1-C1E9-42A4-A0B1-2A55CD36FCD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6867360" y="13699682"/>
+            <a:ext cx="285922" cy="142838"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Input penna 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A6FE93-BB3B-B427-4F69-A78A5C1F18A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6861238" y="13693550"/>
+              <a:ext cx="298166" cy="155102"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952099</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>132191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>430976</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58912</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Input penna 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C0004-2D64-4769-BF69-58567EAB64C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7466400" y="13700320"/>
+            <a:ext cx="98002" cy="66600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Input penna 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3CD629-C470-B8CC-5BBF-2BDA0385FDB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7460065" y="13694200"/>
+              <a:ext cx="110671" cy="78840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1074499</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>27593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>322368</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85275</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Input penna 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFA31DA-8520-43EA-ADFD-ABC55E0CD0AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7588800" y="13735600"/>
+            <a:ext cx="109882" cy="57682"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Input penna 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B51B8E-16D9-FABA-C418-C0EC26C8837D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7582675" y="13728974"/>
+              <a:ext cx="122131" cy="70933"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>817225</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104740</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95796</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Input penna 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8838E0A-9226-4694-A98E-CFA0CE6F0AEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8417242" y="13663960"/>
+            <a:ext cx="287640" cy="135082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Input penna 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BACDE61-393A-8FCE-7550-3E6511C8FD26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8411122" y="13657853"/>
+              <a:ext cx="299880" cy="147297"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -4135,7 +5180,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.58">13 74 24575,'-1'-1'0,"0"0"0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-2 0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-3 0,0 2 0,-1-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,5 0 0,-9 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-2 2 0,-1 3 0,1 0 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0-2 0,0 2 0,-7 7 0,11-13 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,49 5 0,-17-3 0,-33-2 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,-3 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,-13 3 0,-35-2-1365,38-4-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.77">482 134 24575,'0'-2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-1 0,-40-16 0,36 16 0,-1 1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-12 3 0,20-3 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-2 0,-1 3 0,2-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,2 1 0,2 1 0,-1 1 0,1-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,10 2 0,-8-2 0,0 1 0,0 0 0,-1 0 0,16 9 0,-22-11 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 5 0,-2-6-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,-1-1 23,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-6 0 0,-2 0-268,-2-1 1,2 0-1,-1-1 1,1 0-1,-18-6 1,9 0-6579</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5946.85">662 244 24575,'-1'2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,-11 8 0,15-8 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 2 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 0 0,-5-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,9-6 0,-12 7 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-2-4 0,-22-24-1365,11 19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.37">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.36">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4307,8 +5352,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 218 24575,'-2'-26'0,"-1"0"0,-6 1 0,-19-32 0,25 47 0,-2 0 0,2-1 0,0 0 0,3 1 0,6-13 0,-9 23 0,3 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,3-1 0,-3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,2-1 0,-2 1 0,0 0 0,0 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,0 0 0,0 0 0,3 0 0,-3-1 0,0 1 0,0 0 0,3 0 0,-3 0 0,23 7 0,19 19 0,-39-24 0,50 39 0,74 89 0,-98-99 0,7 23 0,-24-37 0,-1 1 0,23 20 0,-34-38 0,0 1 0,0-1 0,0 0 0,2 0 0,-2 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,3 0 0,-3 0 0,0 0 0,0 1 0,0-1 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,3 1 0,-3-1 0,0 0 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,3 0 0,14-6 0,5-15 0,12-29 0,-28 35 0,2 1 0,3 0 0,26-24 0,0 10 0,33-38 0,-61 53 0,2 0 0,-5 1 0,-1-1 0,1-1 0,-3-21 0,-3 264 0,-3-92 0,3-46-1365,0-83-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1310 313 24575,'-3'37'0,"6"40"0,-3-77 0,0 2 0,0-1 0,0 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,3 0 0,-3 0 0,3-1 0,-3 1 0,3 0 0,-3 0 0,3-1 0,-3 1 0,2-1 0,1 1 0,-3 0 0,9 0 0,-7-1 0,1 1 0,3-1 0,-3 1 0,0-1 0,2 0 0,-2 0 0,3 0 0,-4 0 0,1 0 0,3 0 0,-3 0 0,2 0 0,1-1 0,17-1 0,-1-1 0,-2 0 0,39-9 0,-50 10 0,95-12 0,-84 12 0,0-1 0,-1 1 0,1-2 0,28-4 0,-42 5 0,-1 2 0,1-1 0,0 0 0,-3 0 0,2 0 0,1 0 0,-3 0 0,2 0 0,-2 0 0,3 0 0,-3-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-3-1 0,3-3 0,2-7 0,-5 1 0,3-1 0,-11-24 0,8 36 0,0 0 0,-3 0 0,3 0 0,-3 0 0,3 0 0,0 0 0,-3 1 0,0-1 0,3 0 0,-2 0 0,2 0 0,-3 0 0,0 1 0,0-1 0,3 0 0,-3 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-5 0 0,-15-1 0,1 1 0,2 0 0,-28 1 0,20-1 0,-9 1 0,17-1 0,-2 0 0,2 1 0,-28 2 0,40-3 0,-1 1 0,1 0 0,2 1 0,-2-1 0,-1 0 0,3 1 0,-2 0 0,2-1 0,-2 1 0,2 0 0,-11 5 0,-5 3-1365</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 218 24575,'-2'-26'0,"-1"0"0,-8 1 0,-20-32 0,27 47 0,-1 0 0,1-1 0,1 0 0,3 1 0,7-13 0,-11 23 0,4 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,4-1 0,-4 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,2-1 0,-2 1 0,0 0 0,0 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,0 0 0,0 0 0,4 0 0,-4-1 0,0 1 0,0 0 0,3 0 0,-3 0 0,26 7 0,22 19 0,-45-24 0,57 39 0,84 89 0,-112-99 0,9 23 0,-27-37 0,-2 1 0,26 20 0,-38-38 0,0 1 0,0-1 0,0 0 0,3 0 0,-3 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,3 0 0,-3 0 0,0 0 0,0 1 0,0-1 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,4 1 0,-4-1 0,0 0 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,4 0 0,15-6 0,6-15 0,13-29 0,-31 35 0,2 1 0,3 0 0,30-24 0,0 10 0,37-38 0,-69 53 0,3 0 0,-6 1 0,-2-1 0,2-1 0,-4-21 0,-3 264 0,-3-92 0,3-46-1365,0-83-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1481 313 24575,'-4'37'0,"8"40"0,-4-77 0,0 2 0,0-1 0,0 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,4 0 0,-4 0 0,3-1 0,-3 1 0,4 0 0,-4 0 0,3-1 0,-3 1 0,2-1 0,2 1 0,-4 0 0,10 0 0,-8-1 0,1 1 0,4-1 0,-3 1 0,-1-1 0,3 0 0,-3 0 0,4 0 0,-5 0 0,2 0 0,2 0 0,-2 0 0,1 0 0,2-1 0,19-1 0,-1-1 0,-2 0 0,43-9 0,-56 10 0,108-12 0,-95 12 0,-1-1 0,0 1 0,0-2 0,33-4 0,-49 5 0,0 2 0,1-1 0,0 0 0,-4 0 0,3 0 0,0 0 0,-2 0 0,1 0 0,-1 0 0,3 0 0,-4-1 0,-1 1 0,2 0 0,-1-1 0,0 1 0,-3-1 0,4-3 0,1-7 0,-5 1 0,4-1 0,-13-24 0,9 36 0,0 0 0,-4 0 0,4 0 0,-3 0 0,3 0 0,0 0 0,-3 1 0,-1-1 0,4 0 0,-2 0 0,2 0 0,-3 0 0,-1 1 0,1-1 0,3 0 0,-4 1 0,1-1 0,1 0 0,-2 1 0,1-1 0,0 1 0,-1-1 0,2 1 0,-1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-6 0 0,-17-1 0,1 1 0,2 0 0,-31 1 0,23-1 0,-11 1 0,19-1 0,-2 0 0,3 1 0,-33 2 0,46-3 0,-1 1 0,1 0 0,2 1 0,-2-1 0,-1 0 0,3 1 0,-2 0 0,3-1 0,-3 1 0,2 0 0,-12 5 0,-6 3-1365</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4422,8 +5467,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">155 281 24575,'-10'-4'0,"0"0"0,3-1 0,-3 1 0,4 0 0,-1-1 0,1 0 0,2 1 0,-2-1 0,3 0 0,-1 0 0,1-7 0,-20-18 0,10 19 0,3-1 0,0 0 0,0 0 0,7 0 0,-4 0 0,4 0 0,3-18 0,0 29 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,3-1 0,-3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,4 0 0,-4-1 0,0 1 0,0 0 0,0 0 0,3 0 0,-3-1 0,0 1 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,30 6 0,16 13 0,-13-2 0,56 22 0,-46-23 0,32 20 0,-68-33 0,-4 0 0,4-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,14 1 0,-17-2 0,1-1 0,-4 1 0,3-1 0,0 1 0,0-1 0,1 0 0,-4 0 0,3 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,-3 0 0,3 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-3-1 0,3 1 0,0 0 0,1 0 0,-1-1 0,-3 1 0,3-1 0,1 1 0,-4-1 0,3 1 0,0-1 0,-3 1 0,3-1 0,1 0 0,-4 1 0,3-1 0,-3 0 0,3-1 0,30-17 0,-6 0 0,35-39 0,-42 40 0,0-1 0,-1 1 0,8 1 0,42-24 0,-69 41 0,0 0 0,0-1 0,3 1 0,-3-1 0,0 1 0,0 0 0,0-1 0,3 1 0,-3 0 0,0-1 0,0 1 0,4 0 0,-4-1 0,0 1 0,3 0 0,-3 0 0,0-1 0,3 1 0,-3 0 0,3 0 0,-3 0 0,0-1 0,4 1 0,-4 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,0 0 0,4 0 0,-4 0 0,3 0 0,0 0 0,-3 1 0,3-1 0,1 1 0,-4 0 0,3 0 0,-3-1 0,3 1 0,-3 0 0,4 0 0,-4 0 0,0 0 0,3 0 0,-3-1 0,3 3 0,10 33 0,-9 65 76,-8-50-1517,4-44-5385</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1342 178 24575,'17'1'0,"-1"-1"0,1 1 0,-4 0 0,3 0 0,30 4 0,-26-3 0,-3 0 0,2 0 0,31 1 0,-34-3 0,0 1 0,-2 0 0,2 0 0,-3 1 0,4-1 0,-4 1 0,3 1 0,-3-1 0,1 0 0,19 5 0,-30-6 0,0 0 0,4 0 0,-4 0 0,0 0 0,1 0 0,-4 0 0,3 0 0,0 1 0,0-1 0,-3 0 0,4 1 0,-1-1 0,-3 0 0,3 1 0,-3-1 0,0 0 0,0 1 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-4-1 0,4 1 0,0-1 0,0 0 0,-3 1 0,3-1 0,-3 0 0,-1 1 0,4-1 0,-3 0 0,0 1 0,0-1 0,-1 0 0,4 0 0,-10 1 0,4 1 0,-4 0 0,0-1 0,0 1 0,0-1 0,-3 0 0,3 0 0,0 0 0,-3 0 0,3-1 0,-3 1 0,0-1 0,0 0 0,-13 1 0,-70 8 0,123-13 0,-1-1 0,0 2 0,0-1 0,1 1 0,-1 1 0,4-1 0,-4 1 0,0 1 0,4 0 0,-4 0 0,4 0 0,-4 1 0,40 3 0,-59-4 0,-4 1 0,0 0 0,4-1 0,-4 1 0,0 0 0,4 0 0,-4 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-4 1 0,3-1 0,0 0 0,-3 1 0,3-1 0,-3 1 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-4 1 0,1 1 0,0 0 0,0-1 0,-1 1 0,-2-1 0,2 1 0,-2-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-4-1 0,-6 4 0,2-3-91,5-1 0,-5 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,-2 1 0,3-1 0,0 0 0,-4-1 0,4 1 0,-23-1 0,10 0-6735</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">174 281 24575,'-12'-4'0,"1"0"0,3-1 0,-3 1 0,4 0 0,0-1 0,0 0 0,2 1 0,-1-1 0,2 0 0,0 0 0,1-7 0,-23-18 0,11 19 0,4-1 0,0 0 0,0 0 0,7 0 0,-4 0 0,5 0 0,3-18 0,0 29 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,3-1 0,-3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,5 0 0,-5-1 0,0 1 0,0 0 0,0 0 0,3 0 0,-3-1 0,0 1 0,0 0 0,0 0 0,4 0 0,-4 0 0,0 0 0,0-1 0,3 1 0,-3 0 0,34 6 0,17 13 0,-14-2 0,63 22 0,-52-23 0,36 20 0,-76-33 0,-5 0 0,5-1 0,-1 0 0,1 0 0,-2 0 0,2 0 0,0 0 0,-1 0 0,15 1 0,-19-2 0,2-1 0,-5 1 0,3-1 0,1 1 0,-1-1 0,1 0 0,-4 0 0,4 1 0,-1-1 0,2 0 0,-2 0 0,0 0 0,-3 0 0,4 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-4-1 0,3 1 0,1 0 0,0 0 0,-1-1 0,-3 1 0,4-1 0,0 1 0,-4-1 0,4 1 0,-1-1 0,-3 1 0,3-1 0,2 0 0,-5 1 0,3-1 0,-3 0 0,4-1 0,32-17 0,-5 0 0,38-39 0,-46 40 0,-1-1 0,-1 1 0,10 1 0,46-24 0,-77 41 0,0 0 0,0-1 0,3 1 0,-3-1 0,0 1 0,0 0 0,0-1 0,4 1 0,-4 0 0,0-1 0,0 1 0,4 0 0,-4-1 0,0 1 0,3 0 0,-3 0 0,0-1 0,4 1 0,-4 0 0,3 0 0,-3 0 0,0-1 0,5 1 0,-5 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,0 0 0,5 0 0,-5 0 0,3 0 0,1 0 0,-4 1 0,3-1 0,1 1 0,-4 0 0,4 0 0,-4-1 0,3 1 0,-3 0 0,5 0 0,-5 0 0,0 0 0,3 0 0,-3-1 0,3 3 0,12 33 0,-11 65 76,-8-50-1517,4-44-5385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1503 178 24575,'19'1'0,"-1"-1"0,1 1 0,-4 0 0,3 0 0,33 4 0,-28-3 0,-4 0 0,2 0 0,35 1 0,-38-3 0,0 1 0,-2 0 0,2 0 0,-4 1 0,5-1 0,-4 1 0,3 1 0,-4-1 0,2 0 0,21 5 0,-34-6 0,1 0 0,4 0 0,-5 0 0,0 0 0,2 0 0,-5 0 0,3 0 0,0 1 0,1-1 0,-4 0 0,4 1 0,0-1 0,-4 0 0,3 1 0,-3-1 0,0 0 0,0 1 0,5-1 0,-5 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-5-1 0,5 1 0,0-1 0,0 0 0,-3 1 0,3-1 0,-4 0 0,0 1 0,4-1 0,-4 0 0,1 1 0,0-1 0,-2 0 0,5 0 0,-11 1 0,4 1 0,-4 0 0,0-1 0,0 1 0,0-1 0,-4 0 0,4 0 0,0 0 0,-4 0 0,4-1 0,-4 1 0,1-1 0,-1 0 0,-14 1 0,-79 8 0,139-13 0,-2-1 0,0 2 0,0-1 0,1 1 0,-1 1 0,5-1 0,-5 1 0,0 1 0,5 0 0,-5 0 0,5 0 0,-5 1 0,45 3 0,-66-4 0,-5 1 0,0 0 0,5-1 0,-4 1 0,-1 0 0,5 0 0,-5 0 0,2 0 0,-2 0 0,0 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-4 1 0,4-1 0,-1 0 0,-3 1 0,3-1 0,-3 1 0,5-1 0,-5 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-5 1 0,2 1 0,0 0 0,-1-1 0,0 1 0,-3-1 0,3 1 0,-3-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-4-1 0,-7 4 0,2-3-91,6-1 0,-6 1 0,2-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-2-1 0,-2 1 0,3-1 0,1 0 0,-5-1 0,4 1 0,-25-1 0,11 0-6735</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4510,8 +5555,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">566 0 24575,'-32'1'0,"5"0"0,-4 0 0,-1 1 0,5 0 0,-1 0 0,-3 1 0,4-1 0,-1 1 0,1 1 0,0-1 0,4 2 0,-4-1 0,5 0 0,-1 1 0,-22 5 0,36-9 0,0 1 0,0 0 0,-1 0 0,1 0 0,5 1 0,-5-1 0,0 0 0,4 1 0,1-1 0,-1 1 0,-4 0 0,5 0 0,4 0 0,-5-1 0,1 1 0,4 0 0,-5 0 0,5-1 0,0 1 0,0 0 0,0 0 0,0 0 0,5-1 0,-5 1 0,4 0 0,1 0 0,-5-1 0,4 1 0,1 1 0,4-2 0,-5 1 0,1-1 0,4 0 0,-5 1 0,5-1 0,0 0 0,1 0 0,8 2 0,4-1 0,-4 0 0,5-1 0,0 1 0,-1-1 0,6 0 0,-6-1 0,1 1 0,4-1 0,-4 0 0,-1 0 0,5-1 0,-4 0 0,31 0 0,191 9 0,-231-9 0,-5 1 0,4 0 0,-4 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-5 1 0,5 0 0,-4 0 0,4 0 0,-4 1 0,8 2 0,-13-3 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-4 1 0,4-1 0,0 1 0,-5-1 0,5 1 0,-4-1 0,4 2 0,-5-2 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-5 0 0,4-1 0,1 1 0,-5 0 0,4 0 0,0-1 0,-13 1 0,-208 21 0,185-19-227,0-1-1,-4-1 1,4 1-1,-4-2 1,-41 1-1,14-1-6598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1599 246 24575,'0'-1'0,"-5"1"0,5-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-4-1 0,4 1 0,0-1 0,0 1 0,-5 0 0,5-1 0,0 1 0,-4 0 0,4-1 0,0 1 0,-5 0 0,5-1 0,-4 1 0,4 0 0,-5 0 0,5 0 0,0-1 0,-4 1 0,4 0 0,-5 0 0,5 0 0,-5 0 0,5 0 0,-4 0 0,4 0 0,-5 0 0,5 0 0,0 0 0,-4 0 0,4 0 0,-5 0 0,5 0 0,-4 1 0,4-1 0,-5 0 0,5 0 0,0 0 0,-4 1 0,4-1 0,-5 0 0,5 1 0,0-1 0,-4 0 0,4 1 0,-109 15 0,95-13 0,1 1 0,4 0 0,-5 0 0,5 0 0,-4 0 0,3 2 0,6-2 0,-5 1 0,0-1 0,4 1 0,1-1 0,-1 1 0,5 0 0,-4 0 0,4-1 0,0 1 0,0 1 0,9 5 0,-9-8 0,9 0 0,-5 1 0,1-1 0,4 0 0,-5 0 0,6 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,4 0 0,-4 0 0,5 0 0,0-1 0,-1 0 0,-4 0 0,5 0 0,4 0 0,-4-1 0,-1 1 0,1-1 0,4 0 0,-5 1 0,28 0 0,-23-2 5,0 1-1,1-1 1,-1 0 0,0 1-1,0-2 1,0 1-1,0 0 1,0-1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,0 0-1,-5 0 1,6 0 0,-6 0-1,5 0 1,-4 0-1,-1-1 1,1-1 0,0 1-1,-1 0 1,1 0-1,13-6 1,-18 7-51,0-1-1,0 0 1,-4 0-1,4 0 1,-5 0 0,5 0-1,-4-1 1,-1 1-1,-4 0 1,5-1 0,-1 0-1,-4 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,-4 0-1,-1-1 1,5 1-1,-4 0 1,-5-1 0,4 1-1,1 0 1,-5-1-1,4 1 1,-4 0 0,0 0-1,0 1 1,0-1-1,-14-3 1,-27-4-6780</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">631 0 24575,'-36'1'0,"6"0"0,-4 0 0,-2 1 0,6 0 0,-1 0 0,-4 1 0,5-1 0,-1 1 0,1 1 0,0-1 0,4 2 0,-4-1 0,5 0 0,0 1 0,-25 5 0,40-9 0,-1 1 0,1 0 0,-1 0 0,1 0 0,6 1 0,-6-1 0,0 0 0,4 1 0,2-1 0,-2 1 0,-4 0 0,6 0 0,4 0 0,-6-1 0,2 1 0,4 0 0,-6 0 0,6-1 0,0 1 0,0 0 0,0 0 0,0 0 0,6-1 0,-6 1 0,4 0 0,2 0 0,-6-1 0,4 1 0,2 1 0,4-2 0,-6 1 0,2-1 0,4 0 0,-6 1 0,6-1 0,0 0 0,1 0 0,10 2 0,3-1 0,-4 0 0,6-1 0,-1 1 0,0-1 0,6 0 0,-6-1 0,0 1 0,5-1 0,-4 0 0,-1 0 0,5-1 0,-5 0 0,36 0 0,212 9 0,-258-9 0,-5 1 0,5 0 0,-5 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-5 1 0,5 0 0,-4 0 0,4 0 0,-5 1 0,10 2 0,-15-3 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-5 1 0,5-1 0,0 1 0,-5-1 0,5 1 0,-5-1 0,5 2 0,-5-2 0,-1 0 0,2 1 0,-2-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-5 0 0,5-1 0,0 1 0,-5 0 0,5 0 0,-1-1 0,-14 1 0,-232 21 0,206-19-227,1-1-1,-6-1 1,6 1-1,-6-2 1,-44 1-1,14-1-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1783 246 24575,'0'-1'0,"-5"1"0,5-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-5-1 0,5 1 0,0-1 0,0 1 0,-6 0 0,6-1 0,0 1 0,-4 0 0,4-1 0,0 1 0,-6 0 0,6-1 0,-4 1 0,4 0 0,-6 0 0,6 0 0,0-1 0,-4 1 0,4 0 0,-6 0 0,6 0 0,-5 0 0,5 0 0,-5 0 0,5 0 0,-5 0 0,5 0 0,0 0 0,-5 0 0,5 0 0,-5 0 0,5 0 0,-5 1 0,5-1 0,-5 0 0,5 0 0,0 0 0,-5 1 0,5-1 0,-5 0 0,5 1 0,0-1 0,-5 0 0,5 1 0,-121 15 0,105-13 0,2 1 0,3 0 0,-4 0 0,5 0 0,-5 0 0,4 2 0,7-2 0,-6 1 0,0-1 0,4 1 0,2-1 0,-2 1 0,6 0 0,-4 0 0,4-1 0,0 1 0,0 1 0,10 5 0,-10-8 0,10 0 0,-6 1 0,2-1 0,4 0 0,-6 0 0,7 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,5 0 0,-5 0 0,6 0 0,-1-1 0,0 0 0,-5 0 0,5 0 0,5 0 0,-4-1 0,-1 1 0,0-1 0,5 0 0,-5 1 0,30 0 0,-24-2 5,-1 1-1,1-1 1,-1 0 0,0 1-1,0-2 1,0 1-1,0 0 1,0-1 0,0 0-1,0 0 1,2 0 0,-2 0-1,0-1 1,0 0-1,-6 0 1,7 0 0,-6 0-1,5 0 1,-4 0-1,-2-1 1,2-1 0,-1 1-1,0 0 1,0 0-1,16-6 1,-21 7-51,0-1-1,0 0 1,-5 0-1,5 0 1,-5 0 0,5 0-1,-5-1 1,0 1-1,-5 0 1,5-1 0,0 0-1,-5 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,-5 0-1,0-1 1,5 1-1,-5 0 1,-5-1 0,5 1-1,0 0 1,-5-1-1,5 1 1,-5 0 0,0 0-1,0 1 1,0-1-1,-16-3 1,-30-4-6780</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4539,7 +5584,7 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'86'0'0,"28"-3"0,172-1 0,142 0 0,0 1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'103'0'0,"34"-3"0,206-1 0,170 0 0,0 1-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4567,8 +5612,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">642 21 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-4-1 0,4 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,4 0 0,-4 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,4 1 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,4 0 0,-4-1 0,0 1 0,0 0 0,0 0 0,0 0 0,4 0 0,-86-9 0,66 9 0,-4-1 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,-23 3 0,35-2 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,4 1 0,-3-1 0,3 0 0,-4 1 0,4 0 0,0-1 0,0 1 0,0 0 0,0-1 0,4 2 0,-4-1 0,4 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0 0 0,0-1 0,0 0 0,4 0 0,-4 0 0,4 0 0,0 0 0,0 0 0,0 1 0,4-1 0,-4 0 0,4-1 0,-1 1 0,1-1 0,12 5 0,-1-4 0,-3 1 0,3-1 0,5-1 0,-5 1 0,1-1 0,3 0 0,1-1 0,-5 1 0,40 1 0,-24 1 0,0-2 0,1 2 0,-1-1 0,0 1 0,51 11 0,-82-15 0,4 0 0,-4 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-4 1 0,4-1 0,0 0 0,-4 1 0,4-1 0,0 1 0,-4-1 0,0 1 0,4-1 0,-4 3 0,0-2 0,-4 1 0,4-1 0,-4-1 0,0 1 0,0 0 0,4-1 0,-4 1 0,0-1 0,0 1 0,0-1 0,-4 1 0,5-1 0,-1 0 0,-4 1 0,4-1 0,0 0 0,-4 0 0,4 0 0,-4 0 0,-7 1 0,-24 1-14,0 2 1,0-2-1,-1-1 0,-3 0 1,4 0-1,-4-1 0,4 0 0,-4-1 1,0 0-1,4-1 0,-43-2 0,-62 1-1186,81 2-5626</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1635 140 24575,'-31'47'0,"23"-41"0,0 1 0,0 0 0,4 0 0,0 0 0,4 0 0,-4 0 0,8 11 0,-4-16 0,4-1 0,0 1 0,-4 0 0,4-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,5 0 0,-4 1 0,0-1 0,4 0 0,-4 0 0,4 0 0,-1 0 0,-3 1 0,4-1 0,-4-1 0,4 1 0,0-1 0,0 1 0,-5-1 0,5 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,3 0 0,1 0 0,0 0 0,12-1 0,-1 0-45,1 1-1,3-1 1,-3 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-5 0 1,5 0-1,0-1 1,-5 1-1,1-1 1,3 0-1,-3 0 1,0-1-1,-5 1 1,5-2-1,0 1 1,-5 0-1,1 0 1,0 0-1,0-1 1,-5 1-1,5-2 1,-4 1-1,0 0 0,-4 1 1,3-1-1,5-9 1,-8-1-6781</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">712 21 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-5-1 0,5 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,5 0 0,-5 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,4 1 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,4 0 0,-4-1 0,0 1 0,0 0 0,0 0 0,0 0 0,5 0 0,-96-9 0,73 9 0,-4-1 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-2 1 0,2-1 0,-1 1 0,1 1 0,-1-1 0,-26 3 0,39-2 0,0 0 0,2 0 0,-2 1 0,0-1 0,0 0 0,0 0 0,5 1 0,-4-1 0,4 0 0,-5 1 0,4 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,4 2 0,-5-1 0,5 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0 0 0,0-1 0,0 0 0,5 0 0,-5 0 0,4 0 0,0 0 0,1 0 0,-1 1 0,5-1 0,-4 0 0,3-1 0,0 1 0,1-1 0,13 5 0,-1-4 0,-3 1 0,3-1 0,6-1 0,-6 1 0,1-1 0,3 0 0,2-1 0,-6 1 0,45 1 0,-28 1 0,1-2 0,1 2 0,-1-1 0,0 1 0,56 11 0,-91-15 0,5 0 0,-4 0 0,-2 0 0,1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,-4 1 0,5-1 0,-1 0 0,-4 1 0,5-1 0,-1 1 0,-4-1 0,0 1 0,4-1 0,-4 3 0,0-2 0,-4 1 0,4-1 0,-4-1 0,-1 1 0,1 0 0,4-1 0,-5 1 0,1-1 0,-1 1 0,1-1 0,-5 1 0,6-1 0,-2 0 0,-4 1 0,5-1 0,0 0 0,-5 0 0,4 0 0,-4 0 0,-7 1 0,-27 1-14,-1 2 1,1-2-1,-1-1 0,-4 0 1,5 0-1,-5-1 0,5 0 0,-5-1 1,1 0-1,3-1 0,-47-2 0,-68 1-1186,89 2-5626</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1812 140 24575,'-34'47'0,"25"-41"0,0 1 0,0 0 0,5 0 0,-1 0 0,5 0 0,-4 0 0,8 11 0,-4-16 0,5-1 0,-1 1 0,-4 0 0,5-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,6 0 0,-4 1 0,-1-1 0,5 0 0,-5 0 0,5 0 0,-1 0 0,-4 1 0,5-1 0,-4-1 0,4 1 0,-1-1 0,1 1 0,-5-1 0,4 1 0,1-1 0,0 0 0,0 0 0,-4 0 0,2 0 0,2 0 0,0 0 0,13-1 0,-1 0-45,1 1-1,4-1 1,-4 0-1,-1-1 1,1 0-1,-1 1 1,2-1-1,-7 0 1,6 0-1,1-1 1,-7 1-1,2-1 1,3 0-1,-3 0 1,-1-1-1,-4 1 1,4-2-1,1 1 1,-6 0-1,2 0 1,-1 0-1,0-1 1,-5 1-1,5-2 1,-4 1-1,0 0 0,-5 1 1,4-1-1,5-9 1,-8-1-6781</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4627,11 +5672,11 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 76 24575,'9'0'0,"3"3"0,1 4 0,-1 4 0,-6 8 0,-3 2 0,0 2 0,-3-1 0,0-2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">40 76 24575,'-3'-1'0,"0"0"0,3 1 0,-3-1 0,0 0 0,0 0 0,-1 0 0,4 0 0,-3 0 0,3 0 0,-3 0 0,0 0 0,3 0 0,0 0 0,-3-1 0,3 1 0,0 0 0,-3 0 0,3-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-3-2 0,6 1 0,-3 0 0,0 0 0,4 0 0,-4 0 0,3 0 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,1 1 0,8-4 0,0 3 0,-3-1 0,1 1 0,2 0 0,0 1 0,-2-1 0,2 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1 0 0,16 0 0,-28 1 0,3 0 0,0-1 0,-3 1 0,3 0 0,-3 0 0,3 0 0,-3 0 0,4 0 0,-4 0 0,3 0 0,-3 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-3 1 0,4 0 0,-4-1 0,3 1 0,-3 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-3 0 0,3 0 0,-4-1 0,4 1 0,-6 2 0,-3 4 0,3-1 0,-3-1 0,0 0 0,-4 1 0,1-1 0,0 0 0,0 0 0,-22 7 0,34-13 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-4 0 0,4 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,-3 1 0,3-1 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-3-1 0,3 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,3 1 0,-3-1 0,0 1 0,0-1 0,0 1 0,0-1 0,3 2 0,-3-2 0,0 0 0,0 1 0,3-1 0,-3 1 0,0-1 0,3 1 0,-3-1 0,0 0 0,4 1 0,-4-1 0,3 0 0,-3 0 0,0 1 0,3-1 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-3 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,6 0 0,150 5 0,-51-3 0,-102-2 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,-3 1 0,3-1 0,0 1 0,-3-1 0,3 1 0,0 0 0,-3-1 0,4 1 0,-4 0 0,3 0 0,-3-1 0,3 1 0,-3 0 0,0 0 0,3 0 0,-3 0 0,0-1 0,0 1 0,3 0 0,-3 0 0,0 1 0,-3 0 0,3-1 0,-3 1 0,3-1 0,-3 1 0,0 0 0,-1-1 0,4 0 0,-3 1 0,0-1 0,0 0 0,-3 0 0,3 0 0,0 0 0,-6 2 0,-10 1 0,4 0 0,-3-1 0,-1 0 0,1 0 0,-1 0 0,-39 4 0,-107-3-1365,116-4-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1475 138 24575,'0'-2'0,"-3"0"0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 0 0,4 1 0,-3-1 0,3 1 0,-3-1 0,3 1 0,-3-1 0,0 1 0,0 0 0,-10-3 0,-122-14 0,111 16 0,-1 1 0,0 1 0,-2 0 0,2 0 0,1 0 0,-1 1 0,-36 3 0,60-3 0,-2-1 0,0 0 0,3 1 0,-3 0 0,0-1 0,3 1 0,-3 0 0,3 0 0,-4 0 0,4 0 0,-3 0 0,3 0 0,0 1 0,0-1 0,-3 0 0,3 1 0,0 0 0,-3 1 0,6-1 0,0 0 0,-3-1 0,3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-3 0 0,0 0 0,3-1 0,-3 1 0,3 0 0,0-1 0,-3 1 0,3-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 2 0,6 0 0,7 1 0,-4 1 0,3-1 0,4 0 0,-4-1 0,0 1 0,4-1 0,-1 0 0,-2 0 0,2-1 0,0 1 0,4-1 0,30 2 0,-27-2 0,2 1 0,1 0 0,-4 0 0,50 9 0,-68-11 0,3 1 0,-3 0 0,4 0 0,-4 0 0,0 2 0,0-2 0,0 0 0,0 1 0,-3-1 0,3 1 0,-2 0 0,2-1 0,-3 1 0,0 0 0,0 0 0,0 0 0,-3 0 0,6 6 0,-6-7-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 1,-3 0-1,3 1 0,-3-1 0,0 0 0,3 0 0,-3 1 0,0-1 0,0 0 0,0 0 0,3 0 0,-4 0 0,-2 0 0,3 0 0,0 0 0,-6 1 0,-3 0 23,-1 0 0,1 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-19 0 0,-6 0-268,-3-1 1,3 0-1,-2-1 1,2 0-1,-55-8 1,27 2-6579</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">2027 251 24575,'-3'2'0,"-3"0"0,3 0 0,-3 0 0,0 0 0,3-1 0,-4 1 0,1 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-12 0 0,-34 8 0,46-8 0,0 1 0,2-1 0,-2 0 0,0 1 0,0-1 0,3 1 0,-3 0 0,3-1 0,0 1 0,0 0 0,-3 0 0,2 1 0,1-1 0,0 0 0,3 0 0,-3 0 0,0 0 0,3 1 0,-3-1 0,3 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,3-1 0,-3 0 0,3 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,6 2 0,0 0 0,3-1 0,-2 1 0,2-1 0,0 0 0,0 0 0,1 1 0,2-2 0,-3 1 0,1-1 0,2 0 0,0 0 0,-3-1 0,4 1 0,-1-1 0,0 0 0,19 0 0,-15-1 0,-1 0 0,0 0 0,1 0 0,-4-1 0,4 0 0,-1 0 0,0-1 0,-2 0 0,2 0 0,-3 0 0,4 0 0,-4-1 0,0-1 0,28-5 0,-36 7 0,-1 0 0,0 0 0,0-1 0,0 1 0,-3 0 0,3-1 0,0 1 0,-3-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 2 0,0-1 0,-3 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 1 0,-3-1 0,3 0 0,-3-1 0,0 1 0,0 1 0,0-1 0,-4 0 0,-5-4 0,-68-25-1365,34 20-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">2027 251 24575,'9'0'0,"13"0"0,12 0 0,12 0 0,-4 0 0,1 0 0,3-3 0,-6-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 76 24575,'10'0'0,"3"3"0,1 4 0,0 4 0,-8 8 0,-3 2 0,1 2 0,-4-1 0,0-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">44 76 24575,'-3'-1'0,"-1"0"0,4 1 0,-3-1 0,0 0 0,-1 0 0,0 0 0,4 0 0,-3 0 0,3 0 0,-4 0 0,1 0 0,3 0 0,0 0 0,-3-1 0,3 1 0,0 0 0,-3 0 0,3-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-3-2 0,6 1 0,-2 0 0,-1 0 0,5 0 0,-5 0 0,4 0 0,-4 0 0,4 1 0,-1-1 0,1 1 0,-1-1 0,2 1 0,8-4 0,1 3 0,-4-1 0,1 1 0,3 0 0,-1 1 0,-1-1 0,1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,2 1 0,-2 0 0,18 0 0,-30 1 0,2 0 0,1-1 0,-4 1 0,4 0 0,-4 0 0,4 0 0,-4 0 0,5 0 0,-5 0 0,3 0 0,-2 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,-3 1 0,5 0 0,-5-1 0,3 1 0,-3 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-3 0 0,3 0 0,-5-1 0,5 1 0,-6 2 0,-4 4 0,3-1 0,-3-1 0,1 0 0,-6 1 0,2-1 0,0 0 0,0 0 0,-25 7 0,38-13 0,-3 0 0,3 0 0,-3 1 0,3-1 0,-4 0 0,4 0 0,-3 1 0,3-1 0,-4 0 0,4 1 0,0-1 0,-4 0 0,4 1 0,0-1 0,-3 1 0,3-1 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-3-1 0,3 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,3 1 0,-3-1 0,0 1 0,0-1 0,0 1 0,0-1 0,3 2 0,-3-2 0,0 0 0,0 1 0,3-1 0,-3 1 0,0-1 0,4 1 0,-4-1 0,0 0 0,4 1 0,-4-1 0,3 0 0,-3 0 0,0 1 0,4-1 0,-4 0 0,3 0 0,-3 1 0,3-1 0,-3 0 0,4 0 0,-4 0 0,3 0 0,-3 0 0,7 0 0,164 5 0,-56-3 0,-111-2 0,-1 1 0,0-1 0,-3 0 0,3 1 0,1-1 0,-1 1 0,0-1 0,-3 1 0,4-1 0,-1 1 0,-3-1 0,3 1 0,1 0 0,-4-1 0,4 1 0,-4 0 0,3 0 0,-3-1 0,4 1 0,-4 0 0,0 0 0,3 0 0,-3 0 0,0-1 0,0 1 0,3 0 0,-3 0 0,0 1 0,-3 0 0,3-1 0,-3 1 0,3-1 0,-4 1 0,1 0 0,-1-1 0,4 0 0,-4 1 0,1-1 0,0 0 0,-4 0 0,4 0 0,-1 0 0,-5 2 0,-12 1 0,4 0 0,-3-1 0,0 0 0,0 0 0,-1 0 0,-43 4 0,-117-3-1365,127-4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1620 138 24575,'0'-2'0,"-3"0"0,3 0 0,-3 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-5 0 0,5 1 0,-3-1 0,2 1 0,-2-1 0,2 1 0,-2-1 0,-1 1 0,1 0 0,-12-3 0,-134-14 0,123 16 0,-2 1 0,0 1 0,-2 0 0,2 0 0,2 0 0,-2 1 0,-39 3 0,65-3 0,-1-1 0,-1 0 0,4 1 0,-4 0 0,1-1 0,2 1 0,-2 0 0,3 0 0,-5 0 0,5 0 0,-4 0 0,4 0 0,-1 1 0,1-1 0,-4 0 0,4 1 0,0 0 0,-4 1 0,7-1 0,0 0 0,-3-1 0,3 1 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-3 0 0,0 0 0,4-1 0,-4 1 0,3 0 0,0-1 0,-3 1 0,3-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 2 0,7 0 0,7 1 0,-3 1 0,2-1 0,5 0 0,-5-1 0,1 1 0,4-1 0,-1 0 0,-3 0 0,3-1 0,0 1 0,4-1 0,33 2 0,-30-2 0,3 1 0,1 0 0,-5 0 0,56 9 0,-76-11 0,4 1 0,-3 0 0,4 0 0,-5 0 0,1 2 0,-1-2 0,1 0 0,0 1 0,-4-1 0,3 1 0,-1 0 0,1-1 0,-2 1 0,-1 0 0,0 0 0,1 0 0,-4 0 0,6 6 0,-6-7-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-3 0 0,3 1 0,0-1 1,-3 0-1,3 1 0,-4-1 0,1 0 0,3 0 0,-3 1 0,-1-1 0,1 0 0,0 0 0,3 0 0,-5 0 0,-1 0 0,3 0 0,-1 0 0,-6 1 0,-3 0 23,-1 0 0,1 0 0,0-1 0,-1 0 0,0 0 0,1 0 0,0 0 0,0-1 0,-22 0 0,-5 0-268,-4-1 1,3 0-1,-2-1 1,3 0-1,-61-8 1,29 2-6579</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">2227 251 24575,'-3'2'0,"-4"0"0,4 0 0,-4 0 0,1 0 0,2-1 0,-3 1 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,-1 0 0,2 0 0,-14 0 0,-37 8 0,50-8 0,1 1 0,1-1 0,-1 0 0,-1 1 0,1-1 0,2 1 0,-2 0 0,2-1 0,1 1 0,0 0 0,-4 0 0,3 1 0,0-1 0,1 0 0,3 0 0,-3 0 0,0 0 0,3 1 0,-4-1 0,4 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,4-1 0,-4 0 0,3 1 0,0-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,7 2 0,0 0 0,3-1 0,-2 1 0,2-1 0,0 0 0,1 0 0,0 1 0,2-2 0,-3 1 0,2-1 0,1 0 0,1 0 0,-4-1 0,4 1 0,0-1 0,-1 0 0,22 0 0,-17-1 0,-2 0 0,1 0 0,1 0 0,-4-1 0,3 0 0,0 0 0,0-1 0,-2 0 0,1 0 0,-2 0 0,4 0 0,-5-1 0,1-1 0,30-5 0,-39 7 0,-2 0 0,1 0 0,-1-1 0,1 1 0,-4 0 0,4-1 0,-1 1 0,-2-1 0,0 1 0,-1-1 0,1 0 0,-1-1 0,0 2 0,1-1 0,-4 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 1 0,-4-1 0,4 0 0,-3-1 0,0 1 0,-1 1 0,1-1 0,-5 0 0,-5-4 0,-75-25-1365,38 20-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">2227 251 24575,'10'0'0,"14"0"0,13 0 0,14 0 0,-5 0 0,1 0 0,4-3 0,-7-1-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4688,8 +5733,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">206 177 24575,'29'-9'0,"-4"-2"0,1 1 0,0-1 0,21-14 0,85-33 0,-92 43 0,-29 11 0,0-2 0,0 2 0,3 0 0,1 0 0,-4-1 0,22-2 0,-30 6 0,1 1 0,0-1 0,-1 1 0,1 0 0,-4 0 0,4-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-3 0 0,4 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,-3 1 0,4-1 0,0 1 0,-1-1 0,-3 1 0,4-1 0,-1 1 0,1-1 0,-4 1 0,4 0 0,-4-1 0,3 1 0,1 0 0,-4-1 0,0 1 0,4 1 0,-4-1 0,3 0 0,-3-1 0,0 1 0,0 0 0,4 2 0,58 29-102,-44-22-24,4 0-1,-3 0 1,-5 0 0,1 1-1,-1-1 1,-3 2 0,-3-2 0,3 2-1,0 18 1,-8-13-6700</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 139 24575,'11'0'0,"15"0"0,17 0 0,9-3 0,10-2 0,18 1 0,4 0 0,0 2 0,-3 0 0,-1 1 0,-3 0 0,-8-2 0,0-1 0,1 1 0,-15 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">258 177 24575,'36'-9'0,"-5"-2"0,2 1 0,-1-1 0,27-14 0,106-33 0,-115 43 0,-36 11 0,0-2 0,0 2 0,3 0 0,2 0 0,-5-1 0,27-2 0,-37 6 0,1 1 0,0-1 0,-1 1 0,1 0 0,-5 0 0,5-1 0,-2 1 0,2 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-4 0 0,5 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-2 0 0,-3 1 0,5-1 0,0 1 0,-1-1 0,-4 1 0,5-1 0,-1 1 0,1-1 0,-5 1 0,5 0 0,-5-1 0,4 1 0,1 0 0,-5-1 0,0 1 0,5 1 0,-5-1 0,3 0 0,-3-1 0,0 1 0,0 0 0,5 2 0,73 29-102,-55-22-24,4 0-1,-3 0 1,-7 0 0,2 1-1,-1-1 1,-5 2 0,-3-2 0,4 2-1,0 18 1,-10-13-6700</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 139 24575,'14'0'0,"18"0"0,22 0 0,11-3 0,13-2 0,22 1 0,5 0 0,0 2 0,-3 0 0,-2 1 0,-4 0 0,-10-2 0,1-1 0,0 1 0,-18 0-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4717,8 +5762,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">189 38 24575,'-16'1'0,"1"0"0,2 1 0,-2 0 0,0 1 0,2-1 0,-26 7 0,35-7 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 2 0,-1-2 0,3 1 0,-2 0 0,-5 3 0,9-3 0,0-2 0,-2 1 0,2 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 0 0,2-1 0,0 1 0,0 0 0,2 0 0,-2-1 0,0 1 0,0 0 0,0 1 0,0-1 0,2-1 0,-2 1 0,0 0 0,2-1 0,-2 1 0,0 0 0,2-1 0,-2 1 0,3 0 0,-3-1 0,2 1 0,-2-1 0,2 1 0,0 0 0,5 2 0,-1-1 0,1 0 0,-1-1 0,3 1 0,-3-1 0,1 0 0,1 0 0,14 3 0,-15-4 0,-1 1 0,1-1 0,-3 1 0,2 0 0,1 0 0,-1 0 0,-1 1 0,1-1 0,-1 2 0,1-2 0,-2 1 0,12 4 0,-16-6 0,0 0 0,0 0 0,2 0 0,-2 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,2 0 0,-2 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-2 1 0,2-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-2 1 0,2-1 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 0 0,0 1 0,-2-1 0,-32 6 0,-36-3 0,29-3-1365,2 0-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">418 38 24575,'2'9'0,"1"-1"0,1 1 0,0 0 0,1-1 0,1 0 0,1 1 0,-1-1 0,18 13 0,-22-20 0,0 2 0,0-2 0,-2 0 0,3 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 1 0,0-2 0,3 1 0,-3 0 0,0-1 0,2 1 0,-2-1 0,3 0 0,-3 1 0,0-1 0,2 0 0,-1 0 0,1 0 0,2 0 0,-1-1 0,-3 0 0,2 1 0,1-1 0,-1 0 0,-2-2 0,2 2 0,-1 0 0,1 0 0,-2-1 0,2 1 0,-1-1 0,-1 1 0,0-2 0,2 2 0,1-4 0,3-5 0,1 1 0,0 0 0,-3 0 0,1-1 0,-3 0 0,5-18 0,-7 8-1365,0 3-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">257 38 24575,'-22'1'0,"2"0"0,2 1 0,-2 0 0,0 1 0,2-1 0,-35 7 0,47-7 0,-1-1 0,2 0 0,0 0 0,-2 1 0,1-1 0,1 2 0,-2-2 0,4 1 0,-2 0 0,-7 3 0,12-3 0,0-2 0,-3 1 0,3 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-3 0 0,3-1 0,0 1 0,0 0 0,3 0 0,-3-1 0,0 1 0,0 0 0,0 1 0,0-1 0,3-1 0,-3 1 0,0 0 0,2-1 0,-2 1 0,0 0 0,3-1 0,-3 1 0,4 0 0,-4-1 0,3 1 0,-3-1 0,3 1 0,-1 0 0,8 2 0,-2-1 0,2 0 0,-2-1 0,4 1 0,-4-1 0,2 0 0,1 0 0,19 3 0,-21-4 0,-1 1 0,2-1 0,-5 1 0,3 0 0,2 0 0,-2 0 0,-1 1 0,1-1 0,-1 2 0,1-2 0,-3 1 0,17 4 0,-22-6 0,0 0 0,0 0 0,3 0 0,-3 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,3 0 0,-3 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-3 1 0,3-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-3 1 0,3-1 0,0 0 0,0 0 0,0 0 0,-4 0 0,4 0 0,0 1 0,-3-1 0,-43 6 0,-49-3 0,39-3-1365,3 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">569 38 24575,'3'9'0,"1"-1"0,1 1 0,1 0 0,0-1 0,3 0 0,0 1 0,-1-1 0,25 13 0,-30-20 0,-1 2 0,1-2 0,-3 0 0,4 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,4 0 0,-4 0 0,-1 0 0,1 1 0,0-2 0,4 1 0,-5 0 0,1-1 0,2 1 0,-2-1 0,4 0 0,-4 1 0,-1-1 0,4 0 0,-2 0 0,1 0 0,4 0 0,-3-1 0,-3 0 0,3 1 0,0-1 0,0 0 0,-3-2 0,2 2 0,-1 0 0,1 0 0,-2-1 0,3 1 0,-2-1 0,-2 1 0,1-2 0,3 2 0,0-4 0,5-5 0,2 1 0,-1 0 0,-4 0 0,2-1 0,-5 0 0,7-18 0,-9 8-1365,0 3-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4746,10 +5791,211 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 32 24575,'7'3'0,"2"4"0,8 6 0,6-1 0,2 1 0,-4 2 0,-7 2 0,-4 4 0,-3 3 0,2-1 0,7 0 0,3-1 0,-5 1 0,4-3 0,1-3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 12 24575,'381'-11'0,"-374"11"0,0 0 0,0 0 0,0 0 0,-2 1 0,2 0 0,0-1 0,0 1 0,0 0 0,9 3 0,-14-4 0,1 2 0,-1-2 0,-2 1 0,2 0 0,1-1 0,-3 1 0,2 0 0,0 0 0,-2-1 0,3 1 0,-3 0 0,2 0 0,-2 0 0,0-1 0,2 1 0,-2 0 0,0 0 0,3 0 0,-3 0 0,0 3 0,0-1 0,-3 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1-1 0,-1 1 0,1 0 0,-1-1 0,-1 2 0,0-2 0,1 1 0,-1-1 0,1 0 0,-13 3 0,-4 3 0,0-1 0,-2 0 0,2-2 0,-35 8 0,-27 7 0,83-20 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 0 0,3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-2-1 0,2 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,44 4 0,49-2 0,19-4 0,134 3 0,-243-1 0,-3 0 0,2 0 0,-2 0 0,2 0 0,-2-1 0,3 1 0,-3 1 0,2-1 0,-2 0 0,2 0 0,-2 0 0,3 0 0,-3 0 0,2 0 0,-2 0 0,2 1 0,-2-1 0,3 0 0,-3 0 0,2 1 0,-2-1 0,0 0 0,2 1 0,-2-1 0,3 2 0,-3-2 0,0 0 0,0 1 0,2-1 0,-2 1 0,0-1 0,2 1 0,-2-1 0,0 1 0,0-1 0,0 1 0,0-1 0,3 2 0,-38 17 0,-68 14 0,-22-4-1365,81-19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1203 110 24575,'-4'1'0,"-1"1"0,0 0 0,1-1 0,-1 0 0,0 1 0,1 0 0,-3-1 0,2-1 0,0 1 0,-2 0 0,3 0 0,-10 0 0,-7 1 0,5 1 0,2 0 0,0 2 0,0-2 0,0 1 0,0 0 0,2 2 0,-20 6 0,27-10 0,3 1 0,-3-2 0,3 1 0,-3 0 0,3 0 0,-1 0 0,-1 0 0,1 0 0,1 0 0,2 1 0,-2-1 0,-1 0 0,1 0 0,2 0 0,0 1 0,-2-1 0,2 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 1 0,2-1 0,-2 0 0,2 0 0,1 1 0,1 3 0,3-3 0,-2-1 0,2 0 0,0 0 0,0 1 0,0-2 0,0 1 0,0-1 0,0 0 0,0 1 0,2-1 0,-2-1 0,0 1 0,2 0 0,-2-1 0,3 0 0,-3 0 0,11 0 0,-4 0 0,-2 0 0,2 1 0,-3 0 0,3 0 0,-2 1 0,16 2 0,-26-3 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,-2 1 0,3 0 0,-1 0 0,0-1 0,0 1 0,-2 0 0,3 0 0,-1 0 0,-2-1 0,2 1 0,-2 0 0,3 0 0,-3 0 0,2 1 0,-2-1 0,0 0 0,2 0 0,-2 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,2 0 0,0 1 0,-2-1 0,2 0 0,-3 0 0,1 1 0,-3 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-2-1 0,2 2 0,-2-2 0,3 0 0,-3 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,2-1 0,-13 1 0,-117 0-1365,95-1-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1417 280 24575,'2'6'0,"-2"-1"0,3 0 0,-1 1 0,0-1 0,3 0 0,-3 1 0,3-1 0,0-1 0,-1 1 0,3 0 0,0 0 0,-2-1 0,2 0 0,2 1 0,-2-1 0,0-1 0,3 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,1 0 0,20 3 0,-24-3 0,0-2 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,3 1 0,-3-1 0,0 0 0,0 0 0,2 0 0,-2 0 0,0-1 0,0 1 0,0-1 0,2 0 0,-2 0 0,0 0 0,0 0 0,0 0 0,0-2 0,-2 1 0,2 1 0,0-1 0,-3 0 0,3 0 0,-2 0 0,2-1 0,-2 0 0,-1 0 0,1 1 0,0-1 0,-3 0 0,2 1 0,1-1 0,-3-1 0,5-5 0,0 0-195,0 0 0,-2-1 0,-3 1 0,3-1 0,-3 1 0,1-15 0,-3 7-6631</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 32 24575,'8'3'0,"2"4"0,9 6 0,7-1 0,2 1 0,-4 2 0,-8 2 0,-5 4 0,-3 3 0,2-1 0,8 0 0,4-1 0,-6 1 0,4-3 0,1-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 12 24575,'430'-11'0,"-422"11"0,0 0 0,0 0 0,0 0 0,-3 1 0,3 0 0,0-1 0,0 1 0,0 0 0,10 3 0,-16-4 0,2 2 0,-2-2 0,-2 1 0,2 0 0,1-1 0,-3 1 0,3 0 0,-1 0 0,-2-1 0,3 1 0,-3 0 0,3 0 0,-3 0 0,0-1 0,2 1 0,-2 0 0,0 0 0,3 0 0,-3 0 0,0 3 0,0-1 0,-3 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0-1 0,-1 1 0,0 0 0,0-1 0,-2 2 0,0-2 0,2 1 0,-2-1 0,2 0 0,-15 3 0,-5 3 0,0-1 0,-2 0 0,2-2 0,-39 8 0,-30 7 0,93-20 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 0 0,4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-2-1 0,2 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,4 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,50 4 0,54-2 0,23-4 0,151 3 0,-275-1 0,-3 0 0,2 0 0,-2 0 0,2 0 0,-2-1 0,4 1 0,-4 1 0,2-1 0,-2 0 0,2 0 0,-2 0 0,4 0 0,-4 0 0,2 0 0,-2 0 0,2 1 0,-2-1 0,4 0 0,-4 0 0,2 1 0,-2-1 0,0 0 0,2 1 0,-2-1 0,4 2 0,-4-2 0,0 0 0,0 1 0,2-1 0,-2 1 0,0-1 0,2 1 0,-2-1 0,0 1 0,0-1 0,0 1 0,0-1 0,3 2 0,-42 17 0,-77 14 0,-25-4-1365,91-19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1358 110 24575,'-5'1'0,"0"1"0,-1 0 0,1-1 0,0 0 0,-1 1 0,2 0 0,-4-1 0,2-1 0,0 1 0,-2 0 0,4 0 0,-12 0 0,-8 1 0,6 1 0,3 0 0,-1 2 0,0-2 0,0 1 0,0 0 0,3 2 0,-23 6 0,30-10 0,4 1 0,-4-2 0,4 1 0,-4 0 0,4 0 0,-1 0 0,-2 0 0,2 0 0,0 0 0,3 1 0,-2-1 0,-1 0 0,1 0 0,2 0 0,0 1 0,-3-1 0,3 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 1 0,3-1 0,-3 0 0,2 0 0,1 1 0,2 3 0,3-3 0,-3-1 0,3 0 0,0 0 0,0 1 0,0-2 0,0 1 0,0-1 0,0 0 0,0 1 0,2-1 0,-2-1 0,-1 1 0,4 0 0,-3-1 0,3 0 0,-3 0 0,12 0 0,-4 0 0,-3 0 0,3 1 0,-3 0 0,2 0 0,-1 1 0,18 2 0,-30-3 0,1-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-3 1 0,3 0 0,-1 0 0,0-1 0,1 1 0,-3 0 0,3 0 0,-1 0 0,-2-1 0,3 1 0,-3 0 0,3 0 0,-3 0 0,2 1 0,-2-1 0,0 0 0,2 0 0,-2 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,2 0 0,0 1 0,-2-1 0,2 0 0,-3 0 0,0 1 0,-2 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-2-1 0,3 2 0,-3-2 0,3 0 0,-3 0 0,3 0 0,-3 0 0,0 0 0,0 0 0,2-1 0,-14 1 0,-132 0-1365,107-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1599 280 24575,'2'6'0,"-2"-1"0,4 0 0,-2 1 0,0-1 0,4 0 0,-4 1 0,4-1 0,0-1 0,-2 1 0,4 0 0,0 0 0,-2-1 0,1 0 0,4 1 0,-3-1 0,-1-1 0,5 1 0,-2-1 0,0 1 0,0-1 0,1 0 0,2 0 0,22 3 0,-27-3 0,0-2 0,0 0 0,-1 0 0,0 0 0,1 0 0,0-1 0,3 1 0,-3-1 0,0 0 0,0 0 0,2 0 0,-2 0 0,0-1 0,0 1 0,0-1 0,2 0 0,-2 0 0,0 0 0,0 0 0,0 0 0,-1-2 0,-1 1 0,2 1 0,0-1 0,-4 0 0,4 0 0,-2 0 0,2-1 0,-2 0 0,-2 0 0,2 1 0,-1-1 0,-2 0 0,1 1 0,2-1 0,-4-1 0,6-5 0,0 0-195,0 0 0,-3-1 0,-2 1 0,2-1 0,-3 1 0,2-15 0,-4 7-6631</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.412"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'57'0'0,"-1"-1"0,0 2 0,101 8 0,-148-7 0,1-1 0,-1 1 0,0-1 0,0 1 0,10 4 0,-15-5 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-1-2 0,0 2 0,1 0 0,3 4 0,1 0 0,-1 1 0,0 1 0,-2-1 0,0 0 0,0 1 0,0-1 0,2 15 0,-6-22-124,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1-1,-1-2 1,1 1 0,0 0 0,1 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.414"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.415"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">160 218 24575,'-5'-26'0,"-4"0"0,-17 1 0,-54-32 0,71 47 0,-5 0 0,6-1 0,-1 0 0,9 1 0,17-13 0,-25 23 0,8 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,8-1 0,-8 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,6-1 0,-6 1 0,0 0 0,0 0 0,0 0 0,0-1 0,8 1 0,-8 0 0,0 0 0,0 0 0,9 0 0,-9-1 0,0 1 0,0 0 0,9 0 0,-9 0 0,65 7 0,56 19 0,-113-24 0,144 39 0,211 89 0,-280-99 0,20 23 0,-68-37 0,-4 1 0,67 20 0,-98-38 0,0 1 0,0-1 0,0 0 0,5 0 0,-5 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,9 0 0,-9 0 0,0 0 0,0 1 0,0-1 0,0 0 0,9 0 0,-9 0 0,0 0 0,0 0 0,0 0 0,8 1 0,-8-1 0,0 0 0,0 0 0,0 0 0,9 0 0,-9 0 0,0 0 0,0 0 0,8 0 0,41-6 0,14-15 0,34-29 0,-80 35 0,6 1 0,9 0 0,74-24 0,0 10 0,94-38 0,-174 53 0,5 0 0,-14 1 0,-2-1 0,2-1 0,-9-21 0,-8 264 0,-8-92 0,8-46-1365,0-83-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">3749 313 24575,'-8'37'0,"16"40"0,-8-77 0,0 2 0,0-1 0,0 0 0,6 0 0,-6 0 0,0 0 0,0 0 0,0-1 0,9 1 0,-9 0 0,8 0 0,-8 0 0,9-1 0,-9 1 0,8 0 0,-8 0 0,9-1 0,-9 1 0,6-1 0,2 1 0,-8 0 0,26 0 0,-20-1 0,2 1 0,9-1 0,-8 1 0,0-1 0,5 0 0,-5 0 0,8 0 0,-12 0 0,4 0 0,8 0 0,-8 0 0,5 0 0,3-1 0,49-1 0,-3-1 0,-6 0 0,112-9 0,-143 10 0,272-12 0,-241 12 0,0-1 0,-3 1 0,4-2 0,79-4 0,-120 5 0,-2 2 0,2-1 0,0 0 0,-9 0 0,7 0 0,2 0 0,-8 0 0,5 0 0,-6 0 0,10 0 0,-10-1 0,-2 1 0,2 0 0,1-1 0,0 1 0,-9-1 0,8-3 0,7-7 0,-15 1 0,8-1 0,-31-24 0,23 36 0,0 0 0,-8 0 0,8 0 0,-9 0 0,9 0 0,0 0 0,-9 1 0,1-1 0,8 0 0,-6 0 0,6 0 0,-8 0 0,-1 1 0,0-1 0,9 0 0,-8 1 0,-1-1 0,4 0 0,-4 1 0,0-1 0,1 1 0,-1-1 0,3 1 0,-2 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-15 0 0,-43-1 0,3 1 0,6 0 0,-81 1 0,58-1 0,-26 1 0,49-1 0,-6 0 0,6 1 0,-81 2 0,115-3 0,-2 1 0,2 0 0,6 1 0,-6-1 0,-3 0 0,9 1 0,-6 0 0,6-1 0,-6 1 0,6 0 0,-32 5 0,-14 3-1365</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.417"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 251 24575,'-1'-46'0,"2"-50"0,4 64 0,0-16 0,-6 48 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,4 7 0,3 16 0,-6-8 0,7 29 0,-8-41 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,-5-7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2-2 0,1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-2 0,6-8 0,-3 0 0,2 1 0,0 0 0,0 1 0,13-15 0,-19 24 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-3 0,0 59 0,-4-35 0,-6 22 0,5-23 0,-3 29 0,6-45-50,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 1-1,-4 0-6775</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">445 168 24575,'0'1'0,"-2"1"0,0 2 0,0 1 0,0 2 0,1 1 0,0 1 0,1 2 0,-2 0 0,0 1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.419"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 204 24575,'-2'-2'0,"1"-1"0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,0-4 0,-2-33 0,2 23 0,2-72 0,-1 88 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 0,-2 2 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,4 5 0,-1-1 0,-1 1 0,6 8 0,-5-7 0,-1-1 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,7 6 0,-10-9 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1-1 0,-2 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-3 0,11-20 0,-12 20 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,3-4 0,3 1 0,-4 8 0,-4 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 3 0,1 106 71,-1-55-1507,0-47-5390</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 166 24575,'2'1'0,"-1"0"0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,0 4 0,4 1 0,-5-6 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 4 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-2-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 4 0,4-1 0,0-3 0,2-1 0,-1 1 0,0-1 0,0 1 0,-7 4 0,25-21 0,-8 9 0,-1 0 0,1-1 0,-1 1 0,0-1 0,6-9 0,-7 9 0,1-1 0,1 1 0,-1 0 0,10-7 0,-8 9 0,0 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,16 0 0,-12 0 0,51-1-1365,-53 3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.421"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">438 281 24575,'-28'-4'0,"-1"0"0,10-1 0,-10 1 0,12 0 0,-2-1 0,2 0 0,5 1 0,-5-1 0,9 0 0,-3 0 0,2-7 0,-56-18 0,28 19 0,9-1 0,0 0 0,0 0 0,19 0 0,-11 0 0,12 0 0,8-18 0,0 29 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,8-1 0,-8 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,12 0 0,-12-1 0,0 1 0,0 0 0,0 0 0,8 0 0,-8-1 0,0 1 0,0 0 0,0 0 0,9 0 0,-9 0 0,0 0 0,0-1 0,8 1 0,-8 0 0,85 6 0,45 13 0,-37-2 0,158 22 0,-129-23 0,90 20 0,-192-33 0,-12 0 0,12-1 0,-3 0 0,2 0 0,-2 0 0,3 0 0,0 0 0,-3 0 0,39 1 0,-47-2 0,2-1 0,-11 1 0,9-1 0,-1 1 0,1-1 0,2 0 0,-11 0 0,8 1 0,1-1 0,2 0 0,-2 0 0,-1 0 0,-8 0 0,9 0 0,2 0 0,-3 0 0,1 0 0,2 0 0,-2 0 0,-9-1 0,8 1 0,1 0 0,2 0 0,-3-1 0,-8 1 0,9-1 0,2 1 0,-11-1 0,9 1 0,-1-1 0,-8 1 0,9-1 0,2 0 0,-11 1 0,8-1 0,-8 0 0,9-1 0,84-17 0,-17 0 0,99-39 0,-118 40 0,-1-1 0,-2 1 0,22 1 0,119-24 0,-195 41 0,0 0 0,0-1 0,9 1 0,-9-1 0,0 1 0,0 0 0,0-1 0,8 1 0,-8 0 0,0-1 0,0 1 0,11 0 0,-11-1 0,0 1 0,9 0 0,-9 0 0,0-1 0,8 1 0,-8 0 0,9 0 0,-9 0 0,0-1 0,11 1 0,-11 0 0,9 0 0,-9 0 0,8 0 0,-8 0 0,0 0 0,11 0 0,-11 0 0,9 0 0,-1 0 0,-8 1 0,9-1 0,2 1 0,-11 0 0,9 0 0,-9-1 0,8 1 0,-8 0 0,11 0 0,-11 0 0,0 0 0,9 0 0,-9-1 0,8 3 0,29 33 0,-26 65 76,-22-50-1517,11-44-5385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">3791 178 24575,'48'1'0,"-3"-1"0,3 1 0,-11 0 0,8 0 0,85 4 0,-74-3 0,-8 0 0,6 0 0,87 1 0,-96-3 0,0 1 0,-5 0 0,5 0 0,-8 1 0,11-1 0,-11 1 0,8 1 0,-8-1 0,2 0 0,54 5 0,-84-6 0,-1 0 0,12 0 0,-12 0 0,1 0 0,2 0 0,-11 0 0,9 0 0,-1 1 0,1-1 0,-9 0 0,11 1 0,-3-1 0,-8 0 0,9 1 0,-9-1 0,0 0 0,0 1 0,11-1 0,-11 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-11-1 0,11 1 0,0-1 0,0 0 0,-9 1 0,9-1 0,-8 0 0,-3 1 0,11-1 0,-9 0 0,1 1 0,-1-1 0,-2 0 0,11 0 0,-28 1 0,11 1 0,-11 0 0,-1-1 0,1 1 0,0-1 0,-9 0 0,9 0 0,0 0 0,-9 0 0,9-1 0,-9 1 0,0-1 0,0 0 0,-36 1 0,-198 8 0,347-13 0,-2-1 0,-1 2 0,0-1 0,4 1 0,-4 1 0,12-1 0,-12 1 0,1 1 0,10 0 0,-10 0 0,11 0 0,-12 1 0,114 3 0,-168-4 0,-10 1 0,-1 0 0,12-1 0,-12 1 0,1 0 0,11 0 0,-12 0 0,3 0 0,-2 0 0,-1 0 0,1 0 0,2 0 0,-2 1 0,-1-1 0,3 0 0,-11 1 0,9-1 0,-1 0 0,-8 1 0,9-1 0,-9 1 0,11-1 0,-11 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-11 1 0,2 1 0,1 0 0,-1-1 0,-2 1 0,-6-1 0,6 1 0,-6-1 0,-3 0 0,3 1 0,-3-1 0,1 0 0,2 0 0,-11-1 0,-18 4 0,7-3-91,13-1 0,-13 1 0,2-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-2-1 0,-7 1 0,10-1 0,-1 0 0,-11-1 0,11 1 0,-64-1 0,27 0-6735</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.423"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 213 24575,'1'-4'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,3-6 0,-3 6 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-9 0,-1-3 0,-1-1 0,-1 0 0,-3-18 0,0 5 0,4 29 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0-2 0,-1 3 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,2 2 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,22 71 0,-22-67 0,2 12 0,1 8 0,-5-27 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2 1 0,-3-3 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,1-1 0,1-4 0,0-1 0,3-15 0,-6 22 0,2-4 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,5-4 0,-1-3 0,0 2 0,-6 12 0,-1 8 0,-2 15 0,0-1 0,-9 38 0,7-41-341,0-1 0,2 1-1,1 21 1,0-35-6485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 241 24575,'0'16'0,"0"-1"0,-1 1 0,-5 22 0,5-34 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-7 4 0,5-6 0,7-5 0,9-8 0,50-30 0,-56 39 0,-1 1 0,0 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,7-1 0,7 1 0,34 1 0,-20 1 0,-31-1-54,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 1,0 2-1,2 2-6771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">444 222 24575,'-5'64'0,"0"3"0,6 6-1365,-1-65-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4779,6 +6025,273 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 251 24575,'-1'-46'0,"2"-50"0,4 64 0,0-16 0,-6 48 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,4 7 0,3 16 0,-6-8 0,7 29 0,-8-41 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,-5-7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2-2 0,1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-2 0,6-8 0,-3 0 0,2 1 0,0 0 0,0 1 0,13-15 0,-19 24 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-3 0,0 59 0,-4-35 0,-6 22 0,5-23 0,-3 29 0,6-45-50,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 1-1,-4 0-6775</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1357.65">445 168 24575,'0'1'0,"-2"1"0,0 2 0,0 1 0,0 2 0,1 1 0,0 1 0,1 2 0,-2 0 0,0 1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.426"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 74 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 4 0,0 5 0,0-4-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,12 0 0,-14 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 8 0,-5-10 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-14-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.428"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1586 0 24575,'-90'1'0,"14"0"0,-10 0 0,-4 1 0,14 0 0,-2 0 0,-9 1 0,11-1 0,-2 1 0,2 1 0,1-1 0,10 2 0,-10-1 0,13 0 0,-3 1 0,-61 5 0,101-9 0,0 1 0,0 0 0,-3 0 0,3 0 0,13 1 0,-13-1 0,0 0 0,11 1 0,3-1 0,-3 1 0,-12 0 0,15 0 0,11 0 0,-14-1 0,3 1 0,11 0 0,-14 0 0,14-1 0,0 1 0,0 0 0,0 0 0,0 0 0,14-1 0,-14 1 0,11 0 0,3 0 0,-14-1 0,11 1 0,3 1 0,12-2 0,-15 1 0,3-1 0,11 0 0,-14 1 0,15-1 0,-1 0 0,3 0 0,22 2 0,12-1 0,-12 0 0,15-1 0,-1 1 0,-2-1 0,16 0 0,-16-1 0,2 1 0,12-1 0,-12 0 0,-2 0 0,14-1 0,-12 0 0,87 0 0,536 9 0,-648-9 0,-14 1 0,12 0 0,-12 0 0,0 0 0,0 1 0,0-1 0,3 0 0,-2 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-15 1 0,14 0 0,-11 0 0,11 0 0,-11 1 0,23 2 0,-37-3 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-12 1 0,12-1 0,0 1 0,-14-1 0,14 1 0,-11-1 0,11 2 0,-14-2 0,0 0 0,3 1 0,-3-1 0,3 0 0,-3 0 0,3 1 0,-3-1 0,2 0 0,-2 0 0,3 0 0,-14 0 0,11-1 0,3 1 0,-15 0 0,12 0 0,0-1 0,-36 1 0,-583 21 0,518-19-227,0-1-1,-11-1 1,11 1-1,-11-2 1,-115 1-1,39-1-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4480 246 24575,'0'-1'0,"-14"1"0,14-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-11-1 0,11 1 0,0-1 0,0 1 0,-14 0 0,14-1 0,0 1 0,-12 0 0,12-1 0,0 1 0,-14 0 0,14-1 0,-11 1 0,11 0 0,-14 0 0,14 0 0,0-1 0,-11 1 0,11 0 0,-14 0 0,14 0 0,-14 0 0,14 0 0,-11 0 0,11 0 0,-14 0 0,14 0 0,0 0 0,-12 0 0,12 0 0,-14 0 0,14 0 0,-11 1 0,11-1 0,-14 0 0,14 0 0,0 0 0,-11 1 0,11-1 0,-14 0 0,14 1 0,0-1 0,-11 0 0,11 1 0,-306 15 0,267-13 0,3 1 0,11 0 0,-15 0 0,15 0 0,-11 0 0,8 2 0,17-2 0,-15 1 0,1-1 0,11 1 0,3-1 0,-3 1 0,14 0 0,-11 0 0,11-1 0,0 1 0,0 1 0,25 5 0,-25-8 0,25 0 0,-14 1 0,3-1 0,12 0 0,-15 0 0,17 1 0,-3-1 0,0-1 0,0 1 0,1 0 0,10 0 0,-11 0 0,14 0 0,1-1 0,-4 0 0,-11 0 0,15 0 0,10 0 0,-11-1 0,-2 1 0,2-1 0,11 0 0,-13 1 0,78 0 0,-65-2 5,0 1-1,4-1 1,-4 0 0,1 1-1,-1-2 1,0 1-1,1 0 1,-1-1 0,1 0-1,-1 0 1,3 0 0,-2 0-1,-1-1 1,1 0-1,-15 0 1,17 0 0,-16 0-1,13 0 1,-11 0-1,-2-1 1,2-1 0,0 1-1,-2 0 1,2 0-1,36-6 1,-49 7-51,-1-1-1,0 0 1,-11 0-1,11 0 1,-13 0 0,13 0-1,-11-1 1,-3 1-1,-11 0 1,14-1 0,-3 0-1,-11 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,-11 0-1,-3-1 1,14 1-1,-11 0 1,-14-1 0,11 1-1,2 0 1,-13-1-1,11 1 1,-11 0 0,0 0-1,-1 1 1,1-1-1,-39-3 1,-76-4-6780</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.430"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'203'0'0,"66"-3"0,407-1 0,334 0 0,1 1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.431"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1735 21 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-11-1 0,11 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,11 0 0,-11 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,11 1 0,-11 0 0,0 0 0,0 0 0,0 0 0,0 0 0,11 0 0,-11-1 0,0 1 0,0 0 0,0 0 0,0 0 0,10 0 0,-231-9 0,177 9 0,-10-1 0,3 0 0,-3 1 0,2 0 0,-2 0 0,3 0 0,-3 1 0,2-1 0,-2 1 0,3 1 0,-3-1 0,-63 3 0,96-2 0,-1 0 0,3 0 0,-2 1 0,-1-1 0,0 0 0,1 0 0,10 1 0,-8-1 0,8 0 0,-11 1 0,12 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,11 2 0,-11-1 0,11 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0 0 0,0-1 0,0 0 0,11 0 0,-11 0 0,11 0 0,0 0 0,0 0 0,0 1 0,10-1 0,-10 0 0,11-1 0,-3 1 0,2-1 0,33 5 0,-2-4 0,-9 1 0,8-1 0,14-1 0,-13 1 0,2-1 0,8 0 0,3-1 0,-14 1 0,109 1 0,-65 1 0,-1-2 0,4 2 0,-4-1 0,1 1 0,138 11 0,-222-15 0,10 0 0,-10 0 0,-3 0 0,3 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-11 1 0,11-1 0,0 0 0,-11 1 0,11-1 0,0 1 0,-11-1 0,0 1 0,10-1 0,-10 3 0,0-2 0,-10 1 0,10-1 0,-11-1 0,0 1 0,0 0 0,11-1 0,-11 1 0,0-1 0,1 1 0,-1-1 0,-11 1 0,14-1 0,-3 0 0,-10 1 0,10-1 0,0 0 0,-11 0 0,11 0 0,-10 0 0,-20 1 0,-64 1-14,-1 2 1,1-2-1,-3-1 0,-9 0 1,12 0-1,-12-1 0,12 0 0,-11-1 1,-1 0-1,12-1 0,-117-2 0,-168 1-1186,220 2-5626</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4421 140 24575,'-84'47'0,"63"-41"0,-1 1 0,0 0 0,12 0 0,-1 0 0,11 0 0,-11 0 0,22 11 0,-11-16 0,11-1 0,-1 1 0,-10 0 0,11-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-3-1 0,14 0 0,-11 1 0,0-1 0,10 0 0,-10 0 0,11 0 0,-3 0 0,-8 1 0,10-1 0,-10-1 0,11 1 0,-1-1 0,1 1 0,-14-1 0,14 1 0,-1-1 0,1 0 0,0 0 0,-12 0 0,9 0 0,3 0 0,0 0 0,32-1 0,-3 0-45,3 1-1,8-1 1,-7 0-1,-4-1 1,3 0-1,-3 1 1,4-1-1,-15 0 1,14 0-1,0-1 1,-13 1-1,2-1 1,9 0-1,-9 0 1,0-1-1,-13 1 1,13-2-1,0 1 1,-13 0-1,3 0 1,-1 0-1,1-1 1,-14 1-1,13-2 1,-10 1-1,-1 0 0,-10 1 1,8-1-1,13-9 1,-21-1-6781</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.433"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 242 24575,'0'-8'0,"1"-1"0,0 2 0,1-1 0,0-1 0,0 2 0,0-1 0,1 0 0,0 1 0,2-1 0,-2 0 0,8-9 0,7-9 0,35-39 0,-28 37 0,-25 27 2,1-2-1,0 2 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 1,0-2-1,-1 1 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0 1-1,1-1 0,-1 0 1,0-1-1,0 1 1,1 0-1,-2 0 0,1 0 1,0 1-1,0-1 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1 1 1,6 12-138,0 2 0,-2-2 1,8 32-1,-6-23-761,-1-2-5929</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">90 154 24575,'3'0'0,"1"-3"0,4-1 0,3-1 0,3-2 0,3 0 0,0 2 0,2 0 0,1 2 0,-1 2 0,-2-4 0,-5 1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">400 195 24575,'-2'1'0,"0"-1"0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,2 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1 2 0,-1 0 0,0 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0-2 0,0 2 0,1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,6 8 0,-6-12 0,-1 0 0,2 0 0,-2 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 2 0,0-2 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 2 0,-1-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 2 0,0 2 0,0-4 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-4-1 0,-27-7-1365,17 5-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">570 338 24575,'-15'-1'0,"-1"1"0,0 0 0,-1 0 0,1 2 0,-20 4 0,34-6 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-2 2 0,2-2 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,3 3 0,-1-2 0,0 0 0,1 2 0,0-2 0,0 0 0,0-1 0,-1 2 0,1-1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,1 0 0,-2-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,5 0 0,-5 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,2-5 0,-1-9-1365,-2 1-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.437"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 76 24575,'23'0'0,"8"3"0,2 4 0,-2 4 0,-16 8 0,-7 2 0,-1 2 0,-7-1 0,0-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">102 76 24575,'-7'-1'0,"-1"0"0,8 1 0,-8-1 0,1 0 0,-1 0 0,-2 0 0,10 0 0,-8 0 0,8 0 0,-8 0 0,1 0 0,7 0 0,0 0 0,-8-1 0,8 1 0,0 0 0,-8 0 0,8-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,8 0 0,-8-2 0,15 1 0,-7 0 0,0 0 0,10 0 0,-11 0 0,9 0 0,-9 0 0,9 1 0,-1-1 0,0 1 0,1-1 0,1 1 0,22-4 0,-1 3 0,-7-1 0,2 1 0,5 0 0,1 1 0,-6-1 0,5 1 0,1 0 0,2 0 0,-3 0 0,0 0 0,3 1 0,-3 0 0,42 0 0,-73 1 0,9 0 0,-1-1 0,-7 1 0,7 0 0,-7 0 0,7 0 0,-7 0 0,10 0 0,-11 0 0,9 0 0,-9 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,-7 1 0,11 0 0,-11-1 0,7 1 0,-7 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-7 0 0,7 0 0,-11-1 0,11 1 0,-15 2 0,-8 4 0,8-1 0,-8-1 0,0 0 0,-11 1 0,4-1 0,-1 0 0,0 0 0,-56 7 0,87-13 0,-7 0 0,7 0 0,-8 1 0,8-1 0,-8 0 0,8 0 0,-7 1 0,7-1 0,-10 0 0,10 1 0,0-1 0,-8 0 0,8 1 0,0-1 0,-8 1 0,8-1 0,0 1 0,0-1 0,-7 0 0,7 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-8-1 0,8 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,8 1 0,-8-1 0,0 1 0,0-1 0,0 1 0,0-1 0,7 2 0,-7-2 0,0 0 0,0 1 0,8-1 0,-8 1 0,0-1 0,8 1 0,-8-1 0,0 0 0,10 1 0,-10-1 0,7 0 0,-7 0 0,0 1 0,8-1 0,-8 0 0,8 0 0,-8 1 0,7-1 0,-7 0 0,8 0 0,-8 0 0,8 0 0,-8 0 0,15 0 0,384 5 0,-131-3 0,-260-2 0,0 1 0,-1-1 0,-7 0 0,8 1 0,0-1 0,-1 1 0,1-1 0,-8 1 0,8-1 0,-1 1 0,-7-1 0,8 1 0,0 0 0,-8-1 0,10 1 0,-10 0 0,8 0 0,-8-1 0,7 1 0,-7 0 0,0 0 0,8 0 0,-8 0 0,0-1 0,0 1 0,8 0 0,-8 0 0,0 1 0,-8 0 0,8-1 0,-8 1 0,8-1 0,-7 1 0,-1 0 0,-2-1 0,10 0 0,-8 1 0,0-1 0,1 0 0,-9 0 0,9 0 0,-1 0 0,-15 2 0,-26 1 0,11 0 0,-8-1 0,-3 0 0,3 0 0,-2 0 0,-100 4 0,-274-3-1365,297-4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3770 138 24575,'0'-2'0,"-7"0"0,7 0 0,-8 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-10 0 0,10 1 0,-7-1 0,7 1 0,-7-1 0,7 1 0,-7-1 0,0 1 0,-1 0 0,-25-3 0,-311-14 0,283 16 0,-3 1 0,1 1 0,-6 0 0,5 0 0,3 0 0,-2 1 0,-93 3 0,154-3 0,-5-1 0,-1 0 0,9 1 0,-9 0 0,1-1 0,7 1 0,-7 0 0,7 0 0,-10 0 0,11 0 0,-9 0 0,9 0 0,-1 1 0,0-1 0,-7 0 0,7 1 0,1 0 0,-9 1 0,16-1 0,0 0 0,-7-1 0,7 1 0,0 0 0,0 0 0,0-1 0,0 1 0,7 0 0,-7 0 0,0 0 0,8-1 0,-8 1 0,8 0 0,-1-1 0,-7 1 0,8-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,-1 2 0,16 0 0,18 1 0,-10 1 0,7-1 0,11 0 0,-11-1 0,0 1 0,11-1 0,-3 0 0,-5 0 0,5-1 0,0 1 0,10-1 0,77 2 0,-69-2 0,5 1 0,3 0 0,-11 0 0,128 9 0,-174-11 0,8 1 0,-7 0 0,9 0 0,-9 0 0,-1 2 0,0-2 0,1 0 0,-1 1 0,-7-1 0,7 1 0,-5 0 0,6-1 0,-9 1 0,1 0 0,0 0 0,-1 0 0,-7 0 0,16 6 0,-16-7-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-8 0 0,8 1 0,0-1 1,-8 0-1,8 1 0,-7-1 0,-1 0 0,8 0 0,-8 1 0,1-1 0,-1 0 0,0 0 0,8 0 0,-10 0 0,-5 0 0,7 0 0,0 0 0,-15 1 0,-7 0 23,-4 0 0,4 0 0,-1-1 0,0 0 0,-2 0 0,3 0 0,-1 0 0,0-1 0,-48 0 0,-16 0-268,-7-1 1,8 0-1,-6-1 1,5 0-1,-140-8 1,69 2-6579</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">5181 251 24575,'-7'2'0,"-9"0"0,9 0 0,-9 0 0,1 0 0,7-1 0,-10 1 0,3 0 0,0 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,-2 0 0,3 0 0,-31 0 0,-87 8 0,118-8 0,-1 1 0,6-1 0,-5 0 0,0 1 0,-1-1 0,9 1 0,-9 0 0,9-1 0,-1 1 0,0 0 0,-7 0 0,5 1 0,2-1 0,0 0 0,8 0 0,-7 0 0,-1 0 0,8 1 0,-8-1 0,8 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,8-1 0,-8 0 0,8 1 0,-1-1 0,1 0 0,0 0 0,2 0 0,-2 0 0,-1 0 0,1 0 0,15 2 0,0 0 0,8-1 0,-6 1 0,6-1 0,-1 0 0,1 0 0,2 1 0,6-2 0,-9 1 0,4-1 0,4 0 0,0 0 0,-7-1 0,10 1 0,-3-1 0,1 0 0,47 0 0,-37-1 0,-3 0 0,0 0 0,3 0 0,-11-1 0,11 0 0,-3 0 0,0-1 0,-6 0 0,6 0 0,-7 0 0,9 0 0,-9-1 0,-1-1 0,72-5 0,-92 7 0,-3 0 0,1 0 0,-1-1 0,0 1 0,-7 0 0,7-1 0,1 1 0,-9-1 0,3 1 0,-2-1 0,0 0 0,-1-1 0,1 2 0,0-1 0,-8 0 0,7 0 0,-7 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-7 0 0,7 1 0,-8-1 0,8 0 0,-8-1 0,1 1 0,-1 1 0,0-1 0,-9 0 0,-14-4 0,-174-25-1365,88 20-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">5181 251 24575,'23'0'0,"33"0"0,31 0 0,31 0 0,-11 0 0,3 0 0,8-3 0,-16-1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.442"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">456 177 24575,'64'-9'0,"-8"-2"0,1 1 0,1-1 0,46-14 0,189-33 0,-204 43 0,-65 11 0,0-2 0,1 2 0,6 0 0,2 0 0,-8-1 0,48-2 0,-67 6 0,3 1 0,0-1 0,-2 1 0,2 0 0,-9 0 0,9-1 0,-3 1 0,3 0 0,0 0 0,-2 0 0,1 0 0,1 0 0,-2 0 0,-7 0 0,9 0 0,0 0 0,-3 1 0,3-1 0,0 0 0,-2 0 0,-7 1 0,9-1 0,0 1 0,-3-1 0,-6 1 0,9-1 0,-2 1 0,2-1 0,-9 1 0,8 0 0,-8-1 0,7 1 0,2 0 0,-9-1 0,0 1 0,9 1 0,-9-1 0,7 0 0,-7-1 0,0 1 0,0 0 0,8 2 0,130 29-102,-98-22-24,9 0-1,-7 0 1,-11 0 0,2 1-1,-2-1 1,-6 2 0,-8-2 0,8 2-1,-1 18 1,-17-13-6700</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 139 24575,'24'0'0,"34"0"0,37 0 0,21-3 0,21-2 0,41 1 0,8 0 0,0 2 0,-6 0 0,-2 1 0,-8 0 0,-17-2 0,0-1 0,3 1 0,-34 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.444"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">423 38 24575,'-35'1'0,"1"0"0,5 1 0,-5 0 0,1 1 0,3-1 0,-57 7 0,78-7 0,-2-1 0,2 0 0,0 0 0,-2 1 0,2-1 0,0 2 0,-2-2 0,6 1 0,-4 0 0,-11 3 0,20-3 0,0-2 0,-4 1 0,4 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-5 0 0,5-1 0,0 1 0,0 0 0,5 0 0,-5-1 0,0 1 0,0 0 0,0 1 0,0-1 0,4-1 0,-4 1 0,0 0 0,5-1 0,-5 1 0,0 0 0,4-1 0,-4 1 0,7 0 0,-7-1 0,4 1 0,-4-1 0,5 1 0,-1 0 0,12 2 0,-3-1 0,3 0 0,-3-1 0,8 1 0,-8-1 0,3 0 0,2 0 0,31 3 0,-33-4 0,-3 1 0,3-1 0,-7 1 0,4 0 0,3 0 0,-3 0 0,-1 1 0,1-1 0,-2 2 0,3-2 0,-5 1 0,26 4 0,-35-6 0,0 0 0,0 0 0,5 0 0,-5 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,4 0 0,-4 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-4 1 0,4-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-5 1 0,5-1 0,0 0 0,0 0 0,0 0 0,-6 0 0,6 0 0,0 1 0,-5-1 0,-71 6 0,-81-3 0,65-3-1365,5 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">936 38 24575,'5'9'0,"2"-1"0,2 1 0,0 0 0,2-1 0,2 0 0,3 1 0,-3-1 0,41 13 0,-49-20 0,-1 2 0,0-2 0,-4 0 0,7 0 0,-2 0 0,-1 0 0,1 0 0,-1 0 0,7 0 0,-6 0 0,-1 0 0,1 1 0,-1-2 0,7 1 0,-6 0 0,-1-1 0,5 1 0,-4-1 0,6 0 0,-6 1 0,-1-1 0,5 0 0,-2 0 0,2 0 0,4 0 0,-2-1 0,-6 0 0,4 1 0,2-1 0,-2 0 0,-5-2 0,5 2 0,-2 0 0,2 0 0,-4-1 0,3 1 0,-1-1 0,-2 1 0,-1-2 0,5 2 0,2-4 0,7-5 0,2 1 0,1 0 0,-8 0 0,3-1 0,-7 0 0,11-18 0,-16 8-1365,1 3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.446"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 32 24575,'19'3'0,"7"4"0,21 6 0,17-1 0,5 1 0,-10 2 0,-20 2 0,-12 4 0,-7 3 0,5-1 0,19 0 0,9-1 0,-14 1 0,11-3 0,3-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 12 24575,'1060'-11'0,"-1041"11"0,1 0 0,-1 0 0,1 0 0,-7 1 0,7 0 0,-1-1 0,1 1 0,-1 0 0,26 3 0,-40-4 0,4 2 0,-4-2 0,-5 1 0,6 0 0,2-1 0,-8 1 0,6 0 0,-1 0 0,-5-1 0,9 1 0,-9 0 0,5 0 0,-5 0 0,0-1 0,6 1 0,-6 0 0,0 0 0,8 0 0,-8 0 0,0 3 0,0-1 0,-8 0 0,2 0 0,1 0 0,-4 0 0,4 1 0,-1-1 0,-2-1 0,-3 1 0,2 0 0,-2-1 0,-3 2 0,0-2 0,3 1 0,-3-1 0,3 0 0,-36 3 0,-11 3 0,-1-1 0,-5 0 0,6-2 0,-98 8 0,-75 7 0,231-20 0,0 0 0,0 0 0,0 0 0,0 0 0,-8 0 0,8 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-6-1 0,6 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,6 0 0,-6 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,8 0 0,-8 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,6 0 0,-6 0 0,0 0 0,122 4 0,137-2 0,52-4 0,374 3 0,-677-1 0,-8 0 0,5 0 0,-5 0 0,6 0 0,-6-1 0,8 1 0,-8 1 0,6-1 0,-6 0 0,6 0 0,-6 0 0,8 0 0,-8 0 0,5 0 0,-5 0 0,6 1 0,-6-1 0,8 0 0,-8 0 0,6 1 0,-6-1 0,0 0 0,5 1 0,-5-1 0,9 2 0,-9-2 0,0 0 0,0 1 0,5-1 0,-5 1 0,0-1 0,6 1 0,-6-1 0,0 1 0,0-1 0,0 1 0,0-1 0,8 2 0,-105 17 0,-190 14 0,-60-4-1365,224-19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3344 110 24575,'-11'1'0,"-3"1"0,0 0 0,3-1 0,-3 0 0,0 1 0,3 0 0,-8-1 0,5-1 0,0 1 0,-6 0 0,9 0 0,-28 0 0,-19 1 0,13 1 0,7 0 0,-1 2 0,0-2 0,0 1 0,0 0 0,5 2 0,-55 6 0,75-10 0,9 1 0,-9-2 0,8 1 0,-7 0 0,7 0 0,-2 0 0,-3 0 0,2 0 0,4 0 0,5 1 0,-6-1 0,-2 0 0,2 0 0,6 0 0,0 1 0,-5-1 0,5 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 1 0,5-1 0,-5 0 0,6 0 0,2 1 0,3 3 0,9-3 0,-6-1 0,5 0 0,0 0 0,1 1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,-1 1 0,6-1 0,-5-1 0,-1 1 0,6 0 0,-5-1 0,8 0 0,-9 0 0,31 0 0,-11 0 0,-6 0 0,6 1 0,-8 0 0,8 0 0,-6 1 0,45 2 0,-72-3 0,2-1 0,-2 0 0,-1 0 0,4 1 0,-4-1 0,1 1 0,2-1 0,-2 1 0,-1-1 0,-5 1 0,8 0 0,-2 0 0,0-1 0,-1 1 0,-5 0 0,9 0 0,-4 0 0,-5-1 0,6 1 0,-6 0 0,8 0 0,-8 0 0,6 1 0,-6-1 0,0 0 0,5 0 0,-5 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-5 0 0,5 0 0,0 1 0,-6-1 0,6 0 0,-8 0 0,2 1 0,-8 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,-5-1 0,5 2 0,-6-2 0,9 0 0,-8 0 0,5 0 0,-6 0 0,1 0 0,-1 0 0,6-1 0,-36 1 0,-325 0-1365,264-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">3939 280 24575,'6'6'0,"-6"-1"0,8 0 0,-2 1 0,-1-1 0,9 0 0,-8 1 0,8-1 0,0-1 0,-3 1 0,8 0 0,1 0 0,-6-1 0,5 0 0,6 1 0,-5-1 0,-1-1 0,9 1 0,-3-1 0,0 1 0,0-1 0,3 0 0,2 0 0,57 3 0,-68-3 0,1-2 0,-1 0 0,1 0 0,-4 0 0,4 0 0,-1-1 0,9 1 0,-9-1 0,1 0 0,-1 0 0,6 0 0,-5 0 0,-1-1 0,1 1 0,-1-1 0,6 0 0,-5 0 0,-1 0 0,1 0 0,-1 0 0,1-2 0,-6 1 0,5 1 0,1-1 0,-9 0 0,8 0 0,-5 0 0,6-1 0,-7 0 0,-1 0 0,1 1 0,1-1 0,-8 0 0,5 1 0,3-1 0,-8-1 0,13-5 0,0 0-195,1 0 0,-6-1 0,-9 1 0,9-1 0,-8 1 0,2-15 0,-8 7-6631</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5106,16 +6619,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B30" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5130,57 +6643,57 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5195,8 +6708,8 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
@@ -5237,7 +6750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
@@ -5278,7 +6791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +6816,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
@@ -5328,7 +6841,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
         <v>1</v>
       </c>
@@ -5351,7 +6864,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
@@ -5370,7 +6883,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
@@ -5389,7 +6902,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
@@ -5408,7 +6921,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
@@ -5427,7 +6940,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
@@ -5447,7 +6960,7 @@
       <c r="N21" s="14"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
@@ -5469,7 +6982,7 @@
       <c r="N22" s="14"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
@@ -5490,7 +7003,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
@@ -5509,7 +7022,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
@@ -5528,7 +7041,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
@@ -5547,7 +7060,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
@@ -5566,7 +7079,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
@@ -5585,7 +7098,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B29" s="14" t="s">
         <v>18</v>
       </c>
@@ -5604,7 +7117,7 @@
       </c>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
@@ -5627,7 +7140,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
@@ -5646,7 +7159,7 @@
       </c>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
@@ -5669,7 +7182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
@@ -5688,8 +7201,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="14" t="s">
         <v>23</v>
       </c>
@@ -5730,7 +7243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="18">
         <v>0</v>
       </c>
@@ -5767,7 +7280,7 @@
       </c>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="18">
         <v>1</v>
       </c>
@@ -5800,7 +7313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="18">
         <v>2</v>
       </c>
@@ -5833,7 +7346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="18">
         <v>3</v>
       </c>
@@ -5881,9 +7394,9 @@
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
@@ -5960,7 +7473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
@@ -6001,7 +7514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -6026,7 +7539,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -6051,7 +7564,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -6074,7 +7587,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -6093,7 +7606,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -6112,7 +7625,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
@@ -6131,7 +7644,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
@@ -6150,7 +7663,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
@@ -6169,7 +7682,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
@@ -6190,7 +7703,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
@@ -6211,7 +7724,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
@@ -6230,7 +7743,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
@@ -6249,7 +7762,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
@@ -6268,7 +7781,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
@@ -6287,7 +7800,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -6306,7 +7819,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
@@ -6325,7 +7838,7 @@
       </c>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
@@ -6348,7 +7861,7 @@
       </c>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
@@ -6367,7 +7880,7 @@
       </c>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -6390,7 +7903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
@@ -6409,7 +7922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6455,7 +7968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H25" s="14" t="s">
         <v>0</v>
       </c>
@@ -6480,7 +7993,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="14" t="s">
         <v>3</v>
       </c>
@@ -6505,7 +8018,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H27" s="14" t="s">
         <v>1</v>
       </c>
@@ -6528,7 +8041,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="14" t="s">
         <v>2</v>
       </c>
@@ -6547,7 +8060,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H29" s="14" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +8079,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H30" s="14" t="s">
         <v>8</v>
       </c>
@@ -6585,7 +8098,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="14" t="s">
         <v>9</v>
       </c>
@@ -6604,7 +8117,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H32" s="14" t="s">
         <v>10</v>
       </c>
@@ -6623,7 +8136,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" s="14" t="s">
         <v>11</v>
       </c>
@@ -6644,7 +8157,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" s="14" t="s">
         <v>12</v>
       </c>
@@ -6665,7 +8178,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H35" s="14" t="s">
         <v>13</v>
       </c>
@@ -6684,7 +8197,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H36" s="14" t="s">
         <v>14</v>
       </c>
@@ -6703,7 +8216,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H37" s="14" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +8235,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" s="14" t="s">
         <v>16</v>
       </c>
@@ -6741,7 +8254,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H39" s="14" t="s">
         <v>17</v>
       </c>
@@ -6760,7 +8273,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H40" s="14" t="s">
         <v>18</v>
       </c>
@@ -6779,7 +8292,7 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H41" s="14" t="s">
         <v>19</v>
       </c>
@@ -6802,7 +8315,7 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H42" s="14" t="s">
         <v>20</v>
       </c>
@@ -6821,7 +8334,7 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H43" s="14" t="s">
         <v>21</v>
       </c>
@@ -6844,7 +8357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H44" s="14" t="s">
         <v>22</v>
       </c>
@@ -6863,7 +8376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="14" t="s">
         <v>23</v>
       </c>
@@ -6922,7 +8435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="18">
         <v>0</v>
       </c>
@@ -6959,7 +8472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="18">
         <v>1</v>
       </c>
@@ -6992,7 +8505,7 @@
       </c>
       <c r="N48" s="41"/>
     </row>
-    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="18">
         <v>2</v>
       </c>
@@ -7021,7 +8534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="18">
         <v>3</v>
       </c>
@@ -7054,7 +8567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="18">
         <v>4</v>
       </c>
@@ -7091,7 +8604,7 @@
       </c>
       <c r="T51" s="41"/>
     </row>
-    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="18">
         <v>5</v>
       </c>
@@ -7124,7 +8637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="18">
         <v>6</v>
       </c>
@@ -7161,7 +8674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="18">
         <v>7</v>
       </c>
@@ -7208,9 +8721,9 @@
       <selection activeCell="G74" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M1" t="s">
         <v>24</v>
       </c>
@@ -7218,7 +8731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
@@ -7316,7 +8829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53">
         <v>1</v>
       </c>
@@ -7360,7 +8873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7394,7 +8907,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7428,7 +8941,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7460,7 +8973,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7488,7 +9001,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7516,7 +9029,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7544,7 +9057,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7572,7 +9085,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7600,7 +9113,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7630,7 +9143,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7660,7 +9173,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7688,7 +9201,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7716,7 +9229,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7744,7 +9257,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7772,7 +9285,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7800,7 +9313,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7828,7 +9341,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7860,7 +9373,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7888,7 +9401,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7920,7 +9433,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7948,7 +9461,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56">
         <v>2</v>
       </c>
@@ -7999,7 +9512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8033,7 +9546,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8067,7 +9580,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8099,7 +9612,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -8127,7 +9640,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8155,7 +9668,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2</v>
       </c>
@@ -8183,7 +9696,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2</v>
       </c>
@@ -8211,7 +9724,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -8239,7 +9752,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2</v>
       </c>
@@ -8269,7 +9782,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2</v>
       </c>
@@ -8299,7 +9812,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8327,7 +9840,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2</v>
       </c>
@@ -8355,7 +9868,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2</v>
       </c>
@@ -8383,7 +9896,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2</v>
       </c>
@@ -8411,7 +9924,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2</v>
       </c>
@@ -8439,7 +9952,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2</v>
       </c>
@@ -8467,7 +9980,7 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2</v>
       </c>
@@ -8499,7 +10012,7 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
@@ -8527,7 +10040,7 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2</v>
       </c>
@@ -8559,7 +10072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2</v>
       </c>
@@ -8587,7 +10100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="31" t="s">
         <v>4</v>
       </c>
@@ -8646,7 +10159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -8672,7 +10185,7 @@
       <c r="S46" s="59"/>
       <c r="T46" s="59"/>
     </row>
-    <row r="47" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="60">
         <v>0</v>
       </c>
@@ -8711,7 +10224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="60">
         <v>1</v>
       </c>
@@ -8746,7 +10259,7 @@
       </c>
       <c r="N48" s="68"/>
     </row>
-    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="60">
         <v>2</v>
       </c>
@@ -8777,7 +10290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="60">
         <v>3</v>
       </c>
@@ -8812,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="60">
         <v>4</v>
       </c>
@@ -8850,7 +10363,7 @@
       </c>
       <c r="T51" s="68"/>
     </row>
-    <row r="52" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="60">
         <v>5</v>
       </c>
@@ -8883,7 +10396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="60">
         <v>6</v>
       </c>
@@ -8921,7 +10434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="60">
         <v>7</v>
       </c>
@@ -8954,7 +10467,7 @@
       </c>
       <c r="T54" s="68"/>
     </row>
-    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -8980,7 +10493,7 @@
       <c r="S57" s="59"/>
       <c r="T57" s="59"/>
     </row>
-    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="60">
         <v>0</v>
       </c>
@@ -9017,7 +10530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="60">
         <v>1</v>
       </c>
@@ -9050,7 +10563,7 @@
       </c>
       <c r="N59" s="68"/>
     </row>
-    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="60">
         <v>2</v>
       </c>
@@ -9079,7 +10592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="60">
         <v>3</v>
       </c>
@@ -9112,7 +10625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="60">
         <v>4</v>
       </c>
@@ -9138,7 +10651,7 @@
       </c>
       <c r="T62" s="68"/>
     </row>
-    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="60">
         <v>5</v>
       </c>
@@ -9176,7 +10689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="60">
         <v>6</v>
       </c>
@@ -9214,7 +10727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="84" t="s">
         <v>30</v>
       </c>
@@ -9243,7 +10756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="85" t="s">
         <v>31</v>
       </c>
@@ -9269,7 +10782,7 @@
       <c r="S68" s="59"/>
       <c r="T68" s="59"/>
     </row>
-    <row r="69" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="99" t="s">
         <v>45</v>
       </c>
@@ -9328,7 +10841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="99" t="s">
         <v>46</v>
       </c>
@@ -9383,7 +10896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="60" t="s">
         <v>47</v>
       </c>
@@ -9440,7 +10953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="60" t="s">
         <v>48</v>
       </c>
@@ -9493,7 +11006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="60" t="s">
         <v>49</v>
       </c>
@@ -9535,7 +11048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="60" t="s">
         <v>50</v>
       </c>
@@ -9577,7 +11090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B75" s="91" t="s">
         <v>51</v>
       </c>
@@ -9606,7 +11119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -9668,7 +11181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="89" t="s">
         <v>34</v>
       </c>
@@ -9715,7 +11228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="89" t="s">
         <v>35</v>
       </c>
@@ -9760,12 +11273,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="89" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="90" t="s">
         <v>37</v>
       </c>
@@ -9788,7 +11301,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="90" t="s">
         <v>38</v>
       </c>
@@ -9809,7 +11322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="90" t="s">
         <v>39</v>
       </c>
@@ -9820,7 +11333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="90" t="s">
         <v>40</v>
       </c>
@@ -9828,7 +11341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M87" t="s">
         <v>71</v>
       </c>
@@ -9845,13 +11358,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F558A-C80E-4F81-B612-0395C6F2893A}">
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70:T71"/>
+    <sheetView topLeftCell="C45" zoomScale="112" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E74" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M1" t="s">
         <v>24</v>
       </c>
@@ -9859,7 +11372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
@@ -9957,7 +11470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53">
         <v>1</v>
       </c>
@@ -10001,7 +11514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10035,7 +11548,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10069,7 +11582,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10101,7 +11614,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10129,7 +11642,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10157,7 +11670,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10185,7 +11698,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10213,7 +11726,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10241,7 +11754,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -10271,7 +11784,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10301,7 +11814,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -10329,7 +11842,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -10357,7 +11870,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -10385,7 +11898,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -10413,7 +11926,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -10441,7 +11954,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -10469,7 +11982,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10501,7 +12014,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -10529,7 +12042,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10561,7 +12074,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -10589,7 +12102,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56">
         <v>2</v>
       </c>
@@ -10640,7 +12153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -10674,7 +12187,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -10708,7 +12221,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10740,7 +12253,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10768,7 +12281,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10796,7 +12309,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10824,7 +12337,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10852,7 +12365,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -10880,7 +12393,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2</v>
       </c>
@@ -10910,7 +12423,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2</v>
       </c>
@@ -10940,7 +12453,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2</v>
       </c>
@@ -10968,7 +12481,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2</v>
       </c>
@@ -10996,7 +12509,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2</v>
       </c>
@@ -11024,7 +12537,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2</v>
       </c>
@@ -11052,7 +12565,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2</v>
       </c>
@@ -11080,7 +12593,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2</v>
       </c>
@@ -11108,7 +12621,7 @@
       </c>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2</v>
       </c>
@@ -11140,7 +12653,7 @@
       </c>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
@@ -11168,7 +12681,7 @@
       </c>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2</v>
       </c>
@@ -11200,7 +12713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2</v>
       </c>
@@ -11228,7 +12741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="31" t="s">
         <v>4</v>
       </c>
@@ -11287,12 +12800,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="58" t="s">
         <v>23</v>
       </c>
@@ -11315,7 +12828,7 @@
       <c r="S48" s="59"/>
       <c r="T48" s="59"/>
     </row>
-    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="99" t="s">
         <v>45</v>
       </c>
@@ -11374,7 +12887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="99" t="s">
         <v>46</v>
       </c>
@@ -11427,7 +12940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="60" t="s">
         <v>47</v>
       </c>
@@ -11484,7 +12997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="60" t="s">
         <v>48</v>
       </c>
@@ -11539,7 +13052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="60" t="s">
         <v>49</v>
       </c>
@@ -11586,7 +13099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="60" t="s">
         <v>50</v>
       </c>
@@ -11633,7 +13146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="91" t="s">
         <v>51</v>
       </c>
@@ -11670,13 +13183,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="89" t="s">
         <v>33</v>
       </c>
@@ -11734,7 +13247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="89" t="s">
         <v>34</v>
       </c>
@@ -11780,7 +13293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="89" t="s">
         <v>35</v>
       </c>
@@ -11825,7 +13338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="89" t="s">
         <v>36</v>
       </c>
@@ -11833,12 +13346,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H62" s="93" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="90" t="s">
         <v>37</v>
       </c>
@@ -11897,7 +13410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="90" t="s">
         <v>38</v>
       </c>
@@ -11950,7 +13463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="90" t="s">
         <v>39</v>
       </c>
@@ -11973,7 +13486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="90" t="s">
         <v>40</v>
       </c>
@@ -11987,7 +13500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="92" t="s">
         <v>84</v>
       </c>
@@ -12012,14 +13525,14 @@
       <c r="Q70" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="S70" s="128" t="s">
+      <c r="S70" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="T70" s="128" t="s">
+      <c r="T70" s="93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I71" s="92" t="s">
         <v>85</v>
       </c>
@@ -12050,14 +13563,2244 @@
       <c r="R71" t="s">
         <v>88</v>
       </c>
-      <c r="S71" s="128" t="s">
+      <c r="S71" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="T71" s="128" t="s">
+      <c r="T71" s="93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M72" t="s">
+        <v>88</v>
+      </c>
+      <c r="S72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6894759F-3D2E-4A0B-A951-E5C4D7F4DB62}">
+  <dimension ref="A1:AG72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31">
+        <v>3</v>
+      </c>
+      <c r="F2" s="31">
+        <v>4</v>
+      </c>
+      <c r="G2" s="31">
+        <v>5</v>
+      </c>
+      <c r="H2" s="31">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31">
+        <v>7</v>
+      </c>
+      <c r="J2" s="31">
+        <v>8</v>
+      </c>
+      <c r="K2" s="31">
+        <v>9</v>
+      </c>
+      <c r="L2" s="31">
+        <v>10</v>
+      </c>
+      <c r="M2" s="52">
+        <v>11</v>
+      </c>
+      <c r="N2" s="32">
+        <v>12</v>
+      </c>
+      <c r="O2" s="31">
+        <v>13</v>
+      </c>
+      <c r="P2" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>15</v>
+      </c>
+      <c r="R2" s="31">
+        <v>16</v>
+      </c>
+      <c r="S2" s="52">
+        <v>17</v>
+      </c>
+      <c r="T2" s="32">
+        <v>18</v>
+      </c>
+      <c r="U2" s="31">
+        <v>19</v>
+      </c>
+      <c r="V2" s="31">
+        <v>20</v>
+      </c>
+      <c r="W2" s="31">
+        <v>21</v>
+      </c>
+      <c r="X2" s="31">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="31">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="31">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="31">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="53">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53">
+        <v>2</v>
+      </c>
+      <c r="E3" s="53">
+        <v>3</v>
+      </c>
+      <c r="F3" s="53">
+        <v>4</v>
+      </c>
+      <c r="G3" s="53">
+        <v>5</v>
+      </c>
+      <c r="H3" s="53">
+        <v>6</v>
+      </c>
+      <c r="I3" s="53">
+        <v>7</v>
+      </c>
+      <c r="J3" s="53">
+        <v>8</v>
+      </c>
+      <c r="K3" s="53">
+        <v>9</v>
+      </c>
+      <c r="L3" s="53">
+        <v>10</v>
+      </c>
+      <c r="M3" s="53">
+        <v>11</v>
+      </c>
+      <c r="N3" s="53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="88">
+        <v>1</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="56">
+        <v>2</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57">
+        <v>1</v>
+      </c>
+      <c r="K24" s="57">
+        <v>2</v>
+      </c>
+      <c r="L24" s="57">
+        <v>3</v>
+      </c>
+      <c r="M24" s="57">
+        <v>4</v>
+      </c>
+      <c r="N24" s="57">
+        <v>5</v>
+      </c>
+      <c r="O24" s="57">
+        <v>6</v>
+      </c>
+      <c r="P24" s="57">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="57">
+        <v>8</v>
+      </c>
+      <c r="R24" s="57">
+        <v>9</v>
+      </c>
+      <c r="S24" s="57">
+        <v>10</v>
+      </c>
+      <c r="T24" s="57">
+        <v>11</v>
+      </c>
+      <c r="U24" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+    </row>
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+    </row>
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+    </row>
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+    </row>
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+    </row>
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+    </row>
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="14"/>
+    </row>
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" s="14"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="14"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="31">
+        <v>2</v>
+      </c>
+      <c r="E45" s="31">
+        <v>3</v>
+      </c>
+      <c r="F45" s="31">
+        <v>4</v>
+      </c>
+      <c r="G45" s="31">
+        <v>5</v>
+      </c>
+      <c r="H45" s="31">
+        <v>6</v>
+      </c>
+      <c r="I45" s="31">
+        <v>7</v>
+      </c>
+      <c r="J45" s="31">
+        <v>8</v>
+      </c>
+      <c r="K45" s="31">
+        <v>9</v>
+      </c>
+      <c r="L45" s="31">
+        <v>10</v>
+      </c>
+      <c r="M45" s="52">
+        <v>11</v>
+      </c>
+      <c r="N45" s="32">
+        <v>12</v>
+      </c>
+      <c r="O45" s="31">
+        <v>13</v>
+      </c>
+      <c r="P45" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="31">
+        <v>15</v>
+      </c>
+      <c r="R45" s="31">
+        <v>16</v>
+      </c>
+      <c r="S45" s="52">
+        <v>17</v>
+      </c>
+      <c r="T45" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+    </row>
+    <row r="49" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="108"/>
+      <c r="O50" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="76"/>
+      <c r="J52" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="S53" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="T53" s="96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="121"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="118"/>
+      <c r="P55" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q55" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55" s="84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="R58" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="S58" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="T58" s="93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="N59" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="T59" s="93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="88"/>
+      <c r="H60" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="O60" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q60" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="R60" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="S60" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="T60" s="93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H62" s="93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="O66" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="R66" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S66" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="T66" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="88"/>
+      <c r="H67" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" s="88"/>
+      <c r="N67" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="O67" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q67" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="R67" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="S67" s="88"/>
+      <c r="T67" s="92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="R68" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="T68" s="92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="R69" s="92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I70" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="K70" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="N70" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O70" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q70" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="S70" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="T70" s="93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I71" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71" t="s">
+        <v>89</v>
+      </c>
+      <c r="L71" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="O71" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>89</v>
+      </c>
+      <c r="R71" t="s">
+        <v>88</v>
+      </c>
+      <c r="S71" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="T71" s="93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M72" t="s">
         <v>88</v>
       </c>

--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B4EE6-24FB-465A-ABF3-5ECF99724B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66AD8E-B33F-433C-A236-8A4B55884A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="130">
   <si>
     <t>AR</t>
   </si>
@@ -312,6 +312,114 @@
   <si>
     <t>reg5(A'I) =&gt; OUT0</t>
   </si>
+  <si>
+    <t>RAR</t>
+  </si>
+  <si>
+    <t>RAI</t>
+  </si>
+  <si>
+    <t>IN1(BR) =&gt; reg0</t>
+  </si>
+  <si>
+    <t>IN1(BI) =&gt;reg1</t>
+  </si>
+  <si>
+    <t>AB(WRxBR) =&gt;reg1</t>
+  </si>
+  <si>
+    <t>AB(WIxBI) =&gt;reg1</t>
+  </si>
+  <si>
+    <t>AB(WRxBI)=&gt; reg1</t>
+  </si>
+  <si>
+    <t>AB(WIxBR)=&gt;reg1</t>
+  </si>
+  <si>
+    <t>AB(WRxBI) =&gt; reg1</t>
+  </si>
+  <si>
+    <t>SUM(S1) =&gt; RS</t>
+  </si>
+  <si>
+    <t>SUM(S4) =&gt; RS</t>
+  </si>
+  <si>
+    <t>2A(2AR) =&gt; reg2</t>
+  </si>
+  <si>
+    <t>R(A'R) =&gt; reg2</t>
+  </si>
+  <si>
+    <t>2A(2AI)=&gt;reg3</t>
+  </si>
+  <si>
+    <t>R(A'I)=&gt; reg3</t>
+  </si>
+  <si>
+    <t>R(B'R)=&gt;reg0</t>
+  </si>
+  <si>
+    <t>R(B'I)=&gt;reg2</t>
+  </si>
+  <si>
+    <t>reg0(BR) =&gt;B</t>
+  </si>
+  <si>
+    <t>reg1(BI) =&gt;B</t>
+  </si>
+  <si>
+    <t>reg1(BI)=&gt;B</t>
+  </si>
+  <si>
+    <t>reg1(WIxBI) =&gt; BSUB</t>
+  </si>
+  <si>
+    <t>reg1(WIxBR)=&gt;BSUM</t>
+  </si>
+  <si>
+    <t>reg2(2AR) = ASUB</t>
+  </si>
+  <si>
+    <t>reg3(2AI) = ASUB</t>
+  </si>
+  <si>
+    <t>reg1(WRxBR) =&gt; BSUM</t>
+  </si>
+  <si>
+    <t>reg0(BR)=&gt;B</t>
+  </si>
+  <si>
+    <t>reg0(B'R) =&gt; OUT1</t>
+  </si>
+  <si>
+    <t>reg2(A'R) =&gt; OUT0</t>
+  </si>
+  <si>
+    <t>reg2(B'I) =&gt; OUT1</t>
+  </si>
+  <si>
+    <t>reg3(A'I) =&gt; OUT0</t>
+  </si>
+  <si>
+    <t>RS(S1) =&gt; ASUB</t>
+  </si>
+  <si>
+    <t>RS(S4) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>RS(S2) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>RS(S5) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>IN0 (AR) =&gt; RAR</t>
+  </si>
+  <si>
+    <t>IN0(AI) =&gt;RAI</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +448,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,6 +1615,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3998,13 +4114,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>346089</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>119212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>524011</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>28345</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4063,13 +4179,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>442702</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>92932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447824</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>93292</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4128,13 +4244,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>775435</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>46924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>100517</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>77677</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4193,13 +4309,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>372729</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>6244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>532929</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>113164</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4258,14 +4374,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12996</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>103372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>197758</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>94167</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>94168</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -4322,84 +4438,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>702396</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>72412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>158915</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>77165</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Input penna 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40064B04-CCE6-438F-A4BE-A0202D757A95}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7196714" y="13533968"/>
-            <a:ext cx="218520" cy="147960"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="Input penna 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858A1CA8-7109-C499-134E-F8F88DF5326D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7190594" y="13527833"/>
-              <a:ext cx="230760" cy="160230"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>283015</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>36556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>475615</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>49586</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Input penna 7">
               <a:extLst>
@@ -4453,13 +4504,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>425909</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>125875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504471</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>77797</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4518,13 +4569,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>592498</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>78005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>140691</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>83927</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4583,13 +4634,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>725616</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>21205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>580971</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>26605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4648,13 +4699,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533103</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>64325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>124022</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>27047</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -4711,150 +4762,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>312696</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>40391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>532018</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>58356</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="13" name="Input penna 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AF26A5-F521-4121-B649-97BE2766E13E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5741280" y="13608520"/>
-            <a:ext cx="214560" cy="153082"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="38" name="Input penna 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB8E4B5-50AE-0FFA-A532-307F231213C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5735150" y="13602411"/>
-              <a:ext cx="226821" cy="165300"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353059</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>131553</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19856</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>134512</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="14" name="Input penna 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FC48D1-C1E9-42A4-A0B1-2A55CD36FCD5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6867360" y="13699682"/>
-            <a:ext cx="285922" cy="142838"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="47" name="Input penna 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A6FE93-BB3B-B427-4F69-A78A5C1F18A0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6861238" y="13693550"/>
-              <a:ext cx="298166" cy="155102"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>952099</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>132191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>430976</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>58912</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>58913</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Input penna 14">
               <a:extLst>
@@ -4906,132 +4827,63 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1074499</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>27593</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>437984</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>126556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>322368</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85275</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>442747</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>131319</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="16" name="Input penna 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFA31DA-8520-43EA-ADFD-ABC55E0CD0AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7588800" y="13735600"/>
-            <a:ext cx="109882" cy="57682"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="53" name="Input penna 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B51B8E-16D9-FABA-C418-C0EC26C8837D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7582675" y="13728974"/>
-              <a:ext cx="122131" cy="70933"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>817225</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104740</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>95796</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="17" name="Input penna 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8838E0A-9226-4694-A98E-CFA0CE6F0AEE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8417242" y="13663960"/>
-            <a:ext cx="287640" cy="135082"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="58" name="Input penna 57">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BACDE61-393A-8FCE-7550-3E6511C8FD26}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8411122" y="13657853"/>
-              <a:ext cx="299880" cy="147297"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Immagine 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB4B9AA-92C4-4F37-BD2A-91824047195A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6867360" y="13699682"/>
+          <a:ext cx="1290637" cy="147637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5180,7 +5032,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.58">13 74 24575,'-1'-1'0,"0"0"0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-2 0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-3 0,0 2 0,-1-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,5 0 0,-9 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-2 2 0,-1 3 0,1 0 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0-2 0,0 2 0,-7 7 0,11-13 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,49 5 0,-17-3 0,-33-2 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,-3 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,-13 3 0,-35-2-1365,38-4-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.77">482 134 24575,'0'-2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-1 0,-40-16 0,36 16 0,-1 1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-12 3 0,20-3 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-2 0,-1 3 0,2-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,2 1 0,2 1 0,-1 1 0,1-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,10 2 0,-8-2 0,0 1 0,0 0 0,-1 0 0,16 9 0,-22-11 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 5 0,-2-6-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,-1-1 23,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-6 0 0,-2 0-268,-2-1 1,2 0-1,-1-1 1,1 0-1,-18-6 1,9 0-6579</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5946.85">662 244 24575,'-1'2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,-11 8 0,15-8 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 2 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 0 0,-5-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,9-6 0,-12 7 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-2-4 0,-22-24-1365,11 19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.36">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.35">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5956,7 +5808,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.421"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.423"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5964,8 +5816,9 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">438 281 24575,'-28'-4'0,"-1"0"0,10-1 0,-10 1 0,12 0 0,-2-1 0,2 0 0,5 1 0,-5-1 0,9 0 0,-3 0 0,2-7 0,-56-18 0,28 19 0,9-1 0,0 0 0,0 0 0,19 0 0,-11 0 0,12 0 0,8-18 0,0 29 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,8-1 0,-8 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,12 0 0,-12-1 0,0 1 0,0 0 0,0 0 0,8 0 0,-8-1 0,0 1 0,0 0 0,0 0 0,9 0 0,-9 0 0,0 0 0,0-1 0,8 1 0,-8 0 0,85 6 0,45 13 0,-37-2 0,158 22 0,-129-23 0,90 20 0,-192-33 0,-12 0 0,12-1 0,-3 0 0,2 0 0,-2 0 0,3 0 0,0 0 0,-3 0 0,39 1 0,-47-2 0,2-1 0,-11 1 0,9-1 0,-1 1 0,1-1 0,2 0 0,-11 0 0,8 1 0,1-1 0,2 0 0,-2 0 0,-1 0 0,-8 0 0,9 0 0,2 0 0,-3 0 0,1 0 0,2 0 0,-2 0 0,-9-1 0,8 1 0,1 0 0,2 0 0,-3-1 0,-8 1 0,9-1 0,2 1 0,-11-1 0,9 1 0,-1-1 0,-8 1 0,9-1 0,2 0 0,-11 1 0,8-1 0,-8 0 0,9-1 0,84-17 0,-17 0 0,99-39 0,-118 40 0,-1-1 0,-2 1 0,22 1 0,119-24 0,-195 41 0,0 0 0,0-1 0,9 1 0,-9-1 0,0 1 0,0 0 0,0-1 0,8 1 0,-8 0 0,0-1 0,0 1 0,11 0 0,-11-1 0,0 1 0,9 0 0,-9 0 0,0-1 0,8 1 0,-8 0 0,9 0 0,-9 0 0,0-1 0,11 1 0,-11 0 0,9 0 0,-9 0 0,8 0 0,-8 0 0,0 0 0,11 0 0,-11 0 0,9 0 0,-1 0 0,-8 1 0,9-1 0,2 1 0,-11 0 0,9 0 0,-9-1 0,8 1 0,-8 0 0,11 0 0,-11 0 0,0 0 0,9 0 0,-9-1 0,8 3 0,29 33 0,-26 65 76,-22-50-1517,11-44-5385</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">3791 178 24575,'48'1'0,"-3"-1"0,3 1 0,-11 0 0,8 0 0,85 4 0,-74-3 0,-8 0 0,6 0 0,87 1 0,-96-3 0,0 1 0,-5 0 0,5 0 0,-8 1 0,11-1 0,-11 1 0,8 1 0,-8-1 0,2 0 0,54 5 0,-84-6 0,-1 0 0,12 0 0,-12 0 0,1 0 0,2 0 0,-11 0 0,9 0 0,-1 1 0,1-1 0,-9 0 0,11 1 0,-3-1 0,-8 0 0,9 1 0,-9-1 0,0 0 0,0 1 0,11-1 0,-11 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-11-1 0,11 1 0,0-1 0,0 0 0,-9 1 0,9-1 0,-8 0 0,-3 1 0,11-1 0,-9 0 0,1 1 0,-1-1 0,-2 0 0,11 0 0,-28 1 0,11 1 0,-11 0 0,-1-1 0,1 1 0,0-1 0,-9 0 0,9 0 0,0 0 0,-9 0 0,9-1 0,-9 1 0,0-1 0,0 0 0,-36 1 0,-198 8 0,347-13 0,-2-1 0,-1 2 0,0-1 0,4 1 0,-4 1 0,12-1 0,-12 1 0,1 1 0,10 0 0,-10 0 0,11 0 0,-12 1 0,114 3 0,-168-4 0,-10 1 0,-1 0 0,12-1 0,-12 1 0,1 0 0,11 0 0,-12 0 0,3 0 0,-2 0 0,-1 0 0,1 0 0,2 0 0,-2 1 0,-1-1 0,3 0 0,-11 1 0,9-1 0,-1 0 0,-8 1 0,9-1 0,-9 1 0,11-1 0,-11 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-11 1 0,2 1 0,1 0 0,-1-1 0,-2 1 0,-6-1 0,6 1 0,-6-1 0,-3 0 0,3 1 0,-3-1 0,1 0 0,2 0 0,-11-1 0,-18 4 0,7-3-91,13-1 0,-13 1 0,2-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-2-1 0,-7 1 0,10-1 0,-1 0 0,-11-1 0,11 1 0,-64-1 0,27 0-6735</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 213 24575,'1'-4'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,3-6 0,-3 6 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-9 0,-1-3 0,-1-1 0,-1 0 0,-3-18 0,0 5 0,4 29 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0-2 0,-1 3 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,2 2 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,22 71 0,-22-67 0,2 12 0,1 8 0,-5-27 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2 1 0,-3-3 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,1-1 0,1-4 0,0-1 0,3-15 0,-6 22 0,2-4 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,5-4 0,-1-3 0,0 2 0,-6 12 0,-1 8 0,-2 15 0,0-1 0,-9 38 0,7-41-341,0-1 0,2 1-1,1 21 1,0-35-6485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 241 24575,'0'16'0,"0"-1"0,-1 1 0,-5 22 0,5-34 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-7 4 0,5-6 0,7-5 0,9-8 0,50-30 0,-56 39 0,-1 1 0,0 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,7-1 0,7 1 0,34 1 0,-20 1 0,-31-1-54,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 1,0 2-1,2 2-6771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">444 222 24575,'-5'64'0,"0"3"0,6 6-1365,-1-65-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5985,7 +5838,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.423"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.426"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5993,9 +5846,8 @@
       <inkml:brushProperty name="color" value="#FFFFFF"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 213 24575,'1'-4'0,"-1"0"0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,3-6 0,-3 6 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-9 0,-1-3 0,-1-1 0,-1 0 0,-3-18 0,0 5 0,4 29 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0-2 0,-1 3 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,2 2 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,22 71 0,-22-67 0,2 12 0,1 8 0,-5-27 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2 1 0,-3-3 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,1-1 0,1-4 0,0-1 0,3-15 0,-6 22 0,2-4 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,5-4 0,-1-3 0,0 2 0,-6 12 0,-1 8 0,-2 15 0,0-1 0,-9 38 0,7-41-341,0-1 0,2 1-1,1 21 1,0-35-6485</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 241 24575,'0'16'0,"0"-1"0,-1 1 0,-5 22 0,5-34 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-7 4 0,5-6 0,7-5 0,9-8 0,50-30 0,-56 39 0,-1 1 0,0 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,7-1 0,7 1 0,34 1 0,-20 1 0,-31-1-54,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,1 1 1,0 2-1,2 2-6771</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">444 222 24575,'-5'64'0,"0"3"0,6 6-1365,-1-65-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 74 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 4 0,0 5 0,0-4-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,12 0 0,-14 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 8 0,-5-10 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-14-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6044,35 +5896,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.426"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 74 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 4 0,0 5 0,0-4-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,12 0 0,-14 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 8 0,-5-10 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-14-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.428"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -6086,7 +5909,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6114,7 +5937,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6143,70 +5966,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.433"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 242 24575,'0'-8'0,"1"-1"0,0 2 0,1-1 0,0-1 0,0 2 0,0-1 0,1 0 0,0 1 0,2-1 0,-2 0 0,8-9 0,7-9 0,35-39 0,-28 37 0,-25 27 2,1-2-1,0 2 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 1,0-2-1,-1 1 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 1,0 1-1,1-1 0,-1 0 1,0-1-1,0 1 1,1 0-1,-2 0 0,1 0 1,0 1-1,0-1 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1 1 1,6 12-138,0 2 0,-2-2 1,8 32-1,-6-23-761,-1-2-5929</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">90 154 24575,'3'0'0,"1"-3"0,4-1 0,3-1 0,3-2 0,3 0 0,0 2 0,2 0 0,1 2 0,-1 2 0,-2-4 0,-5 1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">400 195 24575,'-2'1'0,"0"-1"0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,2 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1 2 0,-1 0 0,0 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0-2 0,0 2 0,1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,6 8 0,-6-12 0,-1 0 0,2 0 0,-2 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 2 0,0-2 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 2 0,-1-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 2 0,0 2 0,0-4 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-4-1 0,-27-7-1365,17 5-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">570 338 24575,'-15'-1'0,"-1"1"0,0 0 0,-1 0 0,1 2 0,-20 4 0,34-6 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-2 2 0,2-2 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,3 3 0,-1-2 0,0 0 0,1 2 0,0-2 0,0 0 0,0-1 0,-1 2 0,1-1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,1 0 0,-2-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,5 0 0,-5 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,2-5 0,-1-9-1365,-2 1-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.437"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 76 24575,'23'0'0,"8"3"0,2 4 0,-2 4 0,-16 8 0,-7 2 0,-1 2 0,-7-1 0,0-2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">102 76 24575,'-7'-1'0,"-1"0"0,8 1 0,-8-1 0,1 0 0,-1 0 0,-2 0 0,10 0 0,-8 0 0,8 0 0,-8 0 0,1 0 0,7 0 0,0 0 0,-8-1 0,8 1 0,0 0 0,-8 0 0,8-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,8 0 0,-8-2 0,15 1 0,-7 0 0,0 0 0,10 0 0,-11 0 0,9 0 0,-9 0 0,9 1 0,-1-1 0,0 1 0,1-1 0,1 1 0,22-4 0,-1 3 0,-7-1 0,2 1 0,5 0 0,1 1 0,-6-1 0,5 1 0,1 0 0,2 0 0,-3 0 0,0 0 0,3 1 0,-3 0 0,42 0 0,-73 1 0,9 0 0,-1-1 0,-7 1 0,7 0 0,-7 0 0,7 0 0,-7 0 0,10 0 0,-11 0 0,9 0 0,-9 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,-7 1 0,11 0 0,-11-1 0,7 1 0,-7 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-7 0 0,7 0 0,-11-1 0,11 1 0,-15 2 0,-8 4 0,8-1 0,-8-1 0,0 0 0,-11 1 0,4-1 0,-1 0 0,0 0 0,-56 7 0,87-13 0,-7 0 0,7 0 0,-8 1 0,8-1 0,-8 0 0,8 0 0,-7 1 0,7-1 0,-10 0 0,10 1 0,0-1 0,-8 0 0,8 1 0,0-1 0,-8 1 0,8-1 0,0 1 0,0-1 0,-7 0 0,7 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-8-1 0,8 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,8 1 0,-8-1 0,0 1 0,0-1 0,0 1 0,0-1 0,7 2 0,-7-2 0,0 0 0,0 1 0,8-1 0,-8 1 0,0-1 0,8 1 0,-8-1 0,0 0 0,10 1 0,-10-1 0,7 0 0,-7 0 0,0 1 0,8-1 0,-8 0 0,8 0 0,-8 1 0,7-1 0,-7 0 0,8 0 0,-8 0 0,8 0 0,-8 0 0,15 0 0,384 5 0,-131-3 0,-260-2 0,0 1 0,-1-1 0,-7 0 0,8 1 0,0-1 0,-1 1 0,1-1 0,-8 1 0,8-1 0,-1 1 0,-7-1 0,8 1 0,0 0 0,-8-1 0,10 1 0,-10 0 0,8 0 0,-8-1 0,7 1 0,-7 0 0,0 0 0,8 0 0,-8 0 0,0-1 0,0 1 0,8 0 0,-8 0 0,0 1 0,-8 0 0,8-1 0,-8 1 0,8-1 0,-7 1 0,-1 0 0,-2-1 0,10 0 0,-8 1 0,0-1 0,1 0 0,-9 0 0,9 0 0,-1 0 0,-15 2 0,-26 1 0,11 0 0,-8-1 0,-3 0 0,3 0 0,-2 0 0,-100 4 0,-274-3-1365,297-4-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3770 138 24575,'0'-2'0,"-7"0"0,7 0 0,-8 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-10 0 0,10 1 0,-7-1 0,7 1 0,-7-1 0,7 1 0,-7-1 0,0 1 0,-1 0 0,-25-3 0,-311-14 0,283 16 0,-3 1 0,1 1 0,-6 0 0,5 0 0,3 0 0,-2 1 0,-93 3 0,154-3 0,-5-1 0,-1 0 0,9 1 0,-9 0 0,1-1 0,7 1 0,-7 0 0,7 0 0,-10 0 0,11 0 0,-9 0 0,9 0 0,-1 1 0,0-1 0,-7 0 0,7 1 0,1 0 0,-9 1 0,16-1 0,0 0 0,-7-1 0,7 1 0,0 0 0,0 0 0,0-1 0,0 1 0,7 0 0,-7 0 0,0 0 0,8-1 0,-8 1 0,8 0 0,-1-1 0,-7 1 0,8-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,-1 2 0,16 0 0,18 1 0,-10 1 0,7-1 0,11 0 0,-11-1 0,0 1 0,11-1 0,-3 0 0,-5 0 0,5-1 0,0 1 0,10-1 0,77 2 0,-69-2 0,5 1 0,3 0 0,-11 0 0,128 9 0,-174-11 0,8 1 0,-7 0 0,9 0 0,-9 0 0,-1 2 0,0-2 0,1 0 0,-1 1 0,-7-1 0,7 1 0,-5 0 0,6-1 0,-9 1 0,1 0 0,0 0 0,-1 0 0,-7 0 0,16 6 0,-16-7-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-8 0 0,8 1 0,0-1 1,-8 0-1,8 1 0,-7-1 0,-1 0 0,8 0 0,-8 1 0,1-1 0,-1 0 0,0 0 0,8 0 0,-10 0 0,-5 0 0,7 0 0,0 0 0,-15 1 0,-7 0 23,-4 0 0,4 0 0,-1-1 0,0 0 0,-2 0 0,3 0 0,-1 0 0,0-1 0,-48 0 0,-16 0-268,-7-1 1,8 0-1,-6-1 1,5 0-1,-140-8 1,69 2-6579</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">5181 251 24575,'-7'2'0,"-9"0"0,9 0 0,-9 0 0,1 0 0,7-1 0,-10 1 0,3 0 0,0 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,-2 0 0,3 0 0,-31 0 0,-87 8 0,118-8 0,-1 1 0,6-1 0,-5 0 0,0 1 0,-1-1 0,9 1 0,-9 0 0,9-1 0,-1 1 0,0 0 0,-7 0 0,5 1 0,2-1 0,0 0 0,8 0 0,-7 0 0,-1 0 0,8 1 0,-8-1 0,8 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,8-1 0,-8 0 0,8 1 0,-1-1 0,1 0 0,0 0 0,2 0 0,-2 0 0,-1 0 0,1 0 0,15 2 0,0 0 0,8-1 0,-6 1 0,6-1 0,-1 0 0,1 0 0,2 1 0,6-2 0,-9 1 0,4-1 0,4 0 0,0 0 0,-7-1 0,10 1 0,-3-1 0,1 0 0,47 0 0,-37-1 0,-3 0 0,0 0 0,3 0 0,-11-1 0,11 0 0,-3 0 0,0-1 0,-6 0 0,6 0 0,-7 0 0,9 0 0,-9-1 0,-1-1 0,72-5 0,-92 7 0,-3 0 0,1 0 0,-1-1 0,0 1 0,-7 0 0,7-1 0,1 1 0,-9-1 0,3 1 0,-2-1 0,0 0 0,-1-1 0,1 2 0,0-1 0,-8 0 0,7 0 0,-7 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-7 0 0,7 1 0,-8-1 0,8 0 0,-8-1 0,1 1 0,-1 1 0,0-1 0,-9 0 0,-14-4 0,-174-25-1365,88 20-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">5181 251 24575,'23'0'0,"33"0"0,31 0 0,31 0 0,-11 0 0,3 0 0,8-3 0,-16-1-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6232,66 +5992,6 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">456 177 24575,'64'-9'0,"-8"-2"0,1 1 0,1-1 0,46-14 0,189-33 0,-204 43 0,-65 11 0,0-2 0,1 2 0,6 0 0,2 0 0,-8-1 0,48-2 0,-67 6 0,3 1 0,0-1 0,-2 1 0,2 0 0,-9 0 0,9-1 0,-3 1 0,3 0 0,0 0 0,-2 0 0,1 0 0,1 0 0,-2 0 0,-7 0 0,9 0 0,0 0 0,-3 1 0,3-1 0,0 0 0,-2 0 0,-7 1 0,9-1 0,0 1 0,-3-1 0,-6 1 0,9-1 0,-2 1 0,2-1 0,-9 1 0,8 0 0,-8-1 0,7 1 0,2 0 0,-9-1 0,0 1 0,9 1 0,-9-1 0,7 0 0,-7-1 0,0 1 0,0 0 0,8 2 0,130 29-102,-98-22-24,9 0-1,-7 0 1,-11 0 0,2 1-1,-2-1 1,-6 2 0,-8-2 0,8 2-1,-1 18 1,-17-13-6700</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 139 24575,'24'0'0,"34"0"0,37 0 0,21-3 0,21-2 0,41 1 0,8 0 0,0 2 0,-6 0 0,-2 1 0,-8 0 0,-17-2 0,0-1 0,3 1 0,-34 0-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.444"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">423 38 24575,'-35'1'0,"1"0"0,5 1 0,-5 0 0,1 1 0,3-1 0,-57 7 0,78-7 0,-2-1 0,2 0 0,0 0 0,-2 1 0,2-1 0,0 2 0,-2-2 0,6 1 0,-4 0 0,-11 3 0,20-3 0,0-2 0,-4 1 0,4 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-5 0 0,5-1 0,0 1 0,0 0 0,5 0 0,-5-1 0,0 1 0,0 0 0,0 1 0,0-1 0,4-1 0,-4 1 0,0 0 0,5-1 0,-5 1 0,0 0 0,4-1 0,-4 1 0,7 0 0,-7-1 0,4 1 0,-4-1 0,5 1 0,-1 0 0,12 2 0,-3-1 0,3 0 0,-3-1 0,8 1 0,-8-1 0,3 0 0,2 0 0,31 3 0,-33-4 0,-3 1 0,3-1 0,-7 1 0,4 0 0,3 0 0,-3 0 0,-1 1 0,1-1 0,-2 2 0,3-2 0,-5 1 0,26 4 0,-35-6 0,0 0 0,0 0 0,5 0 0,-5 2 0,0-2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,4 0 0,-4 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-4 1 0,4-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-5 1 0,5-1 0,0 0 0,0 0 0,0 0 0,-6 0 0,6 0 0,0 1 0,-5-1 0,-71 6 0,-81-3 0,65-3-1365,5 0-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">936 38 24575,'5'9'0,"2"-1"0,2 1 0,0 0 0,2-1 0,2 0 0,3 1 0,-3-1 0,41 13 0,-49-20 0,-1 2 0,0-2 0,-4 0 0,7 0 0,-2 0 0,-1 0 0,1 0 0,-1 0 0,7 0 0,-6 0 0,-1 0 0,1 1 0,-1-2 0,7 1 0,-6 0 0,-1-1 0,5 1 0,-4-1 0,6 0 0,-6 1 0,-1-1 0,5 0 0,-2 0 0,2 0 0,4 0 0,-2-1 0,-6 0 0,4 1 0,2-1 0,-2 0 0,-5-2 0,5 2 0,-2 0 0,2 0 0,-4-1 0,3 1 0,-1-1 0,-2 1 0,-1-2 0,5 2 0,2-4 0,7-5 0,2 1 0,1 0 0,-8 0 0,3-1 0,-7 0 0,11-18 0,-16 8-1365,1 3-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.446"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 32 24575,'19'3'0,"7"4"0,21 6 0,17-1 0,5 1 0,-10 2 0,-20 2 0,-12 4 0,-7 3 0,5-1 0,19 0 0,9-1 0,-14 1 0,11-3 0,3-3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 12 24575,'1060'-11'0,"-1041"11"0,1 0 0,-1 0 0,1 0 0,-7 1 0,7 0 0,-1-1 0,1 1 0,-1 0 0,26 3 0,-40-4 0,4 2 0,-4-2 0,-5 1 0,6 0 0,2-1 0,-8 1 0,6 0 0,-1 0 0,-5-1 0,9 1 0,-9 0 0,5 0 0,-5 0 0,0-1 0,6 1 0,-6 0 0,0 0 0,8 0 0,-8 0 0,0 3 0,0-1 0,-8 0 0,2 0 0,1 0 0,-4 0 0,4 1 0,-1-1 0,-2-1 0,-3 1 0,2 0 0,-2-1 0,-3 2 0,0-2 0,3 1 0,-3-1 0,3 0 0,-36 3 0,-11 3 0,-1-1 0,-5 0 0,6-2 0,-98 8 0,-75 7 0,231-20 0,0 0 0,0 0 0,0 0 0,0 0 0,-8 0 0,8 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-6-1 0,6 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,6 0 0,-6 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,8 0 0,-8 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,6 0 0,-6 0 0,0 0 0,122 4 0,137-2 0,52-4 0,374 3 0,-677-1 0,-8 0 0,5 0 0,-5 0 0,6 0 0,-6-1 0,8 1 0,-8 1 0,6-1 0,-6 0 0,6 0 0,-6 0 0,8 0 0,-8 0 0,5 0 0,-5 0 0,6 1 0,-6-1 0,8 0 0,-8 0 0,6 1 0,-6-1 0,0 0 0,5 1 0,-5-1 0,9 2 0,-9-2 0,0 0 0,0 1 0,5-1 0,-5 1 0,0-1 0,6 1 0,-6-1 0,0 1 0,0-1 0,0 1 0,0-1 0,8 2 0,-105 17 0,-190 14 0,-60-4-1365,224-19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3344 110 24575,'-11'1'0,"-3"1"0,0 0 0,3-1 0,-3 0 0,0 1 0,3 0 0,-8-1 0,5-1 0,0 1 0,-6 0 0,9 0 0,-28 0 0,-19 1 0,13 1 0,7 0 0,-1 2 0,0-2 0,0 1 0,0 0 0,5 2 0,-55 6 0,75-10 0,9 1 0,-9-2 0,8 1 0,-7 0 0,7 0 0,-2 0 0,-3 0 0,2 0 0,4 0 0,5 1 0,-6-1 0,-2 0 0,2 0 0,6 0 0,0 1 0,-5-1 0,5 0 0,0 0 0,0 2 0,0-2 0,0 0 0,0 1 0,5-1 0,-5 0 0,6 0 0,2 1 0,3 3 0,9-3 0,-6-1 0,5 0 0,0 0 0,1 1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,-1 1 0,6-1 0,-5-1 0,-1 1 0,6 0 0,-5-1 0,8 0 0,-9 0 0,31 0 0,-11 0 0,-6 0 0,6 1 0,-8 0 0,8 0 0,-6 1 0,45 2 0,-72-3 0,2-1 0,-2 0 0,-1 0 0,4 1 0,-4-1 0,1 1 0,2-1 0,-2 1 0,-1-1 0,-5 1 0,8 0 0,-2 0 0,0-1 0,-1 1 0,-5 0 0,9 0 0,-4 0 0,-5-1 0,6 1 0,-6 0 0,8 0 0,-8 0 0,6 1 0,-6-1 0,0 0 0,5 0 0,-5 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-5 0 0,5 0 0,0 1 0,-6-1 0,6 0 0,-8 0 0,2 1 0,-8 0 0,3 0 0,-3 0 0,3 0 0,-3 0 0,-5-1 0,5 2 0,-6-2 0,9 0 0,-8 0 0,5 0 0,-6 0 0,1 0 0,-1 0 0,6-1 0,-36 1 0,-325 0-1365,264-1-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">3939 280 24575,'6'6'0,"-6"-1"0,8 0 0,-2 1 0,-1-1 0,9 0 0,-8 1 0,8-1 0,0-1 0,-3 1 0,8 0 0,1 0 0,-6-1 0,5 0 0,6 1 0,-5-1 0,-1-1 0,9 1 0,-3-1 0,0 1 0,0-1 0,3 0 0,2 0 0,57 3 0,-68-3 0,1-2 0,-1 0 0,1 0 0,-4 0 0,4 0 0,-1-1 0,9 1 0,-9-1 0,1 0 0,-1 0 0,6 0 0,-5 0 0,-1-1 0,1 1 0,-1-1 0,6 0 0,-5 0 0,-1 0 0,1 0 0,-1 0 0,1-2 0,-6 1 0,5 1 0,1-1 0,-9 0 0,8 0 0,-5 0 0,6-1 0,-7 0 0,-1 0 0,1 1 0,1-1 0,-8 0 0,5 1 0,3-1 0,-8-1 0,13-5 0,0 0-195,1 0 0,-6-1 0,-9 1 0,9-1 0,-8 1 0,2-15 0,-8 7-6631</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13586,10 +13286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6894759F-3D2E-4A0B-A951-E5C4D7F4DB62}">
-  <dimension ref="A1:AG72"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="85" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15063,749 +14763,743 @@
         <v>45</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="113" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F49" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="71"/>
+      <c r="H49" s="63"/>
       <c r="I49" s="67" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="68" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="112" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L49" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="108"/>
       <c r="O49" s="98" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="S49" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" s="80" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="R49" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="S49" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="96" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="M50" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="108"/>
-      <c r="O50" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="P50" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="R50" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="S50" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="T50" s="96" t="s">
-        <v>20</v>
+      <c r="C50" s="104"/>
+      <c r="D50" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T50" s="80" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="K51" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="L51" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="M51" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="O51" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="R51" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="S51" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="T51" s="80" t="s">
-        <v>32</v>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="S51" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="T51" s="96" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="62" t="s">
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="105"/>
+      <c r="P52" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="121"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="R53" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="S53" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="T53" s="123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" s="91"/>
+    </row>
+    <row r="55" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="63" t="s">
+      <c r="H55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="76"/>
-      <c r="J52" s="97" t="s">
+      <c r="I55" s="91"/>
+      <c r="J55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="67" t="s">
+      <c r="K55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="68" t="s">
+      <c r="L55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="68" t="s">
+      <c r="M55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="114" t="s">
+      <c r="N55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="114" t="s">
+      <c r="O55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="98" t="s">
+      <c r="P55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="98" t="s">
+      <c r="Q55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="98" t="s">
+      <c r="R55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="98" t="s">
+      <c r="S55" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="80" t="s">
+      <c r="T55" s="91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="O53" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="R53" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="S53" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="T53" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="O54" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="P54" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="R54" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="S54" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="T54" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55" s="118"/>
-      <c r="P55" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q55" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="R55" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="S55" s="84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="89" t="s">
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B62" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="L62" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="O62" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="R62" s="92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="M63" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="N63" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="P63" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q63" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="R63" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="S63" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="T63" s="93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="88"/>
+      <c r="H64" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="J64" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="M64" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="N64" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="P64" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q64" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="S64" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="T64" s="93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G67" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="I67" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="K67" s="88"/>
+      <c r="N67" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="O67" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="P67" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="N58" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="O58" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="P58" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q58" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="R58" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="S58" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="T58" s="93" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92" t="s">
+      <c r="S67" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="I59" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="N59" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="O59" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="P59" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q59" s="93"/>
-      <c r="R59" s="93"/>
-      <c r="S59" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="T59" s="93" t="s">
+      <c r="T67" s="128" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="88"/>
-      <c r="H60" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="L60" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="M60" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="N60" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="O60" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="P60" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q60" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="R60" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="S60" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="T60" s="93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H62" s="93" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="90" t="s">
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H68" s="128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" s="92" t="s">
+      <c r="C70" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="K70" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="L70" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="N70" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="O70" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="P70" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q70" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="R70" s="92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="88"/>
+      <c r="H71" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="J71" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="L71" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="M71" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="N71" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="O71" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="P71" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q71" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="S71" s="88"/>
+      <c r="T71" s="92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="M72" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="N72" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="O72" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="P72" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q72" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="R72" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="S72" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="T72" s="93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="K73" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="N73" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="S73" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="T73" s="93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J75" t="s">
+        <v>89</v>
+      </c>
+      <c r="K75" t="s">
+        <v>89</v>
+      </c>
+      <c r="L75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P75" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>89</v>
+      </c>
+      <c r="R75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M76" t="s">
+        <v>88</v>
+      </c>
+      <c r="S76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="92" t="s">
+      <c r="H77" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="L77" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="N77" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="O77" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="R77" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="S77" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="T77" s="128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H78" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="I66" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K66" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="L66" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="M66" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="N66" s="93" t="s">
+      <c r="T78" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="O66" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="P66" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q66" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="R66" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="S66" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="T66" s="92" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="92" t="s">
+    </row>
+    <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I79" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="92" t="s">
+      <c r="J79" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="92" t="s">
+      <c r="K79" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="I67" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="J67" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="K67" s="93" t="s">
+      <c r="L79" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="L67" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="M67" s="88"/>
-      <c r="N67" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="O67" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="P67" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q67" s="92" t="s">
+      <c r="R79" s="92" t="s">
         <v>70</v>
-      </c>
-      <c r="R67" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="S67" s="88"/>
-      <c r="T67" s="92" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="L68" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="N68" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="R68" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="T68" s="92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="L69" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="R69" s="92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I70" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="J70" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="K70" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="M70" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="N70" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O70" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="P70" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q70" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="S70" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="T70" s="93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I71" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="J71" t="s">
-        <v>89</v>
-      </c>
-      <c r="K71" t="s">
-        <v>89</v>
-      </c>
-      <c r="L71" t="s">
-        <v>88</v>
-      </c>
-      <c r="M71" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="N71" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="O71" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="P71" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>89</v>
-      </c>
-      <c r="R71" t="s">
-        <v>88</v>
-      </c>
-      <c r="S71" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="T71" s="93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M72" t="s">
-        <v>88</v>
-      </c>
-      <c r="S72" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66AD8E-B33F-433C-A236-8A4B55884A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC228F7-14FB-4772-A433-8CC57FBC483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="148">
   <si>
     <t>AR</t>
   </si>
@@ -409,16 +409,70 @@
     <t>RS(S4) =&gt; ASUM</t>
   </si>
   <si>
-    <t>RS(S2) =&gt; ASUM</t>
+    <t>IN0(AI) =&gt;RAI</t>
   </si>
   <si>
-    <t>RS(S5) =&gt; ASUM</t>
+    <t>INRS</t>
   </si>
   <si>
-    <t>IN0 (AR) =&gt; RAR</t>
+    <t>INRAR</t>
   </si>
   <si>
-    <t>IN0(AI) =&gt;RAI</t>
+    <t>INRAI</t>
+  </si>
+  <si>
+    <t>IN0(AR) =&gt; RAR</t>
+  </si>
+  <si>
+    <t>IN0(AI) =&gt; RAI</t>
+  </si>
+  <si>
+    <t>RAR(AR) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>OUTRAR</t>
+  </si>
+  <si>
+    <t>OUTRS</t>
+  </si>
+  <si>
+    <t>OUTRAI</t>
+  </si>
+  <si>
+    <t>RAR(AR) =&gt; A</t>
+  </si>
+  <si>
+    <t>RAI(AI) =&gt; ASUM</t>
+  </si>
+  <si>
+    <t>RAI(AI) =&gt; A</t>
+  </si>
+  <si>
+    <t>SUM(S6) =&gt; RS</t>
+  </si>
+  <si>
+    <t>SUM(S3) =&gt; RS</t>
+  </si>
+  <si>
+    <t>SUM(S5) =&gt; RS</t>
+  </si>
+  <si>
+    <t>SUM(S2) =&gt; RS</t>
+  </si>
+  <si>
+    <t>RS(S2) =&gt; BSUB</t>
+  </si>
+  <si>
+    <t>RS(S2) =&gt; RR</t>
+  </si>
+  <si>
+    <t>RS(S5) =&gt; BSUB</t>
+  </si>
+  <si>
+    <t>RS(S5) =&gt; RR</t>
+  </si>
+  <si>
+    <t>RS(S3) =&gt; RR</t>
   </si>
 </sst>
 </file>
@@ -576,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1260,11 +1314,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="4.9897762993255407E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,8 +1785,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4112,71 +4315,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>346089</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>119212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>524011</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>28345</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Input penna 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4086B-77D1-43E0-82D9-9BCDBA7E95DF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4675634" y="12864728"/>
-            <a:ext cx="173160" cy="85680"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Input penna 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD21C19-EB8A-A0DD-E258-4A41A8E0C462}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4669514" y="12858608"/>
-              <a:ext cx="185400" cy="97920"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>442702</xdr:colOff>
       <xdr:row>73</xdr:row>
@@ -4190,7 +4328,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Input penna 2">
               <a:extLst>
@@ -4242,201 +4380,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>775435</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>46924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100517</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>77677</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Input penna 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB48B28-5339-4501-AEF6-C20F89A34C01}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4022594" y="13651688"/>
-            <a:ext cx="234720" cy="169200"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Input penna 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3332570D-271E-2327-4116-F4F911724592}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4016474" y="13645568"/>
-              <a:ext cx="246960" cy="181440"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>372729</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>6244</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>532929</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>113164</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Input penna 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926C7338-D040-40AC-A37C-F2C12462CF2D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4702274" y="13611008"/>
-            <a:ext cx="160200" cy="106920"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="Input penna 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C1FBC-6380-32B4-3752-5F3E1B3C8B2B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4696168" y="13604888"/>
-              <a:ext cx="172413" cy="119160"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12996</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>103372</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>197758</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>94168</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Input penna 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DDBEC5-6143-4289-9502-CCF08771828A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6507314" y="13564928"/>
-            <a:ext cx="180000" cy="129240"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="Input penna 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986542D-55A1-E17E-C0AF-68E7CF3DD474}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6501194" y="13558808"/>
-              <a:ext cx="192240" cy="141480"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283015</xdr:colOff>
       <xdr:row>84</xdr:row>
@@ -4450,7 +4393,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Input penna 7">
               <a:extLst>
@@ -4568,71 +4511,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>592498</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>78005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>140691</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>83927</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Input penna 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2756E8-3B43-432E-AF14-9AB2C9640C0F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6021082" y="14345522"/>
-            <a:ext cx="167318" cy="145800"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="29" name="Input penna 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F18FA7-5AEA-E0A8-B7FE-846856DA29F5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6014965" y="14339402"/>
-              <a:ext cx="179552" cy="158040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>725616</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>21205</xdr:rowOff>
@@ -4645,7 +4523,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Input penna 10">
               <a:extLst>
@@ -4758,132 +4636,6 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952099</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>132191</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>430976</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>58913</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Input penna 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C0004-2D64-4769-BF69-58567EAB64C3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7466400" y="13700320"/>
-            <a:ext cx="98002" cy="66600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="50" name="Input penna 49">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3CD629-C470-B8CC-5BBF-2BDA0385FDB6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7460065" y="13694200"/>
-              <a:ext cx="110671" cy="78840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>437984</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>126556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>442747</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>131319</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Immagine 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB4B9AA-92C4-4F37-BD2A-91824047195A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6867360" y="13699682"/>
-          <a:ext cx="1290637" cy="147637"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5032,7 +4784,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.58">13 74 24575,'-1'-1'0,"0"0"0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-2 0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-3 0,0 2 0,-1-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,5 0 0,-9 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-2 2 0,-1 3 0,1 0 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0-2 0,0 2 0,-7 7 0,11-13 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,49 5 0,-17-3 0,-33-2 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 2 0,-3 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,-13 3 0,-35-2-1365,38-4-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.77">482 134 24575,'0'-2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-1 0,-40-16 0,36 16 0,-1 1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-12 3 0,20-3 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-2 0,-1 3 0,2-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,2 1 0,2 1 0,-1 1 0,1-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,10 2 0,-8-2 0,0 1 0,0 0 0,-1 0 0,16 9 0,-22-11 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 5 0,-2-6-3,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,-1-1 23,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-6 0 0,-2 0-268,-2-1 1,2 0-1,-1-1 1,1 0-1,-18-6 1,9 0-6579</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5946.85">662 244 24575,'-1'2'0,"-1"0"0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-4 0 0,-11 8 0,15-8 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 2 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,6 0 0,-5-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,9-6 0,-12 7 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-2-4 0,-22-24-1365,11 19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.35">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8803.34">662 244 24575,'3'0'0,"4"0"0,4 0 0,4 0 0,-1 0 0,0 0 0,1-3 0,-2-1-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5666,33 +5418,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.412"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'57'0'0,"-1"-1"0,0 2 0,101 8 0,-148-7 0,1-1 0,-1 1 0,0-1 0,0 1 0,10 4 0,-15-5 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-1-2 0,0 2 0,1 0 0,3 4 0,1 0 0,-1 1 0,0 1 0,-2-1 0,0 0 0,0 1 0,0-1 0,2 15 0,-6-22-124,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1-1,-1-2 1,1 1 0,0 0 0,1 1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.414"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -5705,94 +5430,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.415"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">160 218 24575,'-5'-26'0,"-4"0"0,-17 1 0,-54-32 0,71 47 0,-5 0 0,6-1 0,-1 0 0,9 1 0,17-13 0,-25 23 0,8 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,8-1 0,-8 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,6-1 0,-6 1 0,0 0 0,0 0 0,0 0 0,0-1 0,8 1 0,-8 0 0,0 0 0,0 0 0,9 0 0,-9-1 0,0 1 0,0 0 0,9 0 0,-9 0 0,65 7 0,56 19 0,-113-24 0,144 39 0,211 89 0,-280-99 0,20 23 0,-68-37 0,-4 1 0,67 20 0,-98-38 0,0 1 0,0-1 0,0 0 0,5 0 0,-5 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,9 0 0,-9 0 0,0 0 0,0 1 0,0-1 0,0 0 0,9 0 0,-9 0 0,0 0 0,0 0 0,0 0 0,8 1 0,-8-1 0,0 0 0,0 0 0,0 0 0,9 0 0,-9 0 0,0 0 0,0 0 0,8 0 0,41-6 0,14-15 0,34-29 0,-80 35 0,6 1 0,9 0 0,74-24 0,0 10 0,94-38 0,-174 53 0,5 0 0,-14 1 0,-2-1 0,2-1 0,-9-21 0,-8 264 0,-8-92 0,8-46-1365,0-83-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">3749 313 24575,'-8'37'0,"16"40"0,-8-77 0,0 2 0,0-1 0,0 0 0,6 0 0,-6 0 0,0 0 0,0 0 0,0-1 0,9 1 0,-9 0 0,8 0 0,-8 0 0,9-1 0,-9 1 0,8 0 0,-8 0 0,9-1 0,-9 1 0,6-1 0,2 1 0,-8 0 0,26 0 0,-20-1 0,2 1 0,9-1 0,-8 1 0,0-1 0,5 0 0,-5 0 0,8 0 0,-12 0 0,4 0 0,8 0 0,-8 0 0,5 0 0,3-1 0,49-1 0,-3-1 0,-6 0 0,112-9 0,-143 10 0,272-12 0,-241 12 0,0-1 0,-3 1 0,4-2 0,79-4 0,-120 5 0,-2 2 0,2-1 0,0 0 0,-9 0 0,7 0 0,2 0 0,-8 0 0,5 0 0,-6 0 0,10 0 0,-10-1 0,-2 1 0,2 0 0,1-1 0,0 1 0,-9-1 0,8-3 0,7-7 0,-15 1 0,8-1 0,-31-24 0,23 36 0,0 0 0,-8 0 0,8 0 0,-9 0 0,9 0 0,0 0 0,-9 1 0,1-1 0,8 0 0,-6 0 0,6 0 0,-8 0 0,-1 1 0,0-1 0,9 0 0,-8 1 0,-1-1 0,4 0 0,-4 1 0,0-1 0,1 1 0,-1-1 0,3 1 0,-2 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-15 0 0,-43-1 0,3 1 0,6 0 0,-81 1 0,58-1 0,-26 1 0,49-1 0,-6 0 0,6 1 0,-81 2 0,115-3 0,-2 1 0,2 0 0,6 1 0,-6-1 0,-3 0 0,9 1 0,-6 0 0,6-1 0,-6 1 0,6 0 0,-32 5 0,-14 3-1365</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.417"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 251 24575,'-1'-46'0,"2"-50"0,4 64 0,0-16 0,-6 48 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,4 7 0,3 16 0,-6-8 0,7 29 0,-8-41 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,-5-7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2-2 0,1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-2 0,6-8 0,-3 0 0,2 1 0,0 0 0,0 1 0,13-15 0,-19 24 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-3 0,0 59 0,-4-35 0,-6 22 0,5-23 0,-3 29 0,6-45-50,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 1-1,-4 0-6775</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">445 168 24575,'0'1'0,"-2"1"0,0 2 0,0 1 0,0 2 0,1 1 0,0 1 0,1 2 0,-2 0 0,0 1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.419"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 204 24575,'-2'-2'0,"1"-1"0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,0-4 0,-2-33 0,2 23 0,2-72 0,-1 88 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,2-1 0,-2 2 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,4 5 0,-1-1 0,-1 1 0,6 8 0,-5-7 0,-1-1 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,7 6 0,-10-9 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1-1 0,-2 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-3 0,11-20 0,-12 20 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,3-4 0,3 1 0,-4 8 0,-4 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 3 0,1 106 71,-1-55-1507,0-47-5390</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">305 166 24575,'2'1'0,"-1"0"0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,0 4 0,4 1 0,-5-6 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 4 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-2-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 4 0,4-1 0,0-3 0,2-1 0,-1 1 0,0-1 0,0 1 0,-7 4 0,25-21 0,-8 9 0,-1 0 0,1-1 0,-1 1 0,0-1 0,6-9 0,-7 9 0,1-1 0,1 1 0,-1 0 0,10-7 0,-8 9 0,0 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,16 0 0,-12 0 0,51-1-1365,-53 3-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5822,7 +5460,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5848,6 +5486,63 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 74 24575,'0'4'0,"0"3"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 4 0,0 5 0,0-4-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">14 39 24575,'4'-4'0,"1"0"0,0 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,12 0 0,-14 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1-1 0,4 8 0,-5-10 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-3 0 0,-5 2 0,-1-1 0,0-1 0,1 1 0,-17-3 0,85 48 0,-29-19-1365,-17-14-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.430"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'203'0'0,"66"-3"0,407-1 0,334 0 0,1 1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.431"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFFFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1735 21 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-11-1 0,11 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,11 0 0,-11 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,11 1 0,-11 0 0,0 0 0,0 0 0,0 0 0,0 0 0,11 0 0,-11-1 0,0 1 0,0 0 0,0 0 0,0 0 0,10 0 0,-231-9 0,177 9 0,-10-1 0,3 0 0,-3 1 0,2 0 0,-2 0 0,3 0 0,-3 1 0,2-1 0,-2 1 0,3 1 0,-3-1 0,-63 3 0,96-2 0,-1 0 0,3 0 0,-2 1 0,-1-1 0,0 0 0,1 0 0,10 1 0,-8-1 0,8 0 0,-11 1 0,12 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,11 2 0,-11-1 0,11 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0 0 0,0-1 0,0 0 0,11 0 0,-11 0 0,11 0 0,0 0 0,0 0 0,0 1 0,10-1 0,-10 0 0,11-1 0,-3 1 0,2-1 0,33 5 0,-2-4 0,-9 1 0,8-1 0,14-1 0,-13 1 0,2-1 0,8 0 0,3-1 0,-14 1 0,109 1 0,-65 1 0,-1-2 0,4 2 0,-4-1 0,1 1 0,138 11 0,-222-15 0,10 0 0,-10 0 0,-3 0 0,3 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-11 1 0,11-1 0,0 0 0,-11 1 0,11-1 0,0 1 0,-11-1 0,0 1 0,10-1 0,-10 3 0,0-2 0,-10 1 0,10-1 0,-11-1 0,0 1 0,0 0 0,11-1 0,-11 1 0,0-1 0,1 1 0,-1-1 0,-11 1 0,14-1 0,-3 0 0,-10 1 0,10-1 0,0 0 0,-11 0 0,11 0 0,-10 0 0,-20 1 0,-64 1-14,-1 2 1,1-2-1,-3-1 0,-9 0 1,12 0-1,-12-1 0,12 0 0,-11-1 1,-1 0-1,12-1 0,-117-2 0,-168 1-1186,220 2-5626</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4421 140 24575,'-84'47'0,"63"-41"0,-1 1 0,0 0 0,12 0 0,-1 0 0,11 0 0,-11 0 0,22 11 0,-11-16 0,11-1 0,-1 1 0,-10 0 0,11-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-3-1 0,14 0 0,-11 1 0,0-1 0,10 0 0,-10 0 0,11 0 0,-3 0 0,-8 1 0,10-1 0,-10-1 0,11 1 0,-1-1 0,1 1 0,-14-1 0,14 1 0,-1-1 0,1 0 0,0 0 0,-12 0 0,9 0 0,3 0 0,0 0 0,32-1 0,-3 0-45,3 1-1,8-1 1,-7 0-1,-4-1 1,3 0-1,-3 1 1,4-1-1,-15 0 1,14 0-1,0-1 1,-13 1-1,2-1 1,9 0-1,-9 0 1,0-1-1,-13 1 1,13-2-1,0 1 1,-13 0-1,3 0 1,-1 0-1,1-1 1,-14 1-1,13-2 1,-10 1-1,-1 0 0,-10 1 1,8-1-1,13-9 1,-21-1-6781</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5877,121 +5572,6 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 251 24575,'-1'-46'0,"2"-50"0,4 64 0,0-16 0,-6 48 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,4 7 0,3 16 0,-6-8 0,7 29 0,-8-41 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,-5-7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2-2 0,1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-2 0,6-8 0,-3 0 0,2 1 0,0 0 0,0 1 0,13-15 0,-19 24 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-3 0,0 59 0,-4-35 0,-6 22 0,5-23 0,-3 29 0,6-45-50,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 1-1,-4 0-6775</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1357.65">445 168 24575,'0'1'0,"-2"1"0,0 2 0,0 1 0,0 2 0,1 1 0,0 1 0,1 2 0,-2 0 0,0 1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.428"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1586 0 24575,'-90'1'0,"14"0"0,-10 0 0,-4 1 0,14 0 0,-2 0 0,-9 1 0,11-1 0,-2 1 0,2 1 0,1-1 0,10 2 0,-10-1 0,13 0 0,-3 1 0,-61 5 0,101-9 0,0 1 0,0 0 0,-3 0 0,3 0 0,13 1 0,-13-1 0,0 0 0,11 1 0,3-1 0,-3 1 0,-12 0 0,15 0 0,11 0 0,-14-1 0,3 1 0,11 0 0,-14 0 0,14-1 0,0 1 0,0 0 0,0 0 0,0 0 0,14-1 0,-14 1 0,11 0 0,3 0 0,-14-1 0,11 1 0,3 1 0,12-2 0,-15 1 0,3-1 0,11 0 0,-14 1 0,15-1 0,-1 0 0,3 0 0,22 2 0,12-1 0,-12 0 0,15-1 0,-1 1 0,-2-1 0,16 0 0,-16-1 0,2 1 0,12-1 0,-12 0 0,-2 0 0,14-1 0,-12 0 0,87 0 0,536 9 0,-648-9 0,-14 1 0,12 0 0,-12 0 0,0 0 0,0 1 0,0-1 0,3 0 0,-2 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-15 1 0,14 0 0,-11 0 0,11 0 0,-11 1 0,23 2 0,-37-3 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-12 1 0,12-1 0,0 1 0,-14-1 0,14 1 0,-11-1 0,11 2 0,-14-2 0,0 0 0,3 1 0,-3-1 0,3 0 0,-3 0 0,3 1 0,-3-1 0,2 0 0,-2 0 0,3 0 0,-14 0 0,11-1 0,3 1 0,-15 0 0,12 0 0,0-1 0,-36 1 0,-583 21 0,518-19-227,0-1-1,-11-1 1,11 1-1,-11-2 1,-115 1-1,39-1-6598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4480 246 24575,'0'-1'0,"-14"1"0,14-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-11-1 0,11 1 0,0-1 0,0 1 0,-14 0 0,14-1 0,0 1 0,-12 0 0,12-1 0,0 1 0,-14 0 0,14-1 0,-11 1 0,11 0 0,-14 0 0,14 0 0,0-1 0,-11 1 0,11 0 0,-14 0 0,14 0 0,-14 0 0,14 0 0,-11 0 0,11 0 0,-14 0 0,14 0 0,0 0 0,-12 0 0,12 0 0,-14 0 0,14 0 0,-11 1 0,11-1 0,-14 0 0,14 0 0,0 0 0,-11 1 0,11-1 0,-14 0 0,14 1 0,0-1 0,-11 0 0,11 1 0,-306 15 0,267-13 0,3 1 0,11 0 0,-15 0 0,15 0 0,-11 0 0,8 2 0,17-2 0,-15 1 0,1-1 0,11 1 0,3-1 0,-3 1 0,14 0 0,-11 0 0,11-1 0,0 1 0,0 1 0,25 5 0,-25-8 0,25 0 0,-14 1 0,3-1 0,12 0 0,-15 0 0,17 1 0,-3-1 0,0-1 0,0 1 0,1 0 0,10 0 0,-11 0 0,14 0 0,1-1 0,-4 0 0,-11 0 0,15 0 0,10 0 0,-11-1 0,-2 1 0,2-1 0,11 0 0,-13 1 0,78 0 0,-65-2 5,0 1-1,4-1 1,-4 0 0,1 1-1,-1-2 1,0 1-1,1 0 1,-1-1 0,1 0-1,-1 0 1,3 0 0,-2 0-1,-1-1 1,1 0-1,-15 0 1,17 0 0,-16 0-1,13 0 1,-11 0-1,-2-1 1,2-1 0,0 1-1,-2 0 1,2 0-1,36-6 1,-49 7-51,-1-1-1,0 0 1,-11 0-1,11 0 1,-13 0 0,13 0-1,-11-1 1,-3 1-1,-11 0 1,14-1 0,-3 0-1,-11 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,-11 0-1,-3-1 1,14 1-1,-11 0 1,-14-1 0,11 1-1,2 0 1,-13-1-1,11 1 1,-11 0 0,0 0-1,-1 1 1,1-1-1,-39-3 1,-76-4-6780</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.430"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 15 24575,'203'0'0,"66"-3"0,407-1 0,334 0 0,1 1-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.431"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1735 21 24575,'0'0'0,"0"0"0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-11-1 0,11 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,11 0 0,-11 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,11 1 0,-11 0 0,0 0 0,0 0 0,0 0 0,0 0 0,11 0 0,-11-1 0,0 1 0,0 0 0,0 0 0,0 0 0,10 0 0,-231-9 0,177 9 0,-10-1 0,3 0 0,-3 1 0,2 0 0,-2 0 0,3 0 0,-3 1 0,2-1 0,-2 1 0,3 1 0,-3-1 0,-63 3 0,96-2 0,-1 0 0,3 0 0,-2 1 0,-1-1 0,0 0 0,1 0 0,10 1 0,-8-1 0,8 0 0,-11 1 0,12 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,11 2 0,-11-1 0,11 0 0,0 0 0,0 0 0,0-1 0,0 6 0,0-3 0,0 0 0,0-1 0,0 0 0,11 0 0,-11 0 0,11 0 0,0 0 0,0 0 0,0 1 0,10-1 0,-10 0 0,11-1 0,-3 1 0,2-1 0,33 5 0,-2-4 0,-9 1 0,8-1 0,14-1 0,-13 1 0,2-1 0,8 0 0,3-1 0,-14 1 0,109 1 0,-65 1 0,-1-2 0,4 2 0,-4-1 0,1 1 0,138 11 0,-222-15 0,10 0 0,-10 0 0,-3 0 0,3 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-11 1 0,11-1 0,0 0 0,-11 1 0,11-1 0,0 1 0,-11-1 0,0 1 0,10-1 0,-10 3 0,0-2 0,-10 1 0,10-1 0,-11-1 0,0 1 0,0 0 0,11-1 0,-11 1 0,0-1 0,1 1 0,-1-1 0,-11 1 0,14-1 0,-3 0 0,-10 1 0,10-1 0,0 0 0,-11 0 0,11 0 0,-10 0 0,-20 1 0,-64 1-14,-1 2 1,1-2-1,-3-1 0,-9 0 1,12 0-1,-12-1 0,12 0 0,-11-1 1,-1 0-1,12-1 0,-117-2 0,-168 1-1186,220 2-5626</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4421 140 24575,'-84'47'0,"63"-41"0,-1 1 0,0 0 0,12 0 0,-1 0 0,11 0 0,-11 0 0,22 11 0,-11-16 0,11-1 0,-1 1 0,-10 0 0,11-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-3-1 0,14 0 0,-11 1 0,0-1 0,10 0 0,-10 0 0,11 0 0,-3 0 0,-8 1 0,10-1 0,-10-1 0,11 1 0,-1-1 0,1 1 0,-14-1 0,14 1 0,-1-1 0,1 0 0,0 0 0,-12 0 0,9 0 0,3 0 0,0 0 0,32-1 0,-3 0-45,3 1-1,8-1 1,-7 0-1,-4-1 1,3 0-1,-3 1 1,4-1-1,-15 0 1,14 0-1,0-1 1,-13 1-1,2-1 1,9 0-1,-9 0 1,0-1-1,-13 1 1,13-2-1,0 1 1,-13 0-1,3 0 1,-1 0-1,1-1 1,-14 1-1,13-2 1,-10 1-1,-1 0 0,-10 1 1,8-1-1,13-9 1,-21-1-6781</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-12-17T15:20:04.442"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFFFFF"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">456 177 24575,'64'-9'0,"-8"-2"0,1 1 0,1-1 0,46-14 0,189-33 0,-204 43 0,-65 11 0,0-2 0,1 2 0,6 0 0,2 0 0,-8-1 0,48-2 0,-67 6 0,3 1 0,0-1 0,-2 1 0,2 0 0,-9 0 0,9-1 0,-3 1 0,3 0 0,0 0 0,-2 0 0,1 0 0,1 0 0,-2 0 0,-7 0 0,9 0 0,0 0 0,-3 1 0,3-1 0,0 0 0,-2 0 0,-7 1 0,9-1 0,0 1 0,-3-1 0,-6 1 0,9-1 0,-2 1 0,2-1 0,-9 1 0,8 0 0,-8-1 0,7 1 0,2 0 0,-9-1 0,0 1 0,9 1 0,-9-1 0,7 0 0,-7-1 0,0 1 0,0 0 0,8 2 0,130 29-102,-98-22-24,9 0-1,-7 0 1,-11 0 0,2 1-1,-2-1 1,-6 2 0,-8-2 0,8 2-1,-1 18 1,-17-13-6700</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 139 24575,'24'0'0,"34"0"0,37 0 0,21-3 0,21-2 0,41 1 0,8 0 0,0 2 0,-6 0 0,-2 1 0,-8 0 0,-17-2 0,0-1 0,3 1 0,-34 0-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13286,10 +12866,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6894759F-3D2E-4A0B-A951-E5C4D7F4DB62}">
-  <dimension ref="A1:AG79"/>
+  <dimension ref="A1:AG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14916,573 +14496,767 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="119"/>
       <c r="D52" s="119"/>
       <c r="E52" s="119"/>
-      <c r="F52" s="124"/>
+      <c r="F52" s="133"/>
       <c r="G52" s="119"/>
       <c r="H52" s="119"/>
       <c r="I52" s="120"/>
-      <c r="J52" s="62" t="s">
+      <c r="J52" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="104" t="s">
+      <c r="K52" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="L52" s="62" t="s">
+      <c r="L52" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="63" t="s">
+      <c r="M52" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="104" t="s">
+      <c r="N52" s="135" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="105"/>
-      <c r="P52" s="103" t="s">
+      <c r="P52" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="Q52" s="109" t="s">
+      <c r="Q52" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="R52" s="103" t="s">
+      <c r="R52" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="S52" s="103" t="s">
+      <c r="S52" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="T52" s="96" t="s">
+      <c r="T52" s="138" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123" t="s">
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="125" t="s">
+      <c r="I53" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="126" t="s">
+      <c r="J53" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="126" t="s">
+      <c r="K53" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="126" t="s">
+      <c r="L53" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="84" t="s">
+      <c r="M53" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="123" t="s">
+      <c r="N53" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="O53" s="125" t="s">
+      <c r="O53" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="127" t="s">
+      <c r="P53" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Q53" s="127" t="s">
+      <c r="Q53" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="R53" s="127" t="s">
+      <c r="R53" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="S53" s="84" t="s">
+      <c r="S53" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="T53" s="123" t="s">
+      <c r="T53" s="139" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="91" t="s">
+    <row r="54" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="91" t="s">
+      <c r="E54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="91" t="s">
+      <c r="F54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="91" t="s">
+      <c r="G54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91" t="s">
+      <c r="H54" s="139"/>
+      <c r="I54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="91" t="s">
+      <c r="J54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="91" t="s">
+      <c r="K54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="91" t="s">
+      <c r="L54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="M54" s="91" t="s">
+      <c r="M54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91" t="s">
+      <c r="N54" s="139"/>
+      <c r="O54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="P54" s="91" t="s">
+      <c r="P54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="Q54" s="91" t="s">
+      <c r="Q54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="R54" s="91" t="s">
+      <c r="R54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="S54" s="91" t="s">
+      <c r="S54" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="T54" s="91"/>
-    </row>
-    <row r="55" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="91" t="s">
+      <c r="T54" s="139"/>
+    </row>
+    <row r="55" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91" t="s">
+      <c r="C55" s="139"/>
+      <c r="D55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="91" t="s">
+      <c r="F55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="91" t="s">
+      <c r="G55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="91" t="s">
+      <c r="H55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91" t="s">
+      <c r="I55" s="139"/>
+      <c r="J55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="91" t="s">
+      <c r="K55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="L55" s="91" t="s">
+      <c r="L55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="91" t="s">
+      <c r="M55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="N55" s="91" t="s">
+      <c r="N55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="O55" s="91" t="s">
+      <c r="O55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="P55" s="91" t="s">
+      <c r="P55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="91" t="s">
+      <c r="Q55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="R55" s="91" t="s">
+      <c r="R55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="S55" s="91" t="s">
+      <c r="S55" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="T55" s="91" t="s">
+      <c r="T55" s="139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="56" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H58" s="88"/>
+    </row>
+    <row r="59" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I59" s="88"/>
+    </row>
+    <row r="61" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="129" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="89" t="s">
+      <c r="B61" s="128"/>
+    </row>
+    <row r="62" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="L62" s="92" t="s">
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="M62" s="94" t="s">
+      <c r="M62" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="O62" s="93" t="s">
+      <c r="N62" s="142"/>
+      <c r="O62" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="R62" s="92" t="s">
+      <c r="P62" s="142"/>
+      <c r="Q62" s="142"/>
+      <c r="R62" s="141" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="89" t="s">
+      <c r="S62" s="142"/>
+      <c r="T62" s="142"/>
+    </row>
+    <row r="63" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="92" t="s">
+      <c r="B63" s="142"/>
+      <c r="C63" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92" t="s">
+      <c r="D63" s="141"/>
+      <c r="E63" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="F63" s="92" t="s">
+      <c r="F63" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="92" t="s">
+      <c r="G63" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="H63" s="92" t="s">
+      <c r="H63" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="93" t="s">
+      <c r="I63" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="J63" s="93"/>
-      <c r="K63" s="93" t="s">
+      <c r="J63" s="143"/>
+      <c r="K63" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="L63" s="93" t="s">
+      <c r="L63" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="M63" s="93" t="s">
+      <c r="M63" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="N63" s="93" t="s">
+      <c r="N63" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="P63" s="93" t="s">
+      <c r="O63" s="142"/>
+      <c r="P63" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="Q63" s="93" t="s">
+      <c r="Q63" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="R63" s="93" t="s">
+      <c r="R63" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="S63" s="93" t="s">
+      <c r="S63" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="T63" s="93" t="s">
+      <c r="T63" s="143" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="89" t="s">
+    <row r="64" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="H64" s="92" t="s">
+      <c r="B64" s="142"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="92" t="s">
+      <c r="I64" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="J64" s="92" t="s">
+      <c r="J64" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="K64" s="92" t="s">
+      <c r="K64" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="M64" s="92" t="s">
+      <c r="L64" s="142"/>
+      <c r="M64" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="N64" s="93" t="s">
+      <c r="N64" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="O64" s="92" t="s">
+      <c r="O64" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="P64" s="92" t="s">
+      <c r="P64" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="Q64" s="92" t="s">
+      <c r="Q64" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="S64" s="92" t="s">
+      <c r="R64" s="142"/>
+      <c r="S64" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="T64" s="93" t="s">
+      <c r="T64" s="143" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G67" s="128" t="s">
+    <row r="65" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="142"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="H67" s="128" t="s">
+      <c r="H65" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="K65" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="L65" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="M65" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="N65" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="O65" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q65" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="R65" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="S65" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="T65" s="131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="I67" s="128" t="s">
+      <c r="B66" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="142"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="142"/>
+      <c r="L66" s="142"/>
+      <c r="M66" s="142"/>
+      <c r="N66" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="O66" s="142"/>
+      <c r="P66" s="142"/>
+      <c r="Q66" s="142"/>
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="K67" s="88"/>
-      <c r="N67" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="O67" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="P67" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="S67" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="T67" s="128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H68" s="128" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="90" t="s">
+      <c r="B67" s="142"/>
+      <c r="C67" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
+      <c r="I67" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="J67" s="142"/>
+      <c r="K67" s="145"/>
+      <c r="L67" s="142"/>
+      <c r="M67" s="142"/>
+      <c r="N67" s="142"/>
+      <c r="O67" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="P67" s="142"/>
+      <c r="Q67" s="142"/>
+      <c r="R67" s="142"/>
+      <c r="S67" s="142"/>
+      <c r="T67" s="142"/>
+    </row>
+    <row r="68" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="69" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="70" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="B70" s="142"/>
+      <c r="C70" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="92" t="s">
+      <c r="D70" s="142"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="142"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="M70" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="N70" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="O70" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="P70" s="142"/>
+      <c r="Q70" s="142"/>
+      <c r="R70" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="S70" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="T70" s="142"/>
+    </row>
+    <row r="71" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="142"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="92" t="s">
+      <c r="E71" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="F70" s="92" t="s">
+      <c r="F71" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I70" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="J70" s="93" t="s">
+      <c r="G71" s="145"/>
+      <c r="H71" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="J71" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="K70" s="93" t="s">
+      <c r="K71" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="L70" s="93" t="s">
+      <c r="L71" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="N70" s="93" t="s">
+      <c r="M71" s="142"/>
+      <c r="N71" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="O70" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="P70" s="92" t="s">
+      <c r="O71" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="P71" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="Q70" s="92" t="s">
+      <c r="Q71" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="R70" s="92" t="s">
+      <c r="R71" s="141" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="92" t="s">
+      <c r="S71" s="145"/>
+      <c r="T71" s="141" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="142"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="K72" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="L72" s="142"/>
+      <c r="M72" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="N72" s="141" t="s">
+        <v>123</v>
+      </c>
+      <c r="O72" s="142"/>
+      <c r="P72" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q72" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="R72" s="142"/>
+      <c r="S72" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="T72" s="143" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="142"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="K73" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="L73" s="142"/>
+      <c r="M73" s="142"/>
+      <c r="N73" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="O73" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="P73" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q73" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="R73" s="142"/>
+      <c r="S73" s="142"/>
+      <c r="T73" s="131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="142"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="K74" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="L74" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="M74" s="142"/>
+      <c r="N74" s="142"/>
+      <c r="O74" s="142"/>
+      <c r="P74" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q74" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="R74" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="S74" s="142"/>
+      <c r="T74" s="142"/>
+    </row>
+    <row r="75" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="M75" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="N75" s="142"/>
+      <c r="O75" s="142"/>
+      <c r="P75" s="142"/>
+      <c r="Q75" s="142"/>
+      <c r="R75" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="S75" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="T75" s="142"/>
+    </row>
+    <row r="76" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="142"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="H76" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="142"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="142"/>
+      <c r="M76" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="N76" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="O76" s="142"/>
+      <c r="P76" s="142"/>
+      <c r="Q76" s="142"/>
+      <c r="R76" s="142"/>
+      <c r="S76" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="T76" s="131" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="92" t="s">
+      <c r="D78" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="92" t="s">
+      <c r="E78" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="88"/>
-      <c r="H71" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="I71" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="J71" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="K71" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="M71" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="N71" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="O71" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="P71" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q71" s="92" t="s">
+      <c r="F78" s="92" t="s">
         <v>70</v>
-      </c>
-      <c r="S71" s="88"/>
-      <c r="T71" s="92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="M72" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="N72" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="O72" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="P72" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q72" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="R72" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="S72" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="T72" s="93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="J73" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="K73" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="N73" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="S73" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="T73" s="93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J75" t="s">
-        <v>89</v>
-      </c>
-      <c r="K75" t="s">
-        <v>89</v>
-      </c>
-      <c r="L75" t="s">
-        <v>88</v>
-      </c>
-      <c r="P75" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>89</v>
-      </c>
-      <c r="R75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M76" t="s">
-        <v>88</v>
-      </c>
-      <c r="S76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="H77" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="L77" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="M77" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="N77" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="O77" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="R77" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="S77" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="T77" s="128" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H78" s="128" t="s">
-        <v>79</v>
-      </c>
-      <c r="T78" s="128" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -15498,9 +15272,21 @@
       <c r="L79" s="93" t="s">
         <v>70</v>
       </c>
+      <c r="O79" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q79" s="92" t="s">
+        <v>70</v>
+      </c>
       <c r="R79" s="92" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="86" spans="8:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H86" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -389,10 +389,10 @@
     <t xml:space="preserve">IN0(AI) =&gt;RAI</t>
   </si>
   <si>
-    <t xml:space="preserve">reg0(BR) =&gt;B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg0(BR)=&gt;B</t>
+    <t xml:space="preserve">reg0(BR) =&gt;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg0(BR)=&gt;A</t>
   </si>
   <si>
     <t xml:space="preserve">reg0(B'R) =&gt; OUT1</t>
@@ -401,10 +401,10 @@
     <t xml:space="preserve">reg2(B'I) =&gt; OUT1</t>
   </si>
   <si>
-    <t xml:space="preserve">reg1(BI) =&gt;B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg1(BI)=&gt;B</t>
+    <t xml:space="preserve">reg1(BI) =&gt;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg1(BI)=&gt;A</t>
   </si>
   <si>
     <t xml:space="preserve">reg1(WRxBR) =&gt; BSUM</t>
@@ -1369,583 +1369,583 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="46" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="46" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="50" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="50" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="54" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="54" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2009,7 +2009,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF3B7D23"/>
+      <rgbColor rgb="FF3A7D22"/>
       <rgbColor rgb="FF0D0D0D"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC04F15"/>
@@ -2032,9 +2032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2048,7 +2048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="375840" y="8215200"/>
-          <a:ext cx="8024400" cy="7480440"/>
+          <a:ext cx="8024040" cy="7480080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,9 +2070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2086,7 +2086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="375840" y="15762600"/>
-          <a:ext cx="4137480" cy="3242520"/>
+          <a:ext cx="4137120" cy="3242160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,11 +2104,11 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>402840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
@@ -2123,8 +2123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="12696480" y="7293240"/>
-          <a:ext cx="6863400" cy="11181240"/>
+          <a:off x="12696480" y="7293600"/>
+          <a:ext cx="6863040" cy="11180880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,7 +2205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="712080" y="12342240"/>
-          <a:ext cx="9696960" cy="3830760"/>
+          <a:ext cx="9696600" cy="3830400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2227,9 +2227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>121320</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2243,7 +2243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="24841440" y="1143000"/>
-          <a:ext cx="6141240" cy="8012160"/>
+          <a:ext cx="6140880" cy="8011800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2265,9 +2265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:colOff>1142640</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2281,7 +2281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32662080" y="4247280"/>
-          <a:ext cx="6199920" cy="8012160"/>
+          <a:ext cx="6199560" cy="8011800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,9 +2303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2319,7 +2319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4917960" y="12835080"/>
-          <a:ext cx="177480" cy="89640"/>
+          <a:ext cx="177120" cy="89280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2341,7 +2341,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>447120</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
@@ -2357,7 +2357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6157800" y="12808800"/>
-          <a:ext cx="4680" cy="360"/>
+          <a:ext cx="4320" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2379,9 +2379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1009800</xdr:colOff>
+      <xdr:colOff>1009440</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2395,7 +2395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4204440" y="13619880"/>
-          <a:ext cx="234360" cy="173160"/>
+          <a:ext cx="234000" cy="172800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2417,9 +2417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2433,7 +2433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4944600" y="13579200"/>
-          <a:ext cx="159840" cy="106560"/>
+          <a:ext cx="159480" cy="106200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,9 +2455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2471,7 +2471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6870960" y="13533480"/>
-          <a:ext cx="184320" cy="133200"/>
+          <a:ext cx="183960" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2493,9 +2493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>925200</xdr:colOff>
+      <xdr:colOff>924840</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2509,7 +2509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560360" y="13502520"/>
-          <a:ext cx="222840" cy="147240"/>
+          <a:ext cx="222480" cy="146880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2531,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
+      <xdr:colOff>474840</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2547,7 +2547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7140960" y="15181560"/>
-          <a:ext cx="192240" cy="155520"/>
+          <a:ext cx="191880" cy="155160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,9 +2569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2585,7 +2585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10712880" y="14699160"/>
-          <a:ext cx="78120" cy="94320"/>
+          <a:ext cx="77760" cy="93960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2607,9 +2607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
+      <xdr:colOff>759240</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2623,7 +2623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6307560" y="14651280"/>
-          <a:ext cx="167040" cy="148320"/>
+          <a:ext cx="166680" cy="147960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2645,9 +2645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
+      <xdr:colOff>742320</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2661,7 +2661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6440760" y="14737320"/>
-          <a:ext cx="16920" cy="5040"/>
+          <a:ext cx="16560" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2683,9 +2683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
+      <xdr:colOff>742320</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2699,7 +2699,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534160" y="14637600"/>
-          <a:ext cx="209520" cy="105120"/>
+          <a:ext cx="209160" cy="104760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,9 +2721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2737,7 +2737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6027840" y="13899240"/>
-          <a:ext cx="218880" cy="160560"/>
+          <a:ext cx="218520" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2759,9 +2759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>638640</xdr:colOff>
+      <xdr:colOff>638280</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2775,7 +2775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7211160" y="13990320"/>
-          <a:ext cx="285480" cy="145440"/>
+          <a:ext cx="285120" cy="145080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2797,9 +2797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1049760</xdr:colOff>
+      <xdr:colOff>1049400</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2813,7 +2813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7810200" y="13991040"/>
-          <a:ext cx="97560" cy="69120"/>
+          <a:ext cx="97200" cy="68760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2835,9 +2835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2851,7 +2851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7932600" y="14029560"/>
-          <a:ext cx="114120" cy="57240"/>
+          <a:ext cx="113760" cy="56880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2873,9 +2873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1104480</xdr:colOff>
+      <xdr:colOff>1104120</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2889,7 +2889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8818200" y="13954680"/>
-          <a:ext cx="287280" cy="142560"/>
+          <a:ext cx="286920" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,9 +2916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2932,7 +2932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4917960" y="9977400"/>
-          <a:ext cx="177480" cy="89640"/>
+          <a:ext cx="177120" cy="89280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2954,7 +2954,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>447120</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
@@ -2970,7 +2970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6157800" y="9951120"/>
-          <a:ext cx="4680" cy="360"/>
+          <a:ext cx="4320" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,9 +2992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238320</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3008,7 +3008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4204440" y="10762560"/>
-          <a:ext cx="605880" cy="173160"/>
+          <a:ext cx="605520" cy="172800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3030,9 +3030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3046,7 +3046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4944600" y="10721880"/>
-          <a:ext cx="159840" cy="106560"/>
+          <a:ext cx="159480" cy="106200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,9 +3068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3084,7 +3084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6870960" y="10676160"/>
-          <a:ext cx="184320" cy="133200"/>
+          <a:ext cx="183960" cy="132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3106,9 +3106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3122,7 +3122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7560360" y="10645200"/>
-          <a:ext cx="660960" cy="147240"/>
+          <a:ext cx="660600" cy="146880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3144,9 +3144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
+      <xdr:colOff>474840</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3160,7 +3160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7140960" y="12323880"/>
-          <a:ext cx="192240" cy="155520"/>
+          <a:ext cx="191880" cy="155160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3182,9 +3182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3198,7 +3198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10712880" y="11841840"/>
-          <a:ext cx="78120" cy="94320"/>
+          <a:ext cx="77760" cy="93960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3220,9 +3220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3236,7 +3236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6307560" y="11793960"/>
-          <a:ext cx="700200" cy="148320"/>
+          <a:ext cx="699840" cy="147960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3258,9 +3258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3274,7 +3274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6440760" y="11880000"/>
-          <a:ext cx="435960" cy="5040"/>
+          <a:ext cx="435600" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3296,9 +3296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
+      <xdr:colOff>132840</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,7 +3312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534160" y="11780280"/>
-          <a:ext cx="743040" cy="105120"/>
+          <a:ext cx="742680" cy="104760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3334,9 +3334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3350,7 +3350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6027840" y="11041560"/>
-          <a:ext cx="218880" cy="160560"/>
+          <a:ext cx="218520" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3372,9 +3372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3388,7 +3388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7211160" y="11132640"/>
-          <a:ext cx="819000" cy="145440"/>
+          <a:ext cx="818640" cy="145080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3410,9 +3410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3426,7 +3426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7810200" y="11133360"/>
-          <a:ext cx="288000" cy="69120"/>
+          <a:ext cx="287640" cy="68760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3448,9 +3448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3464,7 +3464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7932600" y="11171880"/>
-          <a:ext cx="181080" cy="57240"/>
+          <a:ext cx="180720" cy="56880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3486,9 +3486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3502,7 +3502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8818200" y="11097000"/>
-          <a:ext cx="611280" cy="142560"/>
+          <a:ext cx="610920" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3529,7 +3529,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>447120</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
@@ -3545,7 +3545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6157800" y="10522800"/>
-          <a:ext cx="4680" cy="360"/>
+          <a:ext cx="4320" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3567,9 +3567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3583,7 +3583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10712880" y="11556000"/>
-          <a:ext cx="78120" cy="94320"/>
+          <a:ext cx="77760" cy="93960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,7 +3778,7 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AL35" activeCellId="0" sqref="AL35"/>
     </sheetView>
   </sheetViews>
@@ -4557,7 +4557,7 @@
   </sheetPr>
   <dimension ref="B2:Z54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
     </sheetView>
   </sheetViews>
@@ -5892,17 +5892,17 @@
   </sheetPr>
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H45" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="11.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="52" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       <c r="L2" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="52" t="n">
+      <c r="M2" s="53" t="n">
         <v>11</v>
       </c>
       <c r="N2" s="32" t="n">
@@ -5958,7 +5958,7 @@
       <c r="R2" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="S2" s="52" t="n">
+      <c r="S2" s="53" t="n">
         <v>17</v>
       </c>
       <c r="T2" s="32" t="n">
@@ -6005,67 +6005,67 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="53" t="n">
+      <c r="C3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="53" t="n">
+      <c r="F3" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="n">
+      <c r="G3" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="53" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="53" t="n">
+      <c r="H3" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="54" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="53" t="n">
+      <c r="J3" s="54" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="53" t="n">
+      <c r="K3" s="54" t="n">
         <v>9</v>
       </c>
-      <c r="L3" s="53" t="n">
+      <c r="L3" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="n">
+      <c r="M3" s="54" t="n">
         <v>11</v>
       </c>
-      <c r="N3" s="53" t="n">
+      <c r="N3" s="54" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="D4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="14"/>
@@ -6083,24 +6083,24 @@
       <c r="T4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="55" t="s">
+      <c r="E5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="14"/>
@@ -6117,20 +6117,20 @@
       <c r="T5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="55" t="s">
+      <c r="D6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="14"/>
@@ -6149,15 +6149,15 @@
       <c r="T6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="56" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="14"/>
@@ -6177,16 +6177,16 @@
       <c r="T7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="14"/>
@@ -6205,10 +6205,10 @@
       <c r="T8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14"/>
@@ -6216,7 +6216,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="14"/>
@@ -6233,17 +6233,17 @@
       <c r="T9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="14"/>
@@ -6261,10 +6261,10 @@
       <c r="T10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="14"/>
@@ -6273,7 +6273,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="14"/>
@@ -6289,10 +6289,10 @@
       <c r="T11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="14"/>
@@ -6301,10 +6301,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="55" t="s">
+      <c r="I12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="14"/>
@@ -6319,10 +6319,10 @@
       <c r="T12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="14"/>
@@ -6332,10 +6332,10 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="55" t="s">
+      <c r="J13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="14"/>
@@ -6349,10 +6349,10 @@
       <c r="T13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="14"/>
@@ -6360,7 +6360,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="14"/>
@@ -6377,10 +6377,10 @@
       <c r="T14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="14"/>
@@ -6390,7 +6390,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="14"/>
@@ -6405,10 +6405,10 @@
       <c r="T15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="14"/>
@@ -6420,7 +6420,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="14"/>
@@ -6433,10 +6433,10 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="14"/>
@@ -6445,7 +6445,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="14"/>
@@ -6461,10 +6461,10 @@
       <c r="T17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="14"/>
@@ -6475,7 +6475,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="14"/>
@@ -6489,10 +6489,10 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="14"/>
@@ -6505,7 +6505,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N19" s="14"/>
@@ -6517,10 +6517,10 @@
       <c r="T19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="14"/>
@@ -6531,13 +6531,13 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="55" t="s">
+      <c r="K20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N20" s="14"/>
@@ -6549,10 +6549,10 @@
       <c r="T20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="14"/>
@@ -6565,7 +6565,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="55" t="s">
+      <c r="M21" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N21" s="14"/>
@@ -6577,10 +6577,10 @@
       <c r="T21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="14"/>
@@ -6592,13 +6592,13 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="55" t="s">
+      <c r="L22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="14"/>
@@ -6609,10 +6609,10 @@
       <c r="T22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="14"/>
@@ -6626,7 +6626,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="56" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="14"/>
@@ -6637,61 +6637,61 @@
       <c r="T23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
+      <c r="A24" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="57" t="n">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="L24" s="57" t="n">
+      <c r="L24" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="57" t="n">
+      <c r="M24" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="N24" s="57" t="n">
+      <c r="N24" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="O24" s="57" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="57" t="n">
+      <c r="O24" s="58" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="58" t="n">
         <v>7</v>
       </c>
-      <c r="Q24" s="57" t="n">
+      <c r="Q24" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="R24" s="57" t="n">
+      <c r="R24" s="58" t="n">
         <v>9</v>
       </c>
-      <c r="S24" s="57" t="n">
+      <c r="S24" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="57" t="n">
+      <c r="T24" s="58" t="n">
         <v>11</v>
       </c>
-      <c r="U24" s="57" t="n">
+      <c r="U24" s="58" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="14"/>
@@ -6722,10 +6722,10 @@
       <c r="T25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="14"/>
@@ -6756,10 +6756,10 @@
       <c r="T26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="14"/>
@@ -6788,10 +6788,10 @@
       <c r="T27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="14"/>
@@ -6816,10 +6816,10 @@
       <c r="T28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="14"/>
@@ -6844,10 +6844,10 @@
       <c r="T29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="14"/>
@@ -6872,10 +6872,10 @@
       <c r="T30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="14"/>
@@ -6900,10 +6900,10 @@
       <c r="T31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14"/>
@@ -6928,10 +6928,10 @@
       <c r="T32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="14"/>
@@ -6958,10 +6958,10 @@
       <c r="T33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="14"/>
@@ -6988,10 +6988,10 @@
       <c r="T34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="14"/>
@@ -7016,10 +7016,10 @@
       <c r="T35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="14"/>
@@ -7044,10 +7044,10 @@
       <c r="T36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="14"/>
@@ -7072,10 +7072,10 @@
       <c r="T37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="14"/>
@@ -7100,10 +7100,10 @@
       <c r="T38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="14"/>
@@ -7128,10 +7128,10 @@
       <c r="T39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="14"/>
@@ -7156,10 +7156,10 @@
       <c r="T40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="14"/>
@@ -7188,10 +7188,10 @@
       <c r="T41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="58" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="16"/>
@@ -7216,10 +7216,10 @@
       <c r="T42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="14"/>
@@ -7248,10 +7248,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="14"/>
@@ -7309,7 +7309,7 @@
       <c r="L45" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M45" s="52" t="n">
+      <c r="M45" s="53" t="n">
         <v>11</v>
       </c>
       <c r="N45" s="32" t="n">
@@ -7327,7 +7327,7 @@
       <c r="R45" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="S45" s="52" t="n">
+      <c r="S45" s="53" t="n">
         <v>17</v>
       </c>
       <c r="T45" s="32" t="n">
@@ -7335,1189 +7335,1189 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="60" t="n">
+      <c r="B47" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="62" t="s">
+      <c r="F47" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="63" t="s">
+      <c r="G47" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="64" t="s">
+      <c r="H47" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66" t="s">
+      <c r="I47" s="66"/>
+      <c r="J47" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="K47" s="67" t="s">
+      <c r="K47" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="67" t="s">
+      <c r="L47" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="68" t="s">
+      <c r="M47" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="N47" s="69" t="s">
+      <c r="N47" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="70" t="s">
+      <c r="B48" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="62"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M48" s="71" t="s">
+      <c r="H48" s="63"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="67"/>
+      <c r="N48" s="68"/>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="60" t="n">
+      <c r="B49" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="72" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="73" t="s">
+      <c r="G49" s="64"/>
+      <c r="H49" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="74"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="75" t="s">
+      <c r="I49" s="75"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L49" s="66" t="s">
+      <c r="L49" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="68"/>
-      <c r="N49" s="76" t="s">
+      <c r="M49" s="69"/>
+      <c r="N49" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="60" t="n">
+      <c r="B50" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="61" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="61" t="s">
+      <c r="E50" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F50" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="62" t="s">
+      <c r="H50" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="66" t="s">
+      <c r="I50" s="75"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L50" s="67" t="s">
+      <c r="L50" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="67" t="s">
+      <c r="M50" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="N50" s="68" t="s">
+      <c r="N50" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="60" t="n">
+      <c r="B51" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78" t="s">
+      <c r="H51" s="78"/>
+      <c r="I51" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="78" t="s">
+      <c r="J51" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="72" t="s">
+      <c r="L51" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="61" t="s">
+      <c r="M51" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N51" s="63"/>
-      <c r="O51" s="75" t="s">
+      <c r="N51" s="64"/>
+      <c r="O51" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="79" t="s">
+      <c r="P51" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q51" s="75" t="s">
+      <c r="Q51" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="R51" s="75" t="s">
+      <c r="R51" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="S51" s="66" t="s">
+      <c r="S51" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="T51" s="67"/>
+      <c r="T51" s="68"/>
     </row>
     <row r="52" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="60" t="n">
+      <c r="B52" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="I52" s="61"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="61" t="s">
+      <c r="I52" s="62"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="62" t="s">
+      <c r="L52" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="63" t="s">
+      <c r="M52" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="61" t="s">
+      <c r="N52" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O52" s="66"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="66" t="s">
+      <c r="O52" s="67"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="67" t="s">
+      <c r="R52" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="S52" s="68" t="s">
+      <c r="S52" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="T52" s="66" t="s">
+      <c r="T52" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H53" s="80"/>
-      <c r="I53" s="61" t="s">
+      <c r="B53" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" s="81"/>
+      <c r="I53" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="62" t="s">
+      <c r="J53" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="63"/>
-      <c r="L53" s="61" t="s">
+      <c r="K53" s="64"/>
+      <c r="L53" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="62" t="s">
+      <c r="M53" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N53" s="63" t="s">
+      <c r="N53" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="66" t="s">
+      <c r="O53" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="P53" s="67" t="s">
+      <c r="P53" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="66" t="s">
+      <c r="Q53" s="69"/>
+      <c r="R53" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="67" t="s">
+      <c r="S53" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="T53" s="67" t="s">
+      <c r="T53" s="68" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="60" t="n">
+      <c r="B54" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="I54" s="72" t="s">
+      <c r="I54" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="61" t="s">
+      <c r="J54" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="62" t="s">
+      <c r="K54" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="63"/>
-      <c r="M54" s="61" t="s">
+      <c r="L54" s="64"/>
+      <c r="M54" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="63"/>
-      <c r="O54" s="79" t="s">
+      <c r="N54" s="64"/>
+      <c r="O54" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="P54" s="66" t="s">
+      <c r="P54" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Q54" s="67" t="s">
+      <c r="Q54" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="R54" s="68"/>
-      <c r="S54" s="66" t="s">
+      <c r="R54" s="69"/>
+      <c r="S54" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="T54" s="67"/>
+      <c r="T54" s="68"/>
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="60" t="n">
+      <c r="B58" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="61" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="63" t="s">
+      <c r="G58" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H58" s="64" t="s">
+      <c r="H58" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="66" t="s">
+      <c r="I58" s="66"/>
+      <c r="J58" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="K58" s="67" t="s">
+      <c r="K58" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="L58" s="67" t="s">
+      <c r="L58" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="68" t="s">
+      <c r="M58" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="N58" s="69" t="s">
+      <c r="N58" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="70" t="s">
+      <c r="B59" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="82"/>
+      <c r="D59" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="62"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="K59" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L59" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M59" s="71" t="s">
+      <c r="H59" s="63"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="N59" s="67"/>
+      <c r="N59" s="68"/>
     </row>
     <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="60" t="n">
+      <c r="B60" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="72" t="s">
+      <c r="C60" s="83"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="73" t="s">
+      <c r="G60" s="64"/>
+      <c r="H60" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="74"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="75" t="s">
+      <c r="I60" s="75"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L60" s="66" t="s">
+      <c r="L60" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="M60" s="68"/>
-      <c r="N60" s="76" t="s">
+      <c r="M60" s="69"/>
+      <c r="N60" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="60" t="n">
+      <c r="B61" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="C61" s="82"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="61" t="s">
+      <c r="C61" s="83"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="62" t="s">
+      <c r="F61" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="62" t="s">
+      <c r="H61" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="74"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="66" t="s">
+      <c r="I61" s="75"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L61" s="67" t="s">
+      <c r="L61" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="M61" s="67" t="s">
+      <c r="M61" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="N61" s="68" t="s">
+      <c r="N61" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="60" t="n">
+      <c r="B62" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="H62" s="77"/>
-      <c r="I62" s="78" t="s">
+      <c r="H62" s="78"/>
+      <c r="I62" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="73"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="61" t="s">
+      <c r="J62" s="74"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="63"/>
-      <c r="O62" s="75" t="s">
+      <c r="N62" s="64"/>
+      <c r="O62" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="79"/>
-      <c r="S62" s="66" t="s">
+      <c r="P62" s="84"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="T62" s="67"/>
+      <c r="T62" s="68"/>
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="60" t="n">
+      <c r="B63" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="H63" s="80"/>
-      <c r="I63" s="61" t="s">
+      <c r="H63" s="81"/>
+      <c r="I63" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="63" t="s">
+      <c r="J63" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="61" t="s">
+      <c r="K63" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L63" s="62" t="s">
+      <c r="L63" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M63" s="63" t="s">
+      <c r="M63" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N63" s="61" t="s">
+      <c r="N63" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O63" s="66"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="66" t="s">
+      <c r="O63" s="67"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="R63" s="67" t="s">
+      <c r="R63" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="S63" s="68" t="s">
+      <c r="S63" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="T63" s="66" t="s">
+      <c r="T63" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H64" s="80"/>
-      <c r="I64" s="72" t="s">
+      <c r="B64" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="81"/>
+      <c r="I64" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="61" t="s">
+      <c r="J64" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="63" t="s">
+      <c r="K64" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="61" t="s">
+      <c r="L64" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="M64" s="62" t="s">
+      <c r="M64" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="63" t="s">
+      <c r="N64" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O64" s="79" t="s">
+      <c r="O64" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="66" t="s">
+      <c r="P64" s="68"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="S64" s="67" t="s">
+      <c r="S64" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="T64" s="67" t="s">
+      <c r="T64" s="68" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="84" t="s">
+      <c r="J65" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="K65" s="84" t="s">
+      <c r="K65" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="84" t="s">
+      <c r="L65" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="84" t="s">
+      <c r="M65" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P65" s="84" t="s">
+      <c r="P65" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q65" s="84" t="s">
+      <c r="Q65" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="84" t="s">
+      <c r="R65" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="S65" s="84" t="s">
+      <c r="S65" s="85" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+      <c r="T68" s="60"/>
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="62" t="s">
+      <c r="D69" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="62" t="s">
+      <c r="E69" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F69" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="87" t="s">
+      <c r="G69" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="88" t="s">
+      <c r="H69" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="66" t="s">
+      <c r="I69" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="67" t="s">
+      <c r="J69" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="K69" s="67" t="s">
+      <c r="K69" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="89" t="s">
+      <c r="L69" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="M69" s="90" t="s">
+      <c r="M69" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="91" t="s">
+      <c r="N69" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="O69" s="92" t="s">
+      <c r="O69" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="P69" s="93" t="s">
+      <c r="P69" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q69" s="93" t="s">
+      <c r="Q69" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="R69" s="93" t="s">
+      <c r="R69" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="S69" s="94" t="s">
+      <c r="S69" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="T69" s="78" t="s">
+      <c r="T69" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="70"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="J70" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="K70" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L70" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="M70" s="92" t="s">
+      <c r="C70" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="71"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="94" t="s">
+      <c r="N70" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="P70" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="R70" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="S70" s="96" t="s">
+      <c r="O70" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="P70" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="S70" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="97" t="s">
+      <c r="T70" s="98" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="92" t="s">
+      <c r="C71" s="88"/>
+      <c r="D71" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="94" t="s">
+      <c r="E71" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="78" t="s">
+      <c r="F71" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="98" t="s">
+      <c r="G71" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="88" t="s">
+      <c r="H71" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="88" t="s">
+      <c r="I71" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="96" t="s">
+      <c r="J71" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="K71" s="99" t="s">
+      <c r="K71" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L71" s="91" t="s">
+      <c r="L71" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="M71" s="91" t="s">
+      <c r="M71" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="N71" s="91" t="s">
+      <c r="N71" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="O71" s="91" t="s">
+      <c r="O71" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P71" s="92" t="s">
+      <c r="P71" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Q71" s="94" t="s">
+      <c r="Q71" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="R71" s="100" t="s">
+      <c r="R71" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="S71" s="100" t="s">
+      <c r="S71" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="T71" s="78" t="s">
+      <c r="T71" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="63"/>
-      <c r="D72" s="61" t="s">
+      <c r="C72" s="64"/>
+      <c r="D72" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="62" t="s">
+      <c r="F72" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="62" t="s">
+      <c r="G72" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="62" t="s">
+      <c r="H72" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="74"/>
-      <c r="J72" s="101" t="s">
+      <c r="I72" s="75"/>
+      <c r="J72" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="66" t="s">
+      <c r="K72" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="67" t="s">
+      <c r="L72" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="67" t="s">
+      <c r="M72" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="102" t="s">
+      <c r="N72" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="88"/>
-      <c r="P72" s="92" t="s">
+      <c r="O72" s="89"/>
+      <c r="P72" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="92" t="s">
+      <c r="Q72" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="92" t="s">
+      <c r="R72" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="92" t="s">
+      <c r="S72" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="78" t="s">
+      <c r="T72" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="103"/>
-      <c r="I73" s="61" t="s">
+      <c r="H73" s="104"/>
+      <c r="I73" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="87" t="s">
+      <c r="J73" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="61" t="s">
+      <c r="K73" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L73" s="62" t="s">
+      <c r="L73" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M73" s="87" t="s">
+      <c r="M73" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="88" t="s">
+      <c r="N73" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="O73" s="104" t="s">
+      <c r="O73" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="P73" s="105" t="s">
+      <c r="P73" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="Q73" s="106" t="s">
+      <c r="Q73" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R73" s="107" t="s">
+      <c r="R73" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="S73" s="105" t="s">
+      <c r="S73" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="T73" s="97" t="s">
+      <c r="T73" s="98" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="108"/>
-      <c r="I74" s="88" t="s">
+      <c r="H74" s="109"/>
+      <c r="I74" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="61" t="s">
+      <c r="J74" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K74" s="87" t="s">
+      <c r="K74" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="L74" s="61" t="s">
+      <c r="L74" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="M74" s="62" t="s">
+      <c r="M74" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="87" t="s">
+      <c r="N74" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="O74" s="109" t="s">
+      <c r="O74" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="P74" s="110" t="s">
+      <c r="P74" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="Q74" s="111" t="s">
+      <c r="Q74" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="R74" s="110" t="s">
+      <c r="R74" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="S74" s="110" t="s">
+      <c r="S74" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="T74" s="97" t="s">
+      <c r="T74" s="98" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="112" t="s">
+      <c r="B75" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="J75" s="84" t="s">
+      <c r="J75" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="K75" s="84" t="s">
+      <c r="K75" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="L75" s="84" t="s">
+      <c r="L75" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="M75" s="84" t="s">
+      <c r="M75" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P75" s="84" t="s">
+      <c r="P75" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q75" s="84" t="s">
+      <c r="Q75" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="84" t="s">
+      <c r="R75" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="S75" s="84" t="s">
+      <c r="S75" s="85" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="113" t="s">
+      <c r="B78" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="114" t="s">
+      <c r="C78" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D78" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="114" t="s">
+      <c r="E78" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="114" t="s">
+      <c r="F78" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="G78" s="114" t="s">
+      <c r="G78" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="H78" s="114" t="s">
+      <c r="H78" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="I78" s="115" t="s">
+      <c r="I78" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="J78" s="115" t="s">
+      <c r="J78" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="K78" s="115" t="s">
+      <c r="K78" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="L78" s="115" t="s">
+      <c r="L78" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="M78" s="115" t="s">
+      <c r="M78" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="115" t="s">
+      <c r="N78" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="O78" s="115" t="s">
+      <c r="O78" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="P78" s="115" t="s">
+      <c r="P78" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="Q78" s="115" t="s">
+      <c r="Q78" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="R78" s="115" t="s">
+      <c r="R78" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="S78" s="115" t="s">
+      <c r="S78" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="T78" s="115" t="s">
+      <c r="T78" s="116" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="113" t="s">
+      <c r="B79" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="114" t="s">
+      <c r="C79" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="114" t="s">
+      <c r="D79" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114" t="s">
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="H79" s="114" t="s">
+      <c r="H79" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="I79" s="115" t="s">
+      <c r="I79" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="J79" s="115" t="s">
+      <c r="J79" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="116" t="s">
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="N79" s="115" t="s">
+      <c r="N79" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="O79" s="115" t="s">
+      <c r="O79" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="P79" s="115" t="s">
+      <c r="P79" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
-      <c r="S79" s="116" t="s">
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="T79" s="115" t="s">
+      <c r="T79" s="116" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="113" t="s">
+      <c r="B80" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="117"/>
-      <c r="H80" s="114" t="s">
+      <c r="F80" s="118"/>
+      <c r="H80" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="I80" s="114" t="s">
+      <c r="I80" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="J80" s="114" t="s">
+      <c r="J80" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="K80" s="114" t="s">
+      <c r="K80" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="L80" s="114" t="s">
+      <c r="L80" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="M80" s="114" t="s">
+      <c r="M80" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="N80" s="115" t="s">
+      <c r="N80" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="O80" s="114" t="s">
+      <c r="O80" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="P80" s="114" t="s">
+      <c r="P80" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="Q80" s="114" t="s">
+      <c r="Q80" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="R80" s="114" t="s">
+      <c r="R80" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="S80" s="114" t="s">
+      <c r="S80" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="T80" s="115" t="s">
+      <c r="T80" s="116" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="113" t="s">
+      <c r="B81" s="114" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="H82" s="114" t="s">
+      <c r="H82" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="118" t="s">
+      <c r="B83" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G83" s="117"/>
-      <c r="H83" s="114" t="s">
+      <c r="G83" s="118"/>
+      <c r="H83" s="115" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="H84" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="118" t="s">
+      <c r="B85" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M87" s="0" t="s">
+      <c r="M87" s="52" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8540,17 +8540,17 @@
   </sheetPr>
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C45" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="11.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="52" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
       <c r="L2" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="52" t="n">
+      <c r="M2" s="53" t="n">
         <v>11</v>
       </c>
       <c r="N2" s="32" t="n">
@@ -8606,7 +8606,7 @@
       <c r="R2" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="S2" s="52" t="n">
+      <c r="S2" s="53" t="n">
         <v>17</v>
       </c>
       <c r="T2" s="32" t="n">
@@ -8653,67 +8653,67 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="53" t="n">
+      <c r="C3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="53" t="n">
+      <c r="F3" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="n">
+      <c r="G3" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="53" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="53" t="n">
+      <c r="H3" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="54" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="53" t="n">
+      <c r="J3" s="54" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="53" t="n">
+      <c r="K3" s="54" t="n">
         <v>9</v>
       </c>
-      <c r="L3" s="53" t="n">
+      <c r="L3" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="n">
+      <c r="M3" s="54" t="n">
         <v>11</v>
       </c>
-      <c r="N3" s="53" t="n">
+      <c r="N3" s="54" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="D4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="14"/>
@@ -8731,24 +8731,24 @@
       <c r="T4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="55" t="s">
+      <c r="E5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="14"/>
@@ -8765,20 +8765,20 @@
       <c r="T5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="55" t="s">
+      <c r="D6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="14"/>
@@ -8797,15 +8797,15 @@
       <c r="T6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="56" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="14"/>
@@ -8825,16 +8825,16 @@
       <c r="T7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="14"/>
@@ -8853,10 +8853,10 @@
       <c r="T8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14"/>
@@ -8864,7 +8864,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="14"/>
@@ -8881,17 +8881,17 @@
       <c r="T9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="14"/>
@@ -8909,10 +8909,10 @@
       <c r="T10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="14"/>
@@ -8921,7 +8921,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="14"/>
@@ -8937,10 +8937,10 @@
       <c r="T11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="14"/>
@@ -8949,10 +8949,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="55" t="s">
+      <c r="I12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="14"/>
@@ -8967,10 +8967,10 @@
       <c r="T12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="14"/>
@@ -8980,10 +8980,10 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="55" t="s">
+      <c r="J13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="14"/>
@@ -8997,10 +8997,10 @@
       <c r="T13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="14"/>
@@ -9008,7 +9008,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="14"/>
@@ -9025,10 +9025,10 @@
       <c r="T14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="14"/>
@@ -9038,7 +9038,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="14"/>
@@ -9053,10 +9053,10 @@
       <c r="T15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="14"/>
@@ -9068,7 +9068,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="14"/>
@@ -9081,10 +9081,10 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="14"/>
@@ -9093,7 +9093,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="14"/>
@@ -9109,10 +9109,10 @@
       <c r="T17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="14"/>
@@ -9123,7 +9123,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="14"/>
@@ -9137,10 +9137,10 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="14"/>
@@ -9153,7 +9153,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N19" s="14"/>
@@ -9165,10 +9165,10 @@
       <c r="T19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="14"/>
@@ -9179,13 +9179,13 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="55" t="s">
+      <c r="K20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N20" s="14"/>
@@ -9197,10 +9197,10 @@
       <c r="T20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="14"/>
@@ -9213,7 +9213,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="55" t="s">
+      <c r="M21" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N21" s="14"/>
@@ -9225,10 +9225,10 @@
       <c r="T21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="14"/>
@@ -9240,13 +9240,13 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="55" t="s">
+      <c r="L22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="14"/>
@@ -9257,10 +9257,10 @@
       <c r="T22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="14"/>
@@ -9274,7 +9274,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="56" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="14"/>
@@ -9285,61 +9285,61 @@
       <c r="T23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
+      <c r="A24" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="57" t="n">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="L24" s="57" t="n">
+      <c r="L24" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="57" t="n">
+      <c r="M24" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="N24" s="57" t="n">
+      <c r="N24" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="O24" s="57" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="57" t="n">
+      <c r="O24" s="58" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="58" t="n">
         <v>7</v>
       </c>
-      <c r="Q24" s="57" t="n">
+      <c r="Q24" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="R24" s="57" t="n">
+      <c r="R24" s="58" t="n">
         <v>9</v>
       </c>
-      <c r="S24" s="57" t="n">
+      <c r="S24" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="57" t="n">
+      <c r="T24" s="58" t="n">
         <v>11</v>
       </c>
-      <c r="U24" s="57" t="n">
+      <c r="U24" s="58" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="14"/>
@@ -9370,10 +9370,10 @@
       <c r="T25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="14"/>
@@ -9404,10 +9404,10 @@
       <c r="T26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="14"/>
@@ -9436,10 +9436,10 @@
       <c r="T27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="14"/>
@@ -9464,10 +9464,10 @@
       <c r="T28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="14"/>
@@ -9492,10 +9492,10 @@
       <c r="T29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="14"/>
@@ -9520,10 +9520,10 @@
       <c r="T30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="14"/>
@@ -9548,10 +9548,10 @@
       <c r="T31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14"/>
@@ -9576,10 +9576,10 @@
       <c r="T32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="14"/>
@@ -9606,10 +9606,10 @@
       <c r="T33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="14"/>
@@ -9636,10 +9636,10 @@
       <c r="T34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="14"/>
@@ -9664,10 +9664,10 @@
       <c r="T35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="14"/>
@@ -9692,10 +9692,10 @@
       <c r="T36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="14"/>
@@ -9720,10 +9720,10 @@
       <c r="T37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="14"/>
@@ -9748,10 +9748,10 @@
       <c r="T38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="14"/>
@@ -9776,10 +9776,10 @@
       <c r="T39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="14"/>
@@ -9804,10 +9804,10 @@
       <c r="T40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="14"/>
@@ -9836,10 +9836,10 @@
       <c r="T41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="58" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="16"/>
@@ -9864,10 +9864,10 @@
       <c r="T42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="14"/>
@@ -9896,10 +9896,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="14"/>
@@ -9957,7 +9957,7 @@
       <c r="L45" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M45" s="52" t="n">
+      <c r="M45" s="53" t="n">
         <v>11</v>
       </c>
       <c r="N45" s="32" t="n">
@@ -9975,7 +9975,7 @@
       <c r="R45" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="S45" s="52" t="n">
+      <c r="S45" s="53" t="n">
         <v>17</v>
       </c>
       <c r="T45" s="32" t="n">
@@ -9983,779 +9983,779 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M47" s="0" t="s">
+      <c r="M47" s="52" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="62" t="s">
+      <c r="E49" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="87" t="s">
+      <c r="G49" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="88" t="s">
+      <c r="H49" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="66" t="s">
+      <c r="I49" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="67" t="s">
+      <c r="J49" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="K49" s="67" t="s">
+      <c r="K49" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="89" t="s">
+      <c r="L49" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="90" t="s">
+      <c r="M49" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="N49" s="91" t="s">
+      <c r="N49" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="O49" s="92" t="s">
+      <c r="O49" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="P49" s="93" t="s">
+      <c r="P49" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q49" s="93" t="s">
+      <c r="Q49" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="R49" s="93" t="s">
+      <c r="R49" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="S49" s="94" t="s">
+      <c r="S49" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="T49" s="78" t="s">
+      <c r="T49" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="M50" s="92" t="s">
+      <c r="C50" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="94"/>
-      <c r="O50" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="P50" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="R50" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="S50" s="96" t="s">
+      <c r="N50" s="95"/>
+      <c r="O50" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="97" t="s">
+      <c r="T50" s="98" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="92" t="s">
+      <c r="C51" s="88"/>
+      <c r="D51" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="94" t="s">
+      <c r="E51" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="98" t="s">
+      <c r="G51" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="88" t="s">
+      <c r="H51" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="88" t="s">
+      <c r="I51" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="96" t="s">
+      <c r="J51" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="K51" s="99" t="s">
+      <c r="K51" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L51" s="91" t="s">
+      <c r="L51" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="M51" s="91" t="s">
+      <c r="M51" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="N51" s="91" t="s">
+      <c r="N51" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="O51" s="91" t="s">
+      <c r="O51" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P51" s="92" t="s">
+      <c r="P51" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Q51" s="94" t="s">
+      <c r="Q51" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="R51" s="100" t="s">
+      <c r="R51" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="S51" s="100" t="s">
+      <c r="S51" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="T51" s="78" t="s">
+      <c r="T51" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="61" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F52" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="62" t="s">
+      <c r="H52" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="74"/>
-      <c r="J52" s="101" t="s">
+      <c r="I52" s="75"/>
+      <c r="J52" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="66" t="s">
+      <c r="K52" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="67" t="s">
+      <c r="L52" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="67" t="s">
+      <c r="M52" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="102" t="s">
+      <c r="N52" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="102" t="s">
+      <c r="O52" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="92" t="s">
+      <c r="P52" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="92" t="s">
+      <c r="Q52" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="92" t="s">
+      <c r="R52" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="92" t="s">
+      <c r="S52" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="78" t="s">
+      <c r="T52" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="61" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="87" t="s">
+      <c r="J53" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="61" t="s">
+      <c r="K53" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="62" t="s">
+      <c r="L53" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="87" t="s">
+      <c r="M53" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="N53" s="88" t="s">
+      <c r="N53" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="O53" s="104" t="s">
+      <c r="O53" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="P53" s="105" t="s">
+      <c r="P53" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="106" t="s">
+      <c r="Q53" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R53" s="107" t="s">
+      <c r="R53" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="S53" s="105" t="s">
+      <c r="S53" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="T53" s="97" t="s">
+      <c r="T53" s="98" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="121" t="s">
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="61" t="s">
+      <c r="J54" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="87" t="s">
+      <c r="K54" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="61" t="s">
+      <c r="L54" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="62" t="s">
+      <c r="M54" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="87" t="s">
+      <c r="N54" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="109" t="s">
+      <c r="O54" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="P54" s="110" t="s">
+      <c r="P54" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="Q54" s="111" t="s">
+      <c r="Q54" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="R54" s="110" t="s">
+      <c r="R54" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="S54" s="110" t="s">
+      <c r="S54" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="T54" s="97" t="s">
+      <c r="T54" s="98" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="126" t="s">
+      <c r="C55" s="123"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="126" t="s">
+      <c r="K55" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="126" t="s">
+      <c r="L55" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="M55" s="84" t="s">
+      <c r="M55" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="O55" s="108"/>
-      <c r="P55" s="127" t="s">
+      <c r="O55" s="109"/>
+      <c r="P55" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="Q55" s="127" t="s">
+      <c r="Q55" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="R55" s="127" t="s">
+      <c r="R55" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="S55" s="84" t="s">
+      <c r="S55" s="85" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="114" t="s">
+      <c r="C58" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114" t="s">
+      <c r="D58" s="115"/>
+      <c r="E58" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="114" t="s">
+      <c r="G58" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="114" t="s">
+      <c r="H58" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="I58" s="115" t="s">
+      <c r="I58" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115" t="s">
+      <c r="J58" s="116"/>
+      <c r="K58" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="L58" s="115" t="s">
+      <c r="L58" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="M58" s="115" t="s">
+      <c r="M58" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="N58" s="115" t="s">
+      <c r="N58" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="O58" s="115" t="s">
+      <c r="O58" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="P58" s="115" t="s">
+      <c r="P58" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="Q58" s="115" t="s">
+      <c r="Q58" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="R58" s="115" t="s">
+      <c r="R58" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="S58" s="115" t="s">
+      <c r="S58" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="T58" s="115" t="s">
+      <c r="T58" s="116" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114" t="s">
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="114" t="s">
+      <c r="H59" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="I59" s="115" t="s">
+      <c r="I59" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="116" t="s">
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="N59" s="115" t="s">
+      <c r="N59" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="O59" s="115" t="s">
+      <c r="O59" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="P59" s="115" t="s">
+      <c r="P59" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="115"/>
-      <c r="S59" s="116" t="s">
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="T59" s="115" t="s">
+      <c r="T59" s="116" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="117"/>
-      <c r="H60" s="114" t="s">
+      <c r="F60" s="118"/>
+      <c r="H60" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="I60" s="114" t="s">
+      <c r="I60" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="J60" s="114" t="s">
+      <c r="J60" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="K60" s="114" t="s">
+      <c r="K60" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="L60" s="114" t="s">
+      <c r="L60" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="M60" s="114" t="s">
+      <c r="M60" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="N60" s="115" t="s">
+      <c r="N60" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="O60" s="114" t="s">
+      <c r="O60" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="P60" s="114" t="s">
+      <c r="P60" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="Q60" s="114" t="s">
+      <c r="Q60" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="R60" s="114" t="s">
+      <c r="R60" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="S60" s="114" t="s">
+      <c r="S60" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="T60" s="115" t="s">
+      <c r="T60" s="116" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="115" t="s">
+      <c r="H61" s="116" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H62" s="115" t="s">
+      <c r="H62" s="116" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="118" t="s">
+      <c r="A66" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="114" t="s">
+      <c r="C66" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="114" t="s">
+      <c r="E66" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="114" t="s">
+      <c r="H66" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="115" t="s">
+      <c r="I66" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="115" t="s">
+      <c r="J66" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="K66" s="115" t="s">
+      <c r="K66" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="L66" s="115" t="s">
+      <c r="L66" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="M66" s="115" t="s">
+      <c r="M66" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="N66" s="115" t="s">
+      <c r="N66" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="O66" s="114" t="s">
+      <c r="O66" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="P66" s="114" t="s">
+      <c r="P66" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="Q66" s="114" t="s">
+      <c r="Q66" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="R66" s="114" t="s">
+      <c r="R66" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="S66" s="114" t="s">
+      <c r="S66" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="T66" s="114" t="s">
+      <c r="T66" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="114" t="s">
+      <c r="E67" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="117"/>
-      <c r="H67" s="114" t="s">
+      <c r="G67" s="118"/>
+      <c r="H67" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="115" t="s">
+      <c r="I67" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="J67" s="115" t="s">
+      <c r="J67" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="K67" s="115" t="s">
+      <c r="K67" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="L67" s="115" t="s">
+      <c r="L67" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="M67" s="117"/>
-      <c r="N67" s="115" t="s">
+      <c r="M67" s="118"/>
+      <c r="N67" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="O67" s="114" t="s">
+      <c r="O67" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="P67" s="114" t="s">
+      <c r="P67" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="Q67" s="114" t="s">
+      <c r="Q67" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="R67" s="114" t="s">
+      <c r="R67" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="S67" s="117"/>
-      <c r="T67" s="114" t="s">
+      <c r="S67" s="118"/>
+      <c r="T67" s="115" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="H68" s="114" t="s">
+      <c r="H68" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="L68" s="115" t="s">
+      <c r="L68" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="N68" s="115" t="s">
+      <c r="N68" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="R68" s="114" t="s">
+      <c r="R68" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="T68" s="114" t="s">
+      <c r="T68" s="115" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="118" t="s">
+      <c r="A69" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="114" t="s">
+      <c r="F69" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="L69" s="115" t="s">
+      <c r="L69" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="R69" s="114" t="s">
+      <c r="R69" s="115" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I70" s="114" t="s">
+      <c r="I70" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="J70" s="114" t="s">
+      <c r="J70" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="114" t="s">
+      <c r="K70" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="M70" s="114" t="s">
+      <c r="M70" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="N70" s="114" t="s">
+      <c r="N70" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="O70" s="115" t="s">
+      <c r="O70" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="P70" s="115" t="s">
+      <c r="P70" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="Q70" s="115" t="s">
+      <c r="Q70" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="S70" s="115" t="s">
+      <c r="S70" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="T70" s="115" t="s">
+      <c r="T70" s="116" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I71" s="114" t="s">
+      <c r="I71" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="K71" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="0" t="s">
+      <c r="L71" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="M71" s="114" t="s">
+      <c r="M71" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="N71" s="114" t="s">
+      <c r="N71" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="O71" s="115" t="s">
+      <c r="O71" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="P71" s="0" t="s">
+      <c r="P71" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q71" s="0" t="s">
+      <c r="Q71" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="R71" s="0" t="s">
+      <c r="R71" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="S71" s="115" t="s">
+      <c r="S71" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="T71" s="115" t="s">
+      <c r="T71" s="116" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M72" s="0" t="s">
+      <c r="M72" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="0" t="s">
+      <c r="S72" s="52" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10778,17 +10778,17 @@
   </sheetPr>
   <dimension ref="A1:AG86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T80" activeCellId="0" sqref="T80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="11.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="52" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       <c r="L2" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="52" t="n">
+      <c r="M2" s="53" t="n">
         <v>11</v>
       </c>
       <c r="N2" s="32" t="n">
@@ -10844,7 +10844,7 @@
       <c r="R2" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="S2" s="52" t="n">
+      <c r="S2" s="53" t="n">
         <v>17</v>
       </c>
       <c r="T2" s="32" t="n">
@@ -10891,67 +10891,67 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="53" t="n">
+      <c r="C3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="53" t="n">
+      <c r="F3" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="n">
+      <c r="G3" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="53" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="53" t="n">
+      <c r="H3" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="54" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="53" t="n">
+      <c r="J3" s="54" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="53" t="n">
+      <c r="K3" s="54" t="n">
         <v>9</v>
       </c>
-      <c r="L3" s="53" t="n">
+      <c r="L3" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="n">
+      <c r="M3" s="54" t="n">
         <v>11</v>
       </c>
-      <c r="N3" s="53" t="n">
+      <c r="N3" s="54" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="D4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="14"/>
@@ -10969,24 +10969,24 @@
       <c r="T4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="55" t="s">
+      <c r="E5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="14"/>
@@ -11003,20 +11003,20 @@
       <c r="T5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="55" t="s">
+      <c r="D6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="14"/>
@@ -11035,15 +11035,15 @@
       <c r="T6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="56" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="14"/>
@@ -11063,16 +11063,16 @@
       <c r="T7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="14"/>
@@ -11091,10 +11091,10 @@
       <c r="T8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14"/>
@@ -11102,7 +11102,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="14"/>
@@ -11119,17 +11119,17 @@
       <c r="T9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="14"/>
@@ -11147,10 +11147,10 @@
       <c r="T10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="14"/>
@@ -11159,7 +11159,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="14"/>
@@ -11175,10 +11175,10 @@
       <c r="T11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="14"/>
@@ -11187,10 +11187,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="55" t="s">
+      <c r="I12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="14"/>
@@ -11205,10 +11205,10 @@
       <c r="T12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="14"/>
@@ -11218,10 +11218,10 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="55" t="s">
+      <c r="J13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="14"/>
@@ -11235,10 +11235,10 @@
       <c r="T13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="14"/>
@@ -11246,7 +11246,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="14"/>
@@ -11263,10 +11263,10 @@
       <c r="T14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="14"/>
@@ -11276,7 +11276,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="14"/>
@@ -11291,10 +11291,10 @@
       <c r="T15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="14"/>
@@ -11306,7 +11306,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="14"/>
@@ -11319,10 +11319,10 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="14"/>
@@ -11331,7 +11331,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="56" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="14"/>
@@ -11347,10 +11347,10 @@
       <c r="T17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="14"/>
@@ -11361,7 +11361,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="14"/>
@@ -11375,10 +11375,10 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="14"/>
@@ -11391,7 +11391,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N19" s="14"/>
@@ -11403,10 +11403,10 @@
       <c r="T19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="14"/>
@@ -11417,13 +11417,13 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="55" t="s">
+      <c r="K20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N20" s="14"/>
@@ -11435,10 +11435,10 @@
       <c r="T20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="14"/>
@@ -11451,7 +11451,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="55" t="s">
+      <c r="M21" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N21" s="14"/>
@@ -11463,10 +11463,10 @@
       <c r="T21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="14"/>
@@ -11478,13 +11478,13 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="55" t="s">
+      <c r="L22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="14"/>
@@ -11495,10 +11495,10 @@
       <c r="T22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="14"/>
@@ -11512,7 +11512,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="56" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="14"/>
@@ -11523,61 +11523,61 @@
       <c r="T23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
+      <c r="A24" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="57" t="n">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="L24" s="57" t="n">
+      <c r="L24" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="57" t="n">
+      <c r="M24" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="N24" s="57" t="n">
+      <c r="N24" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="O24" s="57" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="57" t="n">
+      <c r="O24" s="58" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="58" t="n">
         <v>7</v>
       </c>
-      <c r="Q24" s="57" t="n">
+      <c r="Q24" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="R24" s="57" t="n">
+      <c r="R24" s="58" t="n">
         <v>9</v>
       </c>
-      <c r="S24" s="57" t="n">
+      <c r="S24" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="57" t="n">
+      <c r="T24" s="58" t="n">
         <v>11</v>
       </c>
-      <c r="U24" s="57" t="n">
+      <c r="U24" s="58" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="14"/>
@@ -11608,10 +11608,10 @@
       <c r="T25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="14"/>
@@ -11642,10 +11642,10 @@
       <c r="T26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="14"/>
@@ -11674,10 +11674,10 @@
       <c r="T27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="14"/>
@@ -11702,10 +11702,10 @@
       <c r="T28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="14"/>
@@ -11730,10 +11730,10 @@
       <c r="T29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="14"/>
@@ -11758,10 +11758,10 @@
       <c r="T30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="14"/>
@@ -11786,10 +11786,10 @@
       <c r="T31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14"/>
@@ -11814,10 +11814,10 @@
       <c r="T32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="14"/>
@@ -11844,10 +11844,10 @@
       <c r="T33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="14"/>
@@ -11874,10 +11874,10 @@
       <c r="T34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="14"/>
@@ -11902,10 +11902,10 @@
       <c r="T35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="14"/>
@@ -11930,10 +11930,10 @@
       <c r="T36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="14"/>
@@ -11958,10 +11958,10 @@
       <c r="T37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="14"/>
@@ -11986,10 +11986,10 @@
       <c r="T38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="14"/>
@@ -12014,10 +12014,10 @@
       <c r="T39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="14"/>
@@ -12042,10 +12042,10 @@
       <c r="T40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="14"/>
@@ -12074,10 +12074,10 @@
       <c r="T41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="58" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="16"/>
@@ -12102,10 +12102,10 @@
       <c r="T42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="14"/>
@@ -12134,10 +12134,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="14"/>
@@ -12195,7 +12195,7 @@
       <c r="L45" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M45" s="52" t="n">
+      <c r="M45" s="53" t="n">
         <v>11</v>
       </c>
       <c r="N45" s="32" t="n">
@@ -12213,7 +12213,7 @@
       <c r="R45" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="S45" s="52" t="n">
+      <c r="S45" s="53" t="n">
         <v>17</v>
       </c>
       <c r="T45" s="32" t="n">
@@ -12221,743 +12221,743 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M47" s="0" t="s">
+      <c r="M47" s="52" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="M49" s="92" t="s">
+      <c r="C49" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="71"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="94"/>
-      <c r="O49" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="P49" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="R49" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="S49" s="96" t="s">
+      <c r="N49" s="95"/>
+      <c r="O49" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="P49" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="R49" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="S49" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="T49" s="97" t="s">
+      <c r="T49" s="98" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="92" t="s">
+      <c r="C50" s="88"/>
+      <c r="D50" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="94" t="s">
+      <c r="E50" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="78" t="s">
+      <c r="F50" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="98" t="s">
+      <c r="G50" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="88" t="s">
+      <c r="H50" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="88" t="s">
+      <c r="I50" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="96" t="s">
+      <c r="J50" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="K50" s="99" t="s">
+      <c r="K50" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L50" s="91" t="s">
+      <c r="L50" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="M50" s="91" t="s">
+      <c r="M50" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="N50" s="91" t="s">
+      <c r="N50" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="91" t="s">
+      <c r="O50" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="92" t="s">
+      <c r="P50" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="94" t="s">
+      <c r="Q50" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="R50" s="100" t="s">
+      <c r="R50" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="S50" s="100" t="s">
+      <c r="S50" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="T50" s="78" t="s">
+      <c r="T50" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="61" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="87" t="s">
+      <c r="J51" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="61" t="s">
+      <c r="K51" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="62" t="s">
+      <c r="L51" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="87" t="s">
+      <c r="M51" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="88" t="s">
+      <c r="N51" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="O51" s="104" t="s">
+      <c r="O51" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="P51" s="105" t="s">
+      <c r="P51" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="Q51" s="106" t="s">
+      <c r="Q51" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R51" s="107" t="s">
+      <c r="R51" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="S51" s="105" t="s">
+      <c r="S51" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="T51" s="97" t="s">
+      <c r="T51" s="98" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="130" t="s">
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="131" t="s">
+      <c r="K52" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L52" s="130" t="s">
+      <c r="L52" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="129" t="s">
+      <c r="M52" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="131" t="s">
+      <c r="N52" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="109"/>
-      <c r="P52" s="132" t="s">
+      <c r="O52" s="110"/>
+      <c r="P52" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="Q52" s="133" t="s">
+      <c r="Q52" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="R52" s="132" t="s">
+      <c r="R52" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="S52" s="132" t="s">
+      <c r="S52" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="T52" s="134" t="s">
+      <c r="T52" s="135" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="135" t="s">
+      <c r="B53" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135" t="s">
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="135" t="s">
+      <c r="I53" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="136" t="s">
+      <c r="J53" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="136" t="s">
+      <c r="K53" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="136" t="s">
+      <c r="L53" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="136" t="s">
+      <c r="M53" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="135" t="s">
+      <c r="N53" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="O53" s="135" t="s">
+      <c r="O53" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="136" t="s">
+      <c r="P53" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="Q53" s="136" t="s">
+      <c r="Q53" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="R53" s="136" t="s">
+      <c r="R53" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="S53" s="136" t="s">
+      <c r="S53" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="T53" s="135" t="s">
+      <c r="T53" s="136" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="135" t="s">
+      <c r="B54" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="135" t="s">
+      <c r="D54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="135" t="s">
+      <c r="F54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="135" t="s">
+      <c r="G54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135" t="s">
+      <c r="H54" s="136"/>
+      <c r="I54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="135" t="s">
+      <c r="J54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="135" t="s">
+      <c r="K54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="135" t="s">
+      <c r="L54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="M54" s="135" t="s">
+      <c r="M54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="N54" s="135"/>
-      <c r="O54" s="135" t="s">
+      <c r="N54" s="136"/>
+      <c r="O54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="P54" s="135" t="s">
+      <c r="P54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Q54" s="135" t="s">
+      <c r="Q54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="R54" s="135" t="s">
+      <c r="R54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="S54" s="135" t="s">
+      <c r="S54" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="T54" s="135"/>
+      <c r="T54" s="136"/>
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="135" t="s">
+      <c r="B55" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135" t="s">
+      <c r="C55" s="136"/>
+      <c r="D55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="135" t="s">
+      <c r="F55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="135" t="s">
+      <c r="G55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="135" t="s">
+      <c r="H55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="135"/>
-      <c r="J55" s="135" t="s">
+      <c r="I55" s="136"/>
+      <c r="J55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="135" t="s">
+      <c r="K55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="L55" s="135" t="s">
+      <c r="L55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="135" t="s">
+      <c r="M55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="N55" s="135" t="s">
+      <c r="N55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="O55" s="135" t="s">
+      <c r="O55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="P55" s="135" t="s">
+      <c r="P55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="135" t="s">
+      <c r="Q55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="R55" s="135" t="s">
+      <c r="R55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="S55" s="135" t="s">
+      <c r="S55" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="T55" s="135" t="s">
+      <c r="T55" s="136" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H58" s="117"/>
+      <c r="H58" s="118"/>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I59" s="117"/>
+      <c r="I59" s="118"/>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="138"/>
+      <c r="B61" s="139"/>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="139" t="s">
+      <c r="A62" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="142" t="s">
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="I62" s="141"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="140" t="s">
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="M62" s="143" t="s">
-        <v>51</v>
-      </c>
-      <c r="N62" s="141"/>
-      <c r="O62" s="142" t="s">
+      <c r="M62" s="142"/>
+      <c r="N62" s="142"/>
+      <c r="O62" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P62" s="141"/>
-      <c r="Q62" s="141"/>
-      <c r="R62" s="140" t="s">
+      <c r="P62" s="142"/>
+      <c r="Q62" s="142"/>
+      <c r="R62" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="S62" s="141"/>
-      <c r="T62" s="141"/>
+      <c r="S62" s="142"/>
+      <c r="T62" s="142"/>
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="141"/>
-      <c r="C63" s="140" t="s">
+      <c r="B63" s="142"/>
+      <c r="C63" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140" t="s">
+      <c r="D63" s="141"/>
+      <c r="E63" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="140" t="s">
+      <c r="F63" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="140" t="s">
+      <c r="G63" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="H63" s="140" t="s">
+      <c r="H63" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="I63" s="142" t="s">
+      <c r="I63" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142" t="s">
+      <c r="J63" s="143"/>
+      <c r="K63" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="L63" s="142" t="s">
+      <c r="L63" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="142" t="s">
+      <c r="M63" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="N63" s="142" t="s">
+      <c r="N63" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="O63" s="141"/>
-      <c r="P63" s="142" t="s">
+      <c r="O63" s="142"/>
+      <c r="P63" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="Q63" s="142" t="s">
+      <c r="Q63" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="R63" s="142" t="s">
+      <c r="R63" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="S63" s="142" t="s">
+      <c r="S63" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="T63" s="142" t="s">
+      <c r="T63" s="143" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="139" t="s">
+      <c r="A64" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
       <c r="F64" s="144"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="140" t="s">
+      <c r="G64" s="142"/>
+      <c r="H64" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="I64" s="140" t="s">
+      <c r="I64" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="140" t="s">
+      <c r="J64" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="K64" s="140" t="s">
+      <c r="K64" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="141"/>
-      <c r="M64" s="140" t="s">
+      <c r="L64" s="142"/>
+      <c r="M64" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="N64" s="142" t="s">
+      <c r="N64" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="O64" s="140" t="s">
+      <c r="O64" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="140" t="s">
+      <c r="P64" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="Q64" s="140" t="s">
+      <c r="Q64" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="R64" s="141"/>
-      <c r="S64" s="140" t="s">
+      <c r="R64" s="142"/>
+      <c r="S64" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="T64" s="142" t="s">
+      <c r="T64" s="143" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="141"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="136" t="s">
+      <c r="B65" s="142"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="H65" s="136" t="s">
+      <c r="H65" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="I65" s="136" t="s">
+      <c r="I65" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="J65" s="136" t="s">
+      <c r="J65" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="K65" s="136" t="s">
+      <c r="K65" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="L65" s="136" t="s">
+      <c r="L65" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="M65" s="136" t="s">
+      <c r="M65" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="N65" s="136" t="s">
+      <c r="N65" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="O65" s="136" t="s">
+      <c r="O65" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="P65" s="136" t="s">
+      <c r="P65" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="Q65" s="136" t="s">
+      <c r="Q65" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="R65" s="136" t="s">
+      <c r="R65" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="S65" s="136" t="s">
+      <c r="S65" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="T65" s="136" t="s">
+      <c r="T65" s="137" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="136" t="s">
+      <c r="B66" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="136" t="s">
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="I66" s="141"/>
-      <c r="J66" s="141"/>
-      <c r="K66" s="141"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="141"/>
-      <c r="N66" s="136" t="s">
+      <c r="I66" s="142"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="142"/>
+      <c r="L66" s="142"/>
+      <c r="M66" s="142"/>
+      <c r="N66" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="O66" s="141"/>
-      <c r="P66" s="141"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="136" t="s">
+      <c r="O66" s="142"/>
+      <c r="P66" s="142"/>
+      <c r="Q66" s="142"/>
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="137" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="136" t="s">
+      <c r="A67" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="141"/>
-      <c r="C67" s="136" t="s">
+      <c r="B67" s="142"/>
+      <c r="C67" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="136" t="s">
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
+      <c r="I67" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="J67" s="141"/>
+      <c r="J67" s="142"/>
       <c r="K67" s="144"/>
-      <c r="L67" s="141"/>
-      <c r="M67" s="141"/>
-      <c r="N67" s="141"/>
-      <c r="O67" s="136" t="s">
+      <c r="L67" s="142"/>
+      <c r="M67" s="142"/>
+      <c r="N67" s="142"/>
+      <c r="O67" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="P67" s="141"/>
-      <c r="Q67" s="141"/>
-      <c r="R67" s="141"/>
-      <c r="S67" s="141"/>
-      <c r="T67" s="141"/>
+      <c r="P67" s="142"/>
+      <c r="Q67" s="142"/>
+      <c r="R67" s="142"/>
+      <c r="S67" s="142"/>
+      <c r="T67" s="142"/>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="140" t="s">
+      <c r="B70" s="142"/>
+      <c r="C70" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="140" t="s">
+      <c r="D70" s="142"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="141"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="142" t="s">
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="J70" s="141"/>
-      <c r="K70" s="141"/>
-      <c r="L70" s="142" t="s">
+      <c r="J70" s="142"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="M70" s="140" t="s">
+      <c r="M70" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="N70" s="140" t="s">
+      <c r="N70" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="140" t="s">
+      <c r="O70" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="P70" s="141"/>
-      <c r="Q70" s="141"/>
-      <c r="R70" s="140" t="s">
+      <c r="P70" s="142"/>
+      <c r="Q70" s="142"/>
+      <c r="R70" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="S70" s="142" t="s">
+      <c r="S70" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="T70" s="141"/>
+      <c r="T70" s="143" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="141"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="140" t="s">
+      <c r="B71" s="142"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="140" t="s">
+      <c r="E71" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="F71" s="140" t="s">
+      <c r="F71" s="141" t="s">
         <v>127</v>
       </c>
       <c r="G71" s="144"/>
-      <c r="H71" s="140" t="s">
+      <c r="H71" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="I71" s="140" t="s">
+      <c r="I71" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="J71" s="142" t="s">
+      <c r="J71" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="K71" s="142" t="s">
+      <c r="K71" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="L71" s="142" t="s">
+      <c r="L71" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="M71" s="141"/>
-      <c r="N71" s="142" t="s">
+      <c r="M71" s="142"/>
+      <c r="N71" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="O71" s="142" t="s">
+      <c r="O71" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="P71" s="140" t="s">
+      <c r="P71" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="Q71" s="140" t="s">
+      <c r="Q71" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="R71" s="140" t="s">
+      <c r="R71" s="141" t="s">
         <v>127</v>
       </c>
       <c r="S71" s="144"/>
-      <c r="T71" s="140" t="s">
+      <c r="T71" s="141" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12965,234 +12965,234 @@
       <c r="A72" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="141"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="140" t="s">
+      <c r="B72" s="142"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="K72" s="140" t="s">
+      <c r="K72" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="L72" s="141"/>
-      <c r="M72" s="140" t="s">
+      <c r="L72" s="142"/>
+      <c r="M72" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="N72" s="140" t="s">
+      <c r="N72" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="O72" s="141"/>
-      <c r="P72" s="142" t="s">
+      <c r="O72" s="142"/>
+      <c r="P72" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="Q72" s="142" t="s">
+      <c r="Q72" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="R72" s="141"/>
-      <c r="S72" s="142" t="s">
+      <c r="R72" s="142"/>
+      <c r="S72" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="T72" s="142" t="s">
-        <v>124</v>
+      <c r="T72" s="143" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="141"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="136" t="s">
+      <c r="B73" s="142"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="I73" s="136" t="s">
+      <c r="I73" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="J73" s="136" t="s">
+      <c r="J73" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="136" t="s">
+      <c r="K73" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="136" t="s">
+      <c r="L73" s="142"/>
+      <c r="M73" s="142"/>
+      <c r="N73" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="O73" s="136" t="s">
+      <c r="O73" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="P73" s="136" t="s">
+      <c r="P73" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="Q73" s="136" t="s">
+      <c r="Q73" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="R73" s="141"/>
-      <c r="S73" s="141"/>
-      <c r="T73" s="136" t="s">
+      <c r="R73" s="142"/>
+      <c r="S73" s="142"/>
+      <c r="T73" s="137" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="136" t="s">
+      <c r="A74" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="141"/>
-      <c r="C74" s="141"/>
-      <c r="D74" s="141"/>
-      <c r="E74" s="141"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="136" t="s">
+      <c r="B74" s="142"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="K74" s="136" t="s">
+      <c r="K74" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="L74" s="136" t="s">
+      <c r="L74" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="M74" s="141"/>
-      <c r="N74" s="141"/>
-      <c r="O74" s="141"/>
-      <c r="P74" s="136" t="s">
+      <c r="M74" s="142"/>
+      <c r="N74" s="142"/>
+      <c r="O74" s="142"/>
+      <c r="P74" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="Q74" s="136" t="s">
+      <c r="Q74" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="R74" s="136" t="s">
+      <c r="R74" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="S74" s="141"/>
-      <c r="T74" s="141"/>
+      <c r="S74" s="142"/>
+      <c r="T74" s="142"/>
     </row>
     <row r="75" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="136" t="s">
+      <c r="A75" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="141"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="136" t="s">
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="G75" s="136" t="s">
+      <c r="G75" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="H75" s="141"/>
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
-      <c r="K75" s="141"/>
-      <c r="L75" s="136" t="s">
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="M75" s="136" t="s">
+      <c r="M75" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="N75" s="141"/>
-      <c r="O75" s="141"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="141"/>
-      <c r="R75" s="136" t="s">
+      <c r="N75" s="142"/>
+      <c r="O75" s="142"/>
+      <c r="P75" s="142"/>
+      <c r="Q75" s="142"/>
+      <c r="R75" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="S75" s="136" t="s">
+      <c r="S75" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="T75" s="141"/>
+      <c r="T75" s="142"/>
     </row>
     <row r="76" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="136" t="s">
+      <c r="A76" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="141"/>
-      <c r="C76" s="141"/>
-      <c r="D76" s="141"/>
-      <c r="E76" s="141"/>
-      <c r="F76" s="141"/>
-      <c r="G76" s="136" t="s">
+      <c r="B76" s="142"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="H76" s="136" t="s">
+      <c r="H76" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="I76" s="141"/>
-      <c r="J76" s="141"/>
-      <c r="K76" s="141"/>
-      <c r="L76" s="141"/>
-      <c r="M76" s="136" t="s">
+      <c r="I76" s="142"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="142"/>
+      <c r="M76" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="N76" s="136" t="s">
+      <c r="N76" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="O76" s="141"/>
-      <c r="P76" s="141"/>
-      <c r="Q76" s="141"/>
-      <c r="R76" s="141"/>
-      <c r="S76" s="136" t="s">
+      <c r="O76" s="142"/>
+      <c r="P76" s="142"/>
+      <c r="Q76" s="142"/>
+      <c r="R76" s="142"/>
+      <c r="S76" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="T76" s="136" t="s">
+      <c r="T76" s="137" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C78" s="114" t="s">
+      <c r="C78" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D78" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="114" t="s">
+      <c r="E78" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="114" t="s">
+      <c r="F78" s="115" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I79" s="115" t="s">
+      <c r="I79" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="J79" s="115" t="s">
+      <c r="J79" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="K79" s="115" t="s">
+      <c r="K79" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="L79" s="115" t="s">
+      <c r="L79" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="O79" s="114" t="s">
+      <c r="O79" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="P79" s="114" t="s">
+      <c r="P79" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="Q79" s="114" t="s">
+      <c r="Q79" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="R79" s="114" t="s">
+      <c r="R79" s="115" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H86" s="117"/>
+      <c r="H86" s="118"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Schemes/Variables_Lifetime.xlsx
+++ b/Schemes/Variables_Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre1\SDI\FFT_OpSanSilvestro_2025-2026\Schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCEB75-AF75-4926-A38D-F014EF51DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53D3D0-9710-427C-97F6-992D9CE5340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1860,7 +1860,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -10916,8 +10916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="B65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13203,7 +13203,7 @@
       <c r="L74" s="136" t="s">
         <v>158</v>
       </c>
-      <c r="M74" s="136" t="s">
+      <c r="M74" s="145" t="s">
         <v>159</v>
       </c>
       <c r="N74" s="141"/>
@@ -13332,8 +13332,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G81" s="145"/>
+    <row r="80" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="117"/>
     </row>
     <row r="82" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
